--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09296589-660C-42ED-9B15-7553AF59686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD3FB14-DC11-4607-8665-1FB0125CC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1169">
   <si>
     <t>INT</t>
   </si>
@@ -309,12 +309,6 @@
     <t>已装扮</t>
   </si>
   <si>
-    <t>Shop_btn_5</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>购买</t>
   </si>
   <si>
@@ -2562,9 +2556,6 @@
     <t>Rank_name_6</t>
   </si>
   <si>
-    <t>Immortal</t>
-  </si>
-  <si>
     <t>超凡大师</t>
   </si>
   <si>
@@ -2787,48 +2778,18 @@
     <t>Pendant_Rank_reward_1</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Golden Officer&lt;/color&gt; · Exclusive appearance of Virtuoso Phase.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【金丹】&lt;/color&gt;金丹期专属外观</t>
-  </si>
-  <si>
     <t>Pendant_Rank_reward_2</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Platinum Captain&lt;/color&gt; · Exclusive appearance of Immortality Phase.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【元婴】&lt;/color&gt;元婴期专属外观</t>
-  </si>
-  <si>
     <t>Pendant_Rank_reward_3</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Diamond Colonel&lt;/color&gt; · Exclusive appearance of Incarnation Phase.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【化神】&lt;/color&gt;化神期专属外观</t>
-  </si>
-  <si>
     <t>Pendant_Rank_reward_4</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Unique General&lt;/color&gt; · Exclusive appearance of Divinity Phase.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【炼虚】&lt;/color&gt;炼虚期专属外观</t>
-  </si>
-  <si>
     <t>Pendant_Rank_reward_5</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Great Marshal&lt;/color&gt; · Exclusive appearance of Transcendence Phase.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【合体】&lt;/color&gt;合体期专属外观</t>
-  </si>
-  <si>
     <t>Shop_btn_7</t>
   </si>
   <si>
@@ -3433,9 +3394,6 @@
   </si>
   <si>
     <t>赏金</t>
-  </si>
-  <si>
-    <t>Battle_Times_1</t>
   </si>
   <si>
     <t>战斗次数</t>
@@ -3513,11 +3471,98 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>character time</t>
+    <t>化形时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>化形时间</t>
+    <t>Shop_btn_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle_Times_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle_shop_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed purchase</t>
+  </si>
+  <si>
+    <t>Confirm to purchase battles?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase successfully</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买战斗次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase battles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【铂金】&lt;/color&gt;铂金段专属外观</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【黄金】&lt;/color&gt;黄金段专属外观</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【钻石】&lt;/color&gt;钻石段专属外观</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【无双】&lt;/color&gt;无双段专属外观</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【王者】&lt;/color&gt;王者段专属外观</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Golden&lt;/color&gt; · Exclusive appearance of Virtuoso Phase.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Platinum&lt;/color&gt; · Exclusive appearance of Immortality Phase.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Diamond&lt;/color&gt; · Exclusive appearance of Incarnation Phase.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immortal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Immortal&lt;/color&gt; · Exclusive appearance of Divinity Phase.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;King&lt;/color&gt; · Exclusive appearance of Transcendence Phase.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3525,7 +3570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -3563,6 +3608,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3596,7 +3647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3628,6 +3679,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4191,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T407"/>
+  <dimension ref="A1:T408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5096,13 +5148,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -5126,13 +5178,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -5156,13 +5208,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -5186,13 +5238,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -5216,13 +5268,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -5246,13 +5298,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -5276,13 +5328,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5306,13 +5358,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5336,13 +5388,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5366,13 +5418,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5396,13 +5448,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5426,13 +5478,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5456,13 +5508,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5486,13 +5538,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5516,13 +5568,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5546,13 +5598,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5576,13 +5628,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5606,13 +5658,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5636,13 +5688,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5666,13 +5718,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5696,13 +5748,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5726,13 +5778,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5756,13 +5808,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5786,13 +5838,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5816,13 +5868,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5846,13 +5898,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5876,13 +5928,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5906,13 +5958,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5936,13 +5988,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5966,13 +6018,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5996,13 +6048,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -6026,13 +6078,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -6056,13 +6108,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -6086,13 +6138,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6116,13 +6168,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6146,13 +6198,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6176,13 +6228,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6206,13 +6258,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6236,13 +6288,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6266,13 +6318,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6296,13 +6348,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6326,13 +6378,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6356,13 +6408,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6386,13 +6438,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6416,13 +6468,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6446,13 +6498,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6476,13 +6528,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6506,13 +6558,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6536,13 +6588,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -6566,13 +6618,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -6596,13 +6648,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -6626,13 +6678,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -6656,13 +6708,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -6686,13 +6738,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -6716,13 +6768,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6746,13 +6798,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6776,13 +6828,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6806,13 +6858,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -6836,13 +6888,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -6866,13 +6918,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -6896,13 +6948,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6926,13 +6978,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -6956,13 +7008,13 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -6986,13 +7038,13 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -7016,13 +7068,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -7046,13 +7098,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -7076,13 +7128,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -7106,13 +7158,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -7136,13 +7188,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -7166,13 +7218,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -7196,13 +7248,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -7226,13 +7278,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -7256,13 +7308,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -7286,13 +7338,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -7315,13 +7367,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -7344,13 +7396,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -7373,13 +7425,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -7402,13 +7454,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -7431,13 +7483,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -7460,13 +7512,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -7489,13 +7541,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -7518,13 +7570,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -7547,13 +7599,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -7576,13 +7628,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -7605,13 +7657,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -7634,13 +7686,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -7663,13 +7715,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -7692,13 +7744,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -7721,13 +7773,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -7750,13 +7802,13 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -7779,13 +7831,13 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -7808,13 +7860,13 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -7837,13 +7889,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -7866,13 +7918,13 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -7895,13 +7947,13 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -7924,13 +7976,13 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -7953,13 +8005,13 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -7982,13 +8034,13 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -8011,13 +8063,13 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -8040,13 +8092,13 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -8069,13 +8121,13 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -8098,13 +8150,13 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>394</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8127,13 +8179,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -8156,13 +8208,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -8186,13 +8238,13 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -8216,13 +8268,13 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -8246,13 +8298,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -8276,13 +8328,13 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -8306,13 +8358,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -8336,13 +8388,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -8366,13 +8418,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -8396,13 +8448,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -8426,13 +8478,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -8456,13 +8508,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -8486,13 +8538,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -8516,13 +8568,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -8546,13 +8598,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -8576,13 +8628,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -8606,13 +8658,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -8636,13 +8688,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -8666,13 +8718,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -8696,13 +8748,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -8726,13 +8778,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>457</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -8756,13 +8808,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8786,13 +8838,13 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8816,13 +8868,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8846,13 +8898,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>469</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8876,13 +8928,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -8906,13 +8958,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8936,13 +8988,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -8966,13 +9018,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -8996,13 +9048,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -9026,13 +9078,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -9056,13 +9108,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -9086,13 +9138,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -9116,13 +9168,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -9146,13 +9198,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -9176,13 +9228,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -9206,13 +9258,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -9236,13 +9288,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -9266,13 +9318,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -9296,13 +9348,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -9326,13 +9378,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -9356,13 +9408,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -9386,13 +9438,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -9416,13 +9468,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -9446,13 +9498,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>527</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -9476,13 +9528,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -9506,13 +9558,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -9536,13 +9588,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -9566,13 +9618,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -9596,13 +9648,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -9626,13 +9678,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -9656,13 +9708,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -9686,13 +9738,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.35">
@@ -9700,13 +9752,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.35">
@@ -9714,13 +9766,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>557</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.35">
@@ -9728,13 +9780,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
@@ -9742,13 +9794,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.35">
@@ -9756,13 +9808,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.35">
@@ -9770,13 +9822,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.35">
@@ -9784,13 +9836,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
@@ -9798,13 +9850,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -9812,13 +9864,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9826,13 +9878,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9840,13 +9892,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9854,13 +9906,13 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9868,13 +9920,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9882,13 +9934,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9896,13 +9948,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9910,13 +9962,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9924,13 +9976,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9938,13 +9990,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>598</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9952,13 +10004,13 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9966,13 +10018,13 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9980,13 +10032,13 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9994,13 +10046,13 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D206" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10008,13 +10060,13 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10022,13 +10074,13 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10036,13 +10088,13 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10050,13 +10102,13 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>622</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10064,13 +10116,13 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D211" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="D211" s="5" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10078,13 +10130,13 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D212" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10092,13 +10144,13 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10106,13 +10158,13 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D214" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10120,13 +10172,13 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10134,13 +10186,13 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>640</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10148,13 +10200,13 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10162,13 +10214,13 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10176,13 +10228,13 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D219" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D219" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10190,13 +10242,13 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10204,13 +10256,13 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D221" s="5" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10218,13 +10270,13 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D222" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10232,13 +10284,13 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D223" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10246,13 +10298,13 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10260,13 +10312,13 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D225" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10274,13 +10326,13 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10288,13 +10340,13 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D227" s="5" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10302,13 +10354,13 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D228" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10316,13 +10368,13 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10330,13 +10382,13 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10344,13 +10396,13 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10358,13 +10410,13 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D232" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10372,13 +10424,13 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10386,13 +10438,13 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10400,13 +10452,13 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D235" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10414,13 +10466,13 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D236" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10428,13 +10480,13 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10442,13 +10494,13 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D238" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10456,13 +10508,13 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D239" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10470,13 +10522,13 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D240" s="5" t="s">
         <v>710</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10484,13 +10536,13 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D241" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10498,13 +10550,13 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D242" s="5" t="s">
         <v>716</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10512,13 +10564,13 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D243" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -10526,13 +10578,13 @@
         <v>240</v>
       </c>
       <c r="B244" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -10540,13 +10592,13 @@
         <v>241</v>
       </c>
       <c r="B245" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -10554,13 +10606,13 @@
         <v>242</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -10568,13 +10620,13 @@
         <v>243</v>
       </c>
       <c r="B247" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -10582,13 +10634,13 @@
         <v>244</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -10596,13 +10648,13 @@
         <v>245</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -10610,13 +10662,13 @@
         <v>246</v>
       </c>
       <c r="B250" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -10624,13 +10676,13 @@
         <v>247</v>
       </c>
       <c r="B251" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -10638,13 +10690,13 @@
         <v>248</v>
       </c>
       <c r="B252" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -10652,13 +10704,13 @@
         <v>249</v>
       </c>
       <c r="B253" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -10666,13 +10718,13 @@
         <v>250</v>
       </c>
       <c r="B254" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -10680,13 +10732,13 @@
         <v>251</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -10694,13 +10746,13 @@
         <v>252</v>
       </c>
       <c r="B256" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -10708,13 +10760,13 @@
         <v>253</v>
       </c>
       <c r="B257" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -10722,13 +10774,13 @@
         <v>254</v>
       </c>
       <c r="B258" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -10736,13 +10788,13 @@
         <v>255</v>
       </c>
       <c r="B259" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -10750,13 +10802,13 @@
         <v>256</v>
       </c>
       <c r="B260" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -10764,13 +10816,13 @@
         <v>257</v>
       </c>
       <c r="B261" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -10778,13 +10830,13 @@
         <v>258</v>
       </c>
       <c r="B262" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -10792,13 +10844,13 @@
         <v>259</v>
       </c>
       <c r="B263" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -10806,13 +10858,13 @@
         <v>260</v>
       </c>
       <c r="B264" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -10820,13 +10872,13 @@
         <v>261</v>
       </c>
       <c r="B265" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -10834,13 +10886,13 @@
         <v>262</v>
       </c>
       <c r="B266" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -10848,13 +10900,13 @@
         <v>263</v>
       </c>
       <c r="B267" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -10862,13 +10914,13 @@
         <v>264</v>
       </c>
       <c r="B268" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -10876,13 +10928,13 @@
         <v>265</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -10890,13 +10942,13 @@
         <v>266</v>
       </c>
       <c r="B270" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -10904,13 +10956,13 @@
         <v>267</v>
       </c>
       <c r="B271" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -10918,13 +10970,13 @@
         <v>268</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -10932,13 +10984,13 @@
         <v>269</v>
       </c>
       <c r="B273" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -10946,13 +10998,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -10960,13 +11012,13 @@
         <v>271</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -10974,13 +11026,13 @@
         <v>272</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -10988,13 +11040,13 @@
         <v>273</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -11002,13 +11054,13 @@
         <v>274</v>
       </c>
       <c r="B278" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -11016,13 +11068,13 @@
         <v>275</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -11030,13 +11082,13 @@
         <v>276</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -11044,13 +11096,13 @@
         <v>277</v>
       </c>
       <c r="B281" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -11058,13 +11110,13 @@
         <v>278</v>
       </c>
       <c r="B282" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -11072,13 +11124,13 @@
         <v>279</v>
       </c>
       <c r="B283" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -11086,13 +11138,13 @@
         <v>280</v>
       </c>
       <c r="B284" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -11100,13 +11152,13 @@
         <v>281</v>
       </c>
       <c r="B285" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -11114,13 +11166,13 @@
         <v>282</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>843</v>
+        <v>1165</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -11128,13 +11180,13 @@
         <v>283</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -11142,13 +11194,13 @@
         <v>284</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -11156,13 +11208,13 @@
         <v>285</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -11170,13 +11222,13 @@
         <v>286</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -11184,13 +11236,13 @@
         <v>287</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -11198,13 +11250,13 @@
         <v>288</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -11212,13 +11264,13 @@
         <v>289</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -11226,13 +11278,13 @@
         <v>290</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -11240,13 +11292,13 @@
         <v>291</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -11254,13 +11306,13 @@
         <v>292</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -11268,13 +11320,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -11282,13 +11334,13 @@
         <v>294</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -11296,13 +11348,13 @@
         <v>295</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -11310,13 +11362,13 @@
         <v>296</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -11324,13 +11376,13 @@
         <v>297</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -11338,13 +11390,13 @@
         <v>298</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11352,13 +11404,13 @@
         <v>299</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11366,13 +11418,13 @@
         <v>300</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11380,13 +11432,13 @@
         <v>301</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11394,13 +11446,13 @@
         <v>302</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11408,13 +11460,13 @@
         <v>303</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -11422,13 +11474,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -11436,13 +11488,13 @@
         <v>305</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -11450,13 +11502,13 @@
         <v>306</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -11464,13 +11516,13 @@
         <v>307</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -11478,13 +11530,13 @@
         <v>308</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>918</v>
+        <v>1162</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>919</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -11492,13 +11544,13 @@
         <v>309</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>921</v>
+        <v>1163</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>922</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -11506,13 +11558,13 @@
         <v>310</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>924</v>
+        <v>1164</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>925</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -11520,13 +11572,13 @@
         <v>311</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>927</v>
+        <v>1166</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>928</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -11534,13 +11586,13 @@
         <v>312</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>930</v>
+        <v>1167</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>931</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -11548,13 +11600,13 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -11562,13 +11614,13 @@
         <v>314</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -11576,13 +11628,13 @@
         <v>315</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -11590,13 +11642,13 @@
         <v>316</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -11604,13 +11656,13 @@
         <v>317</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -11618,13 +11670,13 @@
         <v>318</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -11632,13 +11684,13 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -11646,13 +11698,13 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="E324" s="3"/>
     </row>
@@ -11661,13 +11713,13 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="E325" s="3"/>
     </row>
@@ -11676,13 +11728,13 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="E326" s="3"/>
     </row>
@@ -11691,13 +11743,13 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="E327" s="3"/>
     </row>
@@ -11706,13 +11758,13 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="E328" s="3"/>
     </row>
@@ -11721,13 +11773,13 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="E329" s="3"/>
     </row>
@@ -11736,13 +11788,13 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="E330" s="3"/>
     </row>
@@ -11751,13 +11803,13 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="E331" s="3"/>
     </row>
@@ -11766,13 +11818,13 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="E332" s="3"/>
     </row>
@@ -11781,13 +11833,13 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="E333" s="3"/>
     </row>
@@ -11796,13 +11848,13 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="E334" s="8"/>
     </row>
@@ -11811,13 +11863,13 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="E335" s="8"/>
     </row>
@@ -11826,13 +11878,13 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="E336" s="8"/>
     </row>
@@ -11841,13 +11893,13 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E337" s="8"/>
     </row>
@@ -11856,13 +11908,13 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="E338" s="8"/>
     </row>
@@ -11871,13 +11923,13 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="E339" s="8"/>
     </row>
@@ -11886,13 +11938,13 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="E340" s="8"/>
     </row>
@@ -11901,13 +11953,13 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="E341" s="8"/>
     </row>
@@ -11916,13 +11968,13 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="E342" s="8"/>
     </row>
@@ -11931,13 +11983,13 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="E343" s="8"/>
     </row>
@@ -11946,7 +11998,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="1"/>
@@ -11957,7 +12009,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="1"/>
@@ -11968,7 +12020,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="1"/>
@@ -11979,7 +12031,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="1"/>
@@ -11990,7 +12042,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="1"/>
@@ -12001,7 +12053,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="7"/>
@@ -12012,7 +12064,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="1"/>
@@ -12023,7 +12075,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="1"/>
@@ -12034,7 +12086,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="1"/>
@@ -12045,7 +12097,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="1"/>
@@ -12056,13 +12108,13 @@
         <v>350</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -12070,13 +12122,13 @@
         <v>351</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -12084,13 +12136,13 @@
         <v>352</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -12098,13 +12150,13 @@
         <v>353</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
@@ -12112,13 +12164,13 @@
         <v>354</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -12126,13 +12178,13 @@
         <v>355</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -12140,13 +12192,13 @@
         <v>356</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -12154,13 +12206,13 @@
         <v>357</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
@@ -12168,13 +12220,13 @@
         <v>358</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -12182,13 +12234,13 @@
         <v>359</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
@@ -12196,13 +12248,13 @@
         <v>360</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
@@ -12210,13 +12262,13 @@
         <v>361</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
@@ -12224,13 +12276,13 @@
         <v>362</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
@@ -12238,13 +12290,13 @@
         <v>363</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -12252,13 +12304,13 @@
         <v>364</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -12266,13 +12318,13 @@
         <v>365</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -12280,13 +12332,13 @@
         <v>366</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12294,13 +12346,13 @@
         <v>367</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -12308,13 +12360,13 @@
         <v>368</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -12322,13 +12374,13 @@
         <v>369</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -12336,13 +12388,13 @@
         <v>370</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -12350,13 +12402,13 @@
         <v>371</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -12364,13 +12416,13 @@
         <v>372</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -12378,13 +12430,13 @@
         <v>373</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -12392,13 +12444,13 @@
         <v>374</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -12406,11 +12458,11 @@
         <v>375</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="C379" s="7"/>
       <c r="D379" s="1" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -12418,11 +12470,11 @@
         <v>376</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="C380" s="7"/>
       <c r="D380" s="1" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -12430,11 +12482,11 @@
         <v>377</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="C381" s="7"/>
       <c r="D381" s="1" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -12442,11 +12494,11 @@
         <v>378</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="C382" s="7"/>
       <c r="D382" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -12454,11 +12506,11 @@
         <v>379</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="C383" s="7"/>
       <c r="D383" s="1" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -12466,11 +12518,11 @@
         <v>380</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="C384" s="7"/>
       <c r="D384" s="1" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -12478,11 +12530,11 @@
         <v>381</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="C385" s="7"/>
       <c r="D385" s="1" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -12490,11 +12542,11 @@
         <v>382</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="C386" s="7"/>
       <c r="D386" s="1" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -12502,11 +12554,11 @@
         <v>383</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="C387" s="7"/>
       <c r="D387" s="1" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -12514,11 +12566,11 @@
         <v>384</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="C388" s="7"/>
       <c r="D388" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -12526,11 +12578,11 @@
         <v>385</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="C389" s="7"/>
       <c r="D389" s="1" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -12538,11 +12590,11 @@
         <v>386</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="C390" s="7"/>
       <c r="D390" s="1" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -12550,11 +12602,11 @@
         <v>387</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="C391" s="7"/>
       <c r="D391" s="1" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -12562,11 +12614,11 @@
         <v>388</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="1" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -12574,11 +12626,11 @@
         <v>389</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="C393" s="7"/>
       <c r="D393" s="1" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -12586,11 +12638,11 @@
         <v>390</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="C394" s="7"/>
       <c r="D394" s="1" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -12598,11 +12650,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="C395" s="7"/>
       <c r="D395" s="1" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -12610,11 +12662,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="C396" s="7"/>
       <c r="D396" s="1" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -12622,13 +12674,13 @@
         <v>393</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -12636,11 +12688,13 @@
         <v>394</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C398" s="7"/>
+        <v>1148</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>1147</v>
+      </c>
       <c r="D398" s="1" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -12648,11 +12702,13 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C399" s="7"/>
+        <v>1122</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>1151</v>
+      </c>
       <c r="D399" s="1" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -12660,11 +12716,13 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C400" s="7"/>
+        <v>1124</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>1152</v>
+      </c>
       <c r="D400" s="1" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -12672,11 +12730,13 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C401" s="7"/>
+        <v>1126</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1150</v>
+      </c>
       <c r="D401" s="1" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
@@ -12684,13 +12744,13 @@
         <v>398</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="D402" s="12" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -12698,13 +12758,13 @@
         <v>399</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -12712,13 +12772,13 @@
         <v>400</v>
       </c>
       <c r="B404" s="12" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="D404" s="12" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -12726,11 +12786,13 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C405" s="7"/>
+        <v>1137</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>1153</v>
+      </c>
       <c r="D405" s="1" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -12738,13 +12800,13 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -12752,18 +12814,32 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1160</v>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408" s="1">
+        <v>404</v>
+      </c>
+      <c r="B408" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B99:B183 B1470:B1471 B1473:B1474 B1483:B1484 B1501:B1502 B1507:B1508 B1510:B1511">
+  <conditionalFormatting sqref="B99:B183 B1469:B1470 B1472:B1473 B1482:B1483 B1500:B1501 B1506:B1507 B1509:B1510">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(COUNTIF($B$1:$B$4,B1)+COUNTIF(#REF!,B1)+COUNTIF($B$5:$B$21,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
     </cfRule>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD3FB14-DC11-4607-8665-1FB0125CC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC35B469-F6E4-4B20-93C5-A51A8C76BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC35B469-F6E4-4B20-93C5-A51A8C76BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28B277-22F3-4A0A-9C40-1901FAC2488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1172">
   <si>
     <t>INT</t>
   </si>
@@ -360,9 +360,6 @@
     <t>SkillSelect_1</t>
   </si>
   <si>
-    <t>New skill: {0}</t>
-  </si>
-  <si>
     <t>新技能：{0}</t>
   </si>
   <si>
@@ -417,9 +414,6 @@
     <t>技能点+1，请点击技能页面按钮使用</t>
   </si>
   <si>
-    <t>SkillSelect_4</t>
-  </si>
-  <si>
     <t>New skill slot! Select a skill to apply!</t>
   </si>
   <si>
@@ -1809,9 +1803,6 @@
     <t>选择一个技能将其替换↘</t>
   </si>
   <si>
-    <t>UI_SkillSelect_BtnTxt_7</t>
-  </si>
-  <si>
     <t>Shop_tips_3</t>
   </si>
   <si>
@@ -3418,12 +3409,6 @@
   </si>
   <si>
     <t>Deposit_1</t>
-  </si>
-  <si>
-    <t>Please open your browser and go to the official website of MOBOX to recharge: https://www.mobox.io</t>
-  </si>
-  <si>
-    <t>请打开浏览器前往MOBOX官网進行充值：https://www.mobox.io</t>
   </si>
   <si>
     <t>Deposit_2</t>
@@ -3563,6 +3548,40 @@
   </si>
   <si>
     <t>Purchase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>New skill: {0}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>New skill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_SkillSelect_BtnTxt_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSelect_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请打开浏览器前往MOBOX官网進行充值：
+https://www.mobox.io</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please open your browser and go to the official website of MOBOX to recharge: 
+https://www.mobox.io</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSelect_8</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3647,7 +3666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3680,6 +3699,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4243,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T408"/>
+  <dimension ref="A1:T409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="C408" sqref="C408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5148,10 +5170,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>92</v>
@@ -5331,10 +5353,10 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5358,13 +5380,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5388,13 +5410,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5418,13 +5440,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5448,13 +5470,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5478,13 +5500,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5508,13 +5530,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5538,13 +5560,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5568,13 +5590,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5598,13 +5620,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5628,13 +5650,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5658,13 +5680,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5688,13 +5710,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5718,13 +5740,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5748,13 +5770,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5778,13 +5800,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5808,13 +5830,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5838,13 +5860,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5868,13 +5890,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5898,13 +5920,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5928,13 +5950,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5958,13 +5980,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5988,13 +6010,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6018,13 +6040,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -6048,13 +6070,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -6078,13 +6100,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -6108,13 +6130,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -6138,13 +6160,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6168,13 +6190,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6198,13 +6220,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6228,13 +6250,13 @@
         <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6258,13 +6280,13 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6288,13 +6310,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6318,13 +6340,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6348,13 +6370,13 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6378,13 +6400,13 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6408,13 +6430,13 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6438,13 +6460,13 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6468,13 +6490,13 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6498,13 +6520,13 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6528,13 +6550,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6558,13 +6580,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6588,13 +6610,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -6618,13 +6640,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -6648,13 +6670,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -6678,13 +6700,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -6708,13 +6730,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -6738,13 +6760,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -6768,13 +6790,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6798,13 +6820,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6828,13 +6850,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6858,13 +6880,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -6888,13 +6910,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -6918,13 +6940,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -6948,13 +6970,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6978,13 +7000,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -7008,13 +7030,13 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -7038,13 +7060,13 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -7068,13 +7090,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -7098,13 +7120,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -7128,13 +7150,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -7158,13 +7180,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -7188,13 +7210,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -7218,13 +7240,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -7248,13 +7270,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -7278,13 +7300,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -7308,13 +7330,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -7338,13 +7360,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -7367,13 +7389,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -7396,13 +7418,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -7425,13 +7447,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -7454,13 +7476,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -7483,13 +7505,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -7512,13 +7534,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -7541,13 +7563,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -7570,13 +7592,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -7599,13 +7621,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -7628,13 +7650,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -7657,13 +7679,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -7686,13 +7708,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -7715,13 +7737,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -7744,13 +7766,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -7773,13 +7795,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -7802,13 +7824,13 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -7831,13 +7853,13 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -7860,13 +7882,13 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -7889,13 +7911,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -7918,13 +7940,13 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -7947,13 +7969,13 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -7976,13 +7998,13 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -8005,13 +8027,13 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -8034,13 +8056,13 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -8063,13 +8085,13 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -8092,13 +8114,13 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -8121,13 +8143,13 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -8150,13 +8172,13 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -8179,13 +8201,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -8208,13 +8230,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -8238,13 +8260,13 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -8268,13 +8290,13 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -8298,13 +8320,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -8328,13 +8350,13 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -8358,13 +8380,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -8388,13 +8410,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -8418,13 +8440,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -8448,13 +8470,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -8478,13 +8500,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -8508,13 +8530,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -8538,13 +8560,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -8568,13 +8590,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -8598,13 +8620,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -8628,13 +8650,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -8658,13 +8680,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -8688,13 +8710,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -8718,13 +8740,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -8748,13 +8770,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -8778,13 +8800,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -8808,13 +8830,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8838,13 +8860,13 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8868,13 +8890,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -8898,13 +8920,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -8928,13 +8950,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -8958,13 +8980,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -8988,13 +9010,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -9018,13 +9040,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -9048,13 +9070,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -9078,13 +9100,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -9108,13 +9130,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -9138,13 +9160,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D164" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -9168,13 +9190,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -9198,13 +9220,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -9228,13 +9250,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -9258,13 +9280,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -9288,13 +9310,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -9318,13 +9340,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -9348,13 +9370,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -9378,13 +9400,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -9408,13 +9430,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -9438,13 +9460,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -9468,13 +9490,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -9498,13 +9520,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -9528,13 +9550,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -9558,13 +9580,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -9588,13 +9610,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -9618,13 +9640,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -9648,13 +9670,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -9678,13 +9700,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -9708,13 +9730,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -9738,13 +9760,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D184" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.35">
@@ -9752,13 +9774,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.35">
@@ -9766,13 +9788,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.35">
@@ -9780,13 +9802,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.35">
@@ -9794,13 +9816,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.35">
@@ -9808,13 +9830,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.35">
@@ -9822,13 +9844,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>567</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.35">
@@ -9836,13 +9858,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D191" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.35">
@@ -9850,13 +9872,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -9864,13 +9886,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9878,13 +9900,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9892,13 +9914,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9906,13 +9928,13 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9920,13 +9942,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9934,13 +9956,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9948,13 +9970,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9962,7 +9984,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>592</v>
+        <v>1167</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>94</v>
@@ -9976,13 +9998,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9990,13 +10012,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10004,13 +10026,13 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10018,13 +10040,13 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10032,13 +10054,13 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10046,13 +10068,13 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10060,13 +10082,13 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10074,13 +10096,13 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10088,13 +10110,13 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10102,13 +10124,13 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10116,13 +10138,13 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10130,13 +10152,13 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10144,13 +10166,13 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10158,13 +10180,13 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10172,13 +10194,13 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10186,13 +10208,13 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10200,13 +10222,13 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10214,13 +10236,13 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10228,13 +10250,13 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10242,13 +10264,13 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10256,13 +10278,13 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10270,13 +10292,13 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10284,13 +10306,13 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10298,13 +10320,13 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10312,13 +10334,13 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10326,13 +10348,13 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10340,13 +10362,13 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10354,13 +10376,13 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10368,13 +10390,13 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10382,13 +10404,13 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10396,13 +10418,13 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10410,13 +10432,13 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10424,13 +10446,13 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10438,13 +10460,13 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10452,13 +10474,13 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10466,13 +10488,13 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10480,13 +10502,13 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10494,13 +10516,13 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10508,13 +10530,13 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10522,13 +10544,13 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10536,13 +10558,13 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10550,13 +10572,13 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10564,13 +10586,13 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
@@ -10578,13 +10600,13 @@
         <v>240</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
@@ -10592,13 +10614,13 @@
         <v>241</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
@@ -10606,13 +10628,13 @@
         <v>242</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
@@ -10620,13 +10642,13 @@
         <v>243</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
@@ -10634,13 +10656,13 @@
         <v>244</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.35">
@@ -10648,13 +10670,13 @@
         <v>245</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
@@ -10662,13 +10684,13 @@
         <v>246</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
@@ -10676,13 +10698,13 @@
         <v>247</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
@@ -10690,13 +10712,13 @@
         <v>248</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
@@ -10704,13 +10726,13 @@
         <v>249</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
@@ -10718,13 +10740,13 @@
         <v>250</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
@@ -10732,13 +10754,13 @@
         <v>251</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
@@ -10746,13 +10768,13 @@
         <v>252</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
@@ -10760,13 +10782,13 @@
         <v>253</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
@@ -10774,13 +10796,13 @@
         <v>254</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
@@ -10788,13 +10810,13 @@
         <v>255</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
@@ -10802,13 +10824,13 @@
         <v>256</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
@@ -10816,13 +10838,13 @@
         <v>257</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
@@ -10830,13 +10852,13 @@
         <v>258</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
@@ -10844,13 +10866,13 @@
         <v>259</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
@@ -10858,13 +10880,13 @@
         <v>260</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
@@ -10872,13 +10894,13 @@
         <v>261</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
@@ -10886,13 +10908,13 @@
         <v>262</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
@@ -10900,13 +10922,13 @@
         <v>263</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
@@ -10914,13 +10936,13 @@
         <v>264</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
@@ -10928,13 +10950,13 @@
         <v>265</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
@@ -10942,13 +10964,13 @@
         <v>266</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
@@ -10956,13 +10978,13 @@
         <v>267</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
@@ -10970,13 +10992,13 @@
         <v>268</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
@@ -10984,13 +11006,13 @@
         <v>269</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
@@ -10998,13 +11020,13 @@
         <v>270</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
@@ -11012,13 +11034,13 @@
         <v>271</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
@@ -11026,13 +11048,13 @@
         <v>272</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
@@ -11040,13 +11062,13 @@
         <v>273</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
@@ -11054,13 +11076,13 @@
         <v>274</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
@@ -11068,13 +11090,13 @@
         <v>275</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
@@ -11082,13 +11104,13 @@
         <v>276</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
@@ -11096,13 +11118,13 @@
         <v>277</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
@@ -11110,13 +11132,13 @@
         <v>278</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
@@ -11124,13 +11146,13 @@
         <v>279</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.35">
@@ -11138,13 +11160,13 @@
         <v>280</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
@@ -11152,13 +11174,13 @@
         <v>281</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
@@ -11166,13 +11188,13 @@
         <v>282</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
@@ -11180,13 +11202,13 @@
         <v>283</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
@@ -11194,13 +11216,13 @@
         <v>284</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
@@ -11208,13 +11230,13 @@
         <v>285</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
@@ -11222,13 +11244,13 @@
         <v>286</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
@@ -11236,13 +11258,13 @@
         <v>287</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
@@ -11250,13 +11272,13 @@
         <v>288</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
@@ -11264,13 +11286,13 @@
         <v>289</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
@@ -11278,13 +11300,13 @@
         <v>290</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
@@ -11292,13 +11314,13 @@
         <v>291</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
@@ -11306,13 +11328,13 @@
         <v>292</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
@@ -11320,13 +11342,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
@@ -11334,13 +11356,13 @@
         <v>294</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
@@ -11348,13 +11370,13 @@
         <v>295</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
@@ -11362,13 +11384,13 @@
         <v>296</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
@@ -11376,13 +11398,13 @@
         <v>297</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
@@ -11390,13 +11412,13 @@
         <v>298</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11404,13 +11426,13 @@
         <v>299</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11418,13 +11440,13 @@
         <v>300</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11432,13 +11454,13 @@
         <v>301</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11446,13 +11468,13 @@
         <v>302</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11460,13 +11482,13 @@
         <v>303</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
@@ -11474,13 +11496,13 @@
         <v>304</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
@@ -11488,13 +11510,13 @@
         <v>305</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
@@ -11502,13 +11524,13 @@
         <v>306</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
@@ -11516,13 +11538,13 @@
         <v>307</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
@@ -11530,13 +11552,13 @@
         <v>308</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -11544,13 +11566,13 @@
         <v>309</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -11558,13 +11580,13 @@
         <v>310</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -11572,13 +11594,13 @@
         <v>311</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -11586,13 +11608,13 @@
         <v>312</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -11600,13 +11622,13 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
@@ -11614,13 +11636,13 @@
         <v>314</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
@@ -11628,13 +11650,13 @@
         <v>315</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
@@ -11642,13 +11664,13 @@
         <v>316</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -11656,13 +11678,13 @@
         <v>317</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -11670,13 +11692,13 @@
         <v>318</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -11684,13 +11706,13 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -11698,13 +11720,13 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E324" s="3"/>
     </row>
@@ -11713,13 +11735,13 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E325" s="3"/>
     </row>
@@ -11728,13 +11750,13 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E326" s="3"/>
     </row>
@@ -11743,13 +11765,13 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E327" s="3"/>
     </row>
@@ -11758,13 +11780,13 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E328" s="3"/>
     </row>
@@ -11773,13 +11795,13 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E329" s="3"/>
     </row>
@@ -11788,13 +11810,13 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E330" s="3"/>
     </row>
@@ -11803,13 +11825,13 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E331" s="3"/>
     </row>
@@ -11818,13 +11840,13 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E332" s="3"/>
     </row>
@@ -11833,13 +11855,13 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E333" s="3"/>
     </row>
@@ -11848,13 +11870,13 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E334" s="8"/>
     </row>
@@ -11863,13 +11885,13 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E335" s="8"/>
     </row>
@@ -11878,13 +11900,13 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E336" s="8"/>
     </row>
@@ -11893,13 +11915,13 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E337" s="8"/>
     </row>
@@ -11908,13 +11930,13 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E338" s="8"/>
     </row>
@@ -11923,13 +11945,13 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E339" s="8"/>
     </row>
@@ -11938,13 +11960,13 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E340" s="8"/>
     </row>
@@ -11953,13 +11975,13 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E341" s="8"/>
     </row>
@@ -11968,13 +11990,13 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E342" s="8"/>
     </row>
@@ -11983,13 +12005,13 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="E343" s="8"/>
     </row>
@@ -11998,7 +12020,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="1"/>
@@ -12009,7 +12031,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="1"/>
@@ -12020,7 +12042,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="1"/>
@@ -12031,7 +12053,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="1"/>
@@ -12042,7 +12064,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="1"/>
@@ -12053,7 +12075,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="7"/>
@@ -12064,7 +12086,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="1"/>
@@ -12075,7 +12097,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="1"/>
@@ -12086,7 +12108,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="1"/>
@@ -12097,7 +12119,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="1"/>
@@ -12108,13 +12130,13 @@
         <v>350</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -12122,13 +12144,13 @@
         <v>351</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -12136,13 +12158,13 @@
         <v>352</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -12150,13 +12172,13 @@
         <v>353</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
@@ -12164,13 +12186,13 @@
         <v>354</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -12178,13 +12200,13 @@
         <v>355</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -12192,13 +12214,13 @@
         <v>356</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -12206,13 +12228,13 @@
         <v>357</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
@@ -12220,13 +12242,13 @@
         <v>358</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -12234,13 +12256,13 @@
         <v>359</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
@@ -12248,13 +12270,13 @@
         <v>360</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
@@ -12262,13 +12284,13 @@
         <v>361</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
@@ -12276,13 +12298,13 @@
         <v>362</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
@@ -12290,13 +12312,13 @@
         <v>363</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -12304,13 +12326,13 @@
         <v>364</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
@@ -12318,13 +12340,13 @@
         <v>365</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
@@ -12332,13 +12354,13 @@
         <v>366</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12346,13 +12368,13 @@
         <v>367</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -12360,13 +12382,13 @@
         <v>368</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -12374,13 +12396,13 @@
         <v>369</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -12388,13 +12410,13 @@
         <v>370</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
@@ -12402,13 +12424,13 @@
         <v>371</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
@@ -12416,13 +12438,13 @@
         <v>372</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
@@ -12430,13 +12452,13 @@
         <v>373</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
@@ -12444,13 +12466,13 @@
         <v>374</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
@@ -12458,11 +12480,11 @@
         <v>375</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C379" s="7"/>
       <c r="D379" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
@@ -12470,11 +12492,11 @@
         <v>376</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C380" s="7"/>
       <c r="D380" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
@@ -12482,11 +12504,11 @@
         <v>377</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C381" s="7"/>
       <c r="D381" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
@@ -12494,11 +12516,11 @@
         <v>378</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C382" s="7"/>
       <c r="D382" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
@@ -12506,11 +12528,11 @@
         <v>379</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C383" s="7"/>
       <c r="D383" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
@@ -12518,11 +12540,11 @@
         <v>380</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C384" s="7"/>
       <c r="D384" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
@@ -12530,11 +12552,11 @@
         <v>381</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C385" s="7"/>
       <c r="D385" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
@@ -12542,11 +12564,11 @@
         <v>382</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C386" s="7"/>
       <c r="D386" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
@@ -12554,11 +12576,11 @@
         <v>383</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C387" s="7"/>
       <c r="D387" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
@@ -12566,11 +12588,11 @@
         <v>384</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C388" s="7"/>
       <c r="D388" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
@@ -12578,11 +12600,11 @@
         <v>385</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C389" s="7"/>
       <c r="D389" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
@@ -12590,11 +12612,11 @@
         <v>386</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C390" s="7"/>
       <c r="D390" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
@@ -12602,11 +12624,11 @@
         <v>387</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="C391" s="7"/>
       <c r="D391" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.35">
@@ -12614,11 +12636,11 @@
         <v>388</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="C392" s="7"/>
       <c r="D392" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -12626,11 +12648,11 @@
         <v>389</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C393" s="7"/>
       <c r="D393" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -12638,11 +12660,11 @@
         <v>390</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C394" s="7"/>
       <c r="D394" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -12650,11 +12672,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C395" s="7"/>
       <c r="D395" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -12662,11 +12684,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C396" s="7"/>
       <c r="D396" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -12674,13 +12696,13 @@
         <v>393</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -12688,13 +12710,13 @@
         <v>394</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -12702,13 +12724,13 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -12716,13 +12738,13 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -12730,27 +12752,27 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="33" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>398</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C402" s="12" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D402" s="12" t="s">
-        <v>1130</v>
+        <v>1125</v>
+      </c>
+      <c r="C402" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D402" s="14" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -12758,13 +12780,13 @@
         <v>399</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D403" s="12" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -12772,13 +12794,13 @@
         <v>400</v>
       </c>
       <c r="B404" s="12" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D404" s="12" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -12786,13 +12808,13 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -12800,13 +12822,13 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -12814,13 +12836,13 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -12828,13 +12850,27 @@
         <v>404</v>
       </c>
       <c r="B408" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C408" s="13" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1154</v>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409" s="1">
+        <v>405</v>
+      </c>
+      <c r="B409" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C409" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>
@@ -12845,7 +12881,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C402" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C402" r:id="rId1" display="Please open your browser and go to the official website of MOBOX to recharge: https://www.mobox.io" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF28B277-22F3-4A0A-9C40-1901FAC2488A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798EB8AA-835F-4C2E-80AA-F62D56383D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4268,7 +4268,7 @@
   <dimension ref="A1:T409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="C408" sqref="C408"/>
+      <selection activeCell="D420" sqref="D420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798EB8AA-835F-4C2E-80AA-F62D56383D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B6672C-9481-40B1-91F6-07F047A7F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1176">
   <si>
     <t>INT</t>
   </si>
@@ -3349,9 +3349,6 @@
   </si>
   <si>
     <t>Pendant_Kill_6</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;【炎爆】&lt;/color&gt;用火送你最后一程!</t>
   </si>
   <si>
     <t>Pendant_Kill_7</t>
@@ -3583,6 +3580,25 @@
   <si>
     <t>SkillSelect_8</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;【炎爆】&lt;/color&gt;用火送你最后一程!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt; [Water spout]&lt;/color&gt; sinks to the bottom of the sea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt; [Flame burst]&lt;/color&gt; send you your last ride with fire!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt; [Starlight trail]&lt;/color&gt; gives the wearer speed and damage reduction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations&lt;&lt;/color&gt;color=#FFFF00&gt;{0} player has been promoted to &lt;color=#FFFF00&gt;{1}&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -4267,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="D420" sqref="D420"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5170,10 +5186,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>92</v>
@@ -5353,7 +5369,7 @@
         <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>109</v>
@@ -5560,7 +5576,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>127</v>
@@ -7090,7 +7106,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>278</v>
@@ -9928,7 +9944,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>90</v>
@@ -9984,7 +10000,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>94</v>
@@ -11191,7 +11207,7 @@
         <v>837</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>838</v>
@@ -11555,10 +11571,10 @@
         <v>911</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
@@ -11569,10 +11585,10 @@
         <v>912</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
@@ -11583,10 +11599,10 @@
         <v>913</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
@@ -11597,10 +11613,10 @@
         <v>914</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
@@ -11611,10 +11627,10 @@
         <v>915</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
@@ -12482,7 +12498,9 @@
       <c r="B379" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="C379" s="7"/>
+      <c r="C379" s="7" t="s">
+        <v>1175</v>
+      </c>
       <c r="D379" s="1" t="s">
         <v>1081</v>
       </c>
@@ -12638,9 +12656,11 @@
       <c r="B392" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="C392" s="7"/>
+      <c r="C392" s="7" t="s">
+        <v>1173</v>
+      </c>
       <c r="D392" s="1" t="s">
-        <v>1106</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
@@ -12648,11 +12668,13 @@
         <v>389</v>
       </c>
       <c r="B393" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="C393" s="7"/>
-      <c r="D393" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
@@ -12660,11 +12682,13 @@
         <v>390</v>
       </c>
       <c r="B394" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="C394" s="7"/>
-      <c r="D394" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -12672,11 +12696,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C395" s="7"/>
       <c r="D395" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -12684,11 +12708,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C396" s="7"/>
       <c r="D396" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -12696,13 +12720,13 @@
         <v>393</v>
       </c>
       <c r="B397" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C397" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="D397" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -12710,13 +12734,13 @@
         <v>394</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
@@ -12724,13 +12748,13 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
@@ -12738,13 +12762,13 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
@@ -12752,13 +12776,13 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="33" x14ac:dyDescent="0.35">
@@ -12766,13 +12790,13 @@
         <v>398</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D402" s="14" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.35">
@@ -12780,13 +12804,13 @@
         <v>399</v>
       </c>
       <c r="B403" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C403" s="12" t="s">
         <v>1126</v>
       </c>
-      <c r="C403" s="12" t="s">
+      <c r="D403" s="12" t="s">
         <v>1127</v>
-      </c>
-      <c r="D403" s="12" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -12794,13 +12818,13 @@
         <v>400</v>
       </c>
       <c r="B404" s="12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C404" s="12" t="s">
         <v>1129</v>
       </c>
-      <c r="C404" s="12" t="s">
+      <c r="D404" s="12" t="s">
         <v>1130</v>
-      </c>
-      <c r="D404" s="12" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
@@ -12808,13 +12832,13 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C405" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
@@ -12822,13 +12846,13 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C406" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="D406" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -12836,13 +12860,13 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D407" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -12850,13 +12874,13 @@
         <v>404</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C408" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -12864,13 +12888,13 @@
         <v>405</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C409" s="13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA508A-6BEF-4B52-AA97-CD900CC1C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815341E-6367-4BAB-B93E-00DB1D371BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1903">
   <si>
     <t>INT</t>
   </si>
@@ -1848,9 +1848,6 @@
   </si>
   <si>
     <t>Prefab_name_7</t>
-  </si>
-  <si>
-    <t>Source Shard · &lt;color=#F6663A&gt;Energy↑&lt;/color&gt;</t>
   </si>
   <si>
     <t>养气丹·&lt;color=#F6663A&gt;能量↑&lt;/color&gt;</t>
@@ -8916,34 +8913,114 @@
     <t>镜头速度</t>
   </si>
   <si>
+    <t>当前房间Id：{0}</t>
+  </si>
+  <si>
+    <t>JumpGameFailed</t>
+  </si>
+  <si>
+    <t>切换房间</t>
+  </si>
+  <si>
+    <t>Points:</t>
+  </si>
+  <si>
+    <t>Current room id:{0}</t>
+  </si>
+  <si>
+    <t>Switch Room Failed!</t>
+  </si>
+  <si>
+    <t>切换房间失败！</t>
+  </si>
+  <si>
+    <t>SwitchRoomBtn</t>
+  </si>
+  <si>
+    <t>Switch room</t>
+  </si>
+  <si>
+    <t>JumpRoomText001</t>
+  </si>
+  <si>
+    <t>Switch to a designated room</t>
+  </si>
+  <si>
+    <t>切换至指定房间</t>
+  </si>
+  <si>
+    <t>JumpRoomText002</t>
+  </si>
+  <si>
+    <t>Please enter the room ID</t>
+  </si>
+  <si>
+    <t>请输入房间id</t>
+  </si>
+  <si>
+    <t>SwitchRoomConfirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
     <t>CurrentRoomId</t>
-  </si>
-  <si>
-    <t>current room id:{0}</t>
-  </si>
-  <si>
-    <t>当前房间Id：{0}</t>
-  </si>
-  <si>
-    <t>JumpGameFailed</t>
-  </si>
-  <si>
-    <t>跳转房间失败！</t>
-  </si>
-  <si>
-    <t>RoomChange</t>
-  </si>
-  <si>
-    <t>Switch Room</t>
-  </si>
-  <si>
-    <t>切换房间</t>
-  </si>
-  <si>
-    <t>Points:</t>
-  </si>
-  <si>
-    <t>Jump Room Failed!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Shard · &lt;color=#F6663A&gt;Energy↑&lt;/color&gt;</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName003</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName004</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9036,13 +9113,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -9058,6 +9128,13 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -9093,7 +9170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -9176,11 +9253,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9270,7 +9373,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9836,10 +9949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T413"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="G424" sqref="G424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -12077,18 +12190,18 @@
       <c r="B66" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="36" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -12109,20 +12222,20 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -12143,20 +12256,20 @@
         <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -12177,20 +12290,20 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -12211,20 +12324,20 @@
         <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -12245,20 +12358,20 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -12279,20 +12392,20 @@
         <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -12313,20 +12426,20 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -12347,20 +12460,20 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -12381,20 +12494,20 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -12415,20 +12528,20 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -12449,20 +12562,20 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -12483,20 +12596,20 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -12517,20 +12630,20 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -12551,20 +12664,20 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -12585,20 +12698,20 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>394</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -12619,20 +12732,20 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -12653,20 +12766,20 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>82</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -12687,20 +12800,20 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -12721,20 +12834,20 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E85" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -12755,20 +12868,20 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -12789,20 +12902,20 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -12823,20 +12936,20 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -12857,20 +12970,20 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -12891,20 +13004,20 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -12925,20 +13038,20 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -12959,20 +13072,20 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -12993,20 +13106,20 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -13027,20 +13140,20 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -13061,20 +13174,20 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -13095,20 +13208,20 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -13129,20 +13242,20 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -13163,20 +13276,20 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -13197,20 +13310,20 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="E99" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -13231,20 +13344,20 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="E100" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -13265,20 +13378,20 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="E101" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -13299,20 +13412,20 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="E102" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -13333,20 +13446,20 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="D103" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="E103" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -13367,20 +13480,20 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="D104" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="E104" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -13401,20 +13514,20 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="D105" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="E105" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -13435,20 +13548,20 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="D106" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="E106" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -13469,20 +13582,20 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="D107" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="E107" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -13503,20 +13616,20 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="D108" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="E108" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -13537,20 +13650,20 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="D109" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="E109" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -13571,20 +13684,20 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="E110" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -13605,20 +13718,20 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="D111" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="E111" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -13639,20 +13752,20 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="E112" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -13673,20 +13786,20 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="D113" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="E113" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -13707,20 +13820,20 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="E114" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -13741,20 +13854,20 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="E115" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -13775,20 +13888,20 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="D116" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="E116" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -13809,20 +13922,20 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="D117" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="E117" s="5" t="s">
         <v>569</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -13843,20 +13956,20 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="D118" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="E118" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>575</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -13877,20 +13990,20 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="D119" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="E119" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -13911,20 +14024,20 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="D120" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="E120" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -13945,20 +14058,20 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="D121" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="E121" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -13979,20 +14092,20 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="D122" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="E122" s="5" t="s">
         <v>594</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -14013,20 +14126,20 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="D123" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="E123" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -14047,20 +14160,20 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="D124" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="E124" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -14081,20 +14194,20 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C125" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="D125" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="E125" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -14115,20 +14228,20 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C126" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="E126" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -14149,20 +14262,20 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="D127" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="E127" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -14183,20 +14296,20 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="D128" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="E128" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -14217,20 +14330,20 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="D129" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="E129" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -14251,20 +14364,20 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C130" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="D130" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="E130" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -14285,20 +14398,20 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="D131" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="E131" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -14319,20 +14432,20 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="E132" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -14353,20 +14466,20 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="E133" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -14387,20 +14500,20 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="E134" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>655</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -14421,20 +14534,20 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="E135" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>660</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -14455,20 +14568,20 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="E136" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -14489,20 +14602,20 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="E137" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -14523,20 +14636,20 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="E138" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>675</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -14557,20 +14670,20 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="E139" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -14591,20 +14704,20 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="E140" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>685</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -14625,20 +14738,20 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="E141" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>690</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -14659,20 +14772,20 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="E142" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>695</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -14693,20 +14806,20 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="E143" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>700</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -14727,20 +14840,20 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="D144" s="14" t="s">
+      <c r="E144" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>705</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -14761,20 +14874,20 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="E145" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>710</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -14795,20 +14908,20 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="E146" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="E146" s="15" t="s">
-        <v>715</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -14829,20 +14942,20 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="E147" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -14863,20 +14976,20 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="E148" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -14897,20 +15010,20 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="E149" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>730</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -14931,20 +15044,20 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="E150" s="9" t="s">
         <v>734</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>735</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -14965,20 +15078,20 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="E151" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>740</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -14999,20 +15112,20 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="E152" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>745</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -15033,20 +15146,20 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="E153" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>750</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -15067,20 +15180,20 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="E154" s="9" t="s">
         <v>754</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>755</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -15101,20 +15214,20 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="E155" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>760</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -15135,20 +15248,20 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="E156" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>765</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -15169,20 +15282,20 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="E157" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>770</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -15203,20 +15316,20 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="E158" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -15237,20 +15350,20 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="E159" s="9" t="s">
         <v>779</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>780</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -15271,20 +15384,20 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="E160" s="9" t="s">
         <v>784</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>785</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -15305,20 +15418,20 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="E161" s="9" t="s">
         <v>789</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>790</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -15339,20 +15452,20 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D162" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="E162" s="9" t="s">
         <v>794</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>795</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -15373,20 +15486,20 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="E163" s="9" t="s">
         <v>799</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>800</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -15407,18 +15520,18 @@
         <v>160</v>
       </c>
       <c r="B164" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="C164" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="D164" s="18" t="s">
         <v>803</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -15439,18 +15552,18 @@
         <v>161</v>
       </c>
       <c r="B165" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="C165" s="17" t="s">
         <v>806</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="D165" s="18" t="s">
         <v>807</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>808</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -15471,18 +15584,18 @@
         <v>162</v>
       </c>
       <c r="B166" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="C166" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="D166" s="18" t="s">
         <v>811</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>812</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -15503,18 +15616,18 @@
         <v>163</v>
       </c>
       <c r="B167" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C167" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="D167" s="18" t="s">
         <v>815</v>
-      </c>
-      <c r="D167" s="18" t="s">
-        <v>816</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -15535,18 +15648,18 @@
         <v>164</v>
       </c>
       <c r="B168" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="C168" s="17" t="s">
         <v>818</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="D168" s="18" t="s">
         <v>819</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>820</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -15567,18 +15680,18 @@
         <v>165</v>
       </c>
       <c r="B169" s="16" t="s">
+        <v>821</v>
+      </c>
+      <c r="C169" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="D169" s="18" t="s">
         <v>823</v>
-      </c>
-      <c r="D169" s="18" t="s">
-        <v>824</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -15599,18 +15712,18 @@
         <v>166</v>
       </c>
       <c r="B170" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="C170" s="17" t="s">
         <v>826</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="D170" s="18" t="s">
         <v>827</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>828</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -15631,18 +15744,18 @@
         <v>167</v>
       </c>
       <c r="B171" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>830</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="D171" s="18" t="s">
         <v>831</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>832</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -15663,18 +15776,18 @@
         <v>168</v>
       </c>
       <c r="B172" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="C172" s="17" t="s">
         <v>834</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="D172" s="18" t="s">
         <v>835</v>
-      </c>
-      <c r="D172" s="18" t="s">
-        <v>836</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -15695,18 +15808,18 @@
         <v>169</v>
       </c>
       <c r="B173" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="C173" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="D173" s="18" t="s">
         <v>839</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>840</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -15727,18 +15840,18 @@
         <v>170</v>
       </c>
       <c r="B174" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="C174" s="17" t="s">
         <v>842</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="D174" s="18" t="s">
         <v>843</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>844</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -15759,18 +15872,18 @@
         <v>171</v>
       </c>
       <c r="B175" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="C175" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="D175" s="18" t="s">
         <v>847</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>848</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -15791,18 +15904,18 @@
         <v>172</v>
       </c>
       <c r="B176" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C176" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="D176" s="18" t="s">
         <v>851</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>852</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -15823,18 +15936,18 @@
         <v>173</v>
       </c>
       <c r="B177" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="C177" s="17" t="s">
         <v>854</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="D177" s="18" t="s">
         <v>855</v>
-      </c>
-      <c r="D177" s="18" t="s">
-        <v>856</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="11" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -15855,18 +15968,18 @@
         <v>174</v>
       </c>
       <c r="B178" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="C178" s="17" t="s">
         <v>858</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="D178" s="18" t="s">
         <v>859</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>860</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -15887,18 +16000,18 @@
         <v>175</v>
       </c>
       <c r="B179" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="C179" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="D179" s="18" t="s">
         <v>863</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>864</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -15919,18 +16032,18 @@
         <v>176</v>
       </c>
       <c r="B180" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="D180" s="18" t="s">
         <v>867</v>
-      </c>
-      <c r="D180" s="18" t="s">
-        <v>868</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -15951,18 +16064,18 @@
         <v>177</v>
       </c>
       <c r="B181" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="C181" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="D181" s="18" t="s">
         <v>871</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>872</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -15983,18 +16096,18 @@
         <v>178</v>
       </c>
       <c r="B182" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="C182" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="D182" s="18" t="s">
         <v>875</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>876</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="12" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -16015,18 +16128,18 @@
         <v>179</v>
       </c>
       <c r="B183" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="C183" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="D183" s="18" t="s">
         <v>879</v>
-      </c>
-      <c r="D183" s="18" t="s">
-        <v>880</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -16047,16 +16160,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="C184" s="17" t="s">
         <v>882</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="D184" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="G184" s="6" t="s">
         <v>884</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="41.25" thickBot="1">
@@ -16064,16 +16177,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="C185" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="D185" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="G185" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="28.5" thickBot="1">
@@ -16081,16 +16194,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="C186" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="D186" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="G186" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="17.25" thickBot="1">
@@ -16098,16 +16211,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="C187" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="D187" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="G187" s="11" t="s">
         <v>896</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="17.25" thickBot="1">
@@ -16115,16 +16228,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="16" t="s">
+        <v>897</v>
+      </c>
+      <c r="C188" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="D188" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="G188" s="11" t="s">
         <v>900</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="28.5" thickBot="1">
@@ -16132,16 +16245,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="C189" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="D189" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="G189" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="28.5" thickBot="1">
@@ -16149,16 +16262,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="C190" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="D190" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="G190" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="17.25" thickBot="1">
@@ -16166,16 +16279,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C191" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="D191" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="G191" s="11" t="s">
         <v>912</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="41.25" thickBot="1">
@@ -16183,16 +16296,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="16" t="s">
+        <v>913</v>
+      </c>
+      <c r="C192" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="D192" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="G192" s="6" t="s">
         <v>916</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.5" thickBot="1">
@@ -16200,16 +16313,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="16" t="s">
+        <v>917</v>
+      </c>
+      <c r="C193" s="17" t="s">
         <v>918</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="D193" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="G193" s="8" t="s">
         <v>920</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16217,13 +16330,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>132</v>
@@ -16237,13 +16350,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>132</v>
@@ -16257,7 +16370,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>135</v>
@@ -16269,7 +16382,7 @@
         <v>137</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16277,19 +16390,19 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="D197" s="19" t="s">
+      <c r="E197" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="G197" s="6" t="s">
         <v>931</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16297,19 +16410,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="D198" s="19" t="s">
+      <c r="E198" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="G198" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16317,19 +16430,19 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="19" t="s">
         <v>939</v>
       </c>
-      <c r="D199" s="19" t="s">
+      <c r="E199" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="G199" s="6" t="s">
         <v>941</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16337,7 +16450,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>145</v>
@@ -16357,19 +16470,19 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="D201" s="19" t="s">
+      <c r="E201" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="G201" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16377,19 +16490,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="D202" s="19" t="s">
+      <c r="E202" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="E202" s="4" t="s">
+      <c r="G202" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16397,19 +16510,19 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="19" t="s">
         <v>955</v>
       </c>
-      <c r="D203" s="19" t="s">
+      <c r="E203" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="G203" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16417,19 +16530,19 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D204" s="19" t="s">
         <v>960</v>
       </c>
-      <c r="D204" s="19" t="s">
+      <c r="E204" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="G204" s="6" t="s">
         <v>962</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16437,19 +16550,19 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="19" t="s">
         <v>965</v>
       </c>
-      <c r="D205" s="19" t="s">
+      <c r="E205" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="G205" s="6" t="s">
         <v>967</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16457,19 +16570,19 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="D206" s="19" t="s">
+      <c r="E206" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="E206" s="4" t="s">
+      <c r="G206" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16477,19 +16590,19 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D207" s="19" t="s">
         <v>975</v>
       </c>
-      <c r="D207" s="19" t="s">
+      <c r="E207" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="G207" s="6" t="s">
         <v>977</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16497,19 +16610,19 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="19" t="s">
         <v>980</v>
       </c>
-      <c r="D208" s="19" t="s">
+      <c r="E208" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="G208" s="6" t="s">
         <v>982</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16517,19 +16630,19 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="19" t="s">
         <v>985</v>
       </c>
-      <c r="D209" s="19" t="s">
+      <c r="E209" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="G209" s="6" t="s">
         <v>987</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16537,19 +16650,19 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="19" t="s">
         <v>990</v>
       </c>
-      <c r="D210" s="19" t="s">
+      <c r="E210" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="G210" s="6" t="s">
         <v>992</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16557,19 +16670,19 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="D211" s="19" t="s">
+      <c r="E211" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="G211" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16577,19 +16690,19 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D212" s="19" t="s">
         <v>1000</v>
       </c>
-      <c r="D212" s="19" t="s">
+      <c r="E212" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="G212" s="8" t="s">
         <v>1002</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16597,19 +16710,19 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="D213" s="19" t="s">
         <v>1005</v>
       </c>
-      <c r="D213" s="19" t="s">
+      <c r="E213" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="G213" s="6" t="s">
         <v>1007</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16617,19 +16730,19 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="D214" s="19" t="s">
         <v>1010</v>
       </c>
-      <c r="D214" s="19" t="s">
+      <c r="E214" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="G214" s="6" t="s">
         <v>1012</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16637,19 +16750,19 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="D215" s="19" t="s">
         <v>1015</v>
       </c>
-      <c r="D215" s="19" t="s">
+      <c r="E215" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="G215" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16657,19 +16770,19 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="19" t="s">
         <v>1020</v>
       </c>
-      <c r="D216" s="19" t="s">
+      <c r="E216" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>1021</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16677,19 +16790,19 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="19" t="s">
         <v>1024</v>
       </c>
-      <c r="D217" s="19" t="s">
+      <c r="E217" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>1025</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16697,19 +16810,19 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="19" t="s">
         <v>1028</v>
       </c>
-      <c r="D218" s="19" t="s">
+      <c r="E218" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="G218" s="6" t="s">
         <v>1030</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16717,19 +16830,19 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D219" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="D219" s="19" t="s">
+      <c r="E219" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="G219" s="6" t="s">
         <v>1035</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16737,19 +16850,19 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="D220" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="D220" s="19" t="s">
+      <c r="E220" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="G220" s="6" t="s">
         <v>1040</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16757,19 +16870,19 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="19" t="s">
         <v>1043</v>
       </c>
-      <c r="D221" s="19" t="s">
+      <c r="E221" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="E221" s="4" t="s">
+      <c r="G221" s="6" t="s">
         <v>1045</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16777,19 +16890,19 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D222" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="D222" s="19" t="s">
+      <c r="E222" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="G222" s="6" t="s">
         <v>1050</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16797,19 +16910,19 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="19" t="s">
         <v>1053</v>
       </c>
-      <c r="D223" s="19" t="s">
+      <c r="E223" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="G223" s="8" t="s">
         <v>1055</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16817,19 +16930,19 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="D224" s="19" t="s">
         <v>1058</v>
       </c>
-      <c r="D224" s="19" t="s">
+      <c r="E224" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="G224" s="6" t="s">
         <v>1060</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16837,19 +16950,19 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="D225" s="19" t="s">
         <v>1063</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="E225" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="G225" s="6" t="s">
         <v>1065</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16857,19 +16970,19 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>1067</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16877,19 +16990,19 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="D227" s="19" t="s">
         <v>1070</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="E227" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="E227" s="4" t="s">
+      <c r="G227" s="6" t="s">
         <v>1072</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16897,19 +17010,19 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="D228" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="D228" s="19" t="s">
+      <c r="E228" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="G228" s="6" t="s">
         <v>1077</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16917,19 +17030,19 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="D229" s="19" t="s">
         <v>1080</v>
       </c>
-      <c r="D229" s="19" t="s">
+      <c r="E229" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="E229" s="4" t="s">
+      <c r="G229" s="6" t="s">
         <v>1082</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16937,19 +17050,19 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="D230" s="19" t="s">
         <v>1085</v>
       </c>
-      <c r="D230" s="19" t="s">
+      <c r="E230" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="E230" s="4" t="s">
+      <c r="G230" s="6" t="s">
         <v>1087</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16957,19 +17070,19 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="D231" s="19" t="s">
         <v>1090</v>
       </c>
-      <c r="D231" s="19" t="s">
+      <c r="E231" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="G231" s="6" t="s">
         <v>1092</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16977,19 +17090,19 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="19" t="s">
         <v>1095</v>
       </c>
-      <c r="D232" s="19" t="s">
+      <c r="E232" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="E232" s="4" t="s">
+      <c r="G232" s="6" t="s">
         <v>1097</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16997,19 +17110,19 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="19" t="s">
         <v>1100</v>
       </c>
-      <c r="D233" s="19" t="s">
+      <c r="E233" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="G233" s="8" t="s">
         <v>1102</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17017,19 +17130,19 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D234" s="19" t="s">
         <v>1105</v>
       </c>
-      <c r="D234" s="19" t="s">
+      <c r="E234" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="G234" s="8" t="s">
         <v>1107</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17037,19 +17150,19 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="D235" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="D235" s="19" t="s">
+      <c r="E235" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="E235" s="4" t="s">
+      <c r="G235" s="6" t="s">
         <v>1112</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17057,19 +17170,19 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="19" t="s">
         <v>1115</v>
       </c>
-      <c r="D236" s="19" t="s">
+      <c r="E236" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="G236" s="6" t="s">
         <v>1117</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17077,19 +17190,19 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>1119</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="D237" s="19" t="s">
         <v>1120</v>
       </c>
-      <c r="D237" s="19" t="s">
+      <c r="E237" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="G237" s="8" t="s">
         <v>1122</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17097,19 +17210,19 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="19" t="s">
         <v>1125</v>
       </c>
-      <c r="D238" s="19" t="s">
+      <c r="E238" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="G238" s="8" t="s">
         <v>1127</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17117,19 +17230,19 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="19" t="s">
         <v>1130</v>
       </c>
-      <c r="D239" s="19" t="s">
+      <c r="E239" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="E239" s="4" t="s">
+      <c r="G239" s="8" t="s">
         <v>1132</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17137,19 +17250,19 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="D240" s="19" t="s">
         <v>1135</v>
       </c>
-      <c r="D240" s="19" t="s">
+      <c r="E240" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="G240" s="8" t="s">
         <v>1137</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17157,19 +17270,19 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="19" t="s">
         <v>1140</v>
       </c>
-      <c r="D241" s="19" t="s">
+      <c r="E241" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="E241" s="4" t="s">
+      <c r="G241" s="6" t="s">
         <v>1142</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17177,19 +17290,19 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="D242" s="19" t="s">
         <v>1145</v>
       </c>
-      <c r="D242" s="19" t="s">
+      <c r="E242" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="E242" s="4" t="s">
+      <c r="G242" s="6" t="s">
         <v>1147</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17197,19 +17310,19 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="D243" s="19" t="s">
         <v>1150</v>
       </c>
-      <c r="D243" s="19" t="s">
+      <c r="E243" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="E243" s="4" t="s">
+      <c r="G243" s="6" t="s">
         <v>1152</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.25" thickBot="1">
@@ -17217,19 +17330,19 @@
         <v>240</v>
       </c>
       <c r="B244" s="21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="D244" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="E244" s="4" t="s">
-        <v>1157</v>
-      </c>
       <c r="G244" s="22" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" thickBot="1">
@@ -17237,19 +17350,19 @@
         <v>241</v>
       </c>
       <c r="B245" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="D245" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="G245" s="6" t="s">
         <v>1161</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" thickBot="1">
@@ -17257,19 +17370,19 @@
         <v>242</v>
       </c>
       <c r="B246" s="21" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="D246" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="G246" s="6" t="s">
         <v>1166</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.25" thickBot="1">
@@ -17277,19 +17390,19 @@
         <v>243</v>
       </c>
       <c r="B247" s="21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="D247" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="E247" s="4" t="s">
+      <c r="G247" s="8" t="s">
         <v>1171</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.25" thickBot="1">
@@ -17297,19 +17410,19 @@
         <v>244</v>
       </c>
       <c r="B248" s="21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="G248" s="6" t="s">
         <v>1176</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" thickBot="1">
@@ -17317,19 +17430,19 @@
         <v>245</v>
       </c>
       <c r="B249" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="D249" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E249" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E249" s="4" t="s">
+      <c r="G249" s="8" t="s">
         <v>1180</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" thickBot="1">
@@ -17337,19 +17450,19 @@
         <v>246</v>
       </c>
       <c r="B250" s="21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="G250" s="8" t="s">
         <v>1185</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.25" thickBot="1">
@@ -17357,19 +17470,19 @@
         <v>247</v>
       </c>
       <c r="B251" s="21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="E251" s="4" t="s">
+      <c r="G251" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.25" thickBot="1">
@@ -17377,19 +17490,19 @@
         <v>248</v>
       </c>
       <c r="B252" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="D252" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="E252" s="4" t="s">
+      <c r="G252" s="8" t="s">
         <v>1195</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.25" thickBot="1">
@@ -17397,19 +17510,19 @@
         <v>249</v>
       </c>
       <c r="B253" s="21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="D253" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="E253" s="4" t="s">
+      <c r="G253" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" thickBot="1">
@@ -17417,19 +17530,19 @@
         <v>250</v>
       </c>
       <c r="B254" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="G254" s="8" t="s">
         <v>1205</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.25" thickBot="1">
@@ -17437,19 +17550,19 @@
         <v>251</v>
       </c>
       <c r="B255" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1208</v>
-      </c>
       <c r="E255" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.25" thickBot="1">
@@ -17457,19 +17570,19 @@
         <v>252</v>
       </c>
       <c r="B256" s="21" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="D256" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="E256" s="4" t="s">
+      <c r="G256" s="8" t="s">
         <v>1212</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" thickBot="1">
@@ -17477,19 +17590,19 @@
         <v>253</v>
       </c>
       <c r="B257" s="21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="E257" s="4" t="s">
+      <c r="G257" s="8" t="s">
         <v>1217</v>
-      </c>
-      <c r="G257" s="8" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" thickBot="1">
@@ -17497,19 +17610,19 @@
         <v>254</v>
       </c>
       <c r="B258" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="D258" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="E258" s="9" t="s">
+      <c r="G258" s="8" t="s">
         <v>1222</v>
-      </c>
-      <c r="G258" s="8" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" thickBot="1">
@@ -17517,19 +17630,19 @@
         <v>255</v>
       </c>
       <c r="B259" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="D259" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="E259" s="4" t="s">
+      <c r="G259" s="8" t="s">
         <v>1227</v>
-      </c>
-      <c r="G259" s="8" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.25" thickBot="1">
@@ -17537,19 +17650,19 @@
         <v>256</v>
       </c>
       <c r="B260" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="D260" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="E260" s="4" t="s">
+      <c r="G260" s="8" t="s">
         <v>1232</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" thickBot="1">
@@ -17557,19 +17670,19 @@
         <v>257</v>
       </c>
       <c r="B261" s="21" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="G261" s="8" t="s">
         <v>1237</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" thickBot="1">
@@ -17577,19 +17690,19 @@
         <v>258</v>
       </c>
       <c r="B262" s="21" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="G262" s="8" t="s">
         <v>1242</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.25" thickBot="1">
@@ -17597,19 +17710,19 @@
         <v>259</v>
       </c>
       <c r="B263" s="21" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="E263" s="4" t="s">
+      <c r="G263" s="8" t="s">
         <v>1247</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.25" thickBot="1">
@@ -17617,19 +17730,19 @@
         <v>260</v>
       </c>
       <c r="B264" s="21" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="G264" s="8" t="s">
         <v>1252</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.25" thickBot="1">
@@ -17637,19 +17750,19 @@
         <v>261</v>
       </c>
       <c r="B265" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="E265" s="4" t="s">
+      <c r="G265" s="8" t="s">
         <v>1257</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.25" thickBot="1">
@@ -17657,19 +17770,19 @@
         <v>262</v>
       </c>
       <c r="B266" s="21" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="G266" s="8" t="s">
         <v>1262</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.25" thickBot="1">
@@ -17677,19 +17790,19 @@
         <v>263</v>
       </c>
       <c r="B267" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="E267" s="4" t="s">
+      <c r="G267" s="8" t="s">
         <v>1267</v>
-      </c>
-      <c r="G267" s="8" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="17.25" thickBot="1">
@@ -17697,19 +17810,19 @@
         <v>264</v>
       </c>
       <c r="B268" s="21" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="E268" s="4" t="s">
+      <c r="G268" s="8" t="s">
         <v>1272</v>
-      </c>
-      <c r="G268" s="8" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" thickBot="1">
@@ -17717,19 +17830,19 @@
         <v>265</v>
       </c>
       <c r="B269" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E269" s="4" t="s">
+      <c r="G269" s="8" t="s">
         <v>1275</v>
-      </c>
-      <c r="G269" s="8" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" thickBot="1">
@@ -17737,19 +17850,19 @@
         <v>266</v>
       </c>
       <c r="B270" s="21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="E270" s="4" t="s">
+      <c r="G270" s="8" t="s">
         <v>1280</v>
-      </c>
-      <c r="G270" s="8" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.25" thickBot="1">
@@ -17757,19 +17870,19 @@
         <v>267</v>
       </c>
       <c r="B271" s="21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1282</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="E271" s="4" t="s">
+      <c r="G271" s="8" t="s">
         <v>1285</v>
-      </c>
-      <c r="G271" s="8" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.25" thickBot="1">
@@ -17777,19 +17890,19 @@
         <v>268</v>
       </c>
       <c r="B272" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="E272" s="4" t="s">
-        <v>1290</v>
-      </c>
       <c r="G272" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.25" thickBot="1">
@@ -17797,19 +17910,19 @@
         <v>269</v>
       </c>
       <c r="B273" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D273" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E273" s="4" t="s">
+      <c r="G273" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="G273" s="8" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.25" thickBot="1">
@@ -17817,19 +17930,19 @@
         <v>270</v>
       </c>
       <c r="B274" s="21" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="E274" s="4" t="s">
+      <c r="G274" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.25" thickBot="1">
@@ -17837,19 +17950,19 @@
         <v>271</v>
       </c>
       <c r="B275" s="21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E275" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E275" s="4" t="s">
+      <c r="G275" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.25" thickBot="1">
@@ -17857,19 +17970,19 @@
         <v>272</v>
       </c>
       <c r="B276" s="21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="E276" s="4" t="s">
+      <c r="G276" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" thickBot="1">
@@ -17877,19 +17990,19 @@
         <v>273</v>
       </c>
       <c r="B277" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="G277" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.25" thickBot="1">
@@ -17897,19 +18010,19 @@
         <v>274</v>
       </c>
       <c r="B278" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="E278" s="4" t="s">
+      <c r="G278" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" thickBot="1">
@@ -17917,19 +18030,19 @@
         <v>275</v>
       </c>
       <c r="B279" s="21" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E279" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E279" s="4" t="s">
+      <c r="G279" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.25" thickBot="1">
@@ -17937,19 +18050,19 @@
         <v>276</v>
       </c>
       <c r="B280" s="21" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="E280" s="4" t="s">
+      <c r="G280" s="2" t="s">
         <v>1327</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.25" thickBot="1">
@@ -17957,19 +18070,19 @@
         <v>277</v>
       </c>
       <c r="B281" s="23" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="E281" s="4" t="s">
+      <c r="G281" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.25" thickBot="1">
@@ -17977,19 +18090,19 @@
         <v>278</v>
       </c>
       <c r="B282" s="23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="E282" s="4" t="s">
+      <c r="G282" s="2" t="s">
         <v>1337</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.25" thickBot="1">
@@ -17997,19 +18110,19 @@
         <v>279</v>
       </c>
       <c r="B283" s="23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="G283" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.25" thickBot="1">
@@ -18017,19 +18130,19 @@
         <v>280</v>
       </c>
       <c r="B284" s="23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="E284" s="4" t="s">
+      <c r="G284" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" thickBot="1">
@@ -18037,19 +18150,19 @@
         <v>281</v>
       </c>
       <c r="B285" s="23" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D285" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="E285" s="4" t="s">
+      <c r="G285" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.25" thickBot="1">
@@ -18057,19 +18170,19 @@
         <v>282</v>
       </c>
       <c r="B286" s="23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="E286" s="4" t="s">
+      <c r="G286" s="2" t="s">
         <v>1357</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.25" thickBot="1">
@@ -18077,19 +18190,19 @@
         <v>283</v>
       </c>
       <c r="B287" s="23" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="E287" s="4" t="s">
+      <c r="G287" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.25" thickBot="1">
@@ -18097,19 +18210,19 @@
         <v>284</v>
       </c>
       <c r="B288" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>1365</v>
-      </c>
       <c r="E288" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.25" thickBot="1">
@@ -18117,19 +18230,19 @@
         <v>285</v>
       </c>
       <c r="B289" s="23" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="E289" s="4" t="s">
+      <c r="G289" s="6" t="s">
         <v>1369</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.25" thickBot="1">
@@ -18137,19 +18250,19 @@
         <v>286</v>
       </c>
       <c r="B290" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>1371</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="E290" s="9" t="s">
+      <c r="G290" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.25" thickBot="1">
@@ -18157,19 +18270,19 @@
         <v>287</v>
       </c>
       <c r="B291" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="C291" s="3" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="E291" s="4" t="s">
+      <c r="G291" s="8" t="s">
         <v>1378</v>
-      </c>
-      <c r="G291" s="8" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.25" thickBot="1">
@@ -18177,19 +18290,19 @@
         <v>288</v>
       </c>
       <c r="B292" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="E292" s="4" t="s">
+      <c r="G292" s="6" t="s">
         <v>1383</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.25" thickBot="1">
@@ -18197,19 +18310,19 @@
         <v>289</v>
       </c>
       <c r="B293" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="E293" s="4" t="s">
+      <c r="G293" s="6" t="s">
         <v>1388</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" thickBot="1">
@@ -18217,19 +18330,19 @@
         <v>290</v>
       </c>
       <c r="B294" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="E294" s="5" t="s">
+      <c r="G294" s="6" t="s">
         <v>1393</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.25" thickBot="1">
@@ -18237,19 +18350,19 @@
         <v>291</v>
       </c>
       <c r="B295" s="23" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="E295" s="4" t="s">
+      <c r="G295" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="G295" s="6" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.25" thickBot="1">
@@ -18257,19 +18370,19 @@
         <v>292</v>
       </c>
       <c r="B296" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>1401</v>
-      </c>
       <c r="D296" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G296" s="22" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.25" thickBot="1">
@@ -18277,13 +18390,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="23" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>147</v>
@@ -18297,19 +18410,19 @@
         <v>294</v>
       </c>
       <c r="B298" s="23" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1404</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="E298" s="4" t="s">
+      <c r="G298" s="8" t="s">
         <v>1407</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.25" thickBot="1">
@@ -18317,19 +18430,19 @@
         <v>295</v>
       </c>
       <c r="B299" s="23" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1409</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="E299" s="4" t="s">
+      <c r="G299" s="8" t="s">
         <v>1412</v>
-      </c>
-      <c r="G299" s="8" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.25" thickBot="1">
@@ -18337,19 +18450,19 @@
         <v>296</v>
       </c>
       <c r="B300" s="23" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1414</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D300" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="E300" s="4" t="s">
+      <c r="G300" s="6" t="s">
         <v>1417</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.25" thickBot="1">
@@ -18357,19 +18470,19 @@
         <v>297</v>
       </c>
       <c r="B301" s="23" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>1419</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D301" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="E301" s="4" t="s">
+      <c r="G301" s="2" t="s">
         <v>1422</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.25" thickBot="1">
@@ -18377,19 +18490,19 @@
         <v>298</v>
       </c>
       <c r="B302" s="23" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>1424</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="E302" s="4" t="s">
+      <c r="G302" s="6" t="s">
         <v>1427</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18397,19 +18510,19 @@
         <v>299</v>
       </c>
       <c r="B303" s="23" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="24" t="s">
         <v>1431</v>
       </c>
-      <c r="E303" s="24" t="s">
+      <c r="G303" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18417,19 +18530,19 @@
         <v>300</v>
       </c>
       <c r="B304" s="23" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>1434</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D304" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="E304" s="10" t="s">
+      <c r="G304" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18437,19 +18550,19 @@
         <v>301</v>
       </c>
       <c r="B305" s="23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="E305" s="10" t="s">
+      <c r="G305" s="6" t="s">
         <v>1442</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18457,19 +18570,19 @@
         <v>302</v>
       </c>
       <c r="B306" s="23" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1444</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="10" t="s">
         <v>1446</v>
       </c>
-      <c r="E306" s="10" t="s">
+      <c r="G306" s="6" t="s">
         <v>1447</v>
-      </c>
-      <c r="G306" s="6" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18477,19 +18590,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="23" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="10" t="s">
         <v>1451</v>
       </c>
-      <c r="E307" s="10" t="s">
+      <c r="G307" s="2" t="s">
         <v>1452</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="33.75" thickBot="1">
@@ -18497,19 +18610,19 @@
         <v>304</v>
       </c>
       <c r="B308" s="23" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1454</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="E308" s="10" t="s">
+      <c r="G308" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="33.75" thickBot="1">
@@ -18517,19 +18630,19 @@
         <v>305</v>
       </c>
       <c r="B309" s="23" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="10" t="s">
         <v>1461</v>
       </c>
-      <c r="E309" s="10" t="s">
+      <c r="G309" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="50.25" thickBot="1">
@@ -18537,19 +18650,19 @@
         <v>306</v>
       </c>
       <c r="B310" s="23" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="10" t="s">
         <v>1466</v>
       </c>
-      <c r="E310" s="10" t="s">
+      <c r="G310" s="2" t="s">
         <v>1467</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="50.25" thickBot="1">
@@ -18557,19 +18670,19 @@
         <v>307</v>
       </c>
       <c r="B311" s="23" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D311" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="10" t="s">
         <v>1471</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="G311" s="2" t="s">
         <v>1472</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="50.25" thickBot="1">
@@ -18577,19 +18690,19 @@
         <v>308</v>
       </c>
       <c r="B312" s="23" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="10" t="s">
         <v>1476</v>
       </c>
-      <c r="E312" s="10" t="s">
+      <c r="G312" s="2" t="s">
         <v>1477</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="50.25" thickBot="1">
@@ -18597,19 +18710,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="23" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="10" t="s">
         <v>1481</v>
       </c>
-      <c r="E313" s="10" t="s">
+      <c r="G313" s="2" t="s">
         <v>1482</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="50.25" thickBot="1">
@@ -18617,19 +18730,19 @@
         <v>310</v>
       </c>
       <c r="B314" s="23" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1484</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="10" t="s">
         <v>1486</v>
       </c>
-      <c r="E314" s="10" t="s">
+      <c r="G314" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="50.25" thickBot="1">
@@ -18637,19 +18750,19 @@
         <v>311</v>
       </c>
       <c r="B315" s="23" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="10" t="s">
         <v>1491</v>
       </c>
-      <c r="E315" s="10" t="s">
+      <c r="G315" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="50.25" thickBot="1">
@@ -18657,19 +18770,19 @@
         <v>312</v>
       </c>
       <c r="B316" s="23" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="10" t="s">
         <v>1496</v>
       </c>
-      <c r="E316" s="10" t="s">
+      <c r="G316" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.25" thickBot="1">
@@ -18677,19 +18790,19 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="E317" s="9" t="s">
+      <c r="G317" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.25" thickBot="1">
@@ -18697,19 +18810,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="23" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="20" t="s">
         <v>1506</v>
       </c>
-      <c r="E318" s="20" t="s">
+      <c r="G318" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.25" thickBot="1">
@@ -18717,19 +18830,19 @@
         <v>315</v>
       </c>
       <c r="B319" s="23" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="23" t="s">
         <v>1510</v>
       </c>
-      <c r="D319" s="23" t="s">
+      <c r="E319" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E319" s="4" t="s">
+      <c r="G319" s="2" t="s">
         <v>1512</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.25" thickBot="1">
@@ -18737,19 +18850,19 @@
         <v>316</v>
       </c>
       <c r="B320" s="23" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>1515</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.25" thickBot="1">
@@ -18757,19 +18870,19 @@
         <v>317</v>
       </c>
       <c r="B321" s="23" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1518</v>
-      </c>
       <c r="D321" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G321" s="22" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.5" thickBot="1">
@@ -18777,19 +18890,19 @@
         <v>318</v>
       </c>
       <c r="B322" s="23" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="5" t="s">
         <v>1521</v>
       </c>
-      <c r="E322" s="5" t="s">
+      <c r="G322" s="2" t="s">
         <v>1522</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="17.25" thickBot="1">
@@ -18797,19 +18910,19 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1524</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="E323" s="9" t="s">
+      <c r="G323" s="2" t="s">
         <v>1527</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="32.25" thickBot="1">
@@ -18817,19 +18930,19 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1529</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="13" t="s">
         <v>1530</v>
       </c>
-      <c r="D324" s="13" t="s">
+      <c r="E324" s="25" t="s">
         <v>1531</v>
       </c>
-      <c r="E324" s="25" t="s">
+      <c r="G324" s="2" t="s">
         <v>1532</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="32.25" thickBot="1">
@@ -18837,19 +18950,19 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="13" t="s">
         <v>1535</v>
       </c>
-      <c r="D325" s="13" t="s">
+      <c r="E325" s="5" t="s">
         <v>1536</v>
       </c>
-      <c r="E325" s="5" t="s">
+      <c r="G325" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="32.25" thickBot="1">
@@ -18857,19 +18970,19 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D326" s="13" t="s">
         <v>1540</v>
       </c>
-      <c r="D326" s="13" t="s">
+      <c r="E326" s="5" t="s">
         <v>1541</v>
       </c>
-      <c r="E326" s="5" t="s">
+      <c r="G326" s="2" t="s">
         <v>1542</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.5" thickBot="1">
@@ -18877,19 +18990,19 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>1544</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="13" t="s">
         <v>1545</v>
       </c>
-      <c r="D327" s="13" t="s">
+      <c r="E327" s="5" t="s">
         <v>1546</v>
       </c>
-      <c r="E327" s="5" t="s">
+      <c r="G327" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="17.25" thickBot="1">
@@ -18897,19 +19010,19 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="13" t="s">
         <v>1550</v>
       </c>
-      <c r="D328" s="13" t="s">
+      <c r="E328" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="E328" s="5" t="s">
+      <c r="G328" s="2" t="s">
         <v>1552</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="32.25" thickBot="1">
@@ -18917,19 +19030,19 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="13" t="s">
         <v>1555</v>
       </c>
-      <c r="D329" s="13" t="s">
+      <c r="E329" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="E329" s="5" t="s">
+      <c r="G329" s="2" t="s">
         <v>1557</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="32.25" thickBot="1">
@@ -18937,19 +19050,19 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1559</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D330" s="13" t="s">
         <v>1560</v>
       </c>
-      <c r="D330" s="13" t="s">
+      <c r="E330" s="5" t="s">
         <v>1561</v>
       </c>
-      <c r="E330" s="5" t="s">
+      <c r="G330" s="2" t="s">
         <v>1562</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="32.25" thickBot="1">
@@ -18957,19 +19070,19 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="13" t="s">
         <v>1565</v>
       </c>
-      <c r="D331" s="13" t="s">
+      <c r="E331" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="E331" s="5" t="s">
+      <c r="G331" s="2" t="s">
         <v>1567</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="32.25" thickBot="1">
@@ -18977,19 +19090,19 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>1569</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="13" t="s">
         <v>1570</v>
       </c>
-      <c r="D332" s="13" t="s">
+      <c r="E332" s="5" t="s">
         <v>1571</v>
       </c>
-      <c r="E332" s="5" t="s">
+      <c r="G332" s="2" t="s">
         <v>1572</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="33.75" thickBot="1">
@@ -18997,19 +19110,19 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="13" t="s">
         <v>1575</v>
       </c>
-      <c r="D333" s="13" t="s">
+      <c r="E333" s="5" t="s">
         <v>1576</v>
       </c>
-      <c r="E333" s="5" t="s">
+      <c r="G333" s="2" t="s">
         <v>1577</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="33.75" thickBot="1">
@@ -19017,19 +19130,19 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="E334" s="4" t="s">
+      <c r="G334" s="2" t="s">
         <v>1582</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="33.75" thickBot="1">
@@ -19037,19 +19150,19 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="E335" s="9" t="s">
+      <c r="G335" s="2" t="s">
         <v>1587</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="33.75" thickBot="1">
@@ -19057,19 +19170,19 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="9" t="s">
         <v>1591</v>
       </c>
-      <c r="E336" s="9" t="s">
+      <c r="G336" s="2" t="s">
         <v>1592</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="33.75" thickBot="1">
@@ -19077,19 +19190,19 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="9" t="s">
         <v>1596</v>
       </c>
-      <c r="E337" s="9" t="s">
+      <c r="G337" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.5" thickBot="1">
@@ -19097,19 +19210,19 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>1599</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="E338" s="4" t="s">
+      <c r="G338" s="2" t="s">
         <v>1602</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="28.5" thickBot="1">
@@ -19117,19 +19230,19 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="23" t="s">
         <v>1605</v>
       </c>
-      <c r="D339" s="23" t="s">
+      <c r="E339" s="9" t="s">
         <v>1606</v>
       </c>
-      <c r="E339" s="9" t="s">
+      <c r="G339" s="2" t="s">
         <v>1607</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="33.75" thickBot="1">
@@ -19137,19 +19250,19 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D340" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="E340" s="9" t="s">
+      <c r="G340" s="2" t="s">
         <v>1612</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="17.25" thickBot="1">
@@ -19157,19 +19270,19 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="E341" s="4" t="s">
+      <c r="G341" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="33.75" thickBot="1">
@@ -19177,19 +19290,19 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D342" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="E342" s="9" t="s">
+      <c r="G342" s="2" t="s">
         <v>1622</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="28.5" thickBot="1">
@@ -19197,19 +19310,19 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>1624</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D343" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="E343" s="4" t="s">
+      <c r="G343" s="2" t="s">
         <v>1627</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -19217,7 +19330,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
@@ -19228,7 +19341,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
@@ -19239,7 +19352,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
@@ -19250,7 +19363,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
@@ -19261,7 +19374,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
@@ -19272,7 +19385,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="23"/>
@@ -19283,7 +19396,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
@@ -19294,7 +19407,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
@@ -19305,7 +19418,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
@@ -19316,7 +19429,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
@@ -19327,19 +19440,19 @@
         <v>350</v>
       </c>
       <c r="B354" s="23" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D354" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="20" t="s">
         <v>1641</v>
       </c>
-      <c r="E354" s="20" t="s">
+      <c r="G354" s="2" t="s">
         <v>1642</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="17.25" thickBot="1">
@@ -19347,19 +19460,19 @@
         <v>351</v>
       </c>
       <c r="B355" s="23" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>1644</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="E355" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="E355" s="5" t="s">
+      <c r="G355" s="2" t="s">
         <v>1647</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="33.75" thickBot="1">
@@ -19367,19 +19480,19 @@
         <v>352</v>
       </c>
       <c r="B356" s="23" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>1649</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="D356" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="4" t="s">
         <v>1651</v>
       </c>
-      <c r="E356" s="4" t="s">
+      <c r="G356" s="2" t="s">
         <v>1652</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="17.25" thickBot="1">
@@ -19387,19 +19500,19 @@
         <v>353</v>
       </c>
       <c r="B357" s="23" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="D357" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="E357" s="4" t="s">
+      <c r="G357" s="2" t="s">
         <v>1657</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="17.25" thickBot="1">
@@ -19407,19 +19520,19 @@
         <v>354</v>
       </c>
       <c r="B358" s="23" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="E358" s="4" t="s">
+      <c r="G358" s="2" t="s">
         <v>1662</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="17.25" thickBot="1">
@@ -19427,19 +19540,19 @@
         <v>355</v>
       </c>
       <c r="B359" s="23" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="D359" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="E359" s="9" t="s">
+      <c r="G359" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="33.75" thickBot="1">
@@ -19447,19 +19560,19 @@
         <v>356</v>
       </c>
       <c r="B360" s="23" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="D360" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="E360" s="4" t="s">
+      <c r="G360" s="2" t="s">
         <v>1672</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="54" thickBot="1">
@@ -19467,19 +19580,19 @@
         <v>357</v>
       </c>
       <c r="B361" s="23" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>1674</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="D361" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="E361" s="9" t="s">
         <v>1676</v>
       </c>
-      <c r="E361" s="9" t="s">
+      <c r="G361" s="2" t="s">
         <v>1677</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="33.75" thickBot="1">
@@ -19487,19 +19600,19 @@
         <v>358</v>
       </c>
       <c r="B362" s="23" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="D362" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="9" t="s">
         <v>1681</v>
       </c>
-      <c r="E362" s="9" t="s">
+      <c r="G362" s="2" t="s">
         <v>1682</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="17.25" thickBot="1">
@@ -19507,19 +19620,19 @@
         <v>359</v>
       </c>
       <c r="B363" s="23" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>1684</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="4" t="s">
         <v>1686</v>
       </c>
-      <c r="E363" s="4" t="s">
+      <c r="G363" s="2" t="s">
         <v>1687</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="33.75" thickBot="1">
@@ -19527,19 +19640,19 @@
         <v>360</v>
       </c>
       <c r="B364" s="23" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>1689</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="E364" s="4" t="s">
+      <c r="G364" s="2" t="s">
         <v>1692</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="33.75" thickBot="1">
@@ -19547,19 +19660,19 @@
         <v>361</v>
       </c>
       <c r="B365" s="23" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>1694</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="4" t="s">
         <v>1696</v>
       </c>
-      <c r="E365" s="4" t="s">
+      <c r="G365" s="2" t="s">
         <v>1697</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="17.25" thickBot="1">
@@ -19567,19 +19680,19 @@
         <v>362</v>
       </c>
       <c r="B366" s="23" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="D366" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="E366" s="4" t="s">
+      <c r="G366" s="2" t="s">
         <v>1702</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="33.75" thickBot="1">
@@ -19587,19 +19700,19 @@
         <v>363</v>
       </c>
       <c r="B367" s="23" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>1704</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D367" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="E367" s="9" t="s">
+      <c r="G367" s="2" t="s">
         <v>1707</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="54" thickBot="1">
@@ -19607,19 +19720,19 @@
         <v>364</v>
       </c>
       <c r="B368" s="23" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="D368" s="1" t="s">
         <v>1710</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="E368" s="9" t="s">
+      <c r="G368" s="2" t="s">
         <v>1712</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="33.75" thickBot="1">
@@ -19627,19 +19740,19 @@
         <v>365</v>
       </c>
       <c r="B369" s="23" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="D369" s="1" t="s">
         <v>1715</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="E369" s="9" t="s">
+      <c r="G369" s="2" t="s">
         <v>1717</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="17.25" thickBot="1">
@@ -19647,19 +19760,19 @@
         <v>366</v>
       </c>
       <c r="B370" s="23" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="D370" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="9" t="s">
         <v>1721</v>
       </c>
-      <c r="E370" s="9" t="s">
+      <c r="G370" s="2" t="s">
         <v>1722</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -19667,19 +19780,19 @@
         <v>367</v>
       </c>
       <c r="B371" s="23" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>1724</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="D371" s="1" t="s">
         <v>1725</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="9" t="s">
         <v>1726</v>
       </c>
-      <c r="E371" s="9" t="s">
+      <c r="G371" s="2" t="s">
         <v>1727</v>
-      </c>
-      <c r="G371" s="2" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50.25" thickBot="1">
@@ -19687,19 +19800,19 @@
         <v>368</v>
       </c>
       <c r="B372" s="23" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="D372" s="1" t="s">
         <v>1730</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="9" t="s">
         <v>1731</v>
       </c>
-      <c r="E372" s="9" t="s">
+      <c r="G372" s="2" t="s">
         <v>1732</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="17.25" thickBot="1">
@@ -19707,19 +19820,19 @@
         <v>369</v>
       </c>
       <c r="B373" s="23" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>1734</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="D373" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="20" t="s">
         <v>1736</v>
       </c>
-      <c r="E373" s="20" t="s">
+      <c r="G373" s="2" t="s">
         <v>1737</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="17.25" thickBot="1">
@@ -19727,19 +19840,19 @@
         <v>370</v>
       </c>
       <c r="B374" s="23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="D374" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G374" s="27" t="s">
         <v>1741</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>1740</v>
-      </c>
-      <c r="G374" s="27" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="17.25" thickBot="1">
@@ -19747,19 +19860,19 @@
         <v>371</v>
       </c>
       <c r="B375" s="23" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="D375" s="1" t="s">
         <v>1744</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="E375" s="4" t="s">
+      <c r="G375" s="2" t="s">
         <v>1746</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="17.25" thickBot="1">
@@ -19767,19 +19880,19 @@
         <v>372</v>
       </c>
       <c r="B376" s="23" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="D376" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="E376" s="4" t="s">
+      <c r="G376" s="22" t="s">
         <v>1751</v>
-      </c>
-      <c r="G376" s="22" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="17.25" thickBot="1">
@@ -19787,19 +19900,19 @@
         <v>373</v>
       </c>
       <c r="B377" s="23" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C377" s="23" t="s">
         <v>1753</v>
       </c>
-      <c r="C377" s="23" t="s">
+      <c r="D377" s="1" t="s">
         <v>1754</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="E377" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="E377" s="4" t="s">
+      <c r="G377" s="2" t="s">
         <v>1756</v>
-      </c>
-      <c r="G377" s="2" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="33.75" thickBot="1">
@@ -19807,19 +19920,19 @@
         <v>374</v>
       </c>
       <c r="B378" s="23" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C378" s="21" t="s">
         <v>1758</v>
       </c>
-      <c r="C378" s="21" t="s">
+      <c r="D378" s="1" t="s">
         <v>1759</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="9" t="s">
         <v>1760</v>
       </c>
-      <c r="E378" s="9" t="s">
+      <c r="G378" s="2" t="s">
         <v>1761</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="41.25" thickBot="1">
@@ -19827,16 +19940,16 @@
         <v>375</v>
       </c>
       <c r="B379" s="23" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C379" s="23" t="s">
         <v>1763</v>
       </c>
-      <c r="C379" s="23" t="s">
+      <c r="D379" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="G379" s="2" t="s">
         <v>1765</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="17.25" thickBot="1">
@@ -19844,13 +19957,13 @@
         <v>376</v>
       </c>
       <c r="B380" s="23" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C380" s="25" t="s">
         <v>1767</v>
       </c>
-      <c r="C380" s="25" t="s">
+      <c r="D380" s="1" t="s">
         <v>1768</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1769</v>
       </c>
       <c r="G380" s="2"/>
     </row>
@@ -19859,13 +19972,13 @@
         <v>377</v>
       </c>
       <c r="B381" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="D381" s="1" t="s">
         <v>1771</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1772</v>
       </c>
       <c r="G381" s="2"/>
     </row>
@@ -19874,13 +19987,13 @@
         <v>378</v>
       </c>
       <c r="B382" s="23" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>1774</v>
-      </c>
       <c r="D382" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G382" s="2"/>
     </row>
@@ -19889,13 +20002,13 @@
         <v>379</v>
       </c>
       <c r="B383" s="23" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="D383" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1777</v>
       </c>
       <c r="G383" s="2"/>
     </row>
@@ -19904,13 +20017,13 @@
         <v>380</v>
       </c>
       <c r="B384" s="23" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C384" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="D384" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1780</v>
       </c>
       <c r="G384" s="2"/>
     </row>
@@ -19919,13 +20032,13 @@
         <v>381</v>
       </c>
       <c r="B385" s="23" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="D385" s="1" t="s">
         <v>1782</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1783</v>
       </c>
       <c r="G385" s="2"/>
     </row>
@@ -19934,13 +20047,13 @@
         <v>382</v>
       </c>
       <c r="B386" s="23" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G386" s="2"/>
     </row>
@@ -19949,13 +20062,13 @@
         <v>383</v>
       </c>
       <c r="B387" s="23" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="C387" s="5" t="s">
+      <c r="D387" s="1" t="s">
         <v>1786</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1787</v>
       </c>
       <c r="G387" s="2"/>
     </row>
@@ -19964,13 +20077,13 @@
         <v>384</v>
       </c>
       <c r="B388" s="23" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="D388" s="1" t="s">
         <v>1789</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1790</v>
       </c>
       <c r="G388" s="2"/>
     </row>
@@ -19979,13 +20092,13 @@
         <v>385</v>
       </c>
       <c r="B389" s="23" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C389" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="D389" s="1" t="s">
         <v>1792</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1793</v>
       </c>
       <c r="G389" s="2"/>
     </row>
@@ -19994,13 +20107,13 @@
         <v>386</v>
       </c>
       <c r="B390" s="23" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C390" s="5" t="s">
         <v>1794</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="D390" s="1" t="s">
         <v>1795</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1796</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -20009,13 +20122,13 @@
         <v>387</v>
       </c>
       <c r="B391" s="23" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C391" s="23" t="s">
         <v>1797</v>
       </c>
-      <c r="C391" s="23" t="s">
+      <c r="D391" s="1" t="s">
         <v>1798</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="G391" s="2"/>
     </row>
@@ -20024,16 +20137,16 @@
         <v>388</v>
       </c>
       <c r="B392" s="28" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C392" s="23" t="s">
         <v>1800</v>
       </c>
-      <c r="C392" s="23" t="s">
+      <c r="D392" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="G392" s="2" t="s">
         <v>1802</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="28.5" thickBot="1">
@@ -20041,16 +20154,16 @@
         <v>389</v>
       </c>
       <c r="B393" s="28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C393" s="23" t="s">
         <v>1804</v>
       </c>
-      <c r="C393" s="23" t="s">
+      <c r="D393" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="G393" s="2" t="s">
         <v>1806</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="41.25" thickBot="1">
@@ -20058,16 +20171,16 @@
         <v>390</v>
       </c>
       <c r="B394" s="29" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C394" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="C394" s="23" t="s">
+      <c r="D394" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="G394" s="2" t="s">
         <v>1810</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="17.25" thickBot="1">
@@ -20075,11 +20188,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C395" s="23"/>
       <c r="D395" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G395" s="2"/>
     </row>
@@ -20088,11 +20201,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C396" s="23"/>
       <c r="D396" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G396" s="2"/>
     </row>
@@ -20101,16 +20214,16 @@
         <v>393</v>
       </c>
       <c r="B397" s="23" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C397" s="23" t="s">
         <v>1816</v>
       </c>
-      <c r="C397" s="23" t="s">
+      <c r="D397" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="G397" s="2" t="s">
         <v>1818</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="17.25" thickBot="1">
@@ -20118,16 +20231,16 @@
         <v>394</v>
       </c>
       <c r="B398" s="21" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C398" s="23" t="s">
         <v>1820</v>
       </c>
-      <c r="C398" s="23" t="s">
+      <c r="D398" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="G398" s="2" t="s">
         <v>1822</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="17.25" thickBot="1">
@@ -20135,16 +20248,16 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C399" s="23" t="s">
         <v>1824</v>
       </c>
-      <c r="C399" s="23" t="s">
+      <c r="D399" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="G399" s="2" t="s">
         <v>1826</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="17.25" thickBot="1">
@@ -20152,16 +20265,16 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C400" s="23" t="s">
         <v>1828</v>
       </c>
-      <c r="C400" s="23" t="s">
+      <c r="D400" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="G400" s="2" t="s">
         <v>1830</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="17.25" thickBot="1">
@@ -20169,16 +20282,16 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C401" s="23" t="s">
         <v>1832</v>
       </c>
-      <c r="C401" s="23" t="s">
+      <c r="D401" s="1" t="s">
         <v>1833</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="G401" s="2" t="s">
         <v>1834</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50.25" thickBot="1">
@@ -20186,16 +20299,16 @@
         <v>398</v>
       </c>
       <c r="B402" s="30" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C402" s="31" t="s">
         <v>1836</v>
       </c>
-      <c r="C402" s="31" t="s">
+      <c r="D402" s="31" t="s">
         <v>1837</v>
       </c>
-      <c r="D402" s="31" t="s">
+      <c r="G402" s="2" t="s">
         <v>1838</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="17.25" thickBot="1">
@@ -20203,16 +20316,16 @@
         <v>399</v>
       </c>
       <c r="B403" s="30" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C403" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="C403" s="32" t="s">
+      <c r="D403" s="32" t="s">
         <v>1841</v>
       </c>
-      <c r="D403" s="32" t="s">
+      <c r="G403" s="2" t="s">
         <v>1842</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="17.25" thickBot="1">
@@ -20220,16 +20333,16 @@
         <v>400</v>
       </c>
       <c r="B404" s="32" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C404" s="32" t="s">
         <v>1844</v>
       </c>
-      <c r="C404" s="32" t="s">
+      <c r="D404" s="32" t="s">
         <v>1845</v>
       </c>
-      <c r="D404" s="32" t="s">
+      <c r="G404" s="2" t="s">
         <v>1846</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="17.25" thickBot="1">
@@ -20237,19 +20350,19 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C405" s="23" t="s">
         <v>1848</v>
       </c>
-      <c r="C405" s="23" t="s">
+      <c r="D405" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" t="s">
         <v>1850</v>
       </c>
-      <c r="E405" t="s">
+      <c r="G405" s="2" t="s">
         <v>1851</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="17.25" thickBot="1">
@@ -20257,16 +20370,16 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C406" s="23" t="s">
         <v>1853</v>
       </c>
-      <c r="C406" s="23" t="s">
+      <c r="D406" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="G406" s="2" t="s">
         <v>1855</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="17.25" thickBot="1">
@@ -20274,16 +20387,16 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="C407" s="3" t="s">
+      <c r="D407" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="D407" s="1" t="s">
+      <c r="G407" s="2" t="s">
         <v>1859</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="17.25" thickBot="1">
@@ -20291,16 +20404,16 @@
         <v>404</v>
       </c>
       <c r="B408" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C408" t="s">
         <v>1861</v>
       </c>
-      <c r="C408" t="s">
+      <c r="D408" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="G408" s="2" t="s">
         <v>1863</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="17.25" thickBot="1">
@@ -20308,76 +20421,234 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C409" t="s">
         <v>1865</v>
       </c>
-      <c r="C409" t="s">
+      <c r="D409" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="G409" s="2" t="s">
         <v>1867</v>
       </c>
-      <c r="G409" s="2" t="s">
+    </row>
+    <row r="410" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A410" s="35">
+        <v>406</v>
+      </c>
+      <c r="B410" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
-      <c r="A410">
-        <v>406</v>
-      </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>1869</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>1870</v>
       </c>
-      <c r="D410" t="s">
+    </row>
+    <row r="411" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A411" s="33">
+        <v>407</v>
+      </c>
+      <c r="B411" s="33" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C411" s="34" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D411" s="33" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
-      <c r="A411">
-        <v>407</v>
-      </c>
-      <c r="B411" t="s">
+      <c r="E411" s="34" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G411" s="34" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A412" s="33">
+        <v>408</v>
+      </c>
+      <c r="B412" s="33" t="s">
         <v>1872</v>
       </c>
-      <c r="C411" s="32" t="s">
+      <c r="C412" s="34" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D412" s="33" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E412" s="34" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G412" s="34" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A413" s="33">
+        <v>409</v>
+      </c>
+      <c r="B413" s="33" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C413" s="33" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D413" s="33" t="s">
         <v>1873</v>
       </c>
-      <c r="D411" s="33" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
-      <c r="A412">
-        <v>408</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C412" s="32" t="s">
+      <c r="E413" s="33" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G413" s="33" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A414" s="33">
+        <v>410</v>
+      </c>
+      <c r="B414" s="33" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C414" s="33" t="s">
         <v>1881</v>
       </c>
-      <c r="D412" s="33" t="s">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
-      <c r="A413">
-        <v>409</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1879</v>
+      <c r="D414" s="33" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E414" s="33" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G414" s="33" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A415" s="33">
+        <v>411</v>
+      </c>
+      <c r="B415" s="33" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C415" s="33" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D415" s="33" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E415" s="33" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G415" s="33" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A416" s="33">
+        <v>412</v>
+      </c>
+      <c r="B416" s="33" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C416" s="33" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D416" s="33" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E416" s="33" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G416" s="33" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A417" s="33">
+        <v>413</v>
+      </c>
+      <c r="B417" s="37" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C417" s="37" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D417" s="37" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E417" s="37" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G417" s="37" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A418" s="33">
+        <v>414</v>
+      </c>
+      <c r="B418" s="37" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C418" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D418" s="37" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E418" s="37" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G418" s="37" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A419" s="33">
+        <v>415</v>
+      </c>
+      <c r="B419" s="37" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C419" s="37" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D419" s="37" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E419" s="37" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G419" s="37" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A420" s="33">
+        <v>416</v>
+      </c>
+      <c r="B420" s="37" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C420" s="37" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D420" s="37" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E420" s="37" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G420" s="37" t="s">
+        <v>1895</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="B99:B183 B1469:B1470 B1472:B1473 B1482:B1483 B1500:B1501 B1506:B1507 B1509:B1510">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND(COUNTIF($B$1:$B$4,B1)+COUNTIF(#REF!,B1)+COUNTIF($B$5:$B$21,B1)&gt;1,NOT(ISBLANK(B1)))</formula>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815341E-6367-4BAB-B93E-00DB1D371BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF2A4E-70D5-4AD9-B1B3-A67D1E4D72B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -8934,9 +8934,6 @@
     <t>切换房间失败！</t>
   </si>
   <si>
-    <t>SwitchRoomBtn</t>
-  </si>
-  <si>
     <t>Switch room</t>
   </si>
   <si>
@@ -9020,6 +9017,10 @@
   </si>
   <si>
     <t>BuffName004</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchRoomBtn</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9383,7 +9384,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -9952,7 +9953,7 @@
   <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="G424" sqref="G424"/>
+      <selection activeCell="E419" sqref="E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -12191,7 +12192,7 @@
         <v>316</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>317</v>
@@ -20452,7 +20453,7 @@
         <v>407</v>
       </c>
       <c r="B411" s="33" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C411" s="34" t="s">
         <v>1875</v>
@@ -20492,19 +20493,19 @@
         <v>409</v>
       </c>
       <c r="B413" s="33" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C413" s="33" t="s">
         <v>1878</v>
-      </c>
-      <c r="C413" s="33" t="s">
-        <v>1879</v>
       </c>
       <c r="D413" s="33" t="s">
         <v>1873</v>
       </c>
       <c r="E413" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G413" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -20512,19 +20513,19 @@
         <v>410</v>
       </c>
       <c r="B414" s="33" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C414" s="33" t="s">
         <v>1880</v>
       </c>
-      <c r="C414" s="33" t="s">
+      <c r="D414" s="33" t="s">
         <v>1881</v>
       </c>
-      <c r="D414" s="33" t="s">
-        <v>1882</v>
-      </c>
       <c r="E414" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G414" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -20532,19 +20533,19 @@
         <v>411</v>
       </c>
       <c r="B415" s="33" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C415" s="33" t="s">
         <v>1883</v>
       </c>
-      <c r="C415" s="33" t="s">
+      <c r="D415" s="33" t="s">
         <v>1884</v>
       </c>
-      <c r="D415" s="33" t="s">
-        <v>1885</v>
-      </c>
       <c r="E415" s="33" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G415" s="33" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -20552,19 +20553,19 @@
         <v>412</v>
       </c>
       <c r="B416" s="33" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C416" s="33" t="s">
         <v>1886</v>
       </c>
-      <c r="C416" s="33" t="s">
+      <c r="D416" s="33" t="s">
         <v>1887</v>
       </c>
-      <c r="D416" s="33" t="s">
-        <v>1888</v>
-      </c>
       <c r="E416" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -20572,19 +20573,19 @@
         <v>413</v>
       </c>
       <c r="B417" s="37" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C417" s="37" t="s">
         <v>1891</v>
       </c>
-      <c r="C417" s="37" t="s">
-        <v>1892</v>
-      </c>
       <c r="D417" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E417" s="37" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G417" s="37" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="17.25" thickBot="1">
@@ -20592,19 +20593,19 @@
         <v>414</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C418" s="37" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D418" s="37" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E418" s="37" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G418" s="37" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="17.25" thickBot="1">
@@ -20612,19 +20613,19 @@
         <v>415</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C419" s="37" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D419" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E419" s="37" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="17.25" thickBot="1">
@@ -20632,19 +20633,19 @@
         <v>416</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C420" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D420" s="37" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G420" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
   </sheetData>
@@ -20655,7 +20656,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <picture r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF2A4E-70D5-4AD9-B1B3-A67D1E4D72B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B569D52-4E69-4590-9B45-BE1E9D36F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1905">
   <si>
     <t>INT</t>
   </si>
@@ -8913,9 +8913,6 @@
     <t>镜头速度</t>
   </si>
   <si>
-    <t>当前房间Id：{0}</t>
-  </si>
-  <si>
     <t>JumpGameFailed</t>
   </si>
   <si>
@@ -8923,9 +8920,6 @@
   </si>
   <si>
     <t>Points:</t>
-  </si>
-  <si>
-    <t>Current room id:{0}</t>
   </si>
   <si>
     <t>Switch Room Failed!</t>
@@ -9021,6 +9015,22 @@
   </si>
   <si>
     <t>SwitchRoomBtn</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room ID: {0}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch room</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the Room ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间ID：{0}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9952,8 +9962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="E419" sqref="E419"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -12192,7 +12202,7 @@
         <v>316</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>317</v>
@@ -18274,7 +18284,7 @@
         <v>1375</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1376</v>
@@ -20453,19 +20463,19 @@
         <v>407</v>
       </c>
       <c r="B411" s="33" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>1875</v>
+        <v>1901</v>
       </c>
       <c r="D411" s="33" t="s">
-        <v>1871</v>
+        <v>1904</v>
       </c>
       <c r="E411" s="34" t="s">
-        <v>1875</v>
+        <v>1901</v>
       </c>
       <c r="G411" s="34" t="s">
-        <v>1875</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -20473,19 +20483,19 @@
         <v>408</v>
       </c>
       <c r="B412" s="33" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C412" s="34" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D412" s="33" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E412" s="34" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="G412" s="34" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="17.25" thickBot="1">
@@ -20493,19 +20503,19 @@
         <v>409</v>
       </c>
       <c r="B413" s="33" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C413" s="33" t="s">
         <v>1902</v>
       </c>
-      <c r="C413" s="33" t="s">
-        <v>1878</v>
-      </c>
       <c r="D413" s="33" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E413" s="33" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="G413" s="33" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -20513,19 +20523,19 @@
         <v>410</v>
       </c>
       <c r="B414" s="33" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C414" s="33" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D414" s="33" t="s">
         <v>1879</v>
       </c>
-      <c r="C414" s="33" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D414" s="33" t="s">
-        <v>1881</v>
-      </c>
       <c r="E414" s="33" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="G414" s="33" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -20533,19 +20543,19 @@
         <v>411</v>
       </c>
       <c r="B415" s="33" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C415" s="33" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D415" s="33" t="s">
         <v>1882</v>
       </c>
-      <c r="C415" s="33" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D415" s="33" t="s">
-        <v>1884</v>
-      </c>
       <c r="E415" s="33" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="G415" s="33" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -20553,19 +20563,19 @@
         <v>412</v>
       </c>
       <c r="B416" s="33" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C416" s="33" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D416" s="33" t="s">
         <v>1885</v>
       </c>
-      <c r="C416" s="33" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D416" s="33" t="s">
-        <v>1887</v>
-      </c>
       <c r="E416" s="33" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -20573,19 +20583,19 @@
         <v>413</v>
       </c>
       <c r="B417" s="37" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C417" s="37" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D417" s="37" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E417" s="37" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="G417" s="37" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="17.25" thickBot="1">
@@ -20593,19 +20603,19 @@
         <v>414</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="C418" s="37" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D418" s="37" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E418" s="37" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="G418" s="37" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="17.25" thickBot="1">
@@ -20613,19 +20623,19 @@
         <v>415</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C419" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D419" s="37" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E419" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="17.25" thickBot="1">
@@ -20633,19 +20643,19 @@
         <v>416</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="C420" s="37" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D420" s="37" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="G420" s="37" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B569D52-4E69-4590-9B45-BE1E9D36F162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBFD30-3785-4378-AEE4-401079500DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1904">
   <si>
     <t>INT</t>
   </si>
@@ -8871,15 +8871,6 @@
     <t>Prefab_name_9</t>
   </si>
   <si>
-    <t>Character time</t>
-  </si>
-  <si>
-    <t>化形时间</t>
-  </si>
-  <si>
-    <t>Время персонажа</t>
-  </si>
-  <si>
     <t>Battle_shop_1</t>
   </si>
   <si>
@@ -8978,14 +8969,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENG</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -9031,6 +9014,22 @@
   </si>
   <si>
     <t>房间ID：{0}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deform</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>化形</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOB</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9294,7 +9293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9396,6 +9395,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9963,7 +9965,7 @@
   <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+      <selection activeCell="G422" sqref="G422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -12202,7 +12204,7 @@
         <v>316</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>317</v>
@@ -18284,7 +18286,7 @@
         <v>1375</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>1376</v>
@@ -20400,14 +20402,14 @@
       <c r="B407" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="C407" s="3" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G407" s="2" t="s">
-        <v>1859</v>
+      <c r="C407" s="36" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D407" s="38" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G407" s="36" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="17.25" thickBot="1">
@@ -20415,16 +20417,16 @@
         <v>404</v>
       </c>
       <c r="B408" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G408" s="2" t="s">
         <v>1860</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="17.25" thickBot="1">
@@ -20432,16 +20434,16 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G409" s="2" t="s">
         <v>1864</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1865</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="17.25" thickBot="1">
@@ -20449,13 +20451,13 @@
         <v>406</v>
       </c>
       <c r="B410" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C410" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D410" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="17.25" thickBot="1">
@@ -20463,19 +20465,19 @@
         <v>407</v>
       </c>
       <c r="B411" s="33" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="D411" s="33" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="E411" s="34" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="G411" s="34" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -20483,19 +20485,19 @@
         <v>408</v>
       </c>
       <c r="B412" s="33" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C412" s="34" t="s">
         <v>1871</v>
       </c>
-      <c r="C412" s="34" t="s">
-        <v>1874</v>
-      </c>
       <c r="D412" s="33" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="E412" s="34" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="G412" s="34" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="17.25" thickBot="1">
@@ -20503,19 +20505,19 @@
         <v>409</v>
       </c>
       <c r="B413" s="33" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="C413" s="33" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="D413" s="33" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="E413" s="33" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="G413" s="33" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -20523,19 +20525,19 @@
         <v>410</v>
       </c>
       <c r="B414" s="33" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="C414" s="33" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D414" s="33" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="E414" s="33" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="G414" s="33" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -20543,19 +20545,19 @@
         <v>411</v>
       </c>
       <c r="B415" s="33" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C415" s="33" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="D415" s="33" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="E415" s="33" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="G415" s="33" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -20563,19 +20565,19 @@
         <v>412</v>
       </c>
       <c r="B416" s="33" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C416" s="33" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D416" s="33" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="E416" s="33" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -20583,19 +20585,19 @@
         <v>413</v>
       </c>
       <c r="B417" s="37" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C417" s="37" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D417" s="37" t="s">
         <v>1888</v>
       </c>
-      <c r="C417" s="37" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D417" s="37" t="s">
-        <v>1893</v>
-      </c>
       <c r="E417" s="37" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="G417" s="37" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="17.25" thickBot="1">
@@ -20603,19 +20605,19 @@
         <v>414</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="C418" s="37" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D418" s="37" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="E418" s="37" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="G418" s="37" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="17.25" thickBot="1">
@@ -20623,19 +20625,19 @@
         <v>415</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="C419" s="37" t="s">
-        <v>1891</v>
+        <v>1903</v>
       </c>
       <c r="D419" s="37" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="E419" s="37" t="s">
-        <v>1891</v>
+        <v>1903</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>1891</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="17.25" thickBot="1">
@@ -20643,19 +20645,19 @@
         <v>416</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="C420" s="37" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="D420" s="37" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
       <c r="G420" s="37" t="s">
-        <v>1892</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C4641-DD23-47DD-AA69-7DD815010F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722F175-C647-4F90-934B-19C7CEBDFB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1913">
   <si>
     <t>INT</t>
   </si>
@@ -8980,247 +8980,255 @@
     <t>切换房间</t>
   </si>
   <si>
+    <t>Switch to a designated room</t>
+  </si>
+  <si>
+    <t>切换至指定房间</t>
+  </si>
+  <si>
+    <t>请输入房间id</t>
+  </si>
+  <si>
+    <t>Please enter the room ID</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>BuffName001</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>BuffName002</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>BuffName003</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>BuffName004</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>能量</t>
+  </si>
+  <si>
+    <t>EquipTips</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>UnequipTips</t>
+  </si>
+  <si>
+    <t>Unequip</t>
+  </si>
+  <si>
+    <t>卸下</t>
+  </si>
+  <si>
+    <t>StaminaNotEnough</t>
+  </si>
+  <si>
+    <t>Insufficient Stamina！</t>
+  </si>
+  <si>
+    <t>体力不足！</t>
+  </si>
+  <si>
+    <t>Join the battle field</t>
+  </si>
+  <si>
+    <t>Tailings</t>
+  </si>
+  <si>
+    <t>Truce Area</t>
+  </si>
+  <si>
+    <t>Confirm to spend {0} coins on this weapon?</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Soaring Phoenix&lt;/color&gt;: Woven from the feathers of the Phoenix. Adds a small bonus to the player's attack damage.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Scarlet Bat&lt;/color&gt;: Wings of shadowed king-bat . Brings omni-vamp effect to the player.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Cupid&lt;/color&gt;: Filled with the power of god Cupid. Adds a small bonus to health and damage reduction effect.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;ShadowFall&lt;/color&gt;: Made with the darkness of nights. Boosts the player's crit rate and crit damage.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Hearty Angel&lt;/color&gt;: Synthesized from the power of love. Brings a huge bonus to health and damage reduction effect.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Comet Tailiing&lt;/color&gt;: Brings a small bonus to the player's attack.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Meteor Tailing&lt;/color&gt;: Adds a small bonus to health.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Frosty Tailing&lt;/color&gt;: Brings damage reduction effect to the player.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Candy Tailing&lt;/color&gt;: Adds a huge bonus to health.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Maple Tailing&lt;/color&gt;: Adds a huge bonus to the player's attack and life-stealing effect.</t>
+  </si>
+  <si>
+    <t>Qi Shard · &lt;color=#F6663A&gt;Energy↑&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Go have a rumble using the field below, test your strength and dive into combat!</t>
+  </si>
+  <si>
+    <t>Imagine the good old days, when I got my rep as the &lt;color=#F6663A&gt;King warrior of Dragonverse Neo&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>I'm feeling an urge to cry first-time looking at these buildings. What's wrong with me?</t>
+  </si>
+  <si>
+    <t>Skill Details</t>
+  </si>
+  <si>
+    <t>Skill Briefs</t>
+  </si>
+  <si>
+    <t>Magic Enchanter</t>
+  </si>
+  <si>
+    <t>There are &lt;color=#F6663A&gt;random skill boxes&lt;/color&gt; on the rumble field. Pick up to gain a new skill!</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Nebula&lt;/color&gt;: Adds a huge bonus to the player's crit rate.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;HexaStar&lt;/color&gt;: Adds a small bonus to the player's crit resistance.</t>
+  </si>
+  <si>
+    <t>I'm the Sword Master!</t>
+  </si>
+  <si>
+    <t>Swiftness conquers all.. Therefore, &lt;color=#F6663A&gt;Thunder Draw&lt;/color&gt; is a must-learn.</t>
+  </si>
+  <si>
+    <t>Character Shard</t>
+  </si>
+  <si>
+    <t>Illuminum Staff</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Gravity Impact&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3B93BFFF&gt;Shoryuken&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Phoenix Trace&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9357BFFF&gt;Lightening Strike&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Senpu&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3B93BFFF&gt;Thunder Spell&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9357BFFF&gt;Thunder Buff&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#9357BFFF&gt;Raikiri&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Light's Descent&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Flash of Radiance&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#5DBF4DFF&gt;Luminating Heal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3B93BFFF&gt;Time Cage&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#3B93BFFF&gt;Converging Cannon&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Claim rewards at the shop.</t>
+  </si>
+  <si>
+    <t>Pay {0} points for a ticket?</t>
+  </si>
+  <si>
+    <t>Slay Effect</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Songbird&lt;/color&gt; · Bonus to the player's ATK.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Rainbow Tailing&lt;/color&gt; · Reduces the damage taken by the player.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Football Tailing&lt;/color&gt; · Brings critical damage bonus to the player.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt; [Starlight Tailing]&lt;/color&gt; gives the player speed and damage reduction</t>
+  </si>
+  <si>
     <t>JumpRoomText001</t>
-  </si>
-  <si>
-    <t>Switch to a designated room</t>
-  </si>
-  <si>
-    <t>切换至指定房间</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>JumpRoomText002</t>
-  </si>
-  <si>
-    <t>请输入房间id</t>
-  </si>
-  <si>
-    <t>Please enter the room ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room ID: {0}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the Room ID</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>SwitchRoomConfirm</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>BuffName001</t>
-  </si>
-  <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>BuffName002</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>BuffName003</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>BuffName004</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>能量</t>
-  </si>
-  <si>
-    <t>EquipTips</t>
-  </si>
-  <si>
-    <t>Equip</t>
-  </si>
-  <si>
-    <t>装备</t>
-  </si>
-  <si>
-    <t>UnequipTips</t>
-  </si>
-  <si>
-    <t>Unequip</t>
-  </si>
-  <si>
-    <t>卸下</t>
-  </si>
-  <si>
-    <t>StaminaNotEnough</t>
-  </si>
-  <si>
-    <t>Insufficient Stamina！</t>
-  </si>
-  <si>
-    <t>体力不足！</t>
-  </si>
-  <si>
-    <t>Join the battle field</t>
-  </si>
-  <si>
-    <t>Tailings</t>
-  </si>
-  <si>
-    <t>Truce Area</t>
-  </si>
-  <si>
-    <t>Confirm to spend {0} coins on this weapon?</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Soaring Phoenix&lt;/color&gt;: Woven from the feathers of the Phoenix. Adds a small bonus to the player's attack damage.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Scarlet Bat&lt;/color&gt;: Wings of shadowed king-bat . Brings omni-vamp effect to the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Cupid&lt;/color&gt;: Filled with the power of god Cupid. Adds a small bonus to health and damage reduction effect.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;ShadowFall&lt;/color&gt;: Made with the darkness of nights. Boosts the player's crit rate and crit damage.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Hearty Angel&lt;/color&gt;: Synthesized from the power of love. Brings a huge bonus to health and damage reduction effect.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Comet Tailiing&lt;/color&gt;: Brings a small bonus to the player's attack.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Meteor Tailing&lt;/color&gt;: Adds a small bonus to health.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Frosty Tailing&lt;/color&gt;: Brings damage reduction effect to the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Candy Tailing&lt;/color&gt;: Adds a huge bonus to health.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Maple Tailing&lt;/color&gt;: Adds a huge bonus to the player's attack and life-stealing effect.</t>
-  </si>
-  <si>
-    <t>Qi Shard · &lt;color=#F6663A&gt;Energy↑&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Go have a rumble using the field below, test your strength and dive into combat!</t>
-  </si>
-  <si>
-    <t>Imagine the good old days, when I got my rep as the &lt;color=#F6663A&gt;King warrior of Dragonverse Neo&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>I'm feeling an urge to cry first-time looking at these buildings. What's wrong with me?</t>
-  </si>
-  <si>
-    <t>Skill Details</t>
-  </si>
-  <si>
-    <t>Skill Briefs</t>
-  </si>
-  <si>
-    <t>Magic Enchanter</t>
-  </si>
-  <si>
-    <t>There are &lt;color=#F6663A&gt;random skill boxes&lt;/color&gt; on the rumble field. Pick up to gain a new skill!</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Nebula&lt;/color&gt;: Adds a huge bonus to the player's crit rate.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;HexaStar&lt;/color&gt;: Adds a small bonus to the player's crit resistance.</t>
-  </si>
-  <si>
-    <t>I'm the Sword Master!</t>
-  </si>
-  <si>
-    <t>Swiftness conquers all.. Therefore, &lt;color=#F6663A&gt;Thunder Draw&lt;/color&gt; is a must-learn.</t>
-  </si>
-  <si>
-    <t>Character Shard</t>
-  </si>
-  <si>
-    <t>Illuminum Staff</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Gravity Impact&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#3B93BFFF&gt;Shoryuken&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Phoenix Trace&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9357BFFF&gt;Lightening Strike&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Senpu&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#3B93BFFF&gt;Thunder Spell&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9357BFFF&gt;Thunder Buff&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#9357BFFF&gt;Raikiri&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Light's Descent&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Flash of Radiance&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#5DBF4DFF&gt;Luminating Heal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#3B93BFFF&gt;Time Cage&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#3B93BFFF&gt;Converging Cannon&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Legendary</t>
-  </si>
-  <si>
-    <t>Claim rewards at the shop.</t>
-  </si>
-  <si>
-    <t>Pay {0} points for a ticket?</t>
-  </si>
-  <si>
-    <t>Slay Effect</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Songbird&lt;/color&gt; · Bonus to the player's ATK.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Rainbow Tailing&lt;/color&gt; · Reduces the damage taken by the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Football Tailing&lt;/color&gt; · Brings critical damage bonus to the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt; [Starlight Tailing]&lt;/color&gt; gives the player speed and damage reduction</t>
-  </si>
-  <si>
-    <t>Current room id:{0}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10009,8 +10017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H426" sqref="H426"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -10855,7 +10863,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>115</v>
@@ -10923,7 +10931,7 @@
         <v>123</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>124</v>
@@ -11093,7 +11101,7 @@
         <v>147</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>148</v>
@@ -11331,7 +11339,7 @@
         <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>179</v>
@@ -11501,7 +11509,7 @@
         <v>202</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>203</v>
@@ -11535,7 +11543,7 @@
         <v>206</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>207</v>
@@ -11569,7 +11577,7 @@
         <v>210</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>211</v>
@@ -11603,7 +11611,7 @@
         <v>214</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>215</v>
@@ -11637,7 +11645,7 @@
         <v>218</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>219</v>
@@ -11671,7 +11679,7 @@
         <v>222</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>223</v>
@@ -11705,7 +11713,7 @@
         <v>226</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>227</v>
@@ -11739,7 +11747,7 @@
         <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>231</v>
@@ -11773,7 +11781,7 @@
         <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>235</v>
@@ -11807,7 +11815,7 @@
         <v>238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>239</v>
@@ -12249,7 +12257,7 @@
         <v>302</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>303</v>
@@ -12283,7 +12291,7 @@
         <v>306</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>307</v>
@@ -12317,7 +12325,7 @@
         <v>310</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>311</v>
@@ -12351,7 +12359,7 @@
         <v>314</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>315</v>
@@ -12487,7 +12495,7 @@
         <v>333</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>334</v>
@@ -12521,7 +12529,7 @@
         <v>337</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>338</v>
@@ -12589,7 +12597,7 @@
         <v>346</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>347</v>
@@ -12725,7 +12733,7 @@
         <v>365</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>366</v>
@@ -12759,7 +12767,7 @@
         <v>369</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>370</v>
@@ -12793,7 +12801,7 @@
         <v>373</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>374</v>
@@ -12861,7 +12869,7 @@
         <v>381</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>382</v>
@@ -12929,7 +12937,7 @@
         <v>387</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>388</v>
@@ -13201,7 +13209,7 @@
         <v>426</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>427</v>
@@ -13303,7 +13311,7 @@
         <v>440</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>441</v>
@@ -13575,7 +13583,7 @@
         <v>479</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>480</v>
@@ -13745,7 +13753,7 @@
         <v>503</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>504</v>
@@ -13915,7 +13923,7 @@
         <v>527</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>528</v>
@@ -13949,7 +13957,7 @@
         <v>531</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>532</v>
@@ -13983,7 +13991,7 @@
         <v>535</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>536</v>
@@ -14017,7 +14025,7 @@
         <v>539</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>540</v>
@@ -14085,7 +14093,7 @@
         <v>548</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>549</v>
@@ -14153,7 +14161,7 @@
         <v>557</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>558</v>
@@ -14187,7 +14195,7 @@
         <v>561</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>562</v>
@@ -14255,7 +14263,7 @@
         <v>570</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>571</v>
@@ -14289,7 +14297,7 @@
         <v>574</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D126" s="17" t="s">
         <v>575</v>
@@ -14357,7 +14365,7 @@
         <v>583</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>584</v>
@@ -14425,7 +14433,7 @@
         <v>592</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="D130" s="17" t="s">
         <v>593</v>
@@ -16411,7 +16419,7 @@
         <v>883</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="D195" s="23" t="s">
         <v>884</v>
@@ -16571,7 +16579,7 @@
         <v>913</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="D203" s="23" t="s">
         <v>914</v>
@@ -18251,7 +18259,7 @@
         <v>1317</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1318</v>
@@ -18411,7 +18419,7 @@
         <v>1353</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>1354</v>
@@ -18511,7 +18519,7 @@
         <v>1371</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>1372</v>
@@ -18531,7 +18539,7 @@
         <v>1375</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>1376</v>
@@ -18691,7 +18699,7 @@
         <v>1414</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>1415</v>
@@ -18711,7 +18719,7 @@
         <v>1418</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>1419</v>
@@ -18731,7 +18739,7 @@
         <v>1422</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>1423</v>
@@ -20232,7 +20240,7 @@
         <v>1760</v>
       </c>
       <c r="C394" s="27" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>1761</v>
@@ -20513,7 +20521,7 @@
         <v>1822</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D411" s="40" t="s">
         <v>1824</v>
@@ -20570,19 +20578,19 @@
         <v>410</v>
       </c>
       <c r="B414" s="40" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C414" s="40" t="s">
         <v>1831</v>
       </c>
-      <c r="C414" s="40" t="s">
+      <c r="D414" s="40" t="s">
         <v>1832</v>
       </c>
-      <c r="D414" s="40" t="s">
-        <v>1833</v>
-      </c>
       <c r="E414" s="40" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G414" s="40" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -20590,19 +20598,19 @@
         <v>411</v>
       </c>
       <c r="B415" s="40" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C415" s="40" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D415" s="40" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E415" s="40" t="s">
         <v>1834</v>
       </c>
-      <c r="C415" s="40" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D415" s="40" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E415" s="40" t="s">
-        <v>1836</v>
-      </c>
       <c r="G415" s="40" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -20610,19 +20618,19 @@
         <v>412</v>
       </c>
       <c r="B416" s="40" t="s">
-        <v>1837</v>
+        <v>1912</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="E416" s="40" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="G416" s="40" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -20630,19 +20638,19 @@
         <v>413</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D417" s="42" t="s">
         <v>1166</v>
       </c>
       <c r="E417" s="42" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -20650,19 +20658,19 @@
         <v>414</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C418" s="42" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D418" s="42" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="E418" s="42" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="G418" s="42" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -20670,19 +20678,19 @@
         <v>415</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C419" s="42" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="E419" s="42" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="G419" s="42" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -20690,19 +20698,19 @@
         <v>416</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C420" s="42" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="E420" s="42" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="G420" s="42" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -20710,19 +20718,19 @@
         <v>417</v>
       </c>
       <c r="B421" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C421" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D421" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="E421" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="G421" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -20730,19 +20738,19 @@
         <v>418</v>
       </c>
       <c r="B422" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C422" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D422" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="E422" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="G422" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -20750,20 +20758,20 @@
         <v>419</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C423" s="43" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D423" s="43" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="E423" s="43" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="F423" s="43"/>
       <c r="G423" s="44" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BB1CB-3630-45B1-8D84-B56AB4BAC0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FE1DA4-6866-41C2-96B4-F5CC2C942227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1912">
   <si>
     <t>INT</t>
   </si>
@@ -1274,9 +1274,6 @@
   </si>
   <si>
     <t>SkillSelect_5</t>
-  </si>
-  <si>
-    <t>显示详细技能</t>
   </si>
   <si>
     <t>Детали</t>
@@ -7257,9 +7254,6 @@
     <t>切换房间失败！</t>
   </si>
   <si>
-    <t>SwitchRoomBtn</t>
-  </si>
-  <si>
     <t>Switch room</t>
   </si>
   <si>
@@ -7396,9 +7390,6 @@
   </si>
   <si>
     <t>I'm feeling an urge to cry first-time looking at these buildings. What's wrong with me?</t>
-  </si>
-  <si>
-    <t>Skill Details</t>
   </si>
   <si>
     <t>Skill Briefs</t>
@@ -7649,10 +7640,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>详细</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>简洁</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -8011,6 +7998,18 @@
   <si>
     <t>请打开浏览器前往MOBOX官网进行充值：
 https://www.mobox.io</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchRoomBtn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新技能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Skill</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -8800,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D406" sqref="D406"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -8972,7 +8971,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
@@ -9210,7 +9209,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
@@ -9244,7 +9243,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
@@ -9380,7 +9379,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
@@ -9414,7 +9413,7 @@
         <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="6" t="s">
@@ -9482,7 +9481,7 @@
         <v>86</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="8" t="s">
@@ -9516,7 +9515,7 @@
         <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
@@ -9646,7 +9645,7 @@
         <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>108</v>
@@ -9714,7 +9713,7 @@
         <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>117</v>
@@ -9754,7 +9753,7 @@
         <v>122</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
@@ -9788,7 +9787,7 @@
         <v>126</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="6" t="s">
@@ -9822,7 +9821,7 @@
         <v>130</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="6" t="s">
@@ -9884,7 +9883,7 @@
         <v>137</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>138</v>
@@ -9958,7 +9957,7 @@
         <v>148</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="6" t="s">
@@ -10060,7 +10059,7 @@
         <v>162</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="6" t="s">
@@ -10094,7 +10093,7 @@
         <v>165</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="6" t="s">
@@ -10122,7 +10121,7 @@
         <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>167</v>
@@ -10196,7 +10195,7 @@
         <v>177</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="6" t="s">
@@ -10230,7 +10229,7 @@
         <v>181</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="6" t="s">
@@ -10264,7 +10263,7 @@
         <v>185</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="6" t="s">
@@ -10292,13 +10291,13 @@
         <v>187</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="14" t="s">
@@ -10326,13 +10325,13 @@
         <v>190</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15" t="s">
@@ -10360,13 +10359,13 @@
         <v>193</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="14" t="s">
@@ -10394,13 +10393,13 @@
         <v>196</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="14" t="s">
@@ -10428,13 +10427,13 @@
         <v>199</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="14" t="s">
@@ -10462,13 +10461,13 @@
         <v>202</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="6" t="s">
@@ -10496,7 +10495,7 @@
         <v>205</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>206</v>
@@ -10530,13 +10529,13 @@
         <v>209</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="6" t="s">
@@ -10564,7 +10563,7 @@
         <v>212</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>213</v>
@@ -10598,13 +10597,13 @@
         <v>216</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="6" t="s">
@@ -10638,7 +10637,7 @@
         <v>221</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="6" t="s">
@@ -10672,7 +10671,7 @@
         <v>225</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="8" t="s">
@@ -10706,7 +10705,7 @@
         <v>229</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="8" t="s">
@@ -10740,7 +10739,7 @@
         <v>233</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="8" t="s">
@@ -10876,7 +10875,7 @@
         <v>252</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="6" t="s">
@@ -10978,7 +10977,7 @@
         <v>266</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="6" t="s">
@@ -11040,7 +11039,7 @@
         <v>273</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>274</v>
@@ -11074,13 +11073,13 @@
         <v>277</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="14" t="s">
@@ -11108,7 +11107,7 @@
         <v>280</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>281</v>
@@ -11142,7 +11141,7 @@
         <v>284</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>285</v>
@@ -11182,7 +11181,7 @@
         <v>290</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="6" t="s">
@@ -11277,18 +11276,18 @@
       <c r="B73" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>1822</v>
+      <c r="C73" s="16" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>1910</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -11309,20 +11308,20 @@
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -11343,20 +11342,20 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -11377,20 +11376,20 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="E76" s="10" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -11411,20 +11410,20 @@
         <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E77" s="4" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -11445,20 +11444,20 @@
         <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -11479,20 +11478,20 @@
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -11513,20 +11512,20 @@
         <v>76</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -11547,20 +11546,20 @@
         <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E81" s="13" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -11581,20 +11580,20 @@
         <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -11615,20 +11614,20 @@
         <v>79</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E83" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -11649,20 +11648,20 @@
         <v>80</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -11683,20 +11682,20 @@
         <v>81</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="E85" s="4" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -11717,20 +11716,20 @@
         <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -11751,20 +11750,20 @@
         <v>83</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -11785,20 +11784,20 @@
         <v>84</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -11819,20 +11818,20 @@
         <v>85</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -11853,20 +11852,20 @@
         <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -11887,20 +11886,20 @@
         <v>87</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -11921,20 +11920,20 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E92" s="4" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -11955,20 +11954,20 @@
         <v>89</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -11989,20 +11988,20 @@
         <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -12023,20 +12022,20 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -12057,20 +12056,20 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -12091,20 +12090,20 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -12125,20 +12124,20 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -12159,20 +12158,20 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="E99" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -12193,20 +12192,20 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="E100" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -12227,20 +12226,20 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="E101" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -12261,20 +12260,20 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="E102" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -12295,20 +12294,20 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="D103" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="E103" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>433</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -12329,20 +12328,20 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C104" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="D104" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="E104" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -12363,20 +12362,20 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D105" s="17" t="s">
+      <c r="E105" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -12397,20 +12396,20 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="D106" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="E106" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -12431,20 +12430,20 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="D107" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="E107" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -12465,20 +12464,20 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="D108" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="E108" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -12499,20 +12498,20 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="D109" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="E109" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -12533,20 +12532,20 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D110" s="17" t="s">
+      <c r="E110" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -12567,20 +12566,20 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="D111" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="E111" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -12601,20 +12600,20 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="D112" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="E112" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -12635,20 +12634,20 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="D113" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="E113" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -12669,20 +12668,20 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C114" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="D114" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="E114" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -12703,20 +12702,20 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D115" s="17" t="s">
+      <c r="E115" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -12737,20 +12736,20 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D116" s="17" t="s">
+      <c r="E116" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -12771,20 +12770,20 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D117" s="17" t="s">
+      <c r="E117" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -12805,20 +12804,20 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="C118" s="17" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D118" s="17" t="s">
+      <c r="E118" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -12839,20 +12838,20 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C119" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="D119" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="E119" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -12873,20 +12872,20 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D120" s="17" t="s">
+      <c r="E120" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -12907,20 +12906,20 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="D121" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="E121" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -12941,20 +12940,20 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D122" s="17" t="s">
+      <c r="E122" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -12975,20 +12974,20 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D123" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D123" s="17" t="s">
+      <c r="E123" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -13009,20 +13008,20 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C124" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="D124" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="E124" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -13043,20 +13042,20 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D125" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D125" s="17" t="s">
+      <c r="E125" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -13077,20 +13076,20 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="C126" s="17" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D126" s="17" t="s">
+      <c r="E126" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -13111,20 +13110,20 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C127" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="D127" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="E127" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>542</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -13145,20 +13144,20 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D128" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D128" s="17" t="s">
+      <c r="E128" s="5" t="s">
         <v>545</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -13179,20 +13178,20 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C129" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="D129" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="E129" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -13213,20 +13212,20 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D130" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D130" s="17" t="s">
+      <c r="E130" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -13247,20 +13246,20 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="D131" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="E131" s="5" t="s">
         <v>559</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -13281,20 +13280,20 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="D132" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="E132" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -13315,20 +13314,20 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="E133" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>570</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -13349,20 +13348,20 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>574</v>
-      </c>
       <c r="E134" s="10" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -13383,20 +13382,20 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="D135" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="D135" s="18" t="s">
-        <v>578</v>
-      </c>
       <c r="E135" s="10" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -13417,20 +13416,20 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>582</v>
-      </c>
       <c r="E136" s="10" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -13451,20 +13450,20 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>586</v>
-      </c>
       <c r="E137" s="10" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -13485,20 +13484,20 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>590</v>
-      </c>
       <c r="E138" s="10" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -13519,20 +13518,20 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="E139" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>595</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -13553,20 +13552,20 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="D140" s="18" t="s">
-        <v>599</v>
-      </c>
       <c r="E140" s="10" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -13587,20 +13586,20 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>603</v>
-      </c>
       <c r="E141" s="10" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -13621,20 +13620,20 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="D142" s="18" t="s">
-        <v>607</v>
-      </c>
       <c r="E142" s="10" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -13655,20 +13654,20 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="D143" s="18" t="s">
-        <v>611</v>
-      </c>
       <c r="E143" s="10" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -13689,20 +13688,20 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="D144" s="18" t="s">
-        <v>615</v>
-      </c>
       <c r="E144" s="10" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -13723,20 +13722,20 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="D145" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D145" s="18" t="s">
-        <v>619</v>
-      </c>
       <c r="E145" s="10" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -13757,20 +13756,20 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="D146" s="18" t="s">
-        <v>623</v>
-      </c>
       <c r="E146" s="19" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -13791,20 +13790,20 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="E147" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -13825,20 +13824,20 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="E148" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -13859,20 +13858,20 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="D149" s="18" t="s">
-        <v>637</v>
-      </c>
       <c r="E149" s="10" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -13893,20 +13892,20 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>641</v>
-      </c>
       <c r="E150" s="10" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -13927,20 +13926,20 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="D151" s="18" t="s">
-        <v>645</v>
-      </c>
       <c r="E151" s="10" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -13961,20 +13960,20 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="D152" s="18" t="s">
-        <v>649</v>
-      </c>
       <c r="E152" s="10" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -13995,20 +13994,20 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="D153" s="18" t="s">
-        <v>653</v>
-      </c>
       <c r="E153" s="10" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -14029,20 +14028,20 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>657</v>
-      </c>
       <c r="E154" s="10" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -14063,20 +14062,20 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="D155" s="18" t="s">
-        <v>661</v>
-      </c>
       <c r="E155" s="10" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -14097,20 +14096,20 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="D156" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="D156" s="18" t="s">
-        <v>665</v>
-      </c>
       <c r="E156" s="10" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -14131,20 +14130,20 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>669</v>
-      </c>
       <c r="E157" s="10" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -14165,20 +14164,20 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="E158" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -14199,20 +14198,20 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>678</v>
-      </c>
       <c r="E159" s="10" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -14233,20 +14232,20 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="18" t="s">
         <v>681</v>
       </c>
-      <c r="D160" s="18" t="s">
-        <v>682</v>
-      </c>
       <c r="E160" s="10" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -14267,20 +14266,20 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="D161" s="18" t="s">
-        <v>686</v>
-      </c>
       <c r="E161" s="10" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -14301,20 +14300,20 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="D162" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="D162" s="18" t="s">
-        <v>690</v>
-      </c>
       <c r="E162" s="10" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -14335,20 +14334,20 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="D163" s="18" t="s">
-        <v>694</v>
-      </c>
       <c r="E163" s="10" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -14369,18 +14368,18 @@
         <v>160</v>
       </c>
       <c r="B164" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="C164" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="D164" s="22" t="s">
         <v>697</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>698</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -14401,18 +14400,18 @@
         <v>161</v>
       </c>
       <c r="B165" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="C165" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="D165" s="22" t="s">
         <v>701</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>702</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -14433,18 +14432,18 @@
         <v>162</v>
       </c>
       <c r="B166" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="C166" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="C166" s="21" t="s">
+      <c r="D166" s="22" t="s">
         <v>705</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>706</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -14465,18 +14464,18 @@
         <v>163</v>
       </c>
       <c r="B167" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C167" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="D167" s="22" t="s">
         <v>709</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>710</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -14497,18 +14496,18 @@
         <v>164</v>
       </c>
       <c r="B168" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C168" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="D168" s="22" t="s">
         <v>713</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>714</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -14529,18 +14528,18 @@
         <v>165</v>
       </c>
       <c r="B169" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="C169" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="D169" s="22" t="s">
         <v>717</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>718</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -14561,18 +14560,18 @@
         <v>166</v>
       </c>
       <c r="B170" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="C170" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="D170" s="22" t="s">
         <v>721</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>722</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -14593,18 +14592,18 @@
         <v>167</v>
       </c>
       <c r="B171" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C171" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="D171" s="22" t="s">
         <v>725</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>726</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -14625,18 +14624,18 @@
         <v>168</v>
       </c>
       <c r="B172" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="C172" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C172" s="21" t="s">
+      <c r="D172" s="22" t="s">
         <v>729</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>730</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -14657,18 +14656,18 @@
         <v>169</v>
       </c>
       <c r="B173" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="C173" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="D173" s="22" t="s">
         <v>733</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>734</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -14689,18 +14688,18 @@
         <v>170</v>
       </c>
       <c r="B174" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="C174" s="21" t="s">
         <v>736</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="D174" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>738</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -14721,18 +14720,18 @@
         <v>171</v>
       </c>
       <c r="B175" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="C175" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C175" s="21" t="s">
+      <c r="D175" s="22" t="s">
         <v>741</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>742</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -14753,18 +14752,18 @@
         <v>172</v>
       </c>
       <c r="B176" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C176" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="C176" s="21" t="s">
+      <c r="D176" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -14785,18 +14784,18 @@
         <v>173</v>
       </c>
       <c r="B177" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C177" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="C177" s="21" t="s">
+      <c r="D177" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -14817,18 +14816,18 @@
         <v>174</v>
       </c>
       <c r="B178" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="C178" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="D178" s="22" t="s">
         <v>753</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>754</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -14849,18 +14848,18 @@
         <v>175</v>
       </c>
       <c r="B179" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="C179" s="21" t="s">
+      <c r="D179" s="22" t="s">
         <v>757</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -14881,18 +14880,18 @@
         <v>176</v>
       </c>
       <c r="B180" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="C180" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="C180" s="21" t="s">
+      <c r="D180" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -14913,18 +14912,18 @@
         <v>177</v>
       </c>
       <c r="B181" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="C181" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="C181" s="21" t="s">
+      <c r="D181" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>766</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -14945,18 +14944,18 @@
         <v>178</v>
       </c>
       <c r="B182" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="C182" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="D182" s="22" t="s">
         <v>769</v>
-      </c>
-      <c r="D182" s="22" t="s">
-        <v>770</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -14977,18 +14976,18 @@
         <v>179</v>
       </c>
       <c r="B183" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C183" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="C183" s="21" t="s">
+      <c r="D183" s="22" t="s">
         <v>773</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>774</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -15009,16 +15008,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="C184" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="C184" s="21" t="s">
+      <c r="D184" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="G184" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="41.25" thickBot="1">
@@ -15026,16 +15025,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="C185" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="C185" s="21" t="s">
+      <c r="D185" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="G185" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="28.5" thickBot="1">
@@ -15043,16 +15042,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C186" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="C186" s="21" t="s">
+      <c r="D186" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="D186" s="22" t="s">
+      <c r="G186" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="17.25" thickBot="1">
@@ -15060,16 +15059,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="C187" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="D187" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="D187" s="22" t="s">
+      <c r="G187" s="14" t="s">
         <v>790</v>
-      </c>
-      <c r="G187" s="14" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="17.25" thickBot="1">
@@ -15077,16 +15076,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C188" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="C188" s="21" t="s">
+      <c r="D188" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="D188" s="22" t="s">
+      <c r="G188" s="14" t="s">
         <v>794</v>
-      </c>
-      <c r="G188" s="14" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="28.5" thickBot="1">
@@ -15094,16 +15093,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C189" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="C189" s="21" t="s">
+      <c r="D189" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="D189" s="22" t="s">
+      <c r="G189" s="6" t="s">
         <v>798</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="28.5" thickBot="1">
@@ -15111,16 +15110,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="C190" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="C190" s="21" t="s">
+      <c r="D190" s="22" t="s">
         <v>801</v>
       </c>
-      <c r="D190" s="22" t="s">
+      <c r="G190" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="17.25" thickBot="1">
@@ -15128,16 +15127,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C191" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="C191" s="21" t="s">
+      <c r="D191" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="D191" s="22" t="s">
+      <c r="G191" s="14" t="s">
         <v>806</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="41.25" thickBot="1">
@@ -15145,16 +15144,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="C192" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="C192" s="21" t="s">
+      <c r="D192" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="D192" s="22" t="s">
+      <c r="G192" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.5" thickBot="1">
@@ -15162,16 +15161,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="C193" s="21" t="s">
         <v>812</v>
       </c>
-      <c r="C193" s="21" t="s">
+      <c r="D193" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="D193" s="22" t="s">
+      <c r="G193" s="8" t="s">
         <v>814</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15179,16 +15178,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>123</v>
@@ -15199,16 +15198,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D195" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D195" s="23" t="s">
-        <v>819</v>
-      </c>
       <c r="E195" s="4" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>123</v>
@@ -15219,7 +15218,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>125</v>
@@ -15228,10 +15227,10 @@
         <v>165</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15239,19 +15238,19 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="D197" s="23" t="s">
+      <c r="E197" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15259,19 +15258,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="D198" s="23" t="s">
+      <c r="E198" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="G198" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15279,19 +15278,19 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="D199" s="23" t="s">
+      <c r="E199" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15299,7 +15298,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>133</v>
@@ -15319,19 +15318,19 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="D201" s="23" t="s">
+      <c r="E201" s="4" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>838</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15339,19 +15338,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="E202" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>842</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15359,19 +15358,19 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D203" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D203" s="23" t="s">
+      <c r="E203" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="G203" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15379,19 +15378,19 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="C204" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D204" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="D204" s="23" t="s">
+      <c r="E204" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="G204" s="6" t="s">
         <v>850</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15399,19 +15398,19 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="D205" s="23" t="s">
+      <c r="E205" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="G205" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15419,19 +15418,19 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="23" t="s">
         <v>858</v>
       </c>
-      <c r="D206" s="23" t="s">
+      <c r="E206" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="E206" s="4" t="s">
+      <c r="G206" s="6" t="s">
         <v>860</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15439,19 +15438,19 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="D207" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="D207" s="23" t="s">
+      <c r="E207" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="G207" s="6" t="s">
         <v>865</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15459,19 +15458,19 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="D208" s="23" t="s">
+      <c r="E208" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="G208" s="6" t="s">
         <v>870</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15479,19 +15478,19 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="D209" s="23" t="s">
+      <c r="E209" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="G209" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15499,19 +15498,19 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="D210" s="23" t="s">
+      <c r="E210" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="E210" s="4" t="s">
+      <c r="G210" s="6" t="s">
         <v>880</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15519,19 +15518,19 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="D211" s="23" t="s">
+      <c r="E211" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="G211" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15539,19 +15538,19 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="D212" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="D212" s="23" t="s">
+      <c r="E212" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="E212" s="11" t="s">
+      <c r="G212" s="8" t="s">
         <v>890</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15559,19 +15558,19 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>892</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="D213" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="D213" s="23" t="s">
+      <c r="E213" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="G213" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15579,19 +15578,19 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="D214" s="23" t="s">
         <v>898</v>
       </c>
-      <c r="D214" s="23" t="s">
+      <c r="E214" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="G214" s="6" t="s">
         <v>900</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15599,19 +15598,19 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="D215" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="D215" s="23" t="s">
+      <c r="E215" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="G215" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15619,19 +15618,19 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="23" t="s">
         <v>908</v>
       </c>
-      <c r="D216" s="23" t="s">
+      <c r="E216" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>909</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15639,19 +15638,19 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="D217" s="23" t="s">
+      <c r="E217" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>913</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15659,19 +15658,19 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="23" t="s">
         <v>916</v>
       </c>
-      <c r="D218" s="23" t="s">
+      <c r="E218" s="4" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15679,19 +15678,19 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D219" s="23" t="s">
         <v>920</v>
       </c>
-      <c r="D219" s="23" t="s">
+      <c r="E219" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="G219" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15699,19 +15698,19 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="D220" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="D220" s="23" t="s">
+      <c r="E220" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="G220" s="6" t="s">
         <v>927</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15719,19 +15718,19 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="23" t="s">
         <v>930</v>
       </c>
-      <c r="D221" s="23" t="s">
+      <c r="E221" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>931</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15739,19 +15738,19 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D222" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="E222" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="E222" s="4" t="s">
+      <c r="G222" s="6" t="s">
         <v>936</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15759,19 +15758,19 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="D223" s="23" t="s">
+      <c r="E223" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="E223" s="11" t="s">
+      <c r="G223" s="8" t="s">
         <v>941</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15779,19 +15778,19 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="D224" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="E224" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="G224" s="6" t="s">
         <v>946</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15799,19 +15798,19 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="D225" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="D225" s="23" t="s">
+      <c r="E225" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="G225" s="6" t="s">
         <v>951</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15819,19 +15818,19 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G226" s="6" t="s">
         <v>953</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D226" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15839,19 +15838,19 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="D227" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="D227" s="23" t="s">
+      <c r="E227" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="E227" s="4" t="s">
+      <c r="G227" s="6" t="s">
         <v>958</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15859,19 +15858,19 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="D228" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="D228" s="23" t="s">
+      <c r="E228" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="G228" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15879,19 +15878,19 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="D229" s="23" t="s">
         <v>966</v>
       </c>
-      <c r="D229" s="23" t="s">
+      <c r="E229" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="E229" s="4" t="s">
+      <c r="G229" s="6" t="s">
         <v>968</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15899,19 +15898,19 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="D230" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="D230" s="23" t="s">
+      <c r="E230" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="E230" s="4" t="s">
+      <c r="G230" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15919,19 +15918,19 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="D231" s="23" t="s">
         <v>976</v>
       </c>
-      <c r="D231" s="23" t="s">
+      <c r="E231" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="G231" s="6" t="s">
         <v>978</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15939,19 +15938,19 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="D232" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="D232" s="23" t="s">
+      <c r="E232" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G232" s="6" t="s">
         <v>982</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15959,19 +15958,19 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="D233" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="E233" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="E233" s="4" t="s">
+      <c r="G233" s="8" t="s">
         <v>987</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15979,19 +15978,19 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="D234" s="23" t="s">
         <v>990</v>
       </c>
-      <c r="D234" s="23" t="s">
+      <c r="E234" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="E234" s="4" t="s">
+      <c r="G234" s="8" t="s">
         <v>992</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15999,19 +15998,19 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="D235" s="23" t="s">
         <v>995</v>
       </c>
-      <c r="D235" s="23" t="s">
+      <c r="E235" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="E235" s="4" t="s">
+      <c r="G235" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16019,19 +16018,19 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="D236" s="23" t="s">
         <v>1000</v>
       </c>
-      <c r="D236" s="23" t="s">
+      <c r="E236" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="G236" s="6" t="s">
         <v>1002</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16039,19 +16038,19 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="D237" s="23" t="s">
         <v>1005</v>
       </c>
-      <c r="D237" s="23" t="s">
+      <c r="E237" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="E237" s="11" t="s">
+      <c r="G237" s="8" t="s">
         <v>1007</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16059,19 +16058,19 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="D238" s="23" t="s">
         <v>1010</v>
       </c>
-      <c r="D238" s="23" t="s">
+      <c r="E238" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="E238" s="11" t="s">
+      <c r="G238" s="8" t="s">
         <v>1012</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16079,19 +16078,19 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="D239" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="D239" s="23" t="s">
+      <c r="E239" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="E239" s="11" t="s">
+      <c r="G239" s="8" t="s">
         <v>1017</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16099,19 +16098,19 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="D240" s="23" t="s">
         <v>1020</v>
       </c>
-      <c r="D240" s="23" t="s">
+      <c r="E240" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="G240" s="8" t="s">
         <v>1022</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16119,19 +16118,19 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="D241" s="23" t="s">
         <v>1025</v>
       </c>
-      <c r="D241" s="23" t="s">
+      <c r="E241" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="E241" s="4" t="s">
+      <c r="G241" s="6" t="s">
         <v>1027</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16139,19 +16138,19 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="D242" s="23" t="s">
         <v>1030</v>
       </c>
-      <c r="D242" s="23" t="s">
+      <c r="E242" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="E242" s="4" t="s">
+      <c r="G242" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16159,19 +16158,19 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="D243" s="23" t="s">
         <v>1035</v>
       </c>
-      <c r="D243" s="23" t="s">
+      <c r="E243" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="E243" s="4" t="s">
+      <c r="G243" s="6" t="s">
         <v>1037</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.25" thickBot="1">
@@ -16179,19 +16178,19 @@
         <v>240</v>
       </c>
       <c r="B244" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="D244" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="E244" s="4" t="s">
-        <v>1042</v>
-      </c>
       <c r="G244" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" thickBot="1">
@@ -16199,19 +16198,19 @@
         <v>241</v>
       </c>
       <c r="B245" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="D245" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="E245" s="4" t="s">
+      <c r="G245" s="6" t="s">
         <v>1046</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" thickBot="1">
@@ -16219,19 +16218,19 @@
         <v>242</v>
       </c>
       <c r="B246" s="25" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="D246" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="G246" s="6" t="s">
         <v>1051</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.25" thickBot="1">
@@ -16239,19 +16238,19 @@
         <v>243</v>
       </c>
       <c r="B247" s="25" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="D247" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="E247" s="4" t="s">
+      <c r="G247" s="8" t="s">
         <v>1056</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.25" thickBot="1">
@@ -16259,19 +16258,19 @@
         <v>244</v>
       </c>
       <c r="B248" s="25" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="D248" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="E248" s="4" t="s">
+      <c r="G248" s="6" t="s">
         <v>1061</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" thickBot="1">
@@ -16279,19 +16278,19 @@
         <v>245</v>
       </c>
       <c r="B249" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="D249" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E249" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E249" s="4" t="s">
+      <c r="G249" s="8" t="s">
         <v>1065</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" thickBot="1">
@@ -16299,19 +16298,19 @@
         <v>246</v>
       </c>
       <c r="B250" s="25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="D250" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="E250" s="4" t="s">
+      <c r="G250" s="8" t="s">
         <v>1070</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.25" thickBot="1">
@@ -16319,19 +16318,19 @@
         <v>247</v>
       </c>
       <c r="B251" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="D251" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="E251" s="4" t="s">
+      <c r="G251" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.25" thickBot="1">
@@ -16339,19 +16338,19 @@
         <v>248</v>
       </c>
       <c r="B252" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="D252" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="E252" s="4" t="s">
+      <c r="G252" s="8" t="s">
         <v>1080</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.25" thickBot="1">
@@ -16359,19 +16358,19 @@
         <v>249</v>
       </c>
       <c r="B253" s="25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="D253" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="E253" s="4" t="s">
+      <c r="G253" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" thickBot="1">
@@ -16379,19 +16378,19 @@
         <v>250</v>
       </c>
       <c r="B254" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="D254" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="E254" s="4" t="s">
+      <c r="G254" s="8" t="s">
         <v>1090</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.25" thickBot="1">
@@ -16399,19 +16398,19 @@
         <v>251</v>
       </c>
       <c r="B255" s="25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="E255" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.25" thickBot="1">
@@ -16419,19 +16418,19 @@
         <v>252</v>
       </c>
       <c r="B256" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="D256" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="E256" s="4" t="s">
+      <c r="G256" s="8" t="s">
         <v>1097</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" thickBot="1">
@@ -16439,19 +16438,19 @@
         <v>253</v>
       </c>
       <c r="B257" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="D257" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G257" s="8" t="s">
         <v>1101</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G257" s="8" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" thickBot="1">
@@ -16459,19 +16458,19 @@
         <v>254</v>
       </c>
       <c r="B258" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="D258" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="10" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G258" s="8" t="s">
         <v>1105</v>
-      </c>
-      <c r="E258" s="10" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G258" s="8" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" thickBot="1">
@@ -16479,19 +16478,19 @@
         <v>255</v>
       </c>
       <c r="B259" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="D259" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="E259" s="11" t="s">
+      <c r="G259" s="8" t="s">
         <v>1110</v>
-      </c>
-      <c r="G259" s="8" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.25" thickBot="1">
@@ -16499,19 +16498,19 @@
         <v>256</v>
       </c>
       <c r="B260" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="D260" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="G260" s="8" t="s">
         <v>1115</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" thickBot="1">
@@ -16519,19 +16518,19 @@
         <v>257</v>
       </c>
       <c r="B261" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="D261" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="E261" s="4" t="s">
+      <c r="G261" s="8" t="s">
         <v>1120</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" thickBot="1">
@@ -16539,19 +16538,19 @@
         <v>258</v>
       </c>
       <c r="B262" s="25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="D262" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="G262" s="8" t="s">
         <v>1125</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.25" thickBot="1">
@@ -16559,19 +16558,19 @@
         <v>259</v>
       </c>
       <c r="B263" s="25" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="E263" s="4" t="s">
+      <c r="G263" s="8" t="s">
         <v>1130</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.25" thickBot="1">
@@ -16579,19 +16578,19 @@
         <v>260</v>
       </c>
       <c r="B264" s="25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="4" t="s">
         <v>1134</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="G264" s="8" t="s">
         <v>1135</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.25" thickBot="1">
@@ -16599,19 +16598,19 @@
         <v>261</v>
       </c>
       <c r="B265" s="25" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="E265" s="4" t="s">
+      <c r="G265" s="8" t="s">
         <v>1140</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.25" thickBot="1">
@@ -16619,19 +16618,19 @@
         <v>262</v>
       </c>
       <c r="B266" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="G266" s="8" t="s">
         <v>1145</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.25" thickBot="1">
@@ -16639,19 +16638,19 @@
         <v>263</v>
       </c>
       <c r="B267" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="E267" s="4" t="s">
+      <c r="G267" s="8" t="s">
         <v>1150</v>
-      </c>
-      <c r="G267" s="8" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="17.25" thickBot="1">
@@ -16659,19 +16658,19 @@
         <v>264</v>
       </c>
       <c r="B268" s="25" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="E268" s="4" t="s">
+      <c r="G268" s="8" t="s">
         <v>1155</v>
-      </c>
-      <c r="G268" s="8" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" thickBot="1">
@@ -16679,19 +16678,19 @@
         <v>265</v>
       </c>
       <c r="B269" s="25" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E269" s="4" t="s">
+      <c r="G269" s="8" t="s">
         <v>1158</v>
-      </c>
-      <c r="G269" s="8" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" thickBot="1">
@@ -16699,19 +16698,19 @@
         <v>266</v>
       </c>
       <c r="B270" s="25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="E270" s="4" t="s">
+      <c r="G270" s="8" t="s">
         <v>1163</v>
-      </c>
-      <c r="G270" s="8" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.25" thickBot="1">
@@ -16719,19 +16718,19 @@
         <v>267</v>
       </c>
       <c r="B271" s="25" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G271" s="8" t="s">
         <v>1167</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G271" s="8" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.25" thickBot="1">
@@ -16739,19 +16738,19 @@
         <v>268</v>
       </c>
       <c r="B272" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="E272" s="4" t="s">
-        <v>1172</v>
-      </c>
       <c r="G272" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.25" thickBot="1">
@@ -16759,19 +16758,19 @@
         <v>269</v>
       </c>
       <c r="B273" s="25" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D273" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="E273" s="4" t="s">
+      <c r="G273" s="8" t="s">
         <v>1176</v>
-      </c>
-      <c r="G273" s="8" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.25" thickBot="1">
@@ -16779,19 +16778,19 @@
         <v>270</v>
       </c>
       <c r="B274" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="E274" s="4" t="s">
+      <c r="G274" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.25" thickBot="1">
@@ -16799,19 +16798,19 @@
         <v>271</v>
       </c>
       <c r="B275" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E275" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E275" s="4" t="s">
+      <c r="G275" s="2" t="s">
         <v>1185</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.25" thickBot="1">
@@ -16819,19 +16818,19 @@
         <v>272</v>
       </c>
       <c r="B276" s="25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="E276" s="4" t="s">
+      <c r="G276" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" thickBot="1">
@@ -16839,19 +16838,19 @@
         <v>273</v>
       </c>
       <c r="B277" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="E277" s="4" t="s">
+      <c r="G277" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.25" thickBot="1">
@@ -16859,19 +16858,19 @@
         <v>274</v>
       </c>
       <c r="B278" s="25" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="E278" s="4" t="s">
+      <c r="G278" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" thickBot="1">
@@ -16879,19 +16878,19 @@
         <v>275</v>
       </c>
       <c r="B279" s="25" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.25" thickBot="1">
@@ -16899,19 +16898,19 @@
         <v>276</v>
       </c>
       <c r="B280" s="25" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="E280" s="4" t="s">
+      <c r="G280" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.25" thickBot="1">
@@ -16919,19 +16918,19 @@
         <v>277</v>
       </c>
       <c r="B281" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="E281" s="4" t="s">
+      <c r="G281" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.25" thickBot="1">
@@ -16939,19 +16938,19 @@
         <v>278</v>
       </c>
       <c r="B282" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="E282" s="4" t="s">
+      <c r="G282" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.25" thickBot="1">
@@ -16959,19 +16958,19 @@
         <v>279</v>
       </c>
       <c r="B283" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="G283" s="2" t="s">
         <v>1223</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.25" thickBot="1">
@@ -16979,19 +16978,19 @@
         <v>280</v>
       </c>
       <c r="B284" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="E284" s="4" t="s">
+      <c r="G284" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" thickBot="1">
@@ -16999,19 +16998,19 @@
         <v>281</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D285" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="E285" s="4" t="s">
+      <c r="G285" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.25" thickBot="1">
@@ -17019,19 +17018,19 @@
         <v>282</v>
       </c>
       <c r="B286" s="27" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="E286" s="4" t="s">
+      <c r="G286" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.25" thickBot="1">
@@ -17039,19 +17038,19 @@
         <v>283</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="E287" s="4" t="s">
+      <c r="G287" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.25" thickBot="1">
@@ -17059,19 +17058,19 @@
         <v>284</v>
       </c>
       <c r="B288" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C288" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>1245</v>
-      </c>
       <c r="E288" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G288" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.25" thickBot="1">
@@ -17079,19 +17078,19 @@
         <v>285</v>
       </c>
       <c r="B289" s="27" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G289" s="6" t="s">
         <v>1248</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.25" thickBot="1">
@@ -17099,19 +17098,19 @@
         <v>286</v>
       </c>
       <c r="B290" s="27" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="10" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G290" s="6" t="s">
         <v>1252</v>
-      </c>
-      <c r="E290" s="10" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.25" thickBot="1">
@@ -17119,19 +17118,19 @@
         <v>287</v>
       </c>
       <c r="B291" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D291" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="E291" s="4" t="s">
+      <c r="G291" s="8" t="s">
         <v>1257</v>
-      </c>
-      <c r="G291" s="8" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.25" thickBot="1">
@@ -17139,19 +17138,19 @@
         <v>288</v>
       </c>
       <c r="B292" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="11" t="s">
         <v>1261</v>
       </c>
-      <c r="E292" s="11" t="s">
+      <c r="G292" s="6" t="s">
         <v>1262</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.25" thickBot="1">
@@ -17159,19 +17158,19 @@
         <v>289</v>
       </c>
       <c r="B293" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>1264</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="11" t="s">
         <v>1266</v>
       </c>
-      <c r="E293" s="11" t="s">
+      <c r="G293" s="6" t="s">
         <v>1267</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" thickBot="1">
@@ -17179,19 +17178,19 @@
         <v>290</v>
       </c>
       <c r="B294" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G294" s="6" t="s">
         <v>1271</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.25" thickBot="1">
@@ -17199,19 +17198,19 @@
         <v>291</v>
       </c>
       <c r="B295" s="27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G295" s="6" t="s">
         <v>1274</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G295" s="6" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.25" thickBot="1">
@@ -17219,19 +17218,19 @@
         <v>292</v>
       </c>
       <c r="B296" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>1277</v>
-      </c>
       <c r="D296" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G296" s="26" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.25" thickBot="1">
@@ -17239,13 +17238,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>135</v>
@@ -17259,19 +17258,19 @@
         <v>294</v>
       </c>
       <c r="B298" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>1282</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.25" thickBot="1">
@@ -17279,19 +17278,19 @@
         <v>295</v>
       </c>
       <c r="B299" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G299" s="8" t="s">
         <v>1286</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G299" s="8" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.25" thickBot="1">
@@ -17299,19 +17298,19 @@
         <v>296</v>
       </c>
       <c r="B300" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="C300" s="3" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="E300" s="11" t="s">
+      <c r="G300" s="6" t="s">
         <v>1290</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.25" thickBot="1">
@@ -17319,19 +17318,19 @@
         <v>297</v>
       </c>
       <c r="B301" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="E301" s="11" t="s">
+      <c r="G301" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.25" thickBot="1">
@@ -17339,19 +17338,19 @@
         <v>298</v>
       </c>
       <c r="B302" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G302" s="6" t="s">
         <v>1298</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17359,19 +17358,19 @@
         <v>299</v>
       </c>
       <c r="B303" s="27" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1300</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="28" t="s">
         <v>1302</v>
       </c>
-      <c r="E303" s="28" t="s">
+      <c r="G303" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17379,19 +17378,19 @@
         <v>300</v>
       </c>
       <c r="B304" s="27" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>1305</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D304" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="13" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1307</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17399,19 +17398,19 @@
         <v>301</v>
       </c>
       <c r="B305" s="27" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="13" t="s">
         <v>1311</v>
       </c>
-      <c r="E305" s="13" t="s">
+      <c r="G305" s="6" t="s">
         <v>1312</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17419,19 +17418,19 @@
         <v>302</v>
       </c>
       <c r="B306" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="13" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G306" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G306" s="6" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -17439,19 +17438,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="27" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="13" t="s">
         <v>1320</v>
       </c>
-      <c r="E307" s="13" t="s">
+      <c r="G307" s="2" t="s">
         <v>1321</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="33.75" thickBot="1">
@@ -17459,19 +17458,19 @@
         <v>304</v>
       </c>
       <c r="B308" s="27" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="13" t="s">
         <v>1325</v>
       </c>
-      <c r="E308" s="13" t="s">
+      <c r="G308" s="2" t="s">
         <v>1326</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="28.5" thickBot="1">
@@ -17479,19 +17478,19 @@
         <v>305</v>
       </c>
       <c r="B309" s="27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="C309" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1329</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="41.25" thickBot="1">
@@ -17499,19 +17498,19 @@
         <v>306</v>
       </c>
       <c r="B310" s="27" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="13" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="41.25" thickBot="1">
@@ -17519,19 +17518,19 @@
         <v>307</v>
       </c>
       <c r="B311" s="27" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="C311" s="3" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="13" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="41.25" thickBot="1">
@@ -17539,19 +17538,19 @@
         <v>308</v>
       </c>
       <c r="B312" s="27" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>1880</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="41.25" thickBot="1">
@@ -17559,19 +17558,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1341</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="13" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="41.25" thickBot="1">
@@ -17579,19 +17578,19 @@
         <v>310</v>
       </c>
       <c r="B314" s="27" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="13" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="41.25" thickBot="1">
@@ -17599,19 +17598,19 @@
         <v>311</v>
       </c>
       <c r="B315" s="27" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="13" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G315" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>1883</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="41.25" thickBot="1">
@@ -17619,19 +17618,19 @@
         <v>312</v>
       </c>
       <c r="B316" s="27" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="13" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>1884</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.25" thickBot="1">
@@ -17639,19 +17638,19 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="E317" s="10" t="s">
+      <c r="G317" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.25" thickBot="1">
@@ -17659,19 +17658,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="27" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1362</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="24" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="E318" s="24" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.25" thickBot="1">
@@ -17679,19 +17678,19 @@
         <v>315</v>
       </c>
       <c r="B319" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="27" t="s">
         <v>1367</v>
       </c>
-      <c r="D319" s="27" t="s">
+      <c r="E319" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="E319" s="4" t="s">
+      <c r="G319" s="2" t="s">
         <v>1369</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.25" thickBot="1">
@@ -17699,19 +17698,19 @@
         <v>316</v>
       </c>
       <c r="B320" s="27" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C320" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G320" s="2" t="s">
         <v>1372</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.25" thickBot="1">
@@ -17719,19 +17718,19 @@
         <v>317</v>
       </c>
       <c r="B321" s="27" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1375</v>
-      </c>
       <c r="D321" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G321" s="26" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.5" thickBot="1">
@@ -17739,19 +17738,19 @@
         <v>318</v>
       </c>
       <c r="B322" s="27" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1376</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G322" s="2" t="s">
         <v>1378</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>1886</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="17.25" thickBot="1">
@@ -17759,19 +17758,19 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="E323" s="10" t="s">
+      <c r="G323" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="32.25" thickBot="1">
@@ -17779,19 +17778,19 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="17" t="s">
         <v>1386</v>
       </c>
-      <c r="D324" s="17" t="s">
+      <c r="E324" s="29" t="s">
         <v>1387</v>
       </c>
-      <c r="E324" s="29" t="s">
+      <c r="G324" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="32.25" thickBot="1">
@@ -17799,19 +17798,19 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="17" t="s">
         <v>1391</v>
       </c>
-      <c r="D325" s="17" t="s">
+      <c r="E325" s="5" t="s">
         <v>1392</v>
       </c>
-      <c r="E325" s="5" t="s">
+      <c r="G325" s="2" t="s">
         <v>1393</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="32.25" thickBot="1">
@@ -17819,19 +17818,19 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>1395</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D326" s="17" t="s">
         <v>1396</v>
       </c>
-      <c r="D326" s="17" t="s">
+      <c r="E326" s="5" t="s">
         <v>1397</v>
       </c>
-      <c r="E326" s="5" t="s">
+      <c r="G326" s="2" t="s">
         <v>1398</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.5" thickBot="1">
@@ -17839,19 +17838,19 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>1400</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="17" t="s">
         <v>1401</v>
       </c>
-      <c r="D327" s="17" t="s">
+      <c r="E327" s="5" t="s">
         <v>1402</v>
       </c>
-      <c r="E327" s="5" t="s">
+      <c r="G327" s="2" t="s">
         <v>1403</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="17.25" thickBot="1">
@@ -17859,19 +17858,19 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1405</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="17" t="s">
         <v>1406</v>
       </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="5" t="s">
         <v>1407</v>
       </c>
-      <c r="E328" s="5" t="s">
+      <c r="G328" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="32.25" thickBot="1">
@@ -17879,19 +17878,19 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="17" t="s">
         <v>1411</v>
       </c>
-      <c r="D329" s="17" t="s">
+      <c r="E329" s="5" t="s">
         <v>1412</v>
       </c>
-      <c r="E329" s="5" t="s">
+      <c r="G329" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="32.25" thickBot="1">
@@ -17899,19 +17898,19 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1415</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D330" s="17" t="s">
         <v>1416</v>
       </c>
-      <c r="D330" s="17" t="s">
+      <c r="E330" s="5" t="s">
         <v>1417</v>
       </c>
-      <c r="E330" s="5" t="s">
+      <c r="G330" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="32.25" thickBot="1">
@@ -17919,19 +17918,19 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>1420</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="17" t="s">
         <v>1421</v>
       </c>
-      <c r="D331" s="17" t="s">
+      <c r="E331" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="E331" s="5" t="s">
+      <c r="G331" s="2" t="s">
         <v>1423</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="32.25" thickBot="1">
@@ -17939,19 +17938,19 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>1425</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="17" t="s">
         <v>1426</v>
       </c>
-      <c r="D332" s="17" t="s">
+      <c r="E332" s="5" t="s">
         <v>1427</v>
       </c>
-      <c r="E332" s="5" t="s">
+      <c r="G332" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="33.75" thickBot="1">
@@ -17959,19 +17958,19 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="17" t="s">
         <v>1431</v>
       </c>
-      <c r="D333" s="17" t="s">
+      <c r="E333" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="E333" s="5" t="s">
+      <c r="G333" s="2" t="s">
         <v>1433</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="33.75" thickBot="1">
@@ -17979,19 +17978,19 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>1435</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>1437</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="33.75" thickBot="1">
@@ -17999,19 +17998,19 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>1439</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="10" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>1441</v>
-      </c>
-      <c r="E335" s="10" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="33.75" thickBot="1">
@@ -18019,19 +18018,19 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>1443</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="10" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>1445</v>
-      </c>
-      <c r="E336" s="10" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="33.75" thickBot="1">
@@ -18039,19 +18038,19 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>1447</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>1449</v>
-      </c>
-      <c r="E337" s="10" t="s">
-        <v>1890</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.5" thickBot="1">
@@ -18059,19 +18058,19 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>1451</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>1891</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="28.5" thickBot="1">
@@ -18079,19 +18078,19 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>1455</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="27" t="s">
         <v>1456</v>
       </c>
-      <c r="D339" s="27" t="s">
+      <c r="E339" s="10" t="s">
         <v>1457</v>
       </c>
-      <c r="E339" s="10" t="s">
+      <c r="G339" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="33.75" thickBot="1">
@@ -18099,19 +18098,19 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D340" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="10" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="E340" s="10" t="s">
-        <v>1892</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="17.25" thickBot="1">
@@ -18119,19 +18118,19 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>1466</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>1893</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="33.75" thickBot="1">
@@ -18139,19 +18138,19 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D342" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="10" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="E342" s="10" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="28.5" thickBot="1">
@@ -18159,19 +18158,19 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D343" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>1474</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>1895</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -18179,7 +18178,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
@@ -18190,7 +18189,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
@@ -18201,7 +18200,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
@@ -18212,7 +18211,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
@@ -18223,7 +18222,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
@@ -18234,7 +18233,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="27"/>
@@ -18245,7 +18244,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
@@ -18256,7 +18255,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
@@ -18267,7 +18266,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
@@ -18278,7 +18277,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
@@ -18289,19 +18288,19 @@
         <v>350</v>
       </c>
       <c r="B354" s="27" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>1486</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D354" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="31" t="s">
         <v>1488</v>
       </c>
-      <c r="E354" s="31" t="s">
+      <c r="G354" s="2" t="s">
         <v>1489</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="17.25" thickBot="1">
@@ -18309,19 +18308,19 @@
         <v>351</v>
       </c>
       <c r="B355" s="27" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>1491</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="E355" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>1493</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="33.75" thickBot="1">
@@ -18329,19 +18328,19 @@
         <v>352</v>
       </c>
       <c r="B356" s="27" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>1495</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="D356" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="11" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>1497</v>
-      </c>
-      <c r="E356" s="11" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="17.25" thickBot="1">
@@ -18349,19 +18348,19 @@
         <v>353</v>
       </c>
       <c r="B357" s="27" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1499</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="D357" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="E357" s="4" t="s">
+      <c r="G357" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="17.25" thickBot="1">
@@ -18369,19 +18368,19 @@
         <v>354</v>
       </c>
       <c r="B358" s="27" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="D358" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="E358" s="4" t="s">
+      <c r="G358" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="17.25" thickBot="1">
@@ -18389,19 +18388,19 @@
         <v>355</v>
       </c>
       <c r="B359" s="27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="D359" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="10" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>1511</v>
-      </c>
-      <c r="E359" s="10" t="s">
-        <v>1898</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="33.75" thickBot="1">
@@ -18409,19 +18408,19 @@
         <v>356</v>
       </c>
       <c r="B360" s="27" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="D360" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="E360" s="4" t="s">
+      <c r="G360" s="2" t="s">
         <v>1516</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="54" thickBot="1">
@@ -18429,19 +18428,19 @@
         <v>357</v>
       </c>
       <c r="B361" s="27" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="D361" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="E361" s="10" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G361" s="2" t="s">
         <v>1520</v>
-      </c>
-      <c r="E361" s="10" t="s">
-        <v>1899</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="33.75" thickBot="1">
@@ -18449,19 +18448,19 @@
         <v>358</v>
       </c>
       <c r="B362" s="27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="D362" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="10" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G362" s="2" t="s">
         <v>1524</v>
-      </c>
-      <c r="E362" s="10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="17.25" thickBot="1">
@@ -18469,19 +18468,19 @@
         <v>359</v>
       </c>
       <c r="B363" s="27" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="D363" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>1528</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>1901</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="33.75" thickBot="1">
@@ -18489,19 +18488,19 @@
         <v>360</v>
       </c>
       <c r="B364" s="27" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="D364" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="4" t="s">
         <v>1532</v>
       </c>
-      <c r="E364" s="4" t="s">
+      <c r="G364" s="2" t="s">
         <v>1533</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="33.75" thickBot="1">
@@ -18509,19 +18508,19 @@
         <v>361</v>
       </c>
       <c r="B365" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="D365" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G365" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="E365" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="17.25" thickBot="1">
@@ -18529,19 +18528,19 @@
         <v>362</v>
       </c>
       <c r="B366" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C366" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="D366" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G366" s="2" t="s">
         <v>1541</v>
-      </c>
-      <c r="E366" s="4" t="s">
-        <v>1903</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="33.75" thickBot="1">
@@ -18549,19 +18548,19 @@
         <v>363</v>
       </c>
       <c r="B367" s="27" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>1543</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="D367" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>1545</v>
-      </c>
-      <c r="E367" s="10" t="s">
-        <v>1904</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="54" thickBot="1">
@@ -18569,19 +18568,19 @@
         <v>364</v>
       </c>
       <c r="B368" s="27" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C368" s="3" t="s">
         <v>1547</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="D368" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="10" t="s">
+        <v>1901</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>1549</v>
-      </c>
-      <c r="E368" s="10" t="s">
-        <v>1905</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="33.75" thickBot="1">
@@ -18589,19 +18588,19 @@
         <v>365</v>
       </c>
       <c r="B369" s="27" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C369" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="D369" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="10" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>1553</v>
-      </c>
-      <c r="E369" s="10" t="s">
-        <v>1906</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="17.25" thickBot="1">
@@ -18609,19 +18608,19 @@
         <v>366</v>
       </c>
       <c r="B370" s="27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C370" s="3" t="s">
         <v>1555</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="D370" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="10" t="s">
         <v>1557</v>
       </c>
-      <c r="E370" s="10" t="s">
+      <c r="G370" s="2" t="s">
         <v>1558</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -18629,19 +18628,19 @@
         <v>367</v>
       </c>
       <c r="B371" s="27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C371" s="3" t="s">
         <v>1560</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="D371" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="10" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G371" s="2" t="s">
         <v>1562</v>
-      </c>
-      <c r="E371" s="10" t="s">
-        <v>1907</v>
-      </c>
-      <c r="G371" s="2" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50.25" thickBot="1">
@@ -18649,19 +18648,19 @@
         <v>368</v>
       </c>
       <c r="B372" s="27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C372" s="3" t="s">
         <v>1564</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="D372" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="10" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G372" s="2" t="s">
         <v>1566</v>
-      </c>
-      <c r="E372" s="10" t="s">
-        <v>1908</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="17.25" thickBot="1">
@@ -18669,19 +18668,19 @@
         <v>369</v>
       </c>
       <c r="B373" s="27" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="D373" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="24" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G373" s="2" t="s">
         <v>1570</v>
-      </c>
-      <c r="E373" s="24" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="17.25" thickBot="1">
@@ -18689,19 +18688,19 @@
         <v>370</v>
       </c>
       <c r="B374" s="27" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C374" s="3" t="s">
         <v>1572</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="D374" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G374" s="32" t="s">
         <v>1574</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G374" s="32" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="17.25" thickBot="1">
@@ -18709,19 +18708,19 @@
         <v>371</v>
       </c>
       <c r="B375" s="27" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C375" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="D375" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="E375" s="4" t="s">
+      <c r="G375" s="2" t="s">
         <v>1579</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="17.25" thickBot="1">
@@ -18729,19 +18728,19 @@
         <v>372</v>
       </c>
       <c r="B376" s="27" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="D376" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G376" s="26" t="s">
         <v>1583</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>1910</v>
-      </c>
-      <c r="G376" s="26" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="17.25" thickBot="1">
@@ -18749,19 +18748,19 @@
         <v>373</v>
       </c>
       <c r="B377" s="27" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C377" s="27" t="s">
         <v>1585</v>
       </c>
-      <c r="C377" s="27" t="s">
+      <c r="D377" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="E377" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="E377" s="4" t="s">
+      <c r="G377" s="2" t="s">
         <v>1588</v>
-      </c>
-      <c r="G377" s="2" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="33.75" thickBot="1">
@@ -18769,19 +18768,19 @@
         <v>374</v>
       </c>
       <c r="B378" s="27" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C378" s="25" t="s">
         <v>1590</v>
       </c>
-      <c r="C378" s="25" t="s">
+      <c r="D378" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="10" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>1592</v>
-      </c>
-      <c r="E378" s="10" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="41.25" thickBot="1">
@@ -18789,16 +18788,16 @@
         <v>375</v>
       </c>
       <c r="B379" s="27" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C379" s="27" t="s">
         <v>1594</v>
       </c>
-      <c r="C379" s="27" t="s">
+      <c r="D379" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="G379" s="2" t="s">
         <v>1596</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="17.25" thickBot="1">
@@ -18806,13 +18805,13 @@
         <v>376</v>
       </c>
       <c r="B380" s="27" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C380" s="29" t="s">
         <v>1598</v>
       </c>
-      <c r="C380" s="29" t="s">
+      <c r="D380" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1600</v>
       </c>
       <c r="G380" s="2"/>
     </row>
@@ -18821,13 +18820,13 @@
         <v>377</v>
       </c>
       <c r="B381" s="27" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="D381" s="1" t="s">
         <v>1602</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1603</v>
       </c>
       <c r="G381" s="2"/>
     </row>
@@ -18836,13 +18835,13 @@
         <v>378</v>
       </c>
       <c r="B382" s="27" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="C382" s="5" t="s">
-        <v>1605</v>
-      </c>
       <c r="D382" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G382" s="2"/>
     </row>
@@ -18851,13 +18850,13 @@
         <v>379</v>
       </c>
       <c r="B383" s="27" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>1606</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="D383" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1608</v>
       </c>
       <c r="G383" s="2"/>
     </row>
@@ -18866,13 +18865,13 @@
         <v>380</v>
       </c>
       <c r="B384" s="27" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C384" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="D384" s="1" t="s">
         <v>1610</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1611</v>
       </c>
       <c r="G384" s="2"/>
     </row>
@@ -18881,13 +18880,13 @@
         <v>381</v>
       </c>
       <c r="B385" s="27" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="D385" s="1" t="s">
         <v>1613</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1614</v>
       </c>
       <c r="G385" s="2"/>
     </row>
@@ -18896,13 +18895,13 @@
         <v>382</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G386" s="2"/>
     </row>
@@ -18911,13 +18910,13 @@
         <v>383</v>
       </c>
       <c r="B387" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="C387" s="5" t="s">
+      <c r="D387" s="1" t="s">
         <v>1617</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1618</v>
       </c>
       <c r="G387" s="2"/>
     </row>
@@ -18926,13 +18925,13 @@
         <v>384</v>
       </c>
       <c r="B388" s="27" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>1619</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="D388" s="1" t="s">
         <v>1620</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1621</v>
       </c>
       <c r="G388" s="2"/>
     </row>
@@ -18941,13 +18940,13 @@
         <v>385</v>
       </c>
       <c r="B389" s="27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C389" s="5" t="s">
         <v>1622</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="D389" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1624</v>
       </c>
       <c r="G389" s="2"/>
     </row>
@@ -18956,13 +18955,13 @@
         <v>386</v>
       </c>
       <c r="B390" s="27" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C390" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="D390" s="1" t="s">
         <v>1626</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1627</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -18971,13 +18970,13 @@
         <v>387</v>
       </c>
       <c r="B391" s="27" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C391" s="27" t="s">
         <v>1628</v>
       </c>
-      <c r="C391" s="27" t="s">
+      <c r="D391" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1630</v>
       </c>
       <c r="G391" s="2"/>
     </row>
@@ -18986,16 +18985,16 @@
         <v>388</v>
       </c>
       <c r="B392" s="33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C392" s="27" t="s">
         <v>1631</v>
       </c>
-      <c r="C392" s="27" t="s">
+      <c r="D392" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="D392" s="1" t="s">
+      <c r="G392" s="2" t="s">
         <v>1633</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="28.5" thickBot="1">
@@ -19003,16 +19002,16 @@
         <v>389</v>
       </c>
       <c r="B393" s="33" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C393" s="27" t="s">
         <v>1635</v>
       </c>
-      <c r="C393" s="27" t="s">
+      <c r="D393" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="D393" s="1" t="s">
+      <c r="G393" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="41.25" thickBot="1">
@@ -19020,16 +19019,16 @@
         <v>390</v>
       </c>
       <c r="B394" s="34" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C394" s="27" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="C394" s="27" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D394" s="1" t="s">
+      <c r="G394" s="2" t="s">
         <v>1640</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="17.25" thickBot="1">
@@ -19037,11 +19036,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="27" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C395" s="27"/>
       <c r="D395" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G395" s="2"/>
     </row>
@@ -19050,11 +19049,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="27" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C396" s="27"/>
       <c r="D396" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G396" s="2"/>
     </row>
@@ -19063,16 +19062,16 @@
         <v>393</v>
       </c>
       <c r="B397" s="27" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C397" s="27" t="s">
         <v>1646</v>
       </c>
-      <c r="C397" s="27" t="s">
+      <c r="D397" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="G397" s="2" t="s">
         <v>1648</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="17.25" thickBot="1">
@@ -19080,16 +19079,16 @@
         <v>394</v>
       </c>
       <c r="B398" s="25" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C398" s="27" t="s">
         <v>1650</v>
       </c>
-      <c r="C398" s="27" t="s">
+      <c r="D398" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="D398" s="1" t="s">
+      <c r="G398" s="2" t="s">
         <v>1652</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="17.25" thickBot="1">
@@ -19097,16 +19096,16 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C399" s="27" t="s">
         <v>1654</v>
       </c>
-      <c r="C399" s="27" t="s">
+      <c r="D399" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="D399" s="1" t="s">
+      <c r="G399" s="2" t="s">
         <v>1656</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="17.25" thickBot="1">
@@ -19114,16 +19113,16 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C400" s="27" t="s">
         <v>1658</v>
       </c>
-      <c r="C400" s="27" t="s">
+      <c r="D400" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="G400" s="2" t="s">
         <v>1660</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="17.25" thickBot="1">
@@ -19131,16 +19130,16 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C401" s="27" t="s">
         <v>1662</v>
       </c>
-      <c r="C401" s="27" t="s">
+      <c r="D401" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="D401" s="1" t="s">
+      <c r="G401" s="2" t="s">
         <v>1664</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50.25" thickBot="1">
@@ -19148,16 +19147,16 @@
         <v>398</v>
       </c>
       <c r="B402" s="35" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C402" s="36" t="s">
         <v>1666</v>
       </c>
-      <c r="C402" s="36" t="s">
+      <c r="D402" s="36" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G402" s="2" t="s">
         <v>1667</v>
-      </c>
-      <c r="D402" s="36" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="17.25" thickBot="1">
@@ -19165,16 +19164,16 @@
         <v>399</v>
       </c>
       <c r="B403" s="35" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C403" s="37" t="s">
         <v>1669</v>
       </c>
-      <c r="C403" s="37" t="s">
+      <c r="D403" s="37" t="s">
         <v>1670</v>
       </c>
-      <c r="D403" s="37" t="s">
+      <c r="G403" s="2" t="s">
         <v>1671</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="17.25" thickBot="1">
@@ -19182,16 +19181,16 @@
         <v>400</v>
       </c>
       <c r="B404" s="37" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C404" s="37" t="s">
         <v>1673</v>
       </c>
-      <c r="C404" s="37" t="s">
+      <c r="D404" s="37" t="s">
         <v>1674</v>
       </c>
-      <c r="D404" s="37" t="s">
+      <c r="G404" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="17.25" thickBot="1">
@@ -19199,19 +19198,19 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C405" s="27" t="s">
         <v>1677</v>
       </c>
-      <c r="C405" s="27" t="s">
+      <c r="D405" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="E405" t="s">
         <v>1679</v>
       </c>
-      <c r="E405" t="s">
+      <c r="G405" s="2" t="s">
         <v>1680</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="17.25" thickBot="1">
@@ -19219,16 +19218,16 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C406" s="27" t="s">
         <v>1682</v>
       </c>
-      <c r="C406" s="27" t="s">
+      <c r="D406" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="G406" s="2" t="s">
         <v>1684</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="17.25" thickBot="1">
@@ -19236,16 +19235,16 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C407" s="16" t="s">
         <v>1686</v>
       </c>
-      <c r="C407" s="16" t="s">
+      <c r="D407" s="38" t="s">
         <v>1687</v>
       </c>
-      <c r="D407" s="38" t="s">
-        <v>1688</v>
-      </c>
       <c r="G407" s="16" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="17.25" thickBot="1">
@@ -19253,16 +19252,16 @@
         <v>404</v>
       </c>
       <c r="B408" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C408" t="s">
         <v>1689</v>
       </c>
-      <c r="C408" t="s">
+      <c r="D408" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="D408" s="1" t="s">
+      <c r="G408" s="2" t="s">
         <v>1691</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="17.25" thickBot="1">
@@ -19270,16 +19269,16 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C409" t="s">
         <v>1693</v>
       </c>
-      <c r="C409" t="s">
+      <c r="D409" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="D409" s="1" t="s">
+      <c r="G409" s="2" t="s">
         <v>1695</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="17.25" thickBot="1">
@@ -19287,13 +19286,13 @@
         <v>406</v>
       </c>
       <c r="B410" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C410" t="s">
         <v>1697</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>1698</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="17.25" thickBot="1">
@@ -19301,19 +19300,19 @@
         <v>407</v>
       </c>
       <c r="B411" s="40" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E411" s="41" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G411" s="41" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -19321,19 +19320,19 @@
         <v>408</v>
       </c>
       <c r="B412" s="40" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="C412" s="41" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D412" s="40" t="s">
         <v>1702</v>
       </c>
-      <c r="D412" s="40" t="s">
-        <v>1703</v>
-      </c>
       <c r="E412" s="41" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G412" s="41" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="17.25" thickBot="1">
@@ -19341,19 +19340,19 @@
         <v>409</v>
       </c>
       <c r="B413" s="40" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C413" s="40" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D413" s="40" t="s">
         <v>1704</v>
       </c>
-      <c r="C413" s="40" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D413" s="40" t="s">
-        <v>1706</v>
-      </c>
       <c r="E413" s="40" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G413" s="40" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -19361,19 +19360,19 @@
         <v>410</v>
       </c>
       <c r="B414" s="40" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C414" s="40" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E414" s="40" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="G414" s="40" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -19381,19 +19380,19 @@
         <v>411</v>
       </c>
       <c r="B415" s="40" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C415" s="40" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E415" s="40" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="G415" s="40" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -19401,19 +19400,19 @@
         <v>412</v>
       </c>
       <c r="B416" s="40" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E416" s="40" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G416" s="40" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -19421,19 +19420,19 @@
         <v>413</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D417" s="42" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E417" s="42" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -19441,19 +19440,19 @@
         <v>414</v>
       </c>
       <c r="B418" s="42" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C418" s="42" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D418" s="42" t="s">
         <v>1715</v>
       </c>
-      <c r="C418" s="42" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D418" s="42" t="s">
-        <v>1717</v>
-      </c>
       <c r="E418" s="42" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="G418" s="42" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -19461,19 +19460,19 @@
         <v>415</v>
       </c>
       <c r="B419" s="42" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C419" s="42" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D419" s="42" t="s">
         <v>1718</v>
       </c>
-      <c r="C419" s="42" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D419" s="42" t="s">
-        <v>1720</v>
-      </c>
       <c r="E419" s="42" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="G419" s="42" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -19481,19 +19480,19 @@
         <v>416</v>
       </c>
       <c r="B420" s="42" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C420" s="42" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D420" s="42" t="s">
         <v>1721</v>
       </c>
-      <c r="C420" s="42" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D420" s="42" t="s">
-        <v>1723</v>
-      </c>
       <c r="E420" s="42" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G420" s="42" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -19501,19 +19500,19 @@
         <v>417</v>
       </c>
       <c r="B421" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D421" t="s">
         <v>1724</v>
       </c>
-      <c r="C421" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1726</v>
-      </c>
       <c r="E421" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G421" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -19521,19 +19520,19 @@
         <v>418</v>
       </c>
       <c r="B422" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D422" t="s">
         <v>1727</v>
       </c>
-      <c r="C422" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1729</v>
-      </c>
       <c r="E422" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="G422" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -19541,20 +19540,20 @@
         <v>419</v>
       </c>
       <c r="B423" s="43" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C423" s="43" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D423" s="43" t="s">
         <v>1730</v>
       </c>
-      <c r="C423" s="43" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D423" s="43" t="s">
-        <v>1732</v>
-      </c>
       <c r="E423" s="43" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F423" s="43"/>
       <c r="G423" s="44" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4706C2-689B-4A89-8F9F-7C02DF844456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC41A1-40AD-406B-9BEB-535C91BB7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,12 +2355,6 @@
     <t>UI_SkillSelect_BtnTxt_5</t>
   </si>
   <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>放弃</t>
-  </si>
-  <si>
     <t>キャンセル</t>
   </si>
   <si>
@@ -5764,6 +5758,14 @@
   </si>
   <si>
     <t>能量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel(G)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃（G）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -6553,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -6725,7 +6727,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
@@ -6963,7 +6965,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
@@ -6997,7 +6999,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
@@ -7133,7 +7135,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
@@ -7167,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="6" t="s">
@@ -7201,7 +7203,7 @@
         <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="6" t="s">
@@ -7235,7 +7237,7 @@
         <v>85</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="8" t="s">
@@ -7269,7 +7271,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
@@ -7399,17 +7401,17 @@
         <v>106</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="16" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -7467,7 +7469,7 @@
         <v>113</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>114</v>
@@ -7507,7 +7509,7 @@
         <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
@@ -7541,7 +7543,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="6" t="s">
@@ -7575,7 +7577,7 @@
         <v>127</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="6" t="s">
@@ -7637,7 +7639,7 @@
         <v>134</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>135</v>
@@ -7711,7 +7713,7 @@
         <v>145</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="6" t="s">
@@ -7779,7 +7781,7 @@
         <v>154</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="6" t="s">
@@ -7813,7 +7815,7 @@
         <v>158</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="6" t="s">
@@ -7847,7 +7849,7 @@
         <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="6" t="s">
@@ -7875,13 +7877,13 @@
         <v>162</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="6" t="s">
@@ -7915,7 +7917,7 @@
         <v>167</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="8" t="s">
@@ -7949,7 +7951,7 @@
         <v>171</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="6" t="s">
@@ -7983,7 +7985,7 @@
         <v>175</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="6" t="s">
@@ -8017,7 +8019,7 @@
         <v>179</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="6" t="s">
@@ -8045,13 +8047,13 @@
         <v>181</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="14" t="s">
@@ -8079,13 +8081,13 @@
         <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15" t="s">
@@ -8113,13 +8115,13 @@
         <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="14" t="s">
@@ -8147,13 +8149,13 @@
         <v>190</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="14" t="s">
@@ -8181,13 +8183,13 @@
         <v>193</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="14" t="s">
@@ -8215,13 +8217,13 @@
         <v>196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="6" t="s">
@@ -8249,13 +8251,13 @@
         <v>199</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="6" t="s">
@@ -8283,13 +8285,13 @@
         <v>202</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="6" t="s">
@@ -8317,13 +8319,13 @@
         <v>205</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="6" t="s">
@@ -8351,13 +8353,13 @@
         <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="6" t="s">
@@ -8391,7 +8393,7 @@
         <v>213</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="6" t="s">
@@ -8425,7 +8427,7 @@
         <v>217</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="8" t="s">
@@ -8459,7 +8461,7 @@
         <v>221</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="8" t="s">
@@ -8493,7 +8495,7 @@
         <v>225</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="8" t="s">
@@ -8629,7 +8631,7 @@
         <v>244</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="6" t="s">
@@ -8697,7 +8699,7 @@
         <v>253</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="6" t="s">
@@ -8731,7 +8733,7 @@
         <v>257</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="6" t="s">
@@ -8765,7 +8767,7 @@
         <v>261</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="6" t="s">
@@ -8793,13 +8795,13 @@
         <v>263</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="6" t="s">
@@ -8827,13 +8829,13 @@
         <v>266</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="14" t="s">
@@ -8861,13 +8863,13 @@
         <v>269</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="6" t="s">
@@ -8895,7 +8897,7 @@
         <v>271</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>272</v>
@@ -8935,7 +8937,7 @@
         <v>277</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="6" t="s">
@@ -8963,7 +8965,7 @@
         <v>279</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>280</v>
@@ -9031,13 +9033,13 @@
         <v>288</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E73" s="38" t="s">
         <v>1734</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>1736</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
@@ -9065,13 +9067,13 @@
         <v>290</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
@@ -9133,13 +9135,13 @@
         <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="6" t="s">
@@ -9173,7 +9175,7 @@
         <v>303</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
@@ -9201,13 +9203,13 @@
         <v>305</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="14" t="s">
@@ -9269,13 +9271,13 @@
         <v>313</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="14" t="s">
@@ -9303,13 +9305,13 @@
         <v>315</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="14" t="s">
@@ -9337,13 +9339,13 @@
         <v>318</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="14" t="s">
@@ -9377,7 +9379,7 @@
         <v>323</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
@@ -9405,7 +9407,7 @@
         <v>325</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>326</v>
@@ -9445,7 +9447,7 @@
         <v>330</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
@@ -9473,13 +9475,13 @@
         <v>331</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>332</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="14" t="s">
@@ -9683,7 +9685,7 @@
         <v>361</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
@@ -9745,7 +9747,7 @@
         <v>368</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>369</v>
@@ -9847,7 +9849,7 @@
         <v>382</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>383</v>
@@ -10057,7 +10059,7 @@
         <v>413</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="6" t="s">
@@ -10091,7 +10093,7 @@
         <v>417</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
@@ -10119,13 +10121,13 @@
         <v>419</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>420</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="8" t="s">
@@ -10159,7 +10161,7 @@
         <v>424</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
@@ -10193,7 +10195,7 @@
         <v>428</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="8" t="s">
@@ -10227,7 +10229,7 @@
         <v>432</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="8" t="s">
@@ -10261,7 +10263,7 @@
         <v>436</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="8" t="s">
@@ -10289,13 +10291,13 @@
         <v>438</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>439</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="8" t="s">
@@ -10329,7 +10331,7 @@
         <v>443</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="8" t="s">
@@ -10363,7 +10365,7 @@
         <v>447</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="8" t="s">
@@ -10397,7 +10399,7 @@
         <v>451</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="8" t="s">
@@ -10431,7 +10433,7 @@
         <v>455</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="6" t="s">
@@ -10459,13 +10461,13 @@
         <v>457</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>458</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
@@ -10493,13 +10495,13 @@
         <v>460</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>461</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="8" t="s">
@@ -10527,13 +10529,13 @@
         <v>463</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>464</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="6" t="s">
@@ -10561,13 +10563,13 @@
         <v>466</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>467</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="8" t="s">
@@ -10601,7 +10603,7 @@
         <v>471</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="8" t="s">
@@ -10629,13 +10631,13 @@
         <v>473</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>474</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
@@ -10669,7 +10671,7 @@
         <v>478</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
@@ -10697,13 +10699,13 @@
         <v>480</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>481</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="6" t="s">
@@ -10731,13 +10733,13 @@
         <v>483</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>484</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
@@ -10771,7 +10773,7 @@
         <v>488</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="6" t="s">
@@ -10799,13 +10801,13 @@
         <v>490</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>491</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="6" t="s">
@@ -10833,13 +10835,13 @@
         <v>493</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D126" s="17" t="s">
         <v>494</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="6" t="s">
@@ -10873,7 +10875,7 @@
         <v>498</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
@@ -10901,13 +10903,13 @@
         <v>500</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>501</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="6" t="s">
@@ -10941,7 +10943,7 @@
         <v>505</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="6" t="s">
@@ -10969,13 +10971,13 @@
         <v>507</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D130" s="17" t="s">
         <v>508</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
@@ -11009,7 +11011,7 @@
         <v>512</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
@@ -11043,7 +11045,7 @@
         <v>516</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="6" t="s">
@@ -11077,7 +11079,7 @@
         <v>520</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
@@ -11111,7 +11113,7 @@
         <v>524</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="6" t="s">
@@ -11145,7 +11147,7 @@
         <v>528</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
@@ -11179,7 +11181,7 @@
         <v>532</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
@@ -11213,7 +11215,7 @@
         <v>536</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="6" t="s">
@@ -11247,7 +11249,7 @@
         <v>540</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
@@ -11281,7 +11283,7 @@
         <v>544</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="6" t="s">
@@ -11315,7 +11317,7 @@
         <v>548</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="6" t="s">
@@ -11349,7 +11351,7 @@
         <v>552</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="6" t="s">
@@ -11383,7 +11385,7 @@
         <v>556</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
@@ -11417,7 +11419,7 @@
         <v>560</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="6" t="s">
@@ -11451,7 +11453,7 @@
         <v>564</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="6" t="s">
@@ -11485,7 +11487,7 @@
         <v>568</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="6" t="s">
@@ -11519,7 +11521,7 @@
         <v>572</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
@@ -11621,7 +11623,7 @@
         <v>586</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
@@ -11655,7 +11657,7 @@
         <v>590</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="6" t="s">
@@ -11689,7 +11691,7 @@
         <v>594</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
@@ -11723,7 +11725,7 @@
         <v>598</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
@@ -11757,7 +11759,7 @@
         <v>602</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="6" t="s">
@@ -11791,7 +11793,7 @@
         <v>606</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="6" t="s">
@@ -11825,7 +11827,7 @@
         <v>610</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="6" t="s">
@@ -11859,7 +11861,7 @@
         <v>614</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
@@ -11893,7 +11895,7 @@
         <v>618</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
@@ -11961,7 +11963,7 @@
         <v>627</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="8" t="s">
@@ -11995,7 +11997,7 @@
         <v>631</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="6" t="s">
@@ -12029,7 +12031,7 @@
         <v>635</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
@@ -12063,7 +12065,7 @@
         <v>639</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="6" t="s">
@@ -12097,7 +12099,7 @@
         <v>643</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
@@ -12941,7 +12943,7 @@
         <v>766</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>120</v>
@@ -12955,13 +12957,13 @@
         <v>767</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D195" s="23" t="s">
         <v>768</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>120</v>
@@ -12981,7 +12983,7 @@
         <v>161</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>770</v>
@@ -13001,7 +13003,7 @@
         <v>773</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>774</v>
@@ -13014,17 +13016,17 @@
       <c r="B198" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="D198" s="23" t="s">
+      <c r="G198" s="6" t="s">
         <v>777</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13032,19 +13034,19 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D199" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="E199" s="4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>782</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>1807</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13052,7 +13054,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>130</v>
@@ -13072,19 +13074,19 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D201" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="E201" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13092,19 +13094,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D202" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="E202" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>791</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13112,19 +13114,19 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D203" s="23" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13132,19 +13134,19 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D204" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="G204" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13152,19 +13154,19 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D205" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="E205" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="D205" s="23" t="s">
+      <c r="G205" s="6" t="s">
         <v>801</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13172,19 +13174,19 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D206" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="E206" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="D206" s="23" t="s">
+      <c r="G206" s="6" t="s">
         <v>806</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13192,19 +13194,19 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D207" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="E207" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="D207" s="23" t="s">
+      <c r="G207" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13212,19 +13214,19 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D208" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="E208" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D208" s="23" t="s">
+      <c r="G208" s="6" t="s">
         <v>816</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13232,19 +13234,19 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D209" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="E209" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="D209" s="23" t="s">
+      <c r="G209" s="6" t="s">
         <v>821</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13252,19 +13254,19 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D210" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="E210" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="D210" s="23" t="s">
+      <c r="G210" s="6" t="s">
         <v>826</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13272,19 +13274,19 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D211" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="E211" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="D211" s="23" t="s">
+      <c r="G211" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13292,19 +13294,19 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D212" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="E212" s="11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G212" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>836</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>1811</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13312,19 +13314,19 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D213" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="E213" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="D213" s="23" t="s">
+      <c r="G213" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13332,19 +13334,19 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D214" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="E214" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="D214" s="23" t="s">
+      <c r="G214" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13352,19 +13354,19 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D215" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="E215" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="D215" s="23" t="s">
+      <c r="G215" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13372,19 +13374,19 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D216" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="E216" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>855</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13392,19 +13394,19 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D217" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="E217" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>859</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>859</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13412,19 +13414,19 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D218" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="E218" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>862</v>
-      </c>
-      <c r="D218" s="23" t="s">
-        <v>863</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13432,19 +13434,19 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D219" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="E219" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="D219" s="23" t="s">
+      <c r="G219" s="6" t="s">
         <v>867</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13452,19 +13454,19 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D220" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="E220" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D220" s="23" t="s">
+      <c r="G220" s="6" t="s">
         <v>872</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13472,19 +13474,19 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D221" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="E221" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>877</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13492,19 +13494,19 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D222" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="E222" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="G222" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13512,19 +13514,19 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D223" s="23" t="s">
         <v>884</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="E223" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>885</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13532,19 +13534,19 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D224" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="E224" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="G224" s="6" t="s">
         <v>890</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13552,19 +13554,19 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D225" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="E225" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="D225" s="23" t="s">
+      <c r="G225" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13572,7 +13574,7 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>397</v>
@@ -13584,7 +13586,7 @@
         <v>399</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13592,19 +13594,19 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D227" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="E227" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="D227" s="23" t="s">
+      <c r="G227" s="6" t="s">
         <v>902</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13612,19 +13614,19 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D228" s="23" t="s">
         <v>905</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="E228" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D228" s="23" t="s">
+      <c r="G228" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13632,19 +13634,19 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D229" s="23" t="s">
         <v>910</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="E229" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="D229" s="23" t="s">
+      <c r="G229" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13652,19 +13654,19 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D230" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="E230" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D230" s="23" t="s">
+      <c r="G230" s="6" t="s">
         <v>917</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13672,19 +13674,19 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D231" s="23" t="s">
         <v>920</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="E231" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="D231" s="23" t="s">
+      <c r="G231" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13692,19 +13694,19 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D232" s="23" t="s">
         <v>925</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="E232" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G232" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="D232" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13712,19 +13714,19 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D233" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="E233" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="G233" s="8" t="s">
         <v>931</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13732,19 +13734,19 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="D234" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="E234" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="D234" s="23" t="s">
+      <c r="G234" s="8" t="s">
         <v>936</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13752,19 +13754,19 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D235" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="E235" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="D235" s="23" t="s">
+      <c r="G235" s="6" t="s">
         <v>941</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13772,19 +13774,19 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D236" s="23" t="s">
         <v>944</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="E236" s="11" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="D236" s="23" t="s">
-        <v>946</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13792,19 +13794,19 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D237" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="E237" s="11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G237" s="8" t="s">
         <v>949</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>950</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>1817</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13812,19 +13814,19 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D238" s="23" t="s">
         <v>952</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="E238" s="11" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G238" s="8" t="s">
         <v>953</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>954</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13832,19 +13834,19 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D239" s="23" t="s">
         <v>956</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="E239" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G239" s="8" t="s">
         <v>957</v>
-      </c>
-      <c r="D239" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>1819</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13852,19 +13854,19 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D240" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="E240" s="11" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G240" s="8" t="s">
         <v>961</v>
-      </c>
-      <c r="D240" s="23" t="s">
-        <v>962</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13872,19 +13874,19 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D241" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="E241" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="D241" s="23" t="s">
+      <c r="G241" s="6" t="s">
         <v>966</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13892,19 +13894,19 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D242" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="E242" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="D242" s="23" t="s">
+      <c r="G242" s="6" t="s">
         <v>971</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13912,19 +13914,19 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D243" s="23" t="s">
         <v>974</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="E243" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="D243" s="23" t="s">
+      <c r="G243" s="6" t="s">
         <v>976</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.25" thickBot="1">
@@ -13932,19 +13934,19 @@
         <v>240</v>
       </c>
       <c r="B244" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="E244" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>982</v>
-      </c>
       <c r="G244" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" thickBot="1">
@@ -13952,19 +13954,19 @@
         <v>241</v>
       </c>
       <c r="B245" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="E245" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="G245" s="6" t="s">
         <v>985</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" thickBot="1">
@@ -13972,19 +13974,19 @@
         <v>242</v>
       </c>
       <c r="B246" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="E246" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="G246" s="6" t="s">
         <v>990</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.25" thickBot="1">
@@ -13992,19 +13994,19 @@
         <v>243</v>
       </c>
       <c r="B247" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="E247" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="G247" s="8" t="s">
         <v>995</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.25" thickBot="1">
@@ -14012,19 +14014,19 @@
         <v>244</v>
       </c>
       <c r="B248" s="25" t="s">
+        <v>996</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="E248" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="G248" s="6" t="s">
         <v>1000</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" thickBot="1">
@@ -14032,19 +14034,19 @@
         <v>245</v>
       </c>
       <c r="B249" s="25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E249" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="G249" s="8" t="s">
         <v>1004</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" thickBot="1">
@@ -14052,19 +14054,19 @@
         <v>246</v>
       </c>
       <c r="B250" s="25" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="E250" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="G250" s="8" t="s">
         <v>1009</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.25" thickBot="1">
@@ -14072,19 +14074,19 @@
         <v>247</v>
       </c>
       <c r="B251" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="E251" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="G251" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.25" thickBot="1">
@@ -14092,19 +14094,19 @@
         <v>248</v>
       </c>
       <c r="B252" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="E252" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="G252" s="8" t="s">
         <v>1019</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.25" thickBot="1">
@@ -14112,19 +14114,19 @@
         <v>249</v>
       </c>
       <c r="B253" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="E253" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="G253" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" thickBot="1">
@@ -14132,19 +14134,19 @@
         <v>250</v>
       </c>
       <c r="B254" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="E254" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="G254" s="8" t="s">
         <v>1029</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.25" thickBot="1">
@@ -14152,13 +14154,13 @@
         <v>251</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>407</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>409</v>
@@ -14172,19 +14174,19 @@
         <v>252</v>
       </c>
       <c r="B256" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="E256" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="G256" s="8" t="s">
         <v>1036</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" thickBot="1">
@@ -14192,19 +14194,19 @@
         <v>253</v>
       </c>
       <c r="B257" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="E257" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G257" s="8" t="s">
         <v>1040</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G257" s="8" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" thickBot="1">
@@ -14212,19 +14214,19 @@
         <v>254</v>
       </c>
       <c r="B258" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="E258" s="10" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G258" s="8" t="s">
         <v>1044</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E258" s="10" t="s">
-        <v>1822</v>
-      </c>
-      <c r="G258" s="8" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" thickBot="1">
@@ -14232,19 +14234,19 @@
         <v>255</v>
       </c>
       <c r="B259" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="E259" s="11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G259" s="8" t="s">
         <v>1048</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>1823</v>
-      </c>
-      <c r="G259" s="8" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.25" thickBot="1">
@@ -14252,19 +14254,19 @@
         <v>256</v>
       </c>
       <c r="B260" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="E260" s="11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G260" s="8" t="s">
         <v>1052</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" thickBot="1">
@@ -14272,19 +14274,19 @@
         <v>257</v>
       </c>
       <c r="B261" s="25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="E261" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="G261" s="8" t="s">
         <v>1057</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" thickBot="1">
@@ -14292,19 +14294,19 @@
         <v>258</v>
       </c>
       <c r="B262" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="E262" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="G262" s="8" t="s">
         <v>1062</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.25" thickBot="1">
@@ -14312,19 +14314,19 @@
         <v>259</v>
       </c>
       <c r="B263" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="E263" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="G263" s="8" t="s">
         <v>1067</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.25" thickBot="1">
@@ -14332,19 +14334,19 @@
         <v>260</v>
       </c>
       <c r="B264" s="25" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="E264" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="G264" s="8" t="s">
         <v>1072</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.25" thickBot="1">
@@ -14352,19 +14354,19 @@
         <v>261</v>
       </c>
       <c r="B265" s="25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="E265" s="4" t="s">
         <v>1076</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="G265" s="8" t="s">
         <v>1077</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.25" thickBot="1">
@@ -14372,19 +14374,19 @@
         <v>262</v>
       </c>
       <c r="B266" s="25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="E266" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="G266" s="8" t="s">
         <v>1082</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.25" thickBot="1">
@@ -14392,19 +14394,19 @@
         <v>263</v>
       </c>
       <c r="B267" s="25" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="E267" s="4" t="s">
         <v>1086</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="G267" s="8" t="s">
         <v>1087</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G267" s="8" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="17.25" thickBot="1">
@@ -14412,19 +14414,19 @@
         <v>264</v>
       </c>
       <c r="B268" s="25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="E268" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="G268" s="8" t="s">
         <v>1092</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G268" s="8" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" thickBot="1">
@@ -14432,7 +14434,7 @@
         <v>265</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>402</v>
@@ -14441,10 +14443,10 @@
         <v>403</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" thickBot="1">
@@ -14452,19 +14454,19 @@
         <v>266</v>
       </c>
       <c r="B270" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="E270" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="G270" s="8" t="s">
         <v>1100</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G270" s="8" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.25" thickBot="1">
@@ -14472,19 +14474,19 @@
         <v>267</v>
       </c>
       <c r="B271" s="25" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="E271" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G271" s="8" t="s">
         <v>1104</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G271" s="8" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.25" thickBot="1">
@@ -14492,19 +14494,19 @@
         <v>268</v>
       </c>
       <c r="B272" s="25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="E272" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>1110</v>
-      </c>
       <c r="G272" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.25" thickBot="1">
@@ -14512,19 +14514,19 @@
         <v>269</v>
       </c>
       <c r="B273" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="E273" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="G273" s="8" t="s">
         <v>1113</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G273" s="8" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.25" thickBot="1">
@@ -14532,19 +14534,19 @@
         <v>270</v>
       </c>
       <c r="B274" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="E274" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="G274" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.25" thickBot="1">
@@ -14552,19 +14554,19 @@
         <v>271</v>
       </c>
       <c r="B275" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E275" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="G275" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.25" thickBot="1">
@@ -14572,19 +14574,19 @@
         <v>272</v>
       </c>
       <c r="B276" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="E276" s="4" t="s">
         <v>1126</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="G276" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" thickBot="1">
@@ -14592,19 +14594,19 @@
         <v>273</v>
       </c>
       <c r="B277" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="E277" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="G277" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.25" thickBot="1">
@@ -14612,19 +14614,19 @@
         <v>274</v>
       </c>
       <c r="B278" s="25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="E278" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="G278" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" thickBot="1">
@@ -14632,19 +14634,19 @@
         <v>275</v>
       </c>
       <c r="B279" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>1140</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>1826</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.25" thickBot="1">
@@ -14652,19 +14654,19 @@
         <v>276</v>
       </c>
       <c r="B280" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="E280" s="4" t="s">
         <v>1144</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="G280" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.25" thickBot="1">
@@ -14672,19 +14674,19 @@
         <v>277</v>
       </c>
       <c r="B281" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="E281" s="4" t="s">
         <v>1149</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="G281" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.25" thickBot="1">
@@ -14692,19 +14694,19 @@
         <v>278</v>
       </c>
       <c r="B282" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="E282" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="G282" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.25" thickBot="1">
@@ -14712,19 +14714,19 @@
         <v>279</v>
       </c>
       <c r="B283" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="E283" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="G283" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>1161</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.25" thickBot="1">
@@ -14732,19 +14734,19 @@
         <v>280</v>
       </c>
       <c r="B284" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="E284" s="4" t="s">
         <v>1164</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="G284" s="2" t="s">
         <v>1165</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" thickBot="1">
@@ -14752,19 +14754,19 @@
         <v>281</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="E285" s="4" t="s">
         <v>1169</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="G285" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.25" thickBot="1">
@@ -14772,19 +14774,19 @@
         <v>282</v>
       </c>
       <c r="B286" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="E286" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="G286" s="2" t="s">
         <v>1175</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.25" thickBot="1">
@@ -14792,19 +14794,19 @@
         <v>283</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E287" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="C287" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D287" s="1" t="s">
+      <c r="G287" s="2" t="s">
         <v>1179</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.25" thickBot="1">
@@ -14812,13 +14814,13 @@
         <v>284</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>342</v>
@@ -14832,19 +14834,19 @@
         <v>285</v>
       </c>
       <c r="B289" s="27" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="E289" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G289" s="6" t="s">
         <v>1185</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.25" thickBot="1">
@@ -14852,19 +14854,19 @@
         <v>286</v>
       </c>
       <c r="B290" s="27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="E290" s="10" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G290" s="6" t="s">
         <v>1189</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E290" s="10" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.25" thickBot="1">
@@ -14872,19 +14874,19 @@
         <v>287</v>
       </c>
       <c r="B291" s="27" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E291" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="G291" s="8" t="s">
         <v>1193</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G291" s="8" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.25" thickBot="1">
@@ -14892,19 +14894,19 @@
         <v>288</v>
       </c>
       <c r="B292" s="27" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="E292" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G292" s="6" t="s">
         <v>1197</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>1830</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.25" thickBot="1">
@@ -14912,19 +14914,19 @@
         <v>289</v>
       </c>
       <c r="B293" s="27" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="E293" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G293" s="6" t="s">
         <v>1201</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" thickBot="1">
@@ -14932,19 +14934,19 @@
         <v>290</v>
       </c>
       <c r="B294" s="27" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="E294" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G294" s="6" t="s">
         <v>1205</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.25" thickBot="1">
@@ -14952,19 +14954,19 @@
         <v>291</v>
       </c>
       <c r="B295" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G295" s="6" t="s">
         <v>1208</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G295" s="6" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.25" thickBot="1">
@@ -14972,19 +14974,19 @@
         <v>292</v>
       </c>
       <c r="B296" s="27" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G296" s="26" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.25" thickBot="1">
@@ -14992,13 +14994,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>132</v>
@@ -15012,19 +15014,19 @@
         <v>294</v>
       </c>
       <c r="B298" s="27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="E298" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>1216</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>1834</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.25" thickBot="1">
@@ -15032,19 +15034,19 @@
         <v>295</v>
       </c>
       <c r="B299" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="E299" s="11" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G299" s="8" t="s">
         <v>1220</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G299" s="8" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.25" thickBot="1">
@@ -15052,19 +15054,19 @@
         <v>296</v>
       </c>
       <c r="B300" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E300" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G300" s="6" t="s">
         <v>1223</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E300" s="11" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.25" thickBot="1">
@@ -15072,19 +15074,19 @@
         <v>297</v>
       </c>
       <c r="B301" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E301" s="11" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E301" s="11" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.25" thickBot="1">
@@ -15092,19 +15094,19 @@
         <v>298</v>
       </c>
       <c r="B302" s="27" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="E302" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G302" s="6" t="s">
         <v>1230</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15112,19 +15114,19 @@
         <v>299</v>
       </c>
       <c r="B303" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="E303" s="28" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E303" s="28" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15132,19 +15134,19 @@
         <v>300</v>
       </c>
       <c r="B304" s="27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="E304" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15152,19 +15154,19 @@
         <v>301</v>
       </c>
       <c r="B305" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="E305" s="13" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G305" s="6" t="s">
         <v>1242</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15172,19 +15174,19 @@
         <v>302</v>
       </c>
       <c r="B306" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="E306" s="13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G306" s="6" t="s">
         <v>1246</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>1842</v>
-      </c>
-      <c r="G306" s="6" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15192,19 +15194,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="E307" s="13" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>1250</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>1843</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="28.5" thickBot="1">
@@ -15212,19 +15214,19 @@
         <v>304</v>
       </c>
       <c r="B308" s="27" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="E308" s="13" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="28.5" thickBot="1">
@@ -15232,19 +15234,19 @@
         <v>305</v>
       </c>
       <c r="B309" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E309" s="13" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G309" s="2" t="s">
         <v>1257</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G309" s="2" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="41.25" thickBot="1">
@@ -15252,19 +15254,19 @@
         <v>306</v>
       </c>
       <c r="B310" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G310" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G310" s="2" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="41.25" thickBot="1">
@@ -15272,19 +15274,19 @@
         <v>307</v>
       </c>
       <c r="B311" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E311" s="13" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="41.25" thickBot="1">
@@ -15292,19 +15294,19 @@
         <v>308</v>
       </c>
       <c r="B312" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="E312" s="13" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>1267</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="41.25" thickBot="1">
@@ -15312,19 +15314,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="E313" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>1271</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="41.25" thickBot="1">
@@ -15332,19 +15334,19 @@
         <v>310</v>
       </c>
       <c r="B314" s="27" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="E314" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>1275</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="41.25" thickBot="1">
@@ -15352,19 +15354,19 @@
         <v>311</v>
       </c>
       <c r="B315" s="27" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="E315" s="13" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G315" s="2" t="s">
         <v>1279</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="41.25" thickBot="1">
@@ -15372,19 +15374,19 @@
         <v>312</v>
       </c>
       <c r="B316" s="27" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="E316" s="13" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.25" thickBot="1">
@@ -15392,19 +15394,19 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="E317" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="G317" s="2" t="s">
         <v>1288</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.25" thickBot="1">
@@ -15412,19 +15414,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="E318" s="24" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E318" s="24" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.25" thickBot="1">
@@ -15432,19 +15434,19 @@
         <v>315</v>
       </c>
       <c r="B319" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D319" s="27" t="s">
         <v>1295</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="E319" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="D319" s="27" t="s">
+      <c r="G319" s="2" t="s">
         <v>1297</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.25" thickBot="1">
@@ -15452,19 +15454,19 @@
         <v>316</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>342</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.25" thickBot="1">
@@ -15472,19 +15474,19 @@
         <v>317</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G321" s="26" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.5" thickBot="1">
@@ -15492,19 +15494,19 @@
         <v>318</v>
       </c>
       <c r="B322" s="27" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="E322" s="5" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G322" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="17.25" thickBot="1">
@@ -15512,19 +15514,19 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="E323" s="10" t="s">
         <v>1310</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="G323" s="2" t="s">
         <v>1311</v>
-      </c>
-      <c r="E323" s="10" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="28.5" thickBot="1">
@@ -15532,19 +15534,19 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D324" s="17" t="s">
         <v>1314</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="E324" s="29" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E324" s="29" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.5" thickBot="1">
@@ -15552,19 +15554,19 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D325" s="17" t="s">
         <v>1318</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="E325" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G325" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E325" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="28.5" thickBot="1">
@@ -15572,19 +15574,19 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>1322</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="E326" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.5" thickBot="1">
@@ -15592,19 +15594,19 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>1326</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="E327" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G327" s="2" t="s">
         <v>1327</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="17.25" thickBot="1">
@@ -15612,19 +15614,19 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>1330</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="E328" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G328" s="2" t="s">
         <v>1331</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="28.5" thickBot="1">
@@ -15632,19 +15634,19 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D329" s="17" t="s">
         <v>1334</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="E329" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G329" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="28.5" thickBot="1">
@@ -15652,19 +15654,19 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D330" s="17" t="s">
         <v>1338</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="E330" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>1339</v>
-      </c>
-      <c r="D330" s="17" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="28.5" thickBot="1">
@@ -15672,19 +15674,19 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D331" s="17" t="s">
         <v>1342</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="E331" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>1343</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.5" thickBot="1">
@@ -15692,19 +15694,19 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D332" s="17" t="s">
         <v>1346</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="E332" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="28.5" thickBot="1">
@@ -15712,19 +15714,19 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D333" s="17" t="s">
         <v>1350</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="E333" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="33.75" thickBot="1">
@@ -15732,19 +15734,19 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="E334" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="33.75" thickBot="1">
@@ -15752,19 +15754,19 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="E335" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>1359</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E335" s="10" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="33.75" thickBot="1">
@@ -15772,19 +15774,19 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="E336" s="10" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>1363</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E336" s="10" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="33.75" thickBot="1">
@@ -15792,19 +15794,19 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="E337" s="10" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="E337" s="10" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.5" thickBot="1">
@@ -15812,19 +15814,19 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="E338" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="28.5" thickBot="1">
@@ -15832,19 +15834,19 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D339" s="27" t="s">
         <v>1374</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="E339" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="D339" s="27" t="s">
+      <c r="G339" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="E339" s="10" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="33.75" thickBot="1">
@@ -15852,19 +15854,19 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="E340" s="10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>1380</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E340" s="10" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="17.25" thickBot="1">
@@ -15872,19 +15874,19 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="E341" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="33.75" thickBot="1">
@@ -15892,19 +15894,19 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="E342" s="10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E342" s="10" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="28.5" thickBot="1">
@@ -15912,19 +15914,19 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="E343" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -15932,7 +15934,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
@@ -15943,7 +15945,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
@@ -15954,7 +15956,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
@@ -15965,7 +15967,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
@@ -15976,7 +15978,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
@@ -15987,7 +15989,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="27"/>
@@ -15998,7 +16000,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
@@ -16009,7 +16011,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
@@ -16020,7 +16022,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
@@ -16031,7 +16033,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
@@ -16042,19 +16044,19 @@
         <v>350</v>
       </c>
       <c r="B354" s="27" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="E354" s="31" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E354" s="31" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="17.25" thickBot="1">
@@ -16062,19 +16064,19 @@
         <v>351</v>
       </c>
       <c r="B355" s="27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="E355" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>1875</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="33.75" thickBot="1">
@@ -16082,19 +16084,19 @@
         <v>352</v>
       </c>
       <c r="B356" s="27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="E356" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>1414</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E356" s="11" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="17.25" thickBot="1">
@@ -16102,19 +16104,19 @@
         <v>353</v>
       </c>
       <c r="B357" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="E357" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="G357" s="2" t="s">
         <v>1419</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="17.25" thickBot="1">
@@ -16122,19 +16124,19 @@
         <v>354</v>
       </c>
       <c r="B358" s="27" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="E358" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="G358" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="E358" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="17.25" thickBot="1">
@@ -16142,19 +16144,19 @@
         <v>355</v>
       </c>
       <c r="B359" s="27" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D359" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="E359" s="10" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="E359" s="10" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="33.75" thickBot="1">
@@ -16162,19 +16164,19 @@
         <v>356</v>
       </c>
       <c r="B360" s="27" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E360" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D360" s="1" t="s">
+      <c r="G360" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="54" thickBot="1">
@@ -16182,19 +16184,19 @@
         <v>357</v>
       </c>
       <c r="B361" s="27" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G361" s="2" t="s">
         <v>1435</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E361" s="10" t="s">
-        <v>1880</v>
-      </c>
-      <c r="G361" s="2" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="33.75" thickBot="1">
@@ -16202,19 +16204,19 @@
         <v>358</v>
       </c>
       <c r="B362" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G362" s="2" t="s">
         <v>1438</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E362" s="10" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G362" s="2" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="17.25" thickBot="1">
@@ -16222,19 +16224,19 @@
         <v>359</v>
       </c>
       <c r="B363" s="27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="E363" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>1883</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="33.75" thickBot="1">
@@ -16242,19 +16244,19 @@
         <v>360</v>
       </c>
       <c r="B364" s="27" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E364" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="C364" s="3" t="s">
-        <v>1884</v>
-      </c>
-      <c r="D364" s="1" t="s">
+      <c r="G364" s="2" t="s">
         <v>1446</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="33.75" thickBot="1">
@@ -16262,19 +16264,19 @@
         <v>361</v>
       </c>
       <c r="B365" s="27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="E365" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G365" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E365" s="4" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="17.25" thickBot="1">
@@ -16282,19 +16284,19 @@
         <v>362</v>
       </c>
       <c r="B366" s="27" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G366" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>1886</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E366" s="4" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G366" s="2" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="33.75" thickBot="1">
@@ -16302,19 +16304,19 @@
         <v>363</v>
       </c>
       <c r="B367" s="27" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E367" s="10" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G367" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E367" s="10" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G367" s="2" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="54" thickBot="1">
@@ -16322,19 +16324,19 @@
         <v>364</v>
       </c>
       <c r="B368" s="27" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="E368" s="10" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>1460</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E368" s="10" t="s">
-        <v>1890</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="33.75" thickBot="1">
@@ -16342,19 +16344,19 @@
         <v>365</v>
       </c>
       <c r="B369" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G369" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E369" s="10" t="s">
-        <v>1892</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="17.25" thickBot="1">
@@ -16362,19 +16364,19 @@
         <v>366</v>
       </c>
       <c r="B370" s="27" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="E370" s="10" t="s">
         <v>1467</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="G370" s="2" t="s">
         <v>1468</v>
-      </c>
-      <c r="E370" s="10" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16382,19 +16384,19 @@
         <v>367</v>
       </c>
       <c r="B371" s="27" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E371" s="10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G371" s="2" t="s">
         <v>1471</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E371" s="10" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G371" s="2" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50.25" thickBot="1">
@@ -16402,19 +16404,19 @@
         <v>368</v>
       </c>
       <c r="B372" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E372" s="10" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G372" s="2" t="s">
         <v>1474</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="E372" s="10" t="s">
-        <v>1896</v>
-      </c>
-      <c r="G372" s="2" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="17.25" thickBot="1">
@@ -16422,19 +16424,19 @@
         <v>369</v>
       </c>
       <c r="B373" s="27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="E373" s="24" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G373" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="E373" s="24" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="17.25" thickBot="1">
@@ -16442,19 +16444,19 @@
         <v>370</v>
       </c>
       <c r="B374" s="27" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="E374" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G374" s="32" t="s">
         <v>1482</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G374" s="32" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="17.25" thickBot="1">
@@ -16462,19 +16464,19 @@
         <v>371</v>
       </c>
       <c r="B375" s="27" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="E375" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="G375" s="2" t="s">
         <v>1487</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="17.25" thickBot="1">
@@ -16482,19 +16484,19 @@
         <v>372</v>
       </c>
       <c r="B376" s="27" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G376" s="26" t="s">
         <v>1490</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E376" s="4" t="s">
-        <v>1899</v>
-      </c>
-      <c r="G376" s="26" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="17.25" thickBot="1">
@@ -16502,19 +16504,19 @@
         <v>373</v>
       </c>
       <c r="B377" s="27" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C377" s="27" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D377" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="C377" s="27" t="s">
+      <c r="E377" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="G377" s="2" t="s">
         <v>1495</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G377" s="2" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="33.75" thickBot="1">
@@ -16522,19 +16524,19 @@
         <v>374</v>
       </c>
       <c r="B378" s="27" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C378" s="25" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D378" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="C378" s="25" t="s">
+      <c r="E378" s="10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E378" s="10" t="s">
-        <v>1900</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="41.25" thickBot="1">
@@ -16542,16 +16544,16 @@
         <v>375</v>
       </c>
       <c r="B379" s="27" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C379" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D379" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="C379" s="27" t="s">
+      <c r="G379" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="17.25" thickBot="1">
@@ -16559,13 +16561,13 @@
         <v>376</v>
       </c>
       <c r="B380" s="27" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C380" s="29" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D380" s="1" t="s">
         <v>1506</v>
-      </c>
-      <c r="C380" s="29" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1508</v>
       </c>
       <c r="G380" s="2"/>
     </row>
@@ -16574,13 +16576,13 @@
         <v>377</v>
       </c>
       <c r="B381" s="27" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>1509</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1511</v>
       </c>
       <c r="G381" s="2"/>
     </row>
@@ -16589,10 +16591,10 @@
         <v>378</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>346</v>
@@ -16604,13 +16606,13 @@
         <v>379</v>
       </c>
       <c r="B383" s="27" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D383" s="1" t="s">
         <v>1514</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>1516</v>
       </c>
       <c r="G383" s="2"/>
     </row>
@@ -16619,13 +16621,13 @@
         <v>380</v>
       </c>
       <c r="B384" s="27" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D384" s="1" t="s">
         <v>1517</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D384" s="1" t="s">
-        <v>1519</v>
       </c>
       <c r="G384" s="2"/>
     </row>
@@ -16634,13 +16636,13 @@
         <v>381</v>
       </c>
       <c r="B385" s="27" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>1520</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1522</v>
       </c>
       <c r="G385" s="2"/>
     </row>
@@ -16649,13 +16651,13 @@
         <v>382</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="C386" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="G386" s="2"/>
     </row>
@@ -16664,13 +16666,13 @@
         <v>383</v>
       </c>
       <c r="B387" s="27" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>1524</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>1526</v>
       </c>
       <c r="G387" s="2"/>
     </row>
@@ -16679,13 +16681,13 @@
         <v>384</v>
       </c>
       <c r="B388" s="27" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1529</v>
       </c>
       <c r="G388" s="2"/>
     </row>
@@ -16694,13 +16696,13 @@
         <v>385</v>
       </c>
       <c r="B389" s="27" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D389" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1532</v>
       </c>
       <c r="G389" s="2"/>
     </row>
@@ -16709,13 +16711,13 @@
         <v>386</v>
       </c>
       <c r="B390" s="27" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>1533</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1535</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -16724,13 +16726,13 @@
         <v>387</v>
       </c>
       <c r="B391" s="27" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C391" s="27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>1536</v>
-      </c>
-      <c r="C391" s="27" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1538</v>
       </c>
       <c r="G391" s="2"/>
     </row>
@@ -16739,16 +16741,16 @@
         <v>388</v>
       </c>
       <c r="B392" s="33" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C392" s="27" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="C392" s="27" t="s">
+      <c r="G392" s="2" t="s">
         <v>1540</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="28.5" thickBot="1">
@@ -16756,16 +16758,16 @@
         <v>389</v>
       </c>
       <c r="B393" s="33" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C393" s="27" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D393" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="C393" s="27" t="s">
+      <c r="G393" s="2" t="s">
         <v>1544</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="41.25" thickBot="1">
@@ -16773,16 +16775,16 @@
         <v>390</v>
       </c>
       <c r="B394" s="34" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C394" s="27" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>1547</v>
-      </c>
-      <c r="C394" s="27" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G394" s="2" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="17.25" thickBot="1">
@@ -16790,11 +16792,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="27" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C395" s="27"/>
       <c r="D395" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G395" s="2"/>
     </row>
@@ -16803,11 +16805,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="27" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C396" s="27"/>
       <c r="D396" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="G396" s="2"/>
     </row>
@@ -16816,16 +16818,16 @@
         <v>393</v>
       </c>
       <c r="B397" s="27" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C397" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D397" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="C397" s="27" t="s">
+      <c r="G397" s="2" t="s">
         <v>1555</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="17.25" thickBot="1">
@@ -16833,16 +16835,16 @@
         <v>394</v>
       </c>
       <c r="B398" s="25" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C398" s="27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D398" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="C398" s="27" t="s">
+      <c r="G398" s="2" t="s">
         <v>1559</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="17.25" thickBot="1">
@@ -16850,16 +16852,16 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C399" s="27" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="C399" s="27" t="s">
+      <c r="G399" s="2" t="s">
         <v>1563</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="17.25" thickBot="1">
@@ -16867,16 +16869,16 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C400" s="27" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="C400" s="27" t="s">
+      <c r="G400" s="2" t="s">
         <v>1567</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="17.25" thickBot="1">
@@ -16884,16 +16886,16 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C401" s="27" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="C401" s="27" t="s">
+      <c r="G401" s="2" t="s">
         <v>1571</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50.25" thickBot="1">
@@ -16901,16 +16903,16 @@
         <v>398</v>
       </c>
       <c r="B402" s="35" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C402" s="36" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D402" s="36" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G402" s="2" t="s">
         <v>1574</v>
-      </c>
-      <c r="C402" s="36" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D402" s="36" t="s">
-        <v>1901</v>
-      </c>
-      <c r="G402" s="2" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="17.25" thickBot="1">
@@ -16918,16 +16920,16 @@
         <v>399</v>
       </c>
       <c r="B403" s="35" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C403" s="37" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D403" s="37" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G403" s="2" t="s">
         <v>1577</v>
-      </c>
-      <c r="C403" s="37" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D403" s="37" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="17.25" thickBot="1">
@@ -16935,16 +16937,16 @@
         <v>400</v>
       </c>
       <c r="B404" s="37" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C404" s="37" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D404" s="37" t="s">
         <v>1580</v>
       </c>
-      <c r="C404" s="37" t="s">
+      <c r="G404" s="2" t="s">
         <v>1581</v>
-      </c>
-      <c r="D404" s="37" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="17.25" thickBot="1">
@@ -16952,19 +16954,19 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C405" s="27" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="C405" s="27" t="s">
+      <c r="E405" t="s">
         <v>1585</v>
       </c>
-      <c r="D405" s="1" t="s">
+      <c r="G405" s="2" t="s">
         <v>1586</v>
-      </c>
-      <c r="E405" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="17.25" thickBot="1">
@@ -16972,16 +16974,16 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C406" s="27" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="C406" s="27" t="s">
+      <c r="G406" s="2" t="s">
         <v>1590</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="17.25" thickBot="1">
@@ -16989,16 +16991,16 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C407" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D407" s="38" t="s">
         <v>1593</v>
       </c>
-      <c r="C407" s="16" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D407" s="38" t="s">
-        <v>1595</v>
-      </c>
       <c r="G407" s="16" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="17.25" thickBot="1">
@@ -17006,16 +17008,16 @@
         <v>404</v>
       </c>
       <c r="B408" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="C408" t="s">
+      <c r="G408" s="2" t="s">
         <v>1597</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="17.25" thickBot="1">
@@ -17023,16 +17025,16 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="C409" t="s">
+      <c r="G409" s="2" t="s">
         <v>1601</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="17.25" thickBot="1">
@@ -17040,13 +17042,13 @@
         <v>406</v>
       </c>
       <c r="B410" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D410" t="s">
         <v>1604</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="17.25" thickBot="1">
@@ -17054,20 +17056,20 @@
         <v>407</v>
       </c>
       <c r="B411" s="40" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C411" s="41" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D411" s="40" t="s">
         <v>1902</v>
-      </c>
-      <c r="D411" s="40" t="s">
-        <v>1904</v>
       </c>
       <c r="E411" s="41"/>
       <c r="F411" s="41" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G411" s="41" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -17075,20 +17077,20 @@
         <v>408</v>
       </c>
       <c r="B412" s="40" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C412" s="41" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D412" s="40" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E412" s="41"/>
       <c r="F412" s="41" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G412" s="41" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="17.25" thickBot="1">
@@ -17096,20 +17098,20 @@
         <v>409</v>
       </c>
       <c r="B413" s="40" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C413" s="40" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D413" s="40" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E413" s="40"/>
       <c r="F413" s="40" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="G413" s="40" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -17117,20 +17119,20 @@
         <v>410</v>
       </c>
       <c r="B414" s="40" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C414" s="40" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E414" s="40"/>
       <c r="F414" s="40" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G414" s="40" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -17138,20 +17140,20 @@
         <v>411</v>
       </c>
       <c r="B415" s="40" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C415" s="40" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D415" s="40" t="s">
         <v>1903</v>
-      </c>
-      <c r="D415" s="40" t="s">
-        <v>1905</v>
       </c>
       <c r="E415" s="40"/>
       <c r="F415" s="40" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="G415" s="40" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -17159,20 +17161,20 @@
         <v>412</v>
       </c>
       <c r="B416" s="40" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E416" s="40"/>
       <c r="F416" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G416" s="40" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -17180,20 +17182,20 @@
         <v>413</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D417" s="42" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E417" s="42"/>
       <c r="F417" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="17.25" thickBot="1">
@@ -17201,20 +17203,20 @@
         <v>414</v>
       </c>
       <c r="B418" s="42" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C418" s="42" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D418" s="42" t="s">
         <v>1617</v>
-      </c>
-      <c r="C418" s="42" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D418" s="42" t="s">
-        <v>1619</v>
       </c>
       <c r="E418" s="42"/>
       <c r="F418" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G418" s="42" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="17.25" thickBot="1">
@@ -17222,20 +17224,20 @@
         <v>415</v>
       </c>
       <c r="B419" s="42" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C419" s="42" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D419" s="42" t="s">
         <v>1620</v>
-      </c>
-      <c r="C419" s="42" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D419" s="42" t="s">
-        <v>1622</v>
       </c>
       <c r="E419" s="42"/>
       <c r="F419" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="G419" s="42" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="17.25" thickBot="1">
@@ -17243,20 +17245,20 @@
         <v>416</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C420" s="42" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="G420" s="42" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -17264,19 +17266,19 @@
         <v>417</v>
       </c>
       <c r="B421" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D421" t="s">
         <v>1625</v>
       </c>
-      <c r="C421" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1627</v>
-      </c>
       <c r="F421" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="G421" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -17284,19 +17286,19 @@
         <v>418</v>
       </c>
       <c r="B422" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D422" t="s">
         <v>1628</v>
       </c>
-      <c r="C422" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1630</v>
-      </c>
       <c r="F422" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="G422" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -17304,20 +17306,20 @@
         <v>419</v>
       </c>
       <c r="B423" s="43" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C423" s="43" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D423" s="43" t="s">
         <v>1631</v>
-      </c>
-      <c r="C423" s="43" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D423" s="43" t="s">
-        <v>1633</v>
       </c>
       <c r="E423" s="43"/>
       <c r="F423" s="43" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="G423" s="44" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC41A1-40AD-406B-9BEB-535C91BB7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B8510E-AD3E-4F28-9FD8-E4CA00D902DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5234,9 +5234,6 @@
     <t>Skill Details</t>
   </si>
   <si>
-    <t>显示详细技能</t>
-  </si>
-  <si>
     <t>詳細</t>
   </si>
   <si>
@@ -5766,6 +5763,10 @@
   </si>
   <si>
     <t>放弃（G）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新技能</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -6555,8 +6556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -9036,10 +9037,10 @@
         <v>1732</v>
       </c>
       <c r="D73" s="38" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E73" s="38" t="s">
         <v>1733</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>1734</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
@@ -9073,7 +9074,7 @@
         <v>291</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
@@ -9141,7 +9142,7 @@
         <v>299</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="6" t="s">
@@ -9175,7 +9176,7 @@
         <v>303</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
@@ -9203,13 +9204,13 @@
         <v>305</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="14" t="s">
@@ -9274,10 +9275,10 @@
         <v>1649</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>1740</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>1741</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="14" t="s">
@@ -9311,7 +9312,7 @@
         <v>316</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="14" t="s">
@@ -9345,7 +9346,7 @@
         <v>319</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="14" t="s">
@@ -9447,7 +9448,7 @@
         <v>330</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
@@ -9481,7 +9482,7 @@
         <v>332</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="14" t="s">
@@ -9685,7 +9686,7 @@
         <v>361</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
@@ -10059,7 +10060,7 @@
         <v>413</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="6" t="s">
@@ -10093,7 +10094,7 @@
         <v>417</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
@@ -10127,7 +10128,7 @@
         <v>420</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="8" t="s">
@@ -10161,7 +10162,7 @@
         <v>424</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
@@ -10195,7 +10196,7 @@
         <v>428</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="8" t="s">
@@ -10229,7 +10230,7 @@
         <v>432</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="8" t="s">
@@ -10263,7 +10264,7 @@
         <v>436</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="8" t="s">
@@ -10297,7 +10298,7 @@
         <v>439</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="8" t="s">
@@ -10331,7 +10332,7 @@
         <v>443</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="8" t="s">
@@ -10365,7 +10366,7 @@
         <v>447</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="8" t="s">
@@ -10399,7 +10400,7 @@
         <v>451</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="8" t="s">
@@ -10433,7 +10434,7 @@
         <v>455</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="6" t="s">
@@ -10467,7 +10468,7 @@
         <v>458</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
@@ -10501,7 +10502,7 @@
         <v>461</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="8" t="s">
@@ -10535,7 +10536,7 @@
         <v>464</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="6" t="s">
@@ -10569,7 +10570,7 @@
         <v>467</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="8" t="s">
@@ -10603,7 +10604,7 @@
         <v>471</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="8" t="s">
@@ -10637,7 +10638,7 @@
         <v>474</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
@@ -10671,7 +10672,7 @@
         <v>478</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
@@ -10705,7 +10706,7 @@
         <v>481</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="6" t="s">
@@ -10739,7 +10740,7 @@
         <v>484</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
@@ -10773,7 +10774,7 @@
         <v>488</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="6" t="s">
@@ -10807,7 +10808,7 @@
         <v>491</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="6" t="s">
@@ -10841,7 +10842,7 @@
         <v>494</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="6" t="s">
@@ -10875,7 +10876,7 @@
         <v>498</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
@@ -10909,7 +10910,7 @@
         <v>501</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="6" t="s">
@@ -10943,7 +10944,7 @@
         <v>505</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="6" t="s">
@@ -10977,7 +10978,7 @@
         <v>508</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
@@ -11011,7 +11012,7 @@
         <v>512</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
@@ -11045,7 +11046,7 @@
         <v>516</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="6" t="s">
@@ -11079,7 +11080,7 @@
         <v>520</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
@@ -11113,7 +11114,7 @@
         <v>524</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="6" t="s">
@@ -11147,7 +11148,7 @@
         <v>528</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
@@ -11181,7 +11182,7 @@
         <v>532</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
@@ -11215,7 +11216,7 @@
         <v>536</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="6" t="s">
@@ -11249,7 +11250,7 @@
         <v>540</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
@@ -11283,7 +11284,7 @@
         <v>544</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="6" t="s">
@@ -11317,7 +11318,7 @@
         <v>548</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="6" t="s">
@@ -11351,7 +11352,7 @@
         <v>552</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="6" t="s">
@@ -11385,7 +11386,7 @@
         <v>556</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
@@ -11419,7 +11420,7 @@
         <v>560</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="6" t="s">
@@ -11453,7 +11454,7 @@
         <v>564</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="6" t="s">
@@ -11487,7 +11488,7 @@
         <v>568</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="6" t="s">
@@ -11521,7 +11522,7 @@
         <v>572</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
@@ -11623,7 +11624,7 @@
         <v>586</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
@@ -11657,7 +11658,7 @@
         <v>590</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="6" t="s">
@@ -11691,7 +11692,7 @@
         <v>594</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
@@ -11725,7 +11726,7 @@
         <v>598</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
@@ -11759,7 +11760,7 @@
         <v>602</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="6" t="s">
@@ -11793,7 +11794,7 @@
         <v>606</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="6" t="s">
@@ -11827,7 +11828,7 @@
         <v>610</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="6" t="s">
@@ -11861,7 +11862,7 @@
         <v>614</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
@@ -11895,7 +11896,7 @@
         <v>618</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
@@ -11963,7 +11964,7 @@
         <v>627</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="8" t="s">
@@ -11997,7 +11998,7 @@
         <v>631</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="6" t="s">
@@ -12031,7 +12032,7 @@
         <v>635</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
@@ -12065,7 +12066,7 @@
         <v>639</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="6" t="s">
@@ -12099,7 +12100,7 @@
         <v>643</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
@@ -13003,7 +13004,7 @@
         <v>773</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>774</v>
@@ -13017,10 +13018,10 @@
         <v>775</v>
       </c>
       <c r="C198" s="16" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D198" s="23" t="s">
         <v>1907</v>
-      </c>
-      <c r="D198" s="23" t="s">
-        <v>1908</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>776</v>
@@ -13043,7 +13044,7 @@
         <v>780</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G199" s="6" t="s">
         <v>781</v>
@@ -13083,7 +13084,7 @@
         <v>785</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>786</v>
@@ -13103,7 +13104,7 @@
         <v>789</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G202" s="6" t="s">
         <v>790</v>
@@ -13120,7 +13121,7 @@
         <v>1670</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>792</v>
@@ -13137,7 +13138,7 @@
         <v>1684</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D204" s="23" t="s">
         <v>794</v>
@@ -13303,7 +13304,7 @@
         <v>834</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>835</v>
@@ -13423,7 +13424,7 @@
         <v>861</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>862</v>
@@ -13483,7 +13484,7 @@
         <v>875</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>876</v>
@@ -13523,7 +13524,7 @@
         <v>884</v>
       </c>
       <c r="E223" s="11" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>885</v>
@@ -13703,7 +13704,7 @@
         <v>925</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G232" s="6" t="s">
         <v>926</v>
@@ -13783,7 +13784,7 @@
         <v>944</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G236" s="6" t="s">
         <v>945</v>
@@ -13803,7 +13804,7 @@
         <v>948</v>
       </c>
       <c r="E237" s="11" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G237" s="8" t="s">
         <v>949</v>
@@ -13823,7 +13824,7 @@
         <v>952</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>953</v>
@@ -13843,7 +13844,7 @@
         <v>956</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G239" s="8" t="s">
         <v>957</v>
@@ -13863,7 +13864,7 @@
         <v>960</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>961</v>
@@ -14203,7 +14204,7 @@
         <v>1039</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G257" s="8" t="s">
         <v>1040</v>
@@ -14223,7 +14224,7 @@
         <v>1043</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G258" s="8" t="s">
         <v>1044</v>
@@ -14243,7 +14244,7 @@
         <v>1047</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G259" s="8" t="s">
         <v>1048</v>
@@ -14263,7 +14264,7 @@
         <v>1051</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G260" s="8" t="s">
         <v>1052</v>
@@ -14483,7 +14484,7 @@
         <v>1103</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G271" s="8" t="s">
         <v>1104</v>
@@ -14643,7 +14644,7 @@
         <v>1139</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>1140</v>
@@ -14843,7 +14844,7 @@
         <v>1184</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G289" s="6" t="s">
         <v>1185</v>
@@ -14863,7 +14864,7 @@
         <v>1188</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G290" s="6" t="s">
         <v>1189</v>
@@ -14880,7 +14881,7 @@
         <v>1191</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>1192</v>
@@ -14903,7 +14904,7 @@
         <v>1196</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G292" s="6" t="s">
         <v>1197</v>
@@ -14923,7 +14924,7 @@
         <v>1200</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G293" s="6" t="s">
         <v>1201</v>
@@ -14943,7 +14944,7 @@
         <v>1204</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G294" s="6" t="s">
         <v>1205</v>
@@ -14963,7 +14964,7 @@
         <v>1207</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G295" s="6" t="s">
         <v>1208</v>
@@ -15023,7 +15024,7 @@
         <v>1215</v>
       </c>
       <c r="E298" s="11" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G298" s="8" t="s">
         <v>1216</v>
@@ -15043,7 +15044,7 @@
         <v>1219</v>
       </c>
       <c r="E299" s="11" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G299" s="8" t="s">
         <v>1220</v>
@@ -15063,7 +15064,7 @@
         <v>1222</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G300" s="6" t="s">
         <v>1223</v>
@@ -15083,7 +15084,7 @@
         <v>1225</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>1226</v>
@@ -15103,7 +15104,7 @@
         <v>1229</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G302" s="6" t="s">
         <v>1230</v>
@@ -15123,7 +15124,7 @@
         <v>1233</v>
       </c>
       <c r="E303" s="28" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>1234</v>
@@ -15143,7 +15144,7 @@
         <v>1237</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G304" s="2" t="s">
         <v>1238</v>
@@ -15163,7 +15164,7 @@
         <v>1241</v>
       </c>
       <c r="E305" s="13" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G305" s="6" t="s">
         <v>1242</v>
@@ -15183,7 +15184,7 @@
         <v>1245</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G306" s="6" t="s">
         <v>1246</v>
@@ -15203,7 +15204,7 @@
         <v>1249</v>
       </c>
       <c r="E307" s="13" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>1250</v>
@@ -15223,7 +15224,7 @@
         <v>1253</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>1254</v>
@@ -15243,7 +15244,7 @@
         <v>1256</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>1257</v>
@@ -15263,7 +15264,7 @@
         <v>1259</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G310" s="2" t="s">
         <v>1260</v>
@@ -15283,7 +15284,7 @@
         <v>1262</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>1263</v>
@@ -15303,7 +15304,7 @@
         <v>1266</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>1267</v>
@@ -15323,7 +15324,7 @@
         <v>1270</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>1271</v>
@@ -15343,7 +15344,7 @@
         <v>1274</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>1275</v>
@@ -15363,7 +15364,7 @@
         <v>1278</v>
       </c>
       <c r="E315" s="13" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>1279</v>
@@ -15383,7 +15384,7 @@
         <v>1282</v>
       </c>
       <c r="E316" s="13" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>1283</v>
@@ -15423,7 +15424,7 @@
         <v>1291</v>
       </c>
       <c r="E318" s="24" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>1292</v>
@@ -15503,7 +15504,7 @@
         <v>1305</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>1306</v>
@@ -15543,7 +15544,7 @@
         <v>1314</v>
       </c>
       <c r="E324" s="29" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>1315</v>
@@ -15563,7 +15564,7 @@
         <v>1318</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>1319</v>
@@ -15583,7 +15584,7 @@
         <v>1322</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>1323</v>
@@ -15603,7 +15604,7 @@
         <v>1326</v>
       </c>
       <c r="E327" s="5" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>1327</v>
@@ -15623,7 +15624,7 @@
         <v>1330</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>1331</v>
@@ -15643,7 +15644,7 @@
         <v>1334</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>1335</v>
@@ -15663,7 +15664,7 @@
         <v>1338</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>1339</v>
@@ -15683,7 +15684,7 @@
         <v>1342</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G331" s="2" t="s">
         <v>1343</v>
@@ -15703,7 +15704,7 @@
         <v>1346</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G332" s="2" t="s">
         <v>1347</v>
@@ -15723,7 +15724,7 @@
         <v>1350</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G333" s="2" t="s">
         <v>1351</v>
@@ -15743,7 +15744,7 @@
         <v>1354</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>1355</v>
@@ -15763,7 +15764,7 @@
         <v>1358</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G335" s="2" t="s">
         <v>1359</v>
@@ -15783,7 +15784,7 @@
         <v>1362</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G336" s="2" t="s">
         <v>1363</v>
@@ -15803,7 +15804,7 @@
         <v>1366</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G337" s="2" t="s">
         <v>1367</v>
@@ -15823,7 +15824,7 @@
         <v>1370</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G338" s="2" t="s">
         <v>1371</v>
@@ -15863,7 +15864,7 @@
         <v>1379</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>1380</v>
@@ -15883,7 +15884,7 @@
         <v>1383</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>1384</v>
@@ -15903,7 +15904,7 @@
         <v>1387</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>1388</v>
@@ -15923,7 +15924,7 @@
         <v>1391</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>1392</v>
@@ -16053,7 +16054,7 @@
         <v>1405</v>
       </c>
       <c r="E354" s="31" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>1406</v>
@@ -16073,7 +16074,7 @@
         <v>1409</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>1410</v>
@@ -16093,7 +16094,7 @@
         <v>1413</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>1414</v>
@@ -16153,7 +16154,7 @@
         <v>1427</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>1428</v>
@@ -16167,7 +16168,7 @@
         <v>1429</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>1430</v>
@@ -16187,13 +16188,13 @@
         <v>1433</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>1434</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>1435</v>
@@ -16207,13 +16208,13 @@
         <v>1436</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>1438</v>
@@ -16233,7 +16234,7 @@
         <v>1441</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>1442</v>
@@ -16247,7 +16248,7 @@
         <v>1443</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>1444</v>
@@ -16273,7 +16274,7 @@
         <v>1449</v>
       </c>
       <c r="E365" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G365" s="2" t="s">
         <v>1450</v>
@@ -16287,13 +16288,13 @@
         <v>1451</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G366" s="2" t="s">
         <v>1453</v>
@@ -16307,13 +16308,13 @@
         <v>1454</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>1455</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G367" s="2" t="s">
         <v>1456</v>
@@ -16333,7 +16334,7 @@
         <v>1459</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G368" s="2" t="s">
         <v>1460</v>
@@ -16347,13 +16348,13 @@
         <v>1461</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G369" s="2" t="s">
         <v>1463</v>
@@ -16387,13 +16388,13 @@
         <v>1469</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>1470</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G371" s="2" t="s">
         <v>1471</v>
@@ -16407,13 +16408,13 @@
         <v>1472</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>1473</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G372" s="2" t="s">
         <v>1474</v>
@@ -16433,7 +16434,7 @@
         <v>1477</v>
       </c>
       <c r="E373" s="24" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>1478</v>
@@ -16487,13 +16488,13 @@
         <v>1488</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G376" s="26" t="s">
         <v>1490</v>
@@ -16533,7 +16534,7 @@
         <v>1498</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G378" s="2" t="s">
         <v>1499</v>
@@ -16909,7 +16910,7 @@
         <v>1573</v>
       </c>
       <c r="D402" s="36" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G402" s="2" t="s">
         <v>1574</v>
@@ -16923,7 +16924,7 @@
         <v>1575</v>
       </c>
       <c r="C403" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D403" s="37" t="s">
         <v>1576</v>
@@ -17059,17 +17060,17 @@
         <v>1682</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="E411" s="41"/>
       <c r="F411" s="41" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G411" s="41" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -17143,17 +17144,17 @@
         <v>1680</v>
       </c>
       <c r="C415" s="40" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E415" s="40"/>
       <c r="F415" s="40" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G415" s="40" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -17251,7 +17252,7 @@
         <v>1622</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" t="s">

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B8510E-AD3E-4F28-9FD8-E4CA00D902DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA0185-4010-4B7E-9045-94437FE18657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1910">
   <si>
     <t>INT</t>
   </si>
@@ -1146,12 +1146,6 @@
     <t>Weapon_Name_1</t>
   </si>
   <si>
-    <t>Fist</t>
-  </si>
-  <si>
-    <t>拳头</t>
-  </si>
-  <si>
     <t>拳</t>
   </si>
   <si>
@@ -1159,9 +1153,6 @@
   </si>
   <si>
     <t>Weapon_Name_2</t>
-  </si>
-  <si>
-    <t>Thunder Knife</t>
   </si>
   <si>
     <t>轰雷刀</t>
@@ -4936,31 +4927,10 @@
     <t>&lt;color=#FFFF00&gt;Soaring Phoenix&lt;/color&gt;: Woven from the feathers of the Phoenix. Adds a small bonus to the player's attack damage.</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Scarlet Bat&lt;/color&gt;: Wings of shadowed king-bat . Brings omni-vamp effect to the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Cupid&lt;/color&gt;: Filled with the power of god Cupid. Adds a small bonus to health and damage reduction effect.</t>
-  </si>
-  <si>
     <t>&lt;color=#FFFF00&gt;ShadowFall&lt;/color&gt;: Made with the darkness of nights. Boosts the player's crit rate and crit damage.</t>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;Hearty Angel&lt;/color&gt;: Synthesized from the power of love. Brings a huge bonus to health and damage reduction effect.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Comet Tailiing&lt;/color&gt;: Brings a small bonus to the player's attack.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Meteor Tailing&lt;/color&gt;: Adds a small bonus to health.</t>
-  </si>
-  <si>
     <t>&lt;color=#FFFF00&gt;Frosty Tailing&lt;/color&gt;: Brings damage reduction effect to the player.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Candy Tailing&lt;/color&gt;: Adds a huge bonus to health.</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;Maple Tailing&lt;/color&gt;: Adds a huge bonus to the player's attack and life-stealing effect.</t>
   </si>
   <si>
     <t>Qi Shard · &lt;color=#F6663A&gt;Energy↑&lt;/color&gt;</t>
@@ -5768,6 +5738,39 @@
   <si>
     <t>新技能</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Scarlet Bat&lt;/color&gt;: Wings of shadowed king-bat. Brings omni-vamp effect to the player.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Cupid&lt;/color&gt;: Filled with the power of God Cupid. Adds a small bonus to max health and damage reduction effects.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Hearty Angel&lt;/color&gt;: Synthesized from the power of love. Brings a huge bonus to health and damage reduction effects.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Comet Tailiing&lt;/color&gt;: Brings a small bonus to the player's attack damage.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Meteor Tailing&lt;/color&gt;: Adds a small bonus to max health.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Candy Tailing&lt;/color&gt;: Adds a huge bonus to max health.</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;Maple Tailing&lt;/color&gt;: Adds a huge bonus to the player's attack damage and omni-vamp effects.</t>
+  </si>
+  <si>
+    <t>Striker Gauntlet</t>
+  </si>
+  <si>
+    <t>冲击拳套</t>
+  </si>
+  <si>
+    <t>Thunder Katana</t>
+  </si>
+  <si>
+    <t>About skills</t>
   </si>
 </sst>
 </file>
@@ -6556,8 +6559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -6728,7 +6731,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
@@ -6966,7 +6969,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
@@ -7000,7 +7003,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
@@ -7136,7 +7139,7 @@
         <v>73</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
@@ -7170,7 +7173,7 @@
         <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="6" t="s">
@@ -7204,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="6" t="s">
@@ -7238,7 +7241,7 @@
         <v>85</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="8" t="s">
@@ -7272,7 +7275,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="6" t="s">
@@ -7402,17 +7405,17 @@
         <v>106</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="16" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -7470,7 +7473,7 @@
         <v>113</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>114</v>
@@ -7510,7 +7513,7 @@
         <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="6" t="s">
@@ -7544,7 +7547,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="6" t="s">
@@ -7578,7 +7581,7 @@
         <v>127</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="6" t="s">
@@ -7640,7 +7643,7 @@
         <v>134</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>135</v>
@@ -7714,7 +7717,7 @@
         <v>145</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="6" t="s">
@@ -7782,7 +7785,7 @@
         <v>154</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="6" t="s">
@@ -7816,7 +7819,7 @@
         <v>158</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="6" t="s">
@@ -7850,7 +7853,7 @@
         <v>161</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="6" t="s">
@@ -7878,13 +7881,13 @@
         <v>162</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="6" t="s">
@@ -7918,7 +7921,7 @@
         <v>167</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="8" t="s">
@@ -7952,7 +7955,7 @@
         <v>171</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="6" t="s">
@@ -7986,7 +7989,7 @@
         <v>175</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="6" t="s">
@@ -8020,7 +8023,7 @@
         <v>179</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="6" t="s">
@@ -8048,13 +8051,13 @@
         <v>181</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="14" t="s">
@@ -8082,13 +8085,13 @@
         <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1636</v>
+        <v>1899</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15" t="s">
@@ -8116,13 +8119,13 @@
         <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1637</v>
+        <v>1900</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="14" t="s">
@@ -8150,13 +8153,13 @@
         <v>190</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="14" t="s">
@@ -8184,13 +8187,13 @@
         <v>193</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1639</v>
+        <v>1901</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="14" t="s">
@@ -8218,13 +8221,13 @@
         <v>196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1640</v>
+        <v>1902</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="6" t="s">
@@ -8252,13 +8255,13 @@
         <v>199</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1641</v>
+        <v>1903</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="6" t="s">
@@ -8286,13 +8289,13 @@
         <v>202</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="6" t="s">
@@ -8320,13 +8323,13 @@
         <v>205</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>1643</v>
+        <v>1904</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="6" t="s">
@@ -8354,13 +8357,13 @@
         <v>208</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>1644</v>
+        <v>1905</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="6" t="s">
@@ -8394,7 +8397,7 @@
         <v>213</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="6" t="s">
@@ -8428,7 +8431,7 @@
         <v>217</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="8" t="s">
@@ -8462,7 +8465,7 @@
         <v>221</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="8" t="s">
@@ -8496,7 +8499,7 @@
         <v>225</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="8" t="s">
@@ -8632,7 +8635,7 @@
         <v>244</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="6" t="s">
@@ -8700,7 +8703,7 @@
         <v>253</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="6" t="s">
@@ -8734,7 +8737,7 @@
         <v>257</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="6" t="s">
@@ -8768,7 +8771,7 @@
         <v>261</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="6" t="s">
@@ -8796,13 +8799,13 @@
         <v>263</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="6" t="s">
@@ -8830,13 +8833,13 @@
         <v>266</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="14" t="s">
@@ -8864,13 +8867,13 @@
         <v>269</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="6" t="s">
@@ -8898,7 +8901,7 @@
         <v>271</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>272</v>
@@ -8938,7 +8941,7 @@
         <v>277</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="6" t="s">
@@ -8966,7 +8969,7 @@
         <v>279</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>280</v>
@@ -9034,13 +9037,13 @@
         <v>288</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="6" t="s">
@@ -9068,13 +9071,13 @@
         <v>290</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
@@ -9136,13 +9139,13 @@
         <v>298</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="6" t="s">
@@ -9170,13 +9173,13 @@
         <v>301</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>302</v>
+        <v>1909</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="6" t="s">
@@ -9204,13 +9207,13 @@
         <v>305</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="14" t="s">
@@ -9272,13 +9275,13 @@
         <v>313</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="14" t="s">
@@ -9306,13 +9309,13 @@
         <v>315</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="14" t="s">
@@ -9340,13 +9343,13 @@
         <v>318</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="14" t="s">
@@ -9380,7 +9383,7 @@
         <v>323</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
@@ -9408,7 +9411,7 @@
         <v>325</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>326</v>
@@ -9448,7 +9451,7 @@
         <v>330</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="6" t="s">
@@ -9476,13 +9479,13 @@
         <v>331</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>332</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="14" t="s">
@@ -9686,7 +9689,7 @@
         <v>361</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="6" t="s">
@@ -9748,7 +9751,7 @@
         <v>368</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>369</v>
@@ -9782,17 +9785,17 @@
         <v>372</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -9813,20 +9816,20 @@
         <v>92</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -9847,20 +9850,20 @@
         <v>93</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -9881,20 +9884,20 @@
         <v>94</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E98" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -9915,20 +9918,20 @@
         <v>95</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -9949,20 +9952,20 @@
         <v>96</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -9983,20 +9986,20 @@
         <v>97</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -10017,20 +10020,20 @@
         <v>98</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -10051,20 +10054,20 @@
         <v>99</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -10085,20 +10088,20 @@
         <v>100</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -10119,20 +10122,20 @@
         <v>101</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -10153,20 +10156,20 @@
         <v>102</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -10187,20 +10190,20 @@
         <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -10221,20 +10224,20 @@
         <v>104</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -10255,20 +10258,20 @@
         <v>105</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -10289,20 +10292,20 @@
         <v>106</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -10323,20 +10326,20 @@
         <v>107</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -10357,20 +10360,20 @@
         <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -10391,20 +10394,20 @@
         <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -10425,20 +10428,20 @@
         <v>110</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -10459,20 +10462,20 @@
         <v>111</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -10493,20 +10496,20 @@
         <v>112</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -10527,20 +10530,20 @@
         <v>113</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -10561,20 +10564,20 @@
         <v>114</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -10595,20 +10598,20 @@
         <v>115</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -10629,20 +10632,20 @@
         <v>116</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -10663,20 +10666,20 @@
         <v>117</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -10697,20 +10700,20 @@
         <v>118</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -10731,20 +10734,20 @@
         <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -10765,20 +10768,20 @@
         <v>120</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -10799,20 +10802,20 @@
         <v>121</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -10833,20 +10836,20 @@
         <v>122</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -10867,20 +10870,20 @@
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -10901,20 +10904,20 @@
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -10935,20 +10938,20 @@
         <v>125</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -10969,20 +10972,20 @@
         <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -11003,20 +11006,20 @@
         <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -11037,20 +11040,20 @@
         <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -11071,20 +11074,20 @@
         <v>129</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -11105,20 +11108,20 @@
         <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -11139,20 +11142,20 @@
         <v>131</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -11173,20 +11176,20 @@
         <v>132</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -11207,20 +11210,20 @@
         <v>133</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -11241,20 +11244,20 @@
         <v>134</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -11275,20 +11278,20 @@
         <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -11309,20 +11312,20 @@
         <v>136</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -11343,20 +11346,20 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -11377,20 +11380,20 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -11411,20 +11414,20 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -11445,20 +11448,20 @@
         <v>140</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -11479,20 +11482,20 @@
         <v>141</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -11513,20 +11516,20 @@
         <v>142</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -11547,20 +11550,20 @@
         <v>143</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D147" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -11581,20 +11584,20 @@
         <v>144</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D148" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -11615,20 +11618,20 @@
         <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -11649,20 +11652,20 @@
         <v>146</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -11683,20 +11686,20 @@
         <v>147</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -11717,20 +11720,20 @@
         <v>148</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -11751,20 +11754,20 @@
         <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -11785,20 +11788,20 @@
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -11819,20 +11822,20 @@
         <v>151</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -11853,20 +11856,20 @@
         <v>152</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -11887,20 +11890,20 @@
         <v>153</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -11921,20 +11924,20 @@
         <v>154</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -11955,20 +11958,20 @@
         <v>155</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -11989,20 +11992,20 @@
         <v>156</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -12023,20 +12026,20 @@
         <v>157</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -12057,20 +12060,20 @@
         <v>158</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -12091,20 +12094,20 @@
         <v>159</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -12125,18 +12128,18 @@
         <v>160</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -12157,18 +12160,18 @@
         <v>161</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -12189,18 +12192,18 @@
         <v>162</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -12221,18 +12224,18 @@
         <v>163</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -12253,18 +12256,18 @@
         <v>164</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -12285,18 +12288,18 @@
         <v>165</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -12317,18 +12320,18 @@
         <v>166</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -12349,18 +12352,18 @@
         <v>167</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -12381,18 +12384,18 @@
         <v>168</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="14" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -12413,18 +12416,18 @@
         <v>169</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -12445,18 +12448,18 @@
         <v>170</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -12477,18 +12480,18 @@
         <v>171</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="14" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -12509,18 +12512,18 @@
         <v>172</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="14" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -12541,18 +12544,18 @@
         <v>173</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="14" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -12573,18 +12576,18 @@
         <v>174</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -12605,18 +12608,18 @@
         <v>175</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="14" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -12637,18 +12640,18 @@
         <v>176</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="14" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -12669,18 +12672,18 @@
         <v>177</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -12701,18 +12704,18 @@
         <v>178</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="15" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -12733,18 +12736,18 @@
         <v>179</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="14" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -12765,16 +12768,16 @@
         <v>180</v>
       </c>
       <c r="B184" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="C184" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="G184" s="6" t="s">
         <v>725</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="D184" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="41.25" thickBot="1">
@@ -12782,16 +12785,16 @@
         <v>181</v>
       </c>
       <c r="B185" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="28.5" thickBot="1">
@@ -12799,16 +12802,16 @@
         <v>182</v>
       </c>
       <c r="B186" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="17.25" thickBot="1">
@@ -12816,16 +12819,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="C187" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="G187" s="14" t="s">
         <v>737</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>738</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="G187" s="14" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="17.25" thickBot="1">
@@ -12833,16 +12836,16 @@
         <v>184</v>
       </c>
       <c r="B188" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="G188" s="14" t="s">
         <v>741</v>
-      </c>
-      <c r="C188" s="21" t="s">
-        <v>742</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="G188" s="14" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="28.5" thickBot="1">
@@ -12850,16 +12853,16 @@
         <v>185</v>
       </c>
       <c r="B189" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="C189" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="G189" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="C189" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="28.5" thickBot="1">
@@ -12867,16 +12870,16 @@
         <v>186</v>
       </c>
       <c r="B190" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="C190" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="C190" s="21" t="s">
-        <v>750</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="17.25" thickBot="1">
@@ -12884,16 +12887,16 @@
         <v>187</v>
       </c>
       <c r="B191" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G191" s="14" t="s">
         <v>753</v>
-      </c>
-      <c r="C191" s="21" t="s">
-        <v>754</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="G191" s="14" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="41.25" thickBot="1">
@@ -12901,16 +12904,16 @@
         <v>188</v>
       </c>
       <c r="B192" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="C192" s="21" t="s">
-        <v>758</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="28.5" thickBot="1">
@@ -12918,16 +12921,16 @@
         <v>189</v>
       </c>
       <c r="B193" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="C193" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -12935,16 +12938,16 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E194" s="24" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>120</v>
@@ -12955,16 +12958,16 @@
         <v>191</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>120</v>
@@ -12975,7 +12978,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>122</v>
@@ -12984,10 +12987,10 @@
         <v>161</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -12995,19 +12998,19 @@
         <v>193</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>771</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>1803</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13015,19 +13018,19 @@
         <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13035,19 +13038,19 @@
         <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>780</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>1804</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13055,7 +13058,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>130</v>
@@ -13075,19 +13078,19 @@
         <v>197</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="D201" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>1805</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13095,19 +13098,19 @@
         <v>198</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G202" s="6" t="s">
         <v>787</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="D202" s="23" t="s">
-        <v>789</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G202" s="6" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13115,19 +13118,19 @@
         <v>199</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13135,19 +13138,19 @@
         <v>200</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13155,19 +13158,19 @@
         <v>201</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="G205" s="6" t="s">
         <v>798</v>
-      </c>
-      <c r="D205" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13175,19 +13178,19 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E206" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="G206" s="6" t="s">
         <v>803</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>804</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13195,19 +13198,19 @@
         <v>203</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="G207" s="6" t="s">
         <v>808</v>
-      </c>
-      <c r="D207" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13215,19 +13218,19 @@
         <v>204</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="G208" s="6" t="s">
         <v>813</v>
-      </c>
-      <c r="D208" s="23" t="s">
-        <v>814</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13235,19 +13238,19 @@
         <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="E209" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="G209" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="D209" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13255,19 +13258,19 @@
         <v>206</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="G210" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="D210" s="23" t="s">
-        <v>824</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13275,19 +13278,19 @@
         <v>207</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>826</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="G211" s="6" t="s">
         <v>828</v>
-      </c>
-      <c r="D211" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13295,19 +13298,19 @@
         <v>208</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G212" s="8" t="s">
         <v>832</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="D212" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>1808</v>
-      </c>
-      <c r="G212" s="8" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13315,19 +13318,19 @@
         <v>209</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="E213" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="G213" s="6" t="s">
         <v>837</v>
-      </c>
-      <c r="D213" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13335,19 +13338,19 @@
         <v>210</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="G214" s="6" t="s">
         <v>842</v>
-      </c>
-      <c r="D214" s="23" t="s">
-        <v>843</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="G214" s="6" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13355,19 +13358,19 @@
         <v>211</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>845</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="G215" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="D215" s="23" t="s">
-        <v>848</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13375,19 +13378,19 @@
         <v>212</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="G216" s="6" t="s">
         <v>851</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="D216" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13395,19 +13398,19 @@
         <v>213</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>857</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13415,19 +13418,19 @@
         <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G218" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="D218" s="23" t="s">
-        <v>861</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13435,19 +13438,19 @@
         <v>215</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D219" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="E219" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="G219" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="D219" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>866</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13455,19 +13458,19 @@
         <v>216</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="E220" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="G220" s="6" t="s">
         <v>869</v>
-      </c>
-      <c r="D220" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13475,19 +13478,19 @@
         <v>217</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>872</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G221" s="6" t="s">
         <v>873</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="D221" s="23" t="s">
-        <v>875</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13495,19 +13498,19 @@
         <v>218</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="E222" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="G222" s="6" t="s">
         <v>878</v>
-      </c>
-      <c r="D222" s="23" t="s">
-        <v>879</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13515,19 +13518,19 @@
         <v>219</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>882</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>884</v>
-      </c>
-      <c r="E223" s="11" t="s">
-        <v>1811</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13535,19 +13538,19 @@
         <v>220</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="E224" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="G224" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>888</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13555,19 +13558,19 @@
         <v>221</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="G225" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="D225" s="23" t="s">
-        <v>893</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13575,19 +13578,19 @@
         <v>222</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13595,19 +13598,19 @@
         <v>223</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="G227" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="D227" s="23" t="s">
-        <v>900</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13615,19 +13618,19 @@
         <v>224</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="E228" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="G228" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="D228" s="23" t="s">
-        <v>905</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13635,19 +13638,19 @@
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="G229" s="6" t="s">
         <v>909</v>
-      </c>
-      <c r="D229" s="23" t="s">
-        <v>910</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13655,19 +13658,19 @@
         <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="E230" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="G230" s="6" t="s">
         <v>914</v>
-      </c>
-      <c r="D230" s="23" t="s">
-        <v>915</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13675,19 +13678,19 @@
         <v>227</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E231" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="G231" s="6" t="s">
         <v>919</v>
-      </c>
-      <c r="D231" s="23" t="s">
-        <v>920</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13695,19 +13698,19 @@
         <v>228</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G232" s="6" t="s">
         <v>923</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="D232" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13715,19 +13718,19 @@
         <v>229</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="E233" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="G233" s="8" t="s">
         <v>928</v>
-      </c>
-      <c r="D233" s="23" t="s">
-        <v>929</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13735,19 +13738,19 @@
         <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D234" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="E234" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="G234" s="8" t="s">
         <v>933</v>
-      </c>
-      <c r="D234" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13755,19 +13758,19 @@
         <v>231</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D235" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="E235" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="G235" s="6" t="s">
         <v>938</v>
-      </c>
-      <c r="D235" s="23" t="s">
-        <v>939</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13775,19 +13778,19 @@
         <v>232</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G236" s="6" t="s">
         <v>942</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="D236" s="23" t="s">
-        <v>944</v>
-      </c>
-      <c r="E236" s="11" t="s">
-        <v>1813</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13795,19 +13798,19 @@
         <v>233</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>945</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G237" s="8" t="s">
         <v>946</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="E237" s="11" t="s">
-        <v>1814</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13815,19 +13818,19 @@
         <v>234</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G238" s="8" t="s">
         <v>950</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="D238" s="23" t="s">
-        <v>952</v>
-      </c>
-      <c r="E238" s="11" t="s">
-        <v>1815</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13835,19 +13838,19 @@
         <v>235</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D239" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G239" s="8" t="s">
         <v>954</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="D239" s="23" t="s">
-        <v>956</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G239" s="8" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13855,19 +13858,19 @@
         <v>236</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>1807</v>
+      </c>
+      <c r="G240" s="8" t="s">
         <v>958</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="D240" s="23" t="s">
-        <v>960</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>1817</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13875,19 +13878,19 @@
         <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D241" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="E241" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="G241" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="D241" s="23" t="s">
-        <v>964</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13895,19 +13898,19 @@
         <v>238</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>966</v>
+      </c>
+      <c r="E242" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="G242" s="6" t="s">
         <v>968</v>
-      </c>
-      <c r="D242" s="23" t="s">
-        <v>969</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -13915,19 +13918,19 @@
         <v>239</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D243" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="E243" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="G243" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="D243" s="23" t="s">
-        <v>974</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.25" thickBot="1">
@@ -13935,19 +13938,19 @@
         <v>240</v>
       </c>
       <c r="B244" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>980</v>
-      </c>
       <c r="G244" s="26" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" thickBot="1">
@@ -13955,19 +13958,19 @@
         <v>241</v>
       </c>
       <c r="B245" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E245" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="G245" s="6" t="s">
         <v>982</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" thickBot="1">
@@ -13975,19 +13978,19 @@
         <v>242</v>
       </c>
       <c r="B246" s="25" t="s">
+        <v>983</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="G246" s="6" t="s">
         <v>987</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.25" thickBot="1">
@@ -13995,19 +13998,19 @@
         <v>243</v>
       </c>
       <c r="B247" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E247" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="G247" s="8" t="s">
         <v>992</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="G247" s="8" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.25" thickBot="1">
@@ -14015,19 +14018,19 @@
         <v>244</v>
       </c>
       <c r="B248" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E248" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="G248" s="6" t="s">
         <v>997</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="G248" s="6" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" thickBot="1">
@@ -14035,19 +14038,19 @@
         <v>245</v>
       </c>
       <c r="B249" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G249" s="8" t="s">
         <v>1001</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" thickBot="1">
@@ -14055,19 +14058,19 @@
         <v>246</v>
       </c>
       <c r="B250" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E250" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="G250" s="8" t="s">
         <v>1006</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G250" s="8" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.25" thickBot="1">
@@ -14075,19 +14078,19 @@
         <v>247</v>
       </c>
       <c r="B251" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E251" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="G251" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.25" thickBot="1">
@@ -14095,19 +14098,19 @@
         <v>248</v>
       </c>
       <c r="B252" s="25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E252" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="G252" s="8" t="s">
         <v>1016</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G252" s="8" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.25" thickBot="1">
@@ -14115,19 +14118,19 @@
         <v>249</v>
       </c>
       <c r="B253" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E253" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="G253" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" thickBot="1">
@@ -14135,19 +14138,19 @@
         <v>250</v>
       </c>
       <c r="B254" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E254" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="G254" s="8" t="s">
         <v>1026</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.25" thickBot="1">
@@ -14155,19 +14158,19 @@
         <v>251</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C255" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.25" thickBot="1">
@@ -14175,19 +14178,19 @@
         <v>252</v>
       </c>
       <c r="B256" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E256" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="G256" s="8" t="s">
         <v>1033</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" thickBot="1">
@@ -14195,19 +14198,19 @@
         <v>253</v>
       </c>
       <c r="B257" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G257" s="8" t="s">
         <v>1037</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>1818</v>
-      </c>
-      <c r="G257" s="8" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" thickBot="1">
@@ -14215,19 +14218,19 @@
         <v>254</v>
       </c>
       <c r="B258" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G258" s="8" t="s">
         <v>1041</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E258" s="10" t="s">
-        <v>1819</v>
-      </c>
-      <c r="G258" s="8" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.25" thickBot="1">
@@ -14235,19 +14238,19 @@
         <v>255</v>
       </c>
       <c r="B259" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G259" s="8" t="s">
         <v>1045</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>1820</v>
-      </c>
-      <c r="G259" s="8" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.25" thickBot="1">
@@ -14255,19 +14258,19 @@
         <v>256</v>
       </c>
       <c r="B260" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G260" s="8" t="s">
         <v>1049</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" thickBot="1">
@@ -14275,19 +14278,19 @@
         <v>257</v>
       </c>
       <c r="B261" s="25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E261" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="G261" s="8" t="s">
         <v>1054</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G261" s="8" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" thickBot="1">
@@ -14295,19 +14298,19 @@
         <v>258</v>
       </c>
       <c r="B262" s="25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E262" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="G262" s="8" t="s">
         <v>1059</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G262" s="8" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.25" thickBot="1">
@@ -14315,19 +14318,19 @@
         <v>259</v>
       </c>
       <c r="B263" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E263" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="G263" s="8" t="s">
         <v>1064</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G263" s="8" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.25" thickBot="1">
@@ -14335,19 +14338,19 @@
         <v>260</v>
       </c>
       <c r="B264" s="25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E264" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="G264" s="8" t="s">
         <v>1069</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G264" s="8" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.25" thickBot="1">
@@ -14355,19 +14358,19 @@
         <v>261</v>
       </c>
       <c r="B265" s="25" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E265" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="G265" s="8" t="s">
         <v>1074</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G265" s="8" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.25" thickBot="1">
@@ -14375,19 +14378,19 @@
         <v>262</v>
       </c>
       <c r="B266" s="25" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E266" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="G266" s="8" t="s">
         <v>1079</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G266" s="8" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.25" thickBot="1">
@@ -14395,19 +14398,19 @@
         <v>263</v>
       </c>
       <c r="B267" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E267" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="G267" s="8" t="s">
         <v>1084</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G267" s="8" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="17.25" thickBot="1">
@@ -14415,19 +14418,19 @@
         <v>264</v>
       </c>
       <c r="B268" s="25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E268" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="G268" s="8" t="s">
         <v>1089</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G268" s="8" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" thickBot="1">
@@ -14435,19 +14438,19 @@
         <v>265</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" thickBot="1">
@@ -14455,19 +14458,19 @@
         <v>266</v>
       </c>
       <c r="B270" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E270" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="G270" s="8" t="s">
         <v>1097</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G270" s="8" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.25" thickBot="1">
@@ -14475,19 +14478,19 @@
         <v>267</v>
       </c>
       <c r="B271" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G271" s="8" t="s">
         <v>1101</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>1822</v>
-      </c>
-      <c r="G271" s="8" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.25" thickBot="1">
@@ -14495,19 +14498,19 @@
         <v>268</v>
       </c>
       <c r="B272" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E272" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>1108</v>
-      </c>
       <c r="G272" s="2" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.25" thickBot="1">
@@ -14515,19 +14518,19 @@
         <v>269</v>
       </c>
       <c r="B273" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E273" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="G273" s="8" t="s">
         <v>1110</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G273" s="8" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.25" thickBot="1">
@@ -14535,19 +14538,19 @@
         <v>270</v>
       </c>
       <c r="B274" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E274" s="4" t="s">
         <v>1114</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="G274" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.25" thickBot="1">
@@ -14555,19 +14558,19 @@
         <v>271</v>
       </c>
       <c r="B275" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G275" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.25" thickBot="1">
@@ -14575,19 +14578,19 @@
         <v>272</v>
       </c>
       <c r="B276" s="25" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E276" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="G276" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" thickBot="1">
@@ -14595,19 +14598,19 @@
         <v>273</v>
       </c>
       <c r="B277" s="25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E277" s="4" t="s">
         <v>1128</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="G277" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.25" thickBot="1">
@@ -14615,19 +14618,19 @@
         <v>274</v>
       </c>
       <c r="B278" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E278" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="G278" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.25" thickBot="1">
@@ -14635,19 +14638,19 @@
         <v>275</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.25" thickBot="1">
@@ -14655,19 +14658,19 @@
         <v>276</v>
       </c>
       <c r="B280" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E280" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="G280" s="2" t="s">
         <v>1142</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.25" thickBot="1">
@@ -14675,19 +14678,19 @@
         <v>277</v>
       </c>
       <c r="B281" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E281" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="G281" s="2" t="s">
         <v>1147</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.25" thickBot="1">
@@ -14695,19 +14698,19 @@
         <v>278</v>
       </c>
       <c r="B282" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E282" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="G282" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.25" thickBot="1">
@@ -14715,19 +14718,19 @@
         <v>279</v>
       </c>
       <c r="B283" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E283" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="G283" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.25" thickBot="1">
@@ -14735,19 +14738,19 @@
         <v>280</v>
       </c>
       <c r="B284" s="27" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E284" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="G284" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" thickBot="1">
@@ -14755,19 +14758,19 @@
         <v>281</v>
       </c>
       <c r="B285" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E285" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="G285" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.25" thickBot="1">
@@ -14775,19 +14778,19 @@
         <v>282</v>
       </c>
       <c r="B286" s="27" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E286" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="G286" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.25" thickBot="1">
@@ -14795,19 +14798,19 @@
         <v>283</v>
       </c>
       <c r="B287" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.25" thickBot="1">
@@ -14815,13 +14818,13 @@
         <v>284</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>342</v>
@@ -14835,19 +14838,19 @@
         <v>285</v>
       </c>
       <c r="B289" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G289" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>1824</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.25" thickBot="1">
@@ -14855,19 +14858,19 @@
         <v>286</v>
       </c>
       <c r="B290" s="27" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G290" s="6" t="s">
         <v>1186</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E290" s="10" t="s">
-        <v>1825</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.25" thickBot="1">
@@ -14875,19 +14878,19 @@
         <v>287</v>
       </c>
       <c r="B291" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G291" s="8" t="s">
         <v>1190</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G291" s="8" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.25" thickBot="1">
@@ -14895,19 +14898,19 @@
         <v>288</v>
       </c>
       <c r="B292" s="27" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G292" s="6" t="s">
         <v>1194</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>1827</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.25" thickBot="1">
@@ -14915,19 +14918,19 @@
         <v>289</v>
       </c>
       <c r="B293" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G293" s="6" t="s">
         <v>1198</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>1828</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" thickBot="1">
@@ -14935,19 +14938,19 @@
         <v>290</v>
       </c>
       <c r="B294" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G294" s="6" t="s">
         <v>1202</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E294" s="5" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G294" s="6" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.25" thickBot="1">
@@ -14955,19 +14958,19 @@
         <v>291</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="G295" s="6" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.25" thickBot="1">
@@ -14975,19 +14978,19 @@
         <v>292</v>
       </c>
       <c r="B296" s="27" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="G296" s="26" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.25" thickBot="1">
@@ -14995,13 +14998,13 @@
         <v>293</v>
       </c>
       <c r="B297" s="27" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>132</v>
@@ -15015,19 +15018,19 @@
         <v>294</v>
       </c>
       <c r="B298" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G298" s="8" t="s">
         <v>1213</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>1831</v>
-      </c>
-      <c r="G298" s="8" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.25" thickBot="1">
@@ -15035,19 +15038,19 @@
         <v>295</v>
       </c>
       <c r="B299" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G299" s="8" t="s">
         <v>1217</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>1832</v>
-      </c>
-      <c r="G299" s="8" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.25" thickBot="1">
@@ -15055,19 +15058,19 @@
         <v>296</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E300" s="11" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.25" thickBot="1">
@@ -15075,19 +15078,19 @@
         <v>297</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E301" s="11" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.25" thickBot="1">
@@ -15095,19 +15098,19 @@
         <v>298</v>
       </c>
       <c r="B302" s="27" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G302" s="6" t="s">
         <v>1227</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>1835</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15115,19 +15118,19 @@
         <v>299</v>
       </c>
       <c r="B303" s="27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E303" s="28" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G303" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E303" s="28" t="s">
-        <v>1836</v>
-      </c>
-      <c r="G303" s="2" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15135,19 +15138,19 @@
         <v>300</v>
       </c>
       <c r="B304" s="27" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E304" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>1235</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>1837</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15155,19 +15158,19 @@
         <v>301</v>
       </c>
       <c r="B305" s="27" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E305" s="13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G305" s="6" t="s">
         <v>1239</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>1838</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15175,19 +15178,19 @@
         <v>302</v>
       </c>
       <c r="B306" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E306" s="13" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G306" s="6" t="s">
         <v>1243</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>1839</v>
-      </c>
-      <c r="G306" s="6" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -15195,19 +15198,19 @@
         <v>303</v>
       </c>
       <c r="B307" s="27" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E307" s="13" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G307" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G307" s="2" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="28.5" thickBot="1">
@@ -15215,19 +15218,19 @@
         <v>304</v>
       </c>
       <c r="B308" s="27" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E308" s="13" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G308" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G308" s="2" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="28.5" thickBot="1">
@@ -15235,19 +15238,19 @@
         <v>305</v>
       </c>
       <c r="B309" s="27" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E309" s="13" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="41.25" thickBot="1">
@@ -15255,19 +15258,19 @@
         <v>306</v>
       </c>
       <c r="B310" s="27" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E310" s="13" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="41.25" thickBot="1">
@@ -15275,19 +15278,19 @@
         <v>307</v>
       </c>
       <c r="B311" s="27" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E311" s="13" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="41.25" thickBot="1">
@@ -15295,19 +15298,19 @@
         <v>308</v>
       </c>
       <c r="B312" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E312" s="13" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="41.25" thickBot="1">
@@ -15315,19 +15318,19 @@
         <v>309</v>
       </c>
       <c r="B313" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E313" s="13" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="41.25" thickBot="1">
@@ -15335,19 +15338,19 @@
         <v>310</v>
       </c>
       <c r="B314" s="27" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="41.25" thickBot="1">
@@ -15355,19 +15358,19 @@
         <v>311</v>
       </c>
       <c r="B315" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E315" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G315" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="41.25" thickBot="1">
@@ -15375,19 +15378,19 @@
         <v>312</v>
       </c>
       <c r="B316" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E316" s="13" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.25" thickBot="1">
@@ -15395,19 +15398,19 @@
         <v>313</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E317" s="10" t="s">
         <v>1284</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="G317" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.25" thickBot="1">
@@ -15415,19 +15418,19 @@
         <v>314</v>
       </c>
       <c r="B318" s="27" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E318" s="24" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>1289</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E318" s="24" t="s">
-        <v>1850</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.25" thickBot="1">
@@ -15435,19 +15438,19 @@
         <v>315</v>
       </c>
       <c r="B319" s="27" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D319" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E319" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="G319" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="D319" s="27" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.25" thickBot="1">
@@ -15455,19 +15458,19 @@
         <v>316</v>
       </c>
       <c r="B320" s="27" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>342</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.25" thickBot="1">
@@ -15475,19 +15478,19 @@
         <v>317</v>
       </c>
       <c r="B321" s="27" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="G321" s="26" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="28.5" thickBot="1">
@@ -15495,19 +15498,19 @@
         <v>318</v>
       </c>
       <c r="B322" s="27" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G322" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="17.25" thickBot="1">
@@ -15515,19 +15518,19 @@
         <v>319</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E323" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="G323" s="2" t="s">
         <v>1308</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E323" s="10" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="28.5" thickBot="1">
@@ -15535,19 +15538,19 @@
         <v>320</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E324" s="29" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E324" s="29" t="s">
-        <v>1852</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="28.5" thickBot="1">
@@ -15555,19 +15558,19 @@
         <v>321</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G325" s="2" t="s">
         <v>1316</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E325" s="5" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="28.5" thickBot="1">
@@ -15575,19 +15578,19 @@
         <v>322</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G326" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="28.5" thickBot="1">
@@ -15595,19 +15598,19 @@
         <v>323</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G327" s="2" t="s">
         <v>1324</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>1855</v>
-      </c>
-      <c r="G327" s="2" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="17.25" thickBot="1">
@@ -15615,19 +15618,19 @@
         <v>324</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G328" s="2" t="s">
         <v>1328</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G328" s="2" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="28.5" thickBot="1">
@@ -15635,19 +15638,19 @@
         <v>325</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G329" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>1857</v>
-      </c>
-      <c r="G329" s="2" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="28.5" thickBot="1">
@@ -15655,19 +15658,19 @@
         <v>326</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>1336</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D330" s="17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>1858</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="28.5" thickBot="1">
@@ -15675,19 +15678,19 @@
         <v>327</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="28.5" thickBot="1">
@@ -15695,19 +15698,19 @@
         <v>328</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G332" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D332" s="17" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G332" s="2" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="28.5" thickBot="1">
@@ -15715,19 +15718,19 @@
         <v>329</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G333" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>1350</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G333" s="2" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="33.75" thickBot="1">
@@ -15735,19 +15738,19 @@
         <v>330</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G334" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G334" s="2" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="33.75" thickBot="1">
@@ -15755,19 +15758,19 @@
         <v>331</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E335" s="10" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G335" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E335" s="10" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="33.75" thickBot="1">
@@ -15775,19 +15778,19 @@
         <v>332</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E336" s="10" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G336" s="2" t="s">
         <v>1360</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E336" s="10" t="s">
-        <v>1864</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="33.75" thickBot="1">
@@ -15795,19 +15798,19 @@
         <v>333</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E337" s="10" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E337" s="10" t="s">
-        <v>1865</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="28.5" thickBot="1">
@@ -15815,19 +15818,19 @@
         <v>334</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G338" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G338" s="2" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="28.5" thickBot="1">
@@ -15835,19 +15838,19 @@
         <v>335</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D339" s="27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E339" s="10" t="s">
         <v>1372</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="G339" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="D339" s="27" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E339" s="10" t="s">
-        <v>1375</v>
-      </c>
-      <c r="G339" s="2" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="33.75" thickBot="1">
@@ -15855,19 +15858,19 @@
         <v>336</v>
       </c>
       <c r="B340" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E340" s="10" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G340" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E340" s="10" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G340" s="2" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="17.25" thickBot="1">
@@ -15875,19 +15878,19 @@
         <v>337</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G341" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G341" s="2" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="33.75" thickBot="1">
@@ -15895,19 +15898,19 @@
         <v>338</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E342" s="10" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G342" s="2" t="s">
         <v>1385</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E342" s="10" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G342" s="2" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="28.5" thickBot="1">
@@ -15915,19 +15918,19 @@
         <v>339</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G343" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G343" s="2" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -15935,7 +15938,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
@@ -15946,7 +15949,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
@@ -15957,7 +15960,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
@@ -15968,7 +15971,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
@@ -15979,7 +15982,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
@@ -15990,7 +15993,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="27"/>
@@ -16001,7 +16004,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
@@ -16012,7 +16015,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
@@ -16023,7 +16026,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
@@ -16034,7 +16037,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
@@ -16045,19 +16048,19 @@
         <v>350</v>
       </c>
       <c r="B354" s="27" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E354" s="31" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G354" s="2" t="s">
         <v>1403</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E354" s="31" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="17.25" thickBot="1">
@@ -16065,19 +16068,19 @@
         <v>351</v>
       </c>
       <c r="B355" s="27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G355" s="2" t="s">
         <v>1407</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>1872</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="33.75" thickBot="1">
@@ -16085,19 +16088,19 @@
         <v>352</v>
       </c>
       <c r="B356" s="27" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E356" s="11" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>1411</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E356" s="11" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="17.25" thickBot="1">
@@ -16105,19 +16108,19 @@
         <v>353</v>
       </c>
       <c r="B357" s="27" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E357" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="G357" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="17.25" thickBot="1">
@@ -16125,19 +16128,19 @@
         <v>354</v>
       </c>
       <c r="B358" s="27" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E358" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="G358" s="2" t="s">
         <v>1421</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E358" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="17.25" thickBot="1">
@@ -16145,19 +16148,19 @@
         <v>355</v>
       </c>
       <c r="B359" s="27" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G359" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E359" s="10" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="33.75" thickBot="1">
@@ -16165,19 +16168,19 @@
         <v>356</v>
       </c>
       <c r="B360" s="27" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G360" s="2" t="s">
         <v>1429</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="54" thickBot="1">
@@ -16185,19 +16188,19 @@
         <v>357</v>
       </c>
       <c r="B361" s="27" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="33.75" thickBot="1">
@@ -16205,19 +16208,19 @@
         <v>358</v>
       </c>
       <c r="B362" s="27" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="17.25" thickBot="1">
@@ -16225,19 +16228,19 @@
         <v>359</v>
       </c>
       <c r="B363" s="27" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G363" s="2" t="s">
         <v>1439</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>1880</v>
-      </c>
-      <c r="G363" s="2" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="33.75" thickBot="1">
@@ -16245,19 +16248,19 @@
         <v>360</v>
       </c>
       <c r="B364" s="27" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G364" s="2" t="s">
         <v>1443</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>1445</v>
-      </c>
-      <c r="G364" s="2" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="33.75" thickBot="1">
@@ -16265,19 +16268,19 @@
         <v>361</v>
       </c>
       <c r="B365" s="27" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G365" s="2" t="s">
         <v>1447</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E365" s="4" t="s">
-        <v>1882</v>
-      </c>
-      <c r="G365" s="2" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="17.25" thickBot="1">
@@ -16285,19 +16288,19 @@
         <v>362</v>
       </c>
       <c r="B366" s="27" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="33.75" thickBot="1">
@@ -16305,19 +16308,19 @@
         <v>363</v>
       </c>
       <c r="B367" s="27" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="54" thickBot="1">
@@ -16325,19 +16328,19 @@
         <v>364</v>
       </c>
       <c r="B368" s="27" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E368" s="10" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G368" s="2" t="s">
         <v>1457</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E368" s="10" t="s">
-        <v>1887</v>
-      </c>
-      <c r="G368" s="2" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="33.75" thickBot="1">
@@ -16345,19 +16348,19 @@
         <v>365</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="17.25" thickBot="1">
@@ -16365,19 +16368,19 @@
         <v>366</v>
       </c>
       <c r="B370" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E370" s="10" t="s">
         <v>1464</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="G370" s="2" t="s">
         <v>1465</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E370" s="10" t="s">
-        <v>1467</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="18.75" customHeight="1" thickBot="1">
@@ -16385,19 +16388,19 @@
         <v>367</v>
       </c>
       <c r="B371" s="27" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50.25" thickBot="1">
@@ -16405,19 +16408,19 @@
         <v>368</v>
       </c>
       <c r="B372" s="27" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="17.25" thickBot="1">
@@ -16425,19 +16428,19 @@
         <v>369</v>
       </c>
       <c r="B373" s="27" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E373" s="24" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G373" s="2" t="s">
         <v>1475</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E373" s="24" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G373" s="2" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="17.25" thickBot="1">
@@ -16445,19 +16448,19 @@
         <v>370</v>
       </c>
       <c r="B374" s="27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G374" s="32" t="s">
         <v>1479</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G374" s="32" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="17.25" thickBot="1">
@@ -16465,19 +16468,19 @@
         <v>371</v>
       </c>
       <c r="B375" s="27" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E375" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="G375" s="2" t="s">
         <v>1484</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G375" s="2" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="17.25" thickBot="1">
@@ -16485,19 +16488,19 @@
         <v>372</v>
       </c>
       <c r="B376" s="27" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="G376" s="26" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="17.25" thickBot="1">
@@ -16505,19 +16508,19 @@
         <v>373</v>
       </c>
       <c r="B377" s="27" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C377" s="27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E377" s="4" t="s">
         <v>1491</v>
       </c>
-      <c r="C377" s="27" t="s">
+      <c r="G377" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E377" s="4" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G377" s="2" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="33.75" thickBot="1">
@@ -16525,19 +16528,19 @@
         <v>374</v>
       </c>
       <c r="B378" s="27" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C378" s="25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E378" s="10" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>1496</v>
-      </c>
-      <c r="C378" s="25" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E378" s="10" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="41.25" thickBot="1">
@@ -16545,16 +16548,16 @@
         <v>375</v>
       </c>
       <c r="B379" s="27" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C379" s="27" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>1500</v>
-      </c>
-      <c r="C379" s="27" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="17.25" thickBot="1">
@@ -16562,13 +16565,13 @@
         <v>376</v>
       </c>
       <c r="B380" s="27" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="G380" s="2"/>
     </row>
@@ -16577,13 +16580,13 @@
         <v>377</v>
       </c>
       <c r="B381" s="27" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="G381" s="2"/>
     </row>
@@ -16592,10 +16595,10 @@
         <v>378</v>
       </c>
       <c r="B382" s="27" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>346</v>
@@ -16607,13 +16610,13 @@
         <v>379</v>
       </c>
       <c r="B383" s="27" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G383" s="2"/>
     </row>
@@ -16622,13 +16625,13 @@
         <v>380</v>
       </c>
       <c r="B384" s="27" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="G384" s="2"/>
     </row>
@@ -16637,13 +16640,13 @@
         <v>381</v>
       </c>
       <c r="B385" s="27" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="G385" s="2"/>
     </row>
@@ -16652,13 +16655,13 @@
         <v>382</v>
       </c>
       <c r="B386" s="27" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G386" s="2"/>
     </row>
@@ -16667,13 +16670,13 @@
         <v>383</v>
       </c>
       <c r="B387" s="27" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="G387" s="2"/>
     </row>
@@ -16682,13 +16685,13 @@
         <v>384</v>
       </c>
       <c r="B388" s="27" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="G388" s="2"/>
     </row>
@@ -16697,13 +16700,13 @@
         <v>385</v>
       </c>
       <c r="B389" s="27" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="G389" s="2"/>
     </row>
@@ -16712,13 +16715,13 @@
         <v>386</v>
       </c>
       <c r="B390" s="27" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -16727,13 +16730,13 @@
         <v>387</v>
       </c>
       <c r="B391" s="27" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C391" s="27" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="G391" s="2"/>
     </row>
@@ -16742,16 +16745,16 @@
         <v>388</v>
       </c>
       <c r="B392" s="33" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C392" s="27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G392" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="C392" s="27" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G392" s="2" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="28.5" thickBot="1">
@@ -16759,16 +16762,16 @@
         <v>389</v>
       </c>
       <c r="B393" s="33" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C393" s="27" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G393" s="2" t="s">
         <v>1541</v>
-      </c>
-      <c r="C393" s="27" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D393" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G393" s="2" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="41.25" thickBot="1">
@@ -16776,16 +16779,16 @@
         <v>390</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C394" s="27" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="17.25" thickBot="1">
@@ -16793,11 +16796,11 @@
         <v>391</v>
       </c>
       <c r="B395" s="27" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C395" s="27"/>
       <c r="D395" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="G395" s="2"/>
     </row>
@@ -16806,11 +16809,11 @@
         <v>392</v>
       </c>
       <c r="B396" s="27" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C396" s="27"/>
       <c r="D396" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="G396" s="2"/>
     </row>
@@ -16819,16 +16822,16 @@
         <v>393</v>
       </c>
       <c r="B397" s="27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C397" s="27" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G397" s="2" t="s">
         <v>1552</v>
-      </c>
-      <c r="C397" s="27" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G397" s="2" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="17.25" thickBot="1">
@@ -16836,16 +16839,16 @@
         <v>394</v>
       </c>
       <c r="B398" s="25" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C398" s="27" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G398" s="2" t="s">
         <v>1556</v>
-      </c>
-      <c r="C398" s="27" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D398" s="1" t="s">
-        <v>1558</v>
-      </c>
-      <c r="G398" s="2" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="17.25" thickBot="1">
@@ -16853,16 +16856,16 @@
         <v>395</v>
       </c>
       <c r="B399" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C399" s="27" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G399" s="2" t="s">
         <v>1560</v>
-      </c>
-      <c r="C399" s="27" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="G399" s="2" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="17.25" thickBot="1">
@@ -16870,16 +16873,16 @@
         <v>396</v>
       </c>
       <c r="B400" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C400" s="27" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G400" s="2" t="s">
         <v>1564</v>
-      </c>
-      <c r="C400" s="27" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G400" s="2" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="17.25" thickBot="1">
@@ -16887,16 +16890,16 @@
         <v>397</v>
       </c>
       <c r="B401" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C401" s="27" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G401" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="C401" s="27" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50.25" thickBot="1">
@@ -16904,16 +16907,16 @@
         <v>398</v>
       </c>
       <c r="B402" s="35" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C402" s="36" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D402" s="36" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="17.25" thickBot="1">
@@ -16921,16 +16924,16 @@
         <v>399</v>
       </c>
       <c r="B403" s="35" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C403" s="37" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="D403" s="37" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="17.25" thickBot="1">
@@ -16938,16 +16941,16 @@
         <v>400</v>
       </c>
       <c r="B404" s="37" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C404" s="37" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D404" s="37" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>1578</v>
-      </c>
-      <c r="C404" s="37" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D404" s="37" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G404" s="2" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="17.25" thickBot="1">
@@ -16955,19 +16958,19 @@
         <v>401</v>
       </c>
       <c r="B405" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C405" s="27" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E405" t="s">
         <v>1582</v>
       </c>
-      <c r="C405" s="27" t="s">
+      <c r="G405" s="2" t="s">
         <v>1583</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E405" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G405" s="2" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="17.25" thickBot="1">
@@ -16975,16 +16978,16 @@
         <v>402</v>
       </c>
       <c r="B406" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C406" s="27" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G406" s="2" t="s">
         <v>1587</v>
-      </c>
-      <c r="C406" s="27" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G406" s="2" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="17.25" thickBot="1">
@@ -16992,16 +16995,16 @@
         <v>403</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="G407" s="16" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="17.25" thickBot="1">
@@ -17009,16 +17012,16 @@
         <v>404</v>
       </c>
       <c r="B408" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G408" s="2" t="s">
         <v>1594</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G408" s="2" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="17.25" thickBot="1">
@@ -17026,16 +17029,16 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G409" s="2" t="s">
         <v>1598</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="G409" s="2" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="17.25" thickBot="1">
@@ -17043,13 +17046,13 @@
         <v>406</v>
       </c>
       <c r="B410" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C410" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D410" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="17.25" thickBot="1">
@@ -17057,20 +17060,20 @@
         <v>407</v>
       </c>
       <c r="B411" s="40" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="C411" s="41" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="E411" s="41"/>
       <c r="F411" s="41" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="G411" s="41" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="17.25" thickBot="1">
@@ -17078,20 +17081,20 @@
         <v>408</v>
       </c>
       <c r="B412" s="40" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="C412" s="41" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D412" s="40" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="E412" s="41"/>
       <c r="F412" s="41" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="G412" s="41" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="17.25" thickBot="1">
@@ -17099,20 +17102,20 @@
         <v>409</v>
       </c>
       <c r="B413" s="40" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="C413" s="40" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D413" s="40" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E413" s="40"/>
       <c r="F413" s="40" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="G413" s="40" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="17.25" thickBot="1">
@@ -17120,20 +17123,20 @@
         <v>410</v>
       </c>
       <c r="B414" s="40" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="C414" s="40" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="E414" s="40"/>
       <c r="F414" s="40" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="G414" s="40" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="17.25" thickBot="1">
@@ -17141,20 +17144,20 @@
         <v>411</v>
       </c>
       <c r="B415" s="40" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="C415" s="40" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="E415" s="40"/>
       <c r="F415" s="40" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="G415" s="40" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="17.25" thickBot="1">
@@ -17162,20 +17165,20 @@
         <v>412</v>
       </c>
       <c r="B416" s="40" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="C416" s="40" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E416" s="40"/>
       <c r="F416" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="G416" s="40" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="17.25" thickBot="1">
@@ -17183,20 +17186,20 @@
         <v>413</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C417" s="42" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="D417" s="42" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E417" s="42"/>
       <c r="F417" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="G417" s="42" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="17.25" thickBot="1">
@@ -17204,20 +17207,20 @@
         <v>414</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C418" s="42" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D418" s="42" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E418" s="42"/>
       <c r="F418" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="G418" s="42" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="17.25" thickBot="1">
@@ -17225,20 +17228,20 @@
         <v>415</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C419" s="42" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D419" s="42" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E419" s="42"/>
       <c r="F419" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="G419" s="42" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="17.25" thickBot="1">
@@ -17246,20 +17249,20 @@
         <v>416</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C420" s="42" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="E420" s="42"/>
       <c r="F420" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="G420" s="42" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -17267,19 +17270,19 @@
         <v>417</v>
       </c>
       <c r="B421" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C421" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D421" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="F421" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="G421" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -17287,19 +17290,19 @@
         <v>418</v>
       </c>
       <c r="B422" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C422" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D422" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F422" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="G422" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -17307,20 +17310,20 @@
         <v>419</v>
       </c>
       <c r="B423" s="43" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C423" s="43" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="D423" s="43" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="E423" s="43"/>
       <c r="F423" s="43" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="G423" s="44" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06F016-1884-43B3-8EE2-4189DEAB4837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50431BEC-0611-4BB9-A665-D4900C91B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8400,12 +8400,6 @@
     <t>Online_shop002</t>
   </si>
   <si>
-    <t>Use in game to get 60% stamina</t>
-  </si>
-  <si>
-    <t>在游戏中使用可获得60%体力</t>
-  </si>
-  <si>
     <t>Online_shop003</t>
   </si>
   <si>
@@ -8497,6 +8491,14 @@
   </si>
   <si>
     <t>Online_shop010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use in game to get stamina</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中使用可获得体力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9176,7 +9178,7 @@
   <dimension ref="A1:T438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427"/>
+      <selection activeCell="E431" sqref="E431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -20013,19 +20015,19 @@
         <v>1918</v>
       </c>
       <c r="C427" s="39" t="s">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="D427" s="39" t="s">
-        <v>1920</v>
+        <v>1951</v>
       </c>
       <c r="E427" s="39" t="s">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="F427" s="39" t="s">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="G427" s="39" t="s">
-        <v>1919</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -20033,22 +20035,22 @@
         <v>424</v>
       </c>
       <c r="B428" s="39" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C428" s="39" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D428" s="39" t="s">
         <v>1921</v>
       </c>
-      <c r="C428" s="39" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D428" s="39" t="s">
-        <v>1923</v>
-      </c>
       <c r="E428" s="39" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="F428" s="39" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="G428" s="39" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -20056,22 +20058,22 @@
         <v>425</v>
       </c>
       <c r="B429" s="39" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C429" s="39" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D429" s="39" t="s">
         <v>1924</v>
       </c>
-      <c r="C429" s="39" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D429" s="39" t="s">
-        <v>1926</v>
-      </c>
       <c r="E429" s="39" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="F429" s="39" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="G429" s="39" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -20079,7 +20081,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C430" s="39" t="s">
         <v>138</v>
@@ -20102,22 +20104,22 @@
         <v>427</v>
       </c>
       <c r="B431" s="39" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C431" s="39" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D431" s="39" t="s">
         <v>1928</v>
       </c>
-      <c r="C431" s="39" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D431" s="39" t="s">
-        <v>1930</v>
-      </c>
       <c r="E431" s="39" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="F431" s="39" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="G431" s="39" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -20125,22 +20127,22 @@
         <v>428</v>
       </c>
       <c r="B432" s="39" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C432" s="39" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D432" s="39" t="s">
         <v>1931</v>
       </c>
-      <c r="C432" s="39" t="s">
-        <v>1932</v>
-      </c>
-      <c r="D432" s="39" t="s">
-        <v>1933</v>
-      </c>
       <c r="E432" s="39" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F432" s="39" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="G432" s="39" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -20148,22 +20150,22 @@
         <v>429</v>
       </c>
       <c r="B433" s="39" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C433" s="39" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D433" s="39" t="s">
         <v>1934</v>
       </c>
-      <c r="C433" s="39" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D433" s="39" t="s">
-        <v>1936</v>
-      </c>
       <c r="E433" s="39" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F433" s="39" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="G433" s="39" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -20171,22 +20173,22 @@
         <v>430</v>
       </c>
       <c r="B434" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C434" s="39" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D434" s="39" t="s">
         <v>1937</v>
       </c>
-      <c r="C434" s="39" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D434" s="39" t="s">
-        <v>1939</v>
-      </c>
       <c r="E434" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F434" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="G434" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -20194,22 +20196,22 @@
         <v>431</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C435" s="39" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="E435" s="39" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F435" s="39" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G435" s="39" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -20217,22 +20219,22 @@
         <v>432</v>
       </c>
       <c r="B436" s="39" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C436" s="45" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D436" s="39" t="s">
         <v>1942</v>
       </c>
-      <c r="C436" s="45" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D436" s="39" t="s">
-        <v>1944</v>
-      </c>
       <c r="E436" s="45" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F436" s="45" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G436" s="45" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -20240,22 +20242,22 @@
         <v>433</v>
       </c>
       <c r="B437" s="39" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D437" s="39" t="s">
         <v>1945</v>
       </c>
-      <c r="C437" s="39" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D437" s="39" t="s">
-        <v>1947</v>
-      </c>
       <c r="E437" s="39" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="F437" s="39" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G437" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -20263,22 +20265,22 @@
         <v>434</v>
       </c>
       <c r="B438" s="39" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C438" s="39" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D438" s="39" t="s">
         <v>1948</v>
       </c>
-      <c r="C438" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D438" s="39" t="s">
-        <v>1950</v>
-      </c>
       <c r="E438" s="39" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="F438" s="39" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="G438" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50431BEC-0611-4BB9-A665-D4900C91B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E688FA-C111-4792-8473-D38435537D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1955">
   <si>
     <t>INT</t>
   </si>
@@ -8403,16 +8403,10 @@
     <t>Online_shop003</t>
   </si>
   <si>
-    <t>Blue snitch</t>
-  </si>
-  <si>
     <t>蓝色飞贼</t>
   </si>
   <si>
     <t>Online_shop004</t>
-  </si>
-  <si>
-    <t>Capture the DragonPal in the bonus level</t>
   </si>
   <si>
     <t>在奖励地图中捕获龙娘时使用</t>
@@ -8499,6 +8493,26 @@
   </si>
   <si>
     <t>在游戏中使用可获得体力</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue Snitch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capture the Modragon in the bonus level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirming</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop014</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9175,10 +9189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T438"/>
+  <dimension ref="A1:T439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E431" sqref="E431"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K440" sqref="K440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -20015,19 +20029,19 @@
         <v>1918</v>
       </c>
       <c r="C427" s="39" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D427" s="39" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E427" s="39" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F427" s="39" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="G427" s="39" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -20038,19 +20052,19 @@
         <v>1919</v>
       </c>
       <c r="C428" s="39" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D428" s="39" t="s">
         <v>1920</v>
       </c>
-      <c r="D428" s="39" t="s">
-        <v>1921</v>
-      </c>
       <c r="E428" s="39" t="s">
-        <v>1920</v>
+        <v>1950</v>
       </c>
       <c r="F428" s="39" t="s">
-        <v>1920</v>
+        <v>1950</v>
       </c>
       <c r="G428" s="39" t="s">
-        <v>1920</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -20058,22 +20072,22 @@
         <v>425</v>
       </c>
       <c r="B429" s="39" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C429" s="39" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D429" s="39" t="s">
         <v>1922</v>
       </c>
-      <c r="C429" s="39" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D429" s="39" t="s">
-        <v>1924</v>
-      </c>
       <c r="E429" s="39" t="s">
-        <v>1923</v>
+        <v>1951</v>
       </c>
       <c r="F429" s="39" t="s">
-        <v>1923</v>
+        <v>1951</v>
       </c>
       <c r="G429" s="39" t="s">
-        <v>1923</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -20081,7 +20095,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="C430" s="39" t="s">
         <v>138</v>
@@ -20104,22 +20118,22 @@
         <v>427</v>
       </c>
       <c r="B431" s="39" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C431" s="39" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D431" s="39" t="s">
         <v>1926</v>
       </c>
-      <c r="C431" s="39" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D431" s="39" t="s">
-        <v>1928</v>
-      </c>
       <c r="E431" s="39" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="F431" s="39" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="G431" s="39" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -20127,22 +20141,22 @@
         <v>428</v>
       </c>
       <c r="B432" s="39" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C432" s="39" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D432" s="39" t="s">
         <v>1929</v>
       </c>
-      <c r="C432" s="39" t="s">
-        <v>1930</v>
-      </c>
-      <c r="D432" s="39" t="s">
-        <v>1931</v>
-      </c>
       <c r="E432" s="39" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F432" s="39" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="G432" s="39" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -20150,22 +20164,22 @@
         <v>429</v>
       </c>
       <c r="B433" s="39" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C433" s="39" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D433" s="39" t="s">
         <v>1932</v>
       </c>
-      <c r="C433" s="39" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D433" s="39" t="s">
-        <v>1934</v>
-      </c>
       <c r="E433" s="39" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F433" s="39" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="G433" s="39" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -20173,22 +20187,22 @@
         <v>430</v>
       </c>
       <c r="B434" s="39" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C434" s="39" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D434" s="39" t="s">
         <v>1935</v>
       </c>
-      <c r="C434" s="39" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D434" s="39" t="s">
-        <v>1937</v>
-      </c>
       <c r="E434" s="39" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F434" s="39" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="G434" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -20196,22 +20210,22 @@
         <v>431</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C435" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E435" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F435" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="G435" s="39" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -20219,22 +20233,22 @@
         <v>432</v>
       </c>
       <c r="B436" s="39" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C436" s="45" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D436" s="39" t="s">
         <v>1940</v>
       </c>
-      <c r="C436" s="45" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D436" s="39" t="s">
-        <v>1942</v>
-      </c>
       <c r="E436" s="45" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F436" s="45" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="G436" s="45" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -20242,22 +20256,22 @@
         <v>433</v>
       </c>
       <c r="B437" s="39" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D437" s="39" t="s">
         <v>1943</v>
       </c>
-      <c r="C437" s="39" t="s">
-        <v>1944</v>
-      </c>
-      <c r="D437" s="39" t="s">
-        <v>1945</v>
-      </c>
       <c r="E437" s="39" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F437" s="39" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="G437" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -20265,22 +20279,45 @@
         <v>434</v>
       </c>
       <c r="B438" s="39" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C438" s="39" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D438" s="39" t="s">
         <v>1946</v>
       </c>
-      <c r="C438" s="39" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D438" s="39" t="s">
-        <v>1948</v>
-      </c>
       <c r="E438" s="39" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="F438" s="39" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="G438" t="s">
-        <v>1947</v>
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439">
+        <v>435</v>
+      </c>
+      <c r="B439" s="39" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C439" s="39" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D439" s="39" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E439" s="39" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F439" s="39" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G439" s="39" t="s">
+        <v>1952</v>
       </c>
     </row>
   </sheetData>

--- a/battleworld/Excel/Language_语言.xlsx
+++ b/battleworld/Excel/Language_语言.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E688FA-C111-4792-8473-D38435537D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="1961">
   <si>
     <t>INT</t>
   </si>
@@ -293,7 +295,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -303,7 +304,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>によって</t>
@@ -672,7 +672,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -682,7 +681,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>舞い上がるフェニックス</t>
@@ -692,7 +690,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -702,7 +699,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フェニックスの羽で製作。装備者の攻撃力をわずかに向上。</t>
@@ -726,7 +722,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -736,7 +731,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>スカーレットバット</t>
@@ -746,7 +740,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -756,7 +749,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ネザーバットの翼の化身。装備者にライフスティール効果を与える。</t>
@@ -780,7 +772,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -790,7 +781,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>イノセントキューピッド</t>
@@ -800,7 +790,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -810,7 +799,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>キューピッドが着用した物のコピー。体力とダメージ軽減効果をわずかに向上。</t>
@@ -834,7 +822,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -844,7 +831,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ダークナイト</t>
@@ -854,7 +840,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -864,7 +849,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>暗闇で製作。装備者のクリティカル率とクリティカルダメージを増加。</t>
@@ -888,7 +872,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -898,7 +881,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ラブリーエンジェル</t>
@@ -908,7 +890,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -918,7 +899,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>愛の力で合成。体力とダメージ軽減効果を大幅に向上。</t>
@@ -942,7 +922,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -952,7 +931,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>彗星のトレイル</t>
@@ -962,7 +940,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -972,7 +949,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者の攻撃力をわずかに向上。</t>
@@ -996,7 +972,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1006,7 +981,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>明けの明星</t>
@@ -1016,7 +990,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1026,7 +999,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>体力をわずかに向上。</t>
@@ -1050,7 +1022,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1060,7 +1031,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フローズンランド</t>
@@ -1070,7 +1040,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1080,7 +1049,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者にダメージ軽減効果を与える。</t>
@@ -1104,7 +1072,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1114,7 +1081,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>キャンディクラッシュ</t>
@@ -1124,7 +1090,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1134,7 +1099,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>体力を大幅に向上。</t>
@@ -1158,7 +1122,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1168,7 +1131,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>メープルリーフ</t>
@@ -1178,7 +1140,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1188,7 +1149,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者の攻撃力とライフスティール効果を大幅に向上。</t>
@@ -1212,7 +1172,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -1222,7 +1181,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>が</t>
@@ -1232,7 +1190,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFF230&gt;</t>
@@ -1242,7 +1199,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ダブルキル</t>
@@ -1252,7 +1208,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -1262,7 +1217,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>を達成！</t>
@@ -1286,7 +1240,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -1296,7 +1249,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>が</t>
@@ -1306,7 +1258,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFF230&gt;</t>
@@ -1316,7 +1267,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>トリプルキル</t>
@@ -1326,7 +1276,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -1336,7 +1285,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>を達成！</t>
@@ -1360,7 +1308,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -1370,7 +1317,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>が</t>
@@ -1380,7 +1326,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFF230&gt;</t>
@@ -1390,7 +1335,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フィールドドミネーター</t>
@@ -1400,7 +1344,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -1410,7 +1353,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>を達成！</t>
@@ -1434,7 +1376,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -1444,7 +1385,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>が</t>
@@ -1454,7 +1394,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFF230&gt;</t>
@@ -1464,7 +1403,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ランブルレジェンド</t>
@@ -1474,7 +1412,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -1484,7 +1421,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>を達成！</t>
@@ -1808,7 +1744,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#F6663A&gt;</t>
@@ -1818,7 +1753,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ゲイルエンクロージャー</t>
@@ -1828,7 +1762,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -1838,7 +1771,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>は珍しいコントロールスキルです。しっかりと学んでください。</t>
@@ -1892,7 +1824,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1902,7 +1833,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>星雲の雲</t>
@@ -1912,7 +1842,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1922,7 +1851,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者のクリティカル率を大幅に向上。</t>
@@ -1946,7 +1874,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -1956,7 +1883,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ヘキサマスコット</t>
@@ -1966,7 +1892,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt;: </t>
@@ -1976,7 +1901,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装着者のクリティカル耐性を小幅に向上。</t>
@@ -2291,7 +2215,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2301,7 +2224,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>グラウンドウェーブ</t>
@@ -2311,7 +2233,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2335,7 +2256,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2345,7 +2265,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>アースラインブレイク</t>
@@ -2355,7 +2274,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2379,7 +2297,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2389,7 +2306,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フォースインパクト</t>
@@ -2399,7 +2315,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2423,7 +2338,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2433,7 +2347,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フルチャージ</t>
@@ -2443,7 +2356,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2467,7 +2379,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2477,7 +2388,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>エアバースト</t>
@@ -2487,7 +2397,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2511,7 +2420,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -2521,7 +2429,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>バトルロア</t>
@@ -2531,7 +2438,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2555,7 +2461,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -2565,7 +2470,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>エアエクスプロージョン</t>
@@ -2575,7 +2479,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2599,7 +2502,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -2609,7 +2511,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ドラゴンスクラッチ</t>
@@ -2619,7 +2520,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2643,7 +2543,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -2653,7 +2552,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ゲイルエンクロージャー</t>
@@ -2663,7 +2561,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2687,7 +2584,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -2697,7 +2593,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>パワーサージ</t>
@@ -2707,7 +2602,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2731,7 +2625,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2741,7 +2634,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダーケンキ</t>
@@ -2751,7 +2643,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2775,7 +2666,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2785,7 +2675,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダーボム</t>
@@ -2795,7 +2684,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2819,7 +2707,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2829,7 +2716,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>バードトレース</t>
@@ -2839,7 +2725,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2863,7 +2748,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -2873,7 +2757,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>グレートヒット</t>
@@ -2883,7 +2766,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2907,7 +2789,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -2917,7 +2798,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>バードクラウド</t>
@@ -2927,7 +2807,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2951,7 +2830,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -2961,7 +2839,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダーストライク</t>
@@ -2971,7 +2848,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -2995,7 +2871,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -3005,7 +2880,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダースラッシュ</t>
@@ -3015,7 +2889,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3039,7 +2912,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -3049,7 +2921,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダードロー</t>
@@ -3059,7 +2930,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3083,7 +2953,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -3093,7 +2962,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダーフィールド</t>
@@ -3103,7 +2971,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3127,7 +2994,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -3137,7 +3003,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>サンダースリット</t>
@@ -3147,7 +3012,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3171,7 +3035,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -3181,7 +3044,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトアライバル</t>
@@ -3191,7 +3053,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3215,7 +3076,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -3225,7 +3085,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトショック</t>
@@ -3235,7 +3094,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3259,7 +3117,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -3269,7 +3126,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトグレア</t>
@@ -3279,7 +3135,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3303,7 +3158,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -3313,7 +3167,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトヒール</t>
@@ -3323,7 +3176,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3347,7 +3199,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -3357,7 +3208,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ブライトミサイル</t>
@@ -3367,7 +3217,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3391,7 +3240,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -3401,7 +3249,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトケージ</t>
@@ -3411,7 +3258,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3435,7 +3281,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -3445,7 +3290,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ホーリードメイン</t>
@@ -3455,7 +3299,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3479,7 +3322,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -3489,7 +3331,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ライトキャノン</t>
@@ -3499,7 +3340,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3523,7 +3363,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -3533,7 +3372,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ホーリーブレッシング</t>
@@ -3543,7 +3381,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -3567,7 +3404,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -3577,7 +3413,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フレイムエンチャントメント</t>
@@ -3587,7 +3422,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -5846,7 +5680,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -5856,7 +5689,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>に到達して報酬を解除</t>
@@ -5982,7 +5814,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -5992,7 +5823,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>爆発</t>
@@ -6002,7 +5832,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6012,7 +5841,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>爆撃される感覚を味わいたいかい？</t>
@@ -6036,7 +5864,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6046,7 +5873,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>小さな悪魔</t>
@@ -6056,7 +5882,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6066,7 +5891,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最後の一乗りをさせてあげるよ！</t>
@@ -6090,7 +5914,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6100,7 +5923,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>雷</t>
@@ -6110,7 +5932,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6120,7 +5941,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>空からの裁きだ！</t>
@@ -6144,7 +5964,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6154,7 +5973,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>地面の棘</t>
@@ -6164,7 +5982,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6174,7 +5991,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>地面を這いやがれ！</t>
@@ -6198,7 +6014,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6208,7 +6023,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ファンタジー</t>
@@ -6218,7 +6032,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt; ·</t>
@@ -6228,7 +6041,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>人生は泡の如し。</t>
@@ -6252,7 +6064,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6262,7 +6073,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>オズの魔法使い</t>
@@ -6272,7 +6082,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6282,7 +6091,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>スピードアップさせてあげる！</t>
@@ -6306,7 +6114,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6316,7 +6123,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>歌う鳥</t>
@@ -6326,7 +6132,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6336,7 +6141,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者の攻撃力を向上。</t>
@@ -6360,7 +6164,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6370,7 +6173,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>レインボートレイル</t>
@@ -6380,7 +6182,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6390,7 +6191,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者が受けるダメージを減らす。</t>
@@ -6414,7 +6214,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6424,7 +6223,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フットボールトレイル</t>
@@ -6434,7 +6232,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6444,7 +6241,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>装備者のクリティカルダメージを向上。</t>
@@ -6468,7 +6264,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6478,7 +6273,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ゴールデンオフィサー</t>
@@ -6488,7 +6282,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6498,7 +6291,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>バーチュオーソフェーズの専用外見。</t>
@@ -6522,7 +6314,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6532,7 +6323,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>プラチナキャプテン</t>
@@ -6542,7 +6332,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6552,7 +6341,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>イモータリティフェーズの専用外見。</t>
@@ -6576,7 +6364,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6586,7 +6373,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ダイヤモンドコロネル</t>
@@ -6596,7 +6382,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6606,7 +6391,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>インカーネーションフェーズの専用外見。</t>
@@ -6630,7 +6414,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6640,7 +6423,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ユニークジェネラル</t>
@@ -6650,7 +6432,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6660,7 +6441,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ディビニティフェーズの専用外見。</t>
@@ -6684,7 +6464,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;</t>
@@ -6694,7 +6473,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>グレートマーシャル</t>
@@ -6704,7 +6482,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&lt;/color&gt; · </t>
@@ -6714,7 +6491,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>トランセンデンスフェーズの専用外見。</t>
@@ -6798,7 +6574,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -6808,7 +6583,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>は</t>
@@ -6818,7 +6592,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{1}</t>
@@ -6828,7 +6601,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>から</t>
@@ -6838,7 +6610,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{2}</t>
@@ -6848,7 +6619,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>の賞金報酬を獲得しました！</t>
@@ -6887,7 +6657,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -6897,7 +6666,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ファイアバースト</t>
@@ -6907,7 +6675,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -6931,7 +6698,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -6941,7 +6707,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ゲイルストライク</t>
@@ -6951,7 +6716,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -6975,7 +6739,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -6985,7 +6748,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フレイムブラスト</t>
@@ -6995,7 +6757,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7019,7 +6780,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -7029,7 +6789,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ファイアレイン</t>
@@ -7039,7 +6798,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7063,7 +6821,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -7073,7 +6830,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フレイムハック</t>
@@ -7083,7 +6839,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7107,7 +6862,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -7117,7 +6871,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ソードエネルギー</t>
@@ -7127,7 +6880,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7151,7 +6903,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -7161,7 +6912,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ジャイアントスラッシュ</t>
@@ -7171,7 +6921,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7195,7 +6944,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#5DBF4DFF&gt;</t>
@@ -7205,7 +6953,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フェニックスダッシュ</t>
@@ -7215,7 +6962,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7239,7 +6985,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#3B93BFFF&gt;</t>
@@ -7249,7 +6994,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フレイムシェルター</t>
@@ -7259,7 +7003,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7283,7 +7026,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;color=#9357BFFF&gt;</t>
@@ -7293,7 +7035,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>フレイムアウェイクニング</t>
@@ -7303,7 +7044,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>&lt;/color&gt;</t>
@@ -7522,7 +7262,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{0}</t>
@@ -7532,7 +7271,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>を倒して、</t>
@@ -7542,7 +7280,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>{1}</t>
@@ -7552,7 +7289,6 @@
         <sz val="10"/>
         <color rgb="FF374151"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ポイントを獲得しました！</t>
@@ -7912,17 +7648,15 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Congratulations</t>
     </r>
     <r>
       <rPr>
-        <sz val="9.8000000000000007"/>
+        <sz val="9.8"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>&lt;color=#FFFF00&gt;{0}&lt;/color&gt;</t>
@@ -7932,7 +7666,6 @@
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> player has been promoted to &lt;color=#FFFF00&gt;{1}&lt;/color&gt;</t>
@@ -8400,15 +8133,27 @@
     <t>Online_shop002</t>
   </si>
   <si>
+    <t>Use in game to get stamina</t>
+  </si>
+  <si>
+    <t>在游戏中使用可获得体力</t>
+  </si>
+  <si>
     <t>Online_shop003</t>
   </si>
   <si>
+    <t>Blue Snitch</t>
+  </si>
+  <si>
     <t>蓝色飞贼</t>
   </si>
   <si>
     <t>Online_shop004</t>
   </si>
   <si>
+    <t>Capture the Modragon in the bonus level</t>
+  </si>
+  <si>
     <t>在奖励地图中捕获龙娘时使用</t>
   </si>
   <si>
@@ -8451,6 +8196,9 @@
     <t>使用</t>
   </si>
   <si>
+    <t>Online_shop010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity: </t>
   </si>
   <si>
@@ -8484,43 +8232,44 @@
     <t>取消（Esc）</t>
   </si>
   <si>
-    <t>Online_shop010</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use in game to get stamina</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在游戏中使用可获得体力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue Snitch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capture the Modragon in the bonus level</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>Online_shop014</t>
   </si>
   <si>
     <t>Confirming</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>确认中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Online_shop014</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop016</t>
+  </si>
+  <si>
+    <t>Sweep Token</t>
+  </si>
+  <si>
+    <t>扫荡券</t>
+  </si>
+  <si>
+    <t>Online_shop017</t>
+  </si>
+  <si>
+    <t>Speed-sweep for Perfect Victory stages</t>
+  </si>
+  <si>
+    <t>快速通关已经取得完美胜利的关卡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -8535,7 +8284,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -8548,55 +8296,47 @@
       <sz val="10"/>
       <color rgb="FF374151"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF080808"/>
       <name val="SB Sans Text"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF080808"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF374151"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8604,7 +8344,6 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8612,45 +8351,197 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4D5156"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8681,8 +8572,194 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -8791,11 +8868,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8819,17 +9138,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8841,7 +9160,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8882,13 +9201,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8897,37 +9216,110 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0C01"/>
         </patternFill>
       </fill>
@@ -8936,62 +9328,62 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0C01"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF080808"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFDEE0E3"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9E3"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF14C0FF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF8800"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4D5156"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF0D0D0D"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF374151"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00080808"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00CCCCCC"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFF2CC"/>
+      <rgbColor rgb="00DEE0E3"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00D9D9E3"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0014C0FF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF8800"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="004D5156"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="000D0D0D"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00374151"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -9005,9 +9397,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9056,17 +9445,17 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9183,19 +9572,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T439"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K440" sqref="K440"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="D443" sqref="D443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -9207,7 +9596,7 @@
     <col min="8" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1">
+    <row r="1" ht="18" customHeight="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9243,7 +9632,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1">
+    <row r="2" ht="18" customHeight="1" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9279,7 +9668,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1">
+    <row r="3" ht="18.75" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9315,7 +9704,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="18" customHeight="1">
+    <row r="4" ht="18" customHeight="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -9349,7 +9738,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="18.75" customHeight="1">
+    <row r="5" ht="18.75" customHeight="1" spans="1:20">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -9383,7 +9772,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1">
+    <row r="6" ht="18.75" customHeight="1" spans="1:20">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -9417,7 +9806,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1">
+    <row r="7" ht="18.75" customHeight="1" spans="1:20">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -9451,7 +9840,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1">
+    <row r="8" ht="18.75" customHeight="1" spans="1:20">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -9485,7 +9874,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1">
+    <row r="9" ht="18.75" customHeight="1" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -9519,7 +9908,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="18.75" customHeight="1">
+    <row r="10" ht="18.75" customHeight="1" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -9553,7 +9942,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="18.75" customHeight="1">
+    <row r="11" ht="18.75" customHeight="1" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -9587,7 +9976,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1">
+    <row r="12" ht="18.75" customHeight="1" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -9621,7 +10010,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="18.75" customHeight="1">
+    <row r="13" ht="18.75" customHeight="1" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -9655,7 +10044,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="18.75" customHeight="1">
+    <row r="14" ht="18.75" customHeight="1" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -9689,7 +10078,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="18.75" customHeight="1">
+    <row r="15" ht="18.75" customHeight="1" spans="1:20">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -9723,7 +10112,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="18.75" customHeight="1">
+    <row r="16" ht="18.75" customHeight="1" spans="1:20">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -9757,7 +10146,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1">
+    <row r="17" ht="18.75" customHeight="1" spans="1:20">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -9791,7 +10180,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" ht="15.25" spans="1:20">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -9825,7 +10214,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" ht="15.25" spans="1:20">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -9859,7 +10248,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="33">
+    <row r="20" ht="29.75" spans="1:20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -9893,7 +10282,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="49.5">
+    <row r="21" ht="65.75" spans="1:20">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -9927,7 +10316,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="18.75" customHeight="1">
+    <row r="22" ht="18.75" customHeight="1" spans="1:20">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -9961,7 +10350,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="18.75" customHeight="1">
+    <row r="23" ht="18.75" customHeight="1" spans="1:20">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -9995,7 +10384,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="18.75" customHeight="1">
+    <row r="24" ht="18.75" customHeight="1" spans="1:20">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -10029,7 +10418,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="18.75" customHeight="1">
+    <row r="25" ht="18.75" customHeight="1" spans="1:20">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -10063,7 +10452,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" ht="15.25" spans="1:20">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -10097,7 +10486,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" ht="15.25" spans="1:20">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -10131,7 +10520,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" ht="15.25" spans="1:20">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -10165,7 +10554,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" ht="15.25" spans="1:20">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -10199,7 +10588,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" ht="15.25" spans="1:20">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -10233,7 +10622,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" ht="15.25" spans="1:20">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -10267,7 +10656,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" ht="15.25" spans="1:20">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -10301,7 +10690,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" ht="15.25" spans="1:20">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -10335,7 +10724,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="27.75">
+    <row r="34" ht="39.75" spans="1:20">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -10369,7 +10758,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" ht="39.75" spans="1:20">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -10403,7 +10792,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" ht="15.25" spans="1:20">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -10437,7 +10826,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" ht="15.25" spans="1:20">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -10471,7 +10860,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" ht="15.25" spans="1:20">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -10505,7 +10894,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" ht="26.75" spans="1:20">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -10539,7 +10928,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" ht="15.25" spans="1:20">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -10573,7 +10962,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" ht="33">
+    <row r="41" ht="65.75" spans="1:20">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -10607,7 +10996,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="33">
+    <row r="42" ht="39.75" spans="1:20">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -10641,7 +11030,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" ht="33">
+    <row r="43" ht="39.75" spans="1:20">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -10675,7 +11064,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="49.5">
+    <row r="44" ht="44.25" spans="1:20">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -10709,7 +11098,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" ht="49.5">
+    <row r="45" ht="44.25" spans="1:20">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -10743,7 +11132,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" ht="49.5">
+    <row r="46" ht="58.75" spans="1:20">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -10777,7 +11166,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="49.5">
+    <row r="47" ht="44.25" spans="1:20">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -10811,7 +11200,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="49.5">
+    <row r="48" ht="44.25" spans="1:20">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -10845,7 +11234,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="33">
+    <row r="49" ht="52.75" spans="1:20">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -10879,7 +11268,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="33">
+    <row r="50" ht="52.75" spans="1:20">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -10913,7 +11302,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" ht="33">
+    <row r="51" ht="52.75" spans="1:20">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -10947,7 +11336,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" ht="33">
+    <row r="52" ht="52.75" spans="1:20">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -10981,7 +11370,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" ht="49.5">
+    <row r="53" ht="65.75" spans="1:20">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -11015,7 +11404,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" ht="33">
+    <row r="54" ht="39.75" spans="1:20">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -11049,7 +11438,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" ht="18.75" customHeight="1">
+    <row r="55" ht="18.75" customHeight="1" spans="1:20">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -11083,7 +11472,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" ht="18.75" customHeight="1">
+    <row r="56" ht="18.75" customHeight="1" spans="1:20">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -11117,7 +11506,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" ht="18.75" customHeight="1">
+    <row r="57" ht="18.75" customHeight="1" spans="1:20">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -11151,7 +11540,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" ht="18.75" customHeight="1">
+    <row r="58" ht="18.75" customHeight="1" spans="1:20">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -11185,7 +11574,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" ht="18.75" customHeight="1">
+    <row r="59" ht="18.75" customHeight="1" spans="1:20">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -11219,7 +11608,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" ht="18.75" customHeight="1">
+    <row r="60" ht="18.75" customHeight="1" spans="1:20">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -11253,7 +11642,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" ht="18.75" customHeight="1">
+    <row r="61" ht="18.75" customHeight="1" spans="1:20">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -11287,7 +11676,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" ht="18.75" customHeight="1">
+    <row r="62" ht="18.75" customHeight="1" spans="1:20">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -11321,7 +11710,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" ht="18.75" customHeight="1">
+    <row r="63" ht="18.75" customHeight="1" spans="1:20">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -11355,7 +11744,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" ht="18.75" customHeight="1">
+    <row r="64" ht="18.75" customHeight="1" spans="1:20">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -11389,7 +11778,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" ht="18.75" customHeight="1">
+    <row r="65" ht="18.75" customHeight="1" spans="1:20">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -11423,7 +11812,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" ht="33">
+    <row r="66" ht="29.75" spans="1:20">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -11457,7 +11846,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" ht="49.5">
+    <row r="67" ht="44.25" spans="1:20">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -11491,7 +11880,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" ht="49.5">
+    <row r="68" ht="78.75" spans="1:20">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -11525,7 +11914,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" ht="49.5">
+    <row r="69" ht="44.25" spans="1:20">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -11559,7 +11948,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" ht="15.25" spans="1:20">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -11593,7 +11982,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" ht="15.25" spans="1:20">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -11627,7 +12016,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" ht="15.25" spans="1:20">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -11661,7 +12050,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" ht="15.25" spans="1:20">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -11695,7 +12084,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" ht="15.25" spans="1:20">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -11729,7 +12118,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" ht="15.25" spans="1:20">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -11763,7 +12152,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" ht="15.25" spans="1:20">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -11797,7 +12186,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" ht="26.75" spans="1:20">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -11831,7 +12220,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" ht="49.5">
+    <row r="78" ht="44.25" spans="1:20">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -11865,7 +12254,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" ht="15.25" spans="1:20">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -11899,7 +12288,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="66">
+    <row r="80" ht="58.75" spans="1:20">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -11933,7 +12322,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" ht="33">
+    <row r="81" ht="29.75" spans="1:20">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -11967,7 +12356,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" ht="33">
+    <row r="82" ht="29.75" spans="1:20">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -12001,7 +12390,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" ht="15.25" spans="1:20">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -12035,7 +12424,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" ht="33">
+    <row r="84" ht="29.75" spans="1:20">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -12069,7 +12458,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" ht="26.75" spans="1:20">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -12103,7 +12492,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" ht="49.5">
+    <row r="86" ht="44.25" spans="1:20">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -12137,7 +12526,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" ht="15.25" spans="1:20">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -12171,7 +12560,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" ht="15.25" spans="1:20">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -12205,7 +12594,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" ht="15.25" spans="1:20">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -12239,7 +12628,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" ht="15.25" spans="1:20">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -12273,7 +12662,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" ht="15.25" spans="1:20">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -12307,7 +12696,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" ht="15.25" spans="1:20">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -12341,7 +12730,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" ht="15.25" spans="1:20">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -12375,7 +12764,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" ht="15.25" spans="1:20">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -12409,7 +12798,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" ht="15.25" spans="1:20">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -12443,7 +12832,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" ht="18.75" customHeight="1">
+    <row r="96" ht="18.75" customHeight="1" spans="1:20">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -12477,7 +12866,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" ht="18.75" customHeight="1">
+    <row r="97" ht="18.75" customHeight="1" spans="1:20">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -12511,7 +12900,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" ht="18.75" customHeight="1">
+    <row r="98" ht="18.75" customHeight="1" spans="1:20">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -12545,7 +12934,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" ht="18.75" customHeight="1">
+    <row r="99" ht="18.75" customHeight="1" spans="1:20">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -12579,7 +12968,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" ht="18.75" customHeight="1">
+    <row r="100" ht="18.75" customHeight="1" spans="1:20">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -12613,7 +13002,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" ht="18.75" customHeight="1">
+    <row r="101" ht="18.75" customHeight="1" spans="1:20">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -12647,7 +13036,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" ht="18.75" customHeight="1">
+    <row r="102" ht="18.75" customHeight="1" spans="1:20">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -12681,7 +13070,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" ht="18.75" customHeight="1">
+    <row r="103" ht="18.75" customHeight="1" spans="1:20">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -12715,7 +13104,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" ht="18.75" customHeight="1">
+    <row r="104" ht="18.75" customHeight="1" spans="1:20">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -12749,7 +13138,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" ht="18.75" customHeight="1">
+    <row r="105" ht="18.75" customHeight="1" spans="1:20">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -12783,7 +13172,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" ht="18.75" customHeight="1">
+    <row r="106" ht="18.75" customHeight="1" spans="1:20">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -12817,7 +13206,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" ht="18.75" customHeight="1">
+    <row r="107" ht="18.75" customHeight="1" spans="1:20">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -12851,7 +13240,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" ht="18.75" customHeight="1">
+    <row r="108" ht="18.75" customHeight="1" spans="1:20">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -12885,7 +13274,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" ht="18.75" customHeight="1">
+    <row r="109" ht="18.75" customHeight="1" spans="1:20">
       <c r="A109" s="1">
         <v>105</v>
       </c>
@@ -12919,7 +13308,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" ht="18.75" customHeight="1">
+    <row r="110" ht="18.75" customHeight="1" spans="1:20">
       <c r="A110" s="1">
         <v>106</v>
       </c>
@@ -12953,7 +13342,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" ht="18.75" customHeight="1">
+    <row r="111" ht="18.75" customHeight="1" spans="1:20">
       <c r="A111" s="1">
         <v>107</v>
       </c>
@@ -12987,7 +13376,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" ht="18.75" customHeight="1">
+    <row r="112" ht="18.75" customHeight="1" spans="1:20">
       <c r="A112" s="1">
         <v>108</v>
       </c>
@@ -13021,7 +13410,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" ht="18.75" customHeight="1">
+    <row r="113" ht="18.75" customHeight="1" spans="1:20">
       <c r="A113" s="1">
         <v>109</v>
       </c>
@@ -13055,7 +13444,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" ht="18.75" customHeight="1">
+    <row r="114" ht="18.75" customHeight="1" spans="1:20">
       <c r="A114" s="1">
         <v>110</v>
       </c>
@@ -13089,7 +13478,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" ht="18.75" customHeight="1">
+    <row r="115" ht="18.75" customHeight="1" spans="1:20">
       <c r="A115" s="1">
         <v>111</v>
       </c>
@@ -13123,7 +13512,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" ht="18.75" customHeight="1">
+    <row r="116" ht="18.75" customHeight="1" spans="1:20">
       <c r="A116" s="1">
         <v>112</v>
       </c>
@@ -13157,7 +13546,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" ht="18.75" customHeight="1">
+    <row r="117" ht="18.75" customHeight="1" spans="1:20">
       <c r="A117" s="1">
         <v>113</v>
       </c>
@@ -13191,7 +13580,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" ht="18.75" customHeight="1">
+    <row r="118" ht="18.75" customHeight="1" spans="1:20">
       <c r="A118" s="1">
         <v>114</v>
       </c>
@@ -13225,7 +13614,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" ht="18.75" customHeight="1">
+    <row r="119" ht="18.75" customHeight="1" spans="1:20">
       <c r="A119" s="1">
         <v>115</v>
       </c>
@@ -13259,7 +13648,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" ht="18.75" customHeight="1">
+    <row r="120" ht="18.75" customHeight="1" spans="1:20">
       <c r="A120" s="1">
         <v>116</v>
       </c>
@@ -13293,7 +13682,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" ht="18.75" customHeight="1">
+    <row r="121" ht="18.75" customHeight="1" spans="1:20">
       <c r="A121" s="1">
         <v>117</v>
       </c>
@@ -13327,7 +13716,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" ht="18.75" customHeight="1">
+    <row r="122" ht="18.75" customHeight="1" spans="1:20">
       <c r="A122" s="1">
         <v>118</v>
       </c>
@@ -13361,7 +13750,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" ht="18.75" customHeight="1">
+    <row r="123" ht="18.75" customHeight="1" spans="1:20">
       <c r="A123" s="1">
         <v>119</v>
       </c>
@@ -13395,7 +13784,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" ht="18.75" customHeight="1">
+    <row r="124" ht="18.75" customHeight="1" spans="1:20">
       <c r="A124" s="1">
         <v>120</v>
       </c>
@@ -13429,7 +13818,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" ht="18.75" customHeight="1">
+    <row r="125" ht="18.75" customHeight="1" spans="1:20">
       <c r="A125" s="1">
         <v>121</v>
       </c>
@@ -13463,7 +13852,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" ht="18.75" customHeight="1">
+    <row r="126" ht="18.75" customHeight="1" spans="1:20">
       <c r="A126" s="1">
         <v>122</v>
       </c>
@@ -13497,7 +13886,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" ht="18.75" customHeight="1">
+    <row r="127" ht="18.75" customHeight="1" spans="1:20">
       <c r="A127" s="1">
         <v>123</v>
       </c>
@@ -13531,7 +13920,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" ht="18.75" customHeight="1">
+    <row r="128" ht="18.75" customHeight="1" spans="1:20">
       <c r="A128" s="1">
         <v>124</v>
       </c>
@@ -13565,7 +13954,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" ht="18.75" customHeight="1">
+    <row r="129" ht="18.75" customHeight="1" spans="1:20">
       <c r="A129" s="1">
         <v>125</v>
       </c>
@@ -13599,7 +13988,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" ht="18.75" customHeight="1">
+    <row r="130" ht="18.75" customHeight="1" spans="1:20">
       <c r="A130" s="1">
         <v>126</v>
       </c>
@@ -13633,7 +14022,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" ht="18.75" customHeight="1">
+    <row r="131" ht="18.75" customHeight="1" spans="1:20">
       <c r="A131" s="1">
         <v>127</v>
       </c>
@@ -13667,7 +14056,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" ht="18.75" customHeight="1">
+    <row r="132" ht="18.75" customHeight="1" spans="1:20">
       <c r="A132" s="1">
         <v>128</v>
       </c>
@@ -13701,7 +14090,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" ht="18.75" customHeight="1">
+    <row r="133" ht="18.75" customHeight="1" spans="1:20">
       <c r="A133" s="1">
         <v>129</v>
       </c>
@@ -13735,7 +14124,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" ht="18.75" customHeight="1">
+    <row r="134" ht="18.75" customHeight="1" spans="1:20">
       <c r="A134" s="1">
         <v>130</v>
       </c>
@@ -13769,7 +14158,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" ht="18.75" customHeight="1">
+    <row r="135" ht="18.75" customHeight="1" spans="1:20">
       <c r="A135" s="1">
         <v>131</v>
       </c>
@@ -13803,7 +14192,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" ht="18.75" customHeight="1">
+    <row r="136" ht="18.75" customHeight="1" spans="1:20">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -13837,7 +14226,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" ht="18.75" customHeight="1">
+    <row r="137" ht="18.75" customHeight="1" spans="1:20">
       <c r="A137" s="1">
         <v>133</v>
       </c>
@@ -13871,7 +14260,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" ht="18.75" customHeight="1">
+    <row r="138" ht="18.75" customHeight="1" spans="1:20">
       <c r="A138" s="1">
         <v>134</v>
       </c>
@@ -13905,7 +14294,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" ht="18.75" customHeight="1">
+    <row r="139" ht="18.75" customHeight="1" spans="1:20">
       <c r="A139" s="1">
         <v>135</v>
       </c>
@@ -13939,7 +14328,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" ht="18.75" customHeight="1">
+    <row r="140" ht="18.75" customHeight="1" spans="1:20">
       <c r="A140" s="1">
         <v>136</v>
       </c>
@@ -13973,7 +14362,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" ht="18.75" customHeight="1">
+    <row r="141" ht="18.75" customHeight="1" spans="1:20">
       <c r="A141" s="1">
         <v>137</v>
       </c>
@@ -14007,7 +14396,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" ht="18.75" customHeight="1">
+    <row r="142" ht="18.75" customHeight="1" spans="1:20">
       <c r="A142" s="1">
         <v>138</v>
       </c>
@@ -14041,7 +14430,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" ht="18.75" customHeight="1">
+    <row r="143" ht="18.75" customHeight="1" spans="1:20">
       <c r="A143" s="1">
         <v>139</v>
       </c>
@@ -14075,7 +14464,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" ht="18.75" customHeight="1">
+    <row r="144" ht="18.75" customHeight="1" spans="1:20">
       <c r="A144" s="1">
         <v>140</v>
       </c>
@@ -14109,7 +14498,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" ht="18.75" customHeight="1">
+    <row r="145" ht="18.75" customHeight="1" spans="1:20">
       <c r="A145" s="1">
         <v>141</v>
       </c>
@@ -14143,7 +14532,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" ht="18.75" customHeight="1">
+    <row r="146" ht="18.75" customHeight="1" spans="1:20">
       <c r="A146" s="1">
         <v>142</v>
       </c>
@@ -14177,7 +14566,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" ht="18.75" customHeight="1">
+    <row r="147" ht="18.75" customHeight="1" spans="1:20">
       <c r="A147" s="1">
         <v>143</v>
       </c>
@@ -14211,7 +14600,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" ht="18.75" customHeight="1">
+    <row r="148" ht="18.75" customHeight="1" spans="1:20">
       <c r="A148" s="1">
         <v>144</v>
       </c>
@@ -14245,7 +14634,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" ht="18.75" customHeight="1">
+    <row r="149" ht="18.75" customHeight="1" spans="1:20">
       <c r="A149" s="1">
         <v>145</v>
       </c>
@@ -14279,7 +14668,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" ht="18.75" customHeight="1">
+    <row r="150" ht="18.75" customHeight="1" spans="1:20">
       <c r="A150" s="1">
         <v>146</v>
       </c>
@@ -14313,7 +14702,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" ht="18.75" customHeight="1">
+    <row r="151" ht="18.75" customHeight="1" spans="1:20">
       <c r="A151" s="1">
         <v>147</v>
       </c>
@@ -14347,7 +14736,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152" spans="1:20" ht="18.75" customHeight="1">
+    <row r="152" ht="18.75" customHeight="1" spans="1:20">
       <c r="A152" s="1">
         <v>148</v>
       </c>
@@ -14381,7 +14770,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153" spans="1:20" ht="18.75" customHeight="1">
+    <row r="153" ht="18.75" customHeight="1" spans="1:20">
       <c r="A153" s="1">
         <v>149</v>
       </c>
@@ -14415,7 +14804,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154" spans="1:20" ht="18.75" customHeight="1">
+    <row r="154" ht="18.75" customHeight="1" spans="1:20">
       <c r="A154" s="1">
         <v>150</v>
       </c>
@@ -14449,7 +14838,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155" spans="1:20" ht="18.75" customHeight="1">
+    <row r="155" ht="18.75" customHeight="1" spans="1:20">
       <c r="A155" s="1">
         <v>151</v>
       </c>
@@ -14483,7 +14872,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156" spans="1:20" ht="18.75" customHeight="1">
+    <row r="156" ht="18.75" customHeight="1" spans="1:20">
       <c r="A156" s="1">
         <v>152</v>
       </c>
@@ -14517,7 +14906,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157" spans="1:20" ht="18.75" customHeight="1">
+    <row r="157" ht="18.75" customHeight="1" spans="1:20">
       <c r="A157" s="1">
         <v>153</v>
       </c>
@@ -14551,7 +14940,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158" spans="1:20" ht="18.75" customHeight="1">
+    <row r="158" ht="18.75" customHeight="1" spans="1:20">
       <c r="A158" s="1">
         <v>154</v>
       </c>
@@ -14585,7 +14974,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159" spans="1:20" ht="18.75" customHeight="1">
+    <row r="159" ht="18.75" customHeight="1" spans="1:20">
       <c r="A159" s="1">
         <v>155</v>
       </c>
@@ -14619,7 +15008,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160" spans="1:20" ht="18.75" customHeight="1">
+    <row r="160" ht="18.75" customHeight="1" spans="1:20">
       <c r="A160" s="1">
         <v>156</v>
       </c>
@@ -14653,7 +15042,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161" spans="1:20" ht="18.75" customHeight="1">
+    <row r="161" ht="18.75" customHeight="1" spans="1:20">
       <c r="A161" s="1">
         <v>157</v>
       </c>
@@ -14687,7 +15076,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162" spans="1:20" ht="18.75" customHeight="1">
+    <row r="162" ht="18.75" customHeight="1" spans="1:20">
       <c r="A162" s="1">
         <v>158</v>
       </c>
@@ -14721,7 +15110,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163" spans="1:20" ht="18.75" customHeight="1">
+    <row r="163" ht="18.75" customHeight="1" spans="1:20">
       <c r="A163" s="1">
         <v>159</v>
       </c>
@@ -14755,7 +15144,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164" spans="1:20" ht="18.75" customHeight="1">
+    <row r="164" ht="18.75" customHeight="1" spans="1:20">
       <c r="A164" s="21">
         <v>160</v>
       </c>
@@ -14787,7 +15176,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165" spans="1:20" ht="18.75" customHeight="1">
+    <row r="165" ht="18.75" customHeight="1" spans="1:20">
       <c r="A165" s="21">
         <v>161</v>
       </c>
@@ -14819,7 +15208,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166" spans="1:20" ht="18.75" customHeight="1">
+    <row r="166" ht="18.75" customHeight="1" spans="1:20">
       <c r="A166" s="21">
         <v>162</v>
       </c>
@@ -14851,7 +15240,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167" spans="1:20" ht="18.75" customHeight="1">
+    <row r="167" ht="18.75" customHeight="1" spans="1:20">
       <c r="A167" s="21">
         <v>163</v>
       </c>
@@ -14883,7 +15272,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168" spans="1:20" ht="18.75" customHeight="1">
+    <row r="168" ht="18.75" customHeight="1" spans="1:20">
       <c r="A168" s="21">
         <v>164</v>
       </c>
@@ -14915,7 +15304,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169" spans="1:20" ht="18.75" customHeight="1">
+    <row r="169" ht="18.75" customHeight="1" spans="1:20">
       <c r="A169" s="21">
         <v>165</v>
       </c>
@@ -14947,7 +15336,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170" spans="1:20" ht="18.75" customHeight="1">
+    <row r="170" ht="18.75" customHeight="1" spans="1:20">
       <c r="A170" s="21">
         <v>166</v>
       </c>
@@ -14979,7 +15368,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171" spans="1:20" ht="18.75" customHeight="1">
+    <row r="171" ht="18.75" customHeight="1" spans="1:20">
       <c r="A171" s="21">
         <v>167</v>
       </c>
@@ -15011,7 +15400,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172" spans="1:20" ht="18.75" customHeight="1">
+    <row r="172" ht="18.75" customHeight="1" spans="1:20">
       <c r="A172" s="21">
         <v>168</v>
       </c>
@@ -15043,7 +15432,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173" spans="1:20" ht="18.75" customHeight="1">
+    <row r="173" ht="18.75" customHeight="1" spans="1:20">
       <c r="A173" s="21">
         <v>169</v>
       </c>
@@ -15075,7 +15464,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174" spans="1:20" ht="18.75" customHeight="1">
+    <row r="174" ht="18.75" customHeight="1" spans="1:20">
       <c r="A174" s="21">
         <v>170</v>
       </c>
@@ -15107,7 +15496,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175" spans="1:20" ht="18.75" customHeight="1">
+    <row r="175" ht="18.75" customHeight="1" spans="1:20">
       <c r="A175" s="21">
         <v>171</v>
       </c>
@@ -15139,7 +15528,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176" spans="1:20" ht="18.75" customHeight="1">
+    <row r="176" ht="18.75" customHeight="1" spans="1:20">
       <c r="A176" s="21">
         <v>172</v>
       </c>
@@ -15171,7 +15560,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177" spans="1:20" ht="18.75" customHeight="1">
+    <row r="177" ht="18.75" customHeight="1" spans="1:20">
       <c r="A177" s="21">
         <v>173</v>
       </c>
@@ -15203,7 +15592,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178" spans="1:20" ht="18.75" customHeight="1">
+    <row r="178" ht="18.75" customHeight="1" spans="1:20">
       <c r="A178" s="21">
         <v>174</v>
       </c>
@@ -15235,7 +15624,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179" spans="1:20" ht="18.75" customHeight="1">
+    <row r="179" ht="18.75" customHeight="1" spans="1:20">
       <c r="A179" s="21">
         <v>175</v>
       </c>
@@ -15267,7 +15656,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180" spans="1:20" ht="18.75" customHeight="1">
+    <row r="180" ht="18.75" customHeight="1" spans="1:20">
       <c r="A180" s="21">
         <v>176</v>
       </c>
@@ -15299,7 +15688,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181" spans="1:20" ht="18.75" customHeight="1">
+    <row r="181" ht="18.75" customHeight="1" spans="1:20">
       <c r="A181" s="21">
         <v>177</v>
       </c>
@@ -15331,7 +15720,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182" spans="1:20" ht="18.75" customHeight="1">
+    <row r="182" ht="18.75" customHeight="1" spans="1:20">
       <c r="A182" s="21">
         <v>178</v>
       </c>
@@ -15363,7 +15752,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183" spans="1:20" ht="18.75" customHeight="1">
+    <row r="183" ht="18.75" customHeight="1" spans="1:20">
       <c r="A183" s="21">
         <v>179</v>
       </c>
@@ -15395,7 +15784,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184" spans="1:20" ht="27.75">
+    <row r="184" ht="52.75" spans="1:7">
       <c r="A184" s="21">
         <v>180</v>
       </c>
@@ -15412,7 +15801,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="40.5">
+    <row r="185" ht="38.25" spans="1:7">
       <c r="A185" s="21">
         <v>181</v>
       </c>
@@ -15429,7 +15818,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="27.75">
+    <row r="186" ht="65.75" spans="1:7">
       <c r="A186" s="21">
         <v>182</v>
       </c>
@@ -15446,7 +15835,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" ht="15.25" spans="1:7">
       <c r="A187" s="21">
         <v>183</v>
       </c>
@@ -15463,7 +15852,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" ht="15.25" spans="1:7">
       <c r="A188" s="21">
         <v>184</v>
       </c>
@@ -15480,7 +15869,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="27.75">
+    <row r="189" ht="65.75" spans="1:7">
       <c r="A189" s="21">
         <v>185</v>
       </c>
@@ -15497,7 +15886,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="27.75">
+    <row r="190" ht="52.75" spans="1:7">
       <c r="A190" s="21">
         <v>186</v>
       </c>
@@ -15514,7 +15903,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" ht="15.25" spans="1:7">
       <c r="A191" s="21">
         <v>187</v>
       </c>
@@ -15531,7 +15920,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="40.5">
+    <row r="192" ht="78.75" spans="1:7">
       <c r="A192" s="21">
         <v>188</v>
       </c>
@@ -15548,7 +15937,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="27.75">
+    <row r="193" ht="38.25" spans="1:7">
       <c r="A193" s="21">
         <v>189</v>
       </c>
@@ -15565,7 +15954,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="18.75" customHeight="1">
+    <row r="194" ht="18.75" customHeight="1" spans="1:7">
       <c r="A194" s="1">
         <v>190</v>
       </c>
@@ -15585,7 +15974,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="18.75" customHeight="1">
+    <row r="195" ht="18.75" customHeight="1" spans="1:7">
       <c r="A195" s="1">
         <v>191</v>
       </c>
@@ -15605,7 +15994,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="18.75" customHeight="1">
+    <row r="196" ht="18.75" customHeight="1" spans="1:7">
       <c r="A196" s="1">
         <v>192</v>
       </c>
@@ -15625,7 +16014,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="18.75" customHeight="1">
+    <row r="197" ht="18.75" customHeight="1" spans="1:7">
       <c r="A197" s="1">
         <v>193</v>
       </c>
@@ -15645,7 +16034,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="18.75" customHeight="1">
+    <row r="198" ht="18.75" customHeight="1" spans="1:7">
       <c r="A198" s="1">
         <v>194</v>
       </c>
@@ -15665,7 +16054,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="18.75" customHeight="1">
+    <row r="199" ht="18.75" customHeight="1" spans="1:7">
       <c r="A199" s="1">
         <v>195</v>
       </c>
@@ -15685,7 +16074,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="18.75" customHeight="1">
+    <row r="200" ht="18.75" customHeight="1" spans="1:7">
       <c r="A200" s="1">
         <v>196</v>
       </c>
@@ -15705,7 +16094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="18.75" customHeight="1">
+    <row r="201" ht="18.75" customHeight="1" spans="1:7">
       <c r="A201" s="1">
         <v>197</v>
       </c>
@@ -15725,7 +16114,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="18.75" customHeight="1">
+    <row r="202" ht="18.75" customHeight="1" spans="1:7">
       <c r="A202" s="1">
         <v>198</v>
       </c>
@@ -15745,7 +16134,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="18.75" customHeight="1">
+    <row r="203" ht="18.75" customHeight="1" spans="1:7">
       <c r="A203" s="1">
         <v>199</v>
       </c>
@@ -15765,7 +16154,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="18.75" customHeight="1">
+    <row r="204" ht="18.75" customHeight="1" spans="1:7">
       <c r="A204" s="1">
         <v>200</v>
       </c>
@@ -15785,7 +16174,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="18.75" customHeight="1">
+    <row r="205" ht="18.75" customHeight="1" spans="1:7">
       <c r="A205" s="1">
         <v>201</v>
       </c>
@@ -15805,7 +16194,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="18.75" customHeight="1">
+    <row r="206" ht="18.75" customHeight="1" spans="1:7">
       <c r="A206" s="1">
         <v>202</v>
       </c>
@@ -15825,7 +16214,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="18.75" customHeight="1">
+    <row r="207" ht="18.75" customHeight="1" spans="1:7">
       <c r="A207" s="1">
         <v>203</v>
       </c>
@@ -15845,7 +16234,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="18.75" customHeight="1">
+    <row r="208" ht="18.75" customHeight="1" spans="1:7">
       <c r="A208" s="1">
         <v>204</v>
       </c>
@@ -15865,7 +16254,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="18.75" customHeight="1">
+    <row r="209" ht="18.75" customHeight="1" spans="1:7">
       <c r="A209" s="1">
         <v>205</v>
       </c>
@@ -15885,7 +16274,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="18.75" customHeight="1">
+    <row r="210" ht="18.75" customHeight="1" spans="1:7">
       <c r="A210" s="1">
         <v>206</v>
       </c>
@@ -15905,7 +16294,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="18.75" customHeight="1">
+    <row r="211" ht="18.75" customHeight="1" spans="1:7">
       <c r="A211" s="1">
         <v>207</v>
       </c>
@@ -15925,7 +16314,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="18.75" customHeight="1">
+    <row r="212" ht="18.75" customHeight="1" spans="1:7">
       <c r="A212" s="1">
         <v>208</v>
       </c>
@@ -15945,7 +16334,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="18.75" customHeight="1">
+    <row r="213" ht="18.75" customHeight="1" spans="1:7">
       <c r="A213" s="1">
         <v>209</v>
       </c>
@@ -15965,7 +16354,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="18.75" customHeight="1">
+    <row r="214" ht="18.75" customHeight="1" spans="1:7">
       <c r="A214" s="1">
         <v>210</v>
       </c>
@@ -15985,7 +16374,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="18.75" customHeight="1">
+    <row r="215" ht="18.75" customHeight="1" spans="1:7">
       <c r="A215" s="1">
         <v>211</v>
       </c>
@@ -16005,7 +16394,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="18.75" customHeight="1">
+    <row r="216" ht="18.75" customHeight="1" spans="1:7">
       <c r="A216" s="1">
         <v>212</v>
       </c>
@@ -16025,7 +16414,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="18.75" customHeight="1">
+    <row r="217" ht="18.75" customHeight="1" spans="1:7">
       <c r="A217" s="1">
         <v>213</v>
       </c>
@@ -16045,7 +16434,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="18.75" customHeight="1">
+    <row r="218" ht="18.75" customHeight="1" spans="1:7">
       <c r="A218" s="1">
         <v>214</v>
       </c>
@@ -16065,7 +16454,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="18.75" customHeight="1">
+    <row r="219" ht="18.75" customHeight="1" spans="1:7">
       <c r="A219" s="1">
         <v>215</v>
       </c>
@@ -16085,7 +16474,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="18.75" customHeight="1">
+    <row r="220" ht="18.75" customHeight="1" spans="1:7">
       <c r="A220" s="1">
         <v>216</v>
       </c>
@@ -16105,7 +16494,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="18.75" customHeight="1">
+    <row r="221" ht="18.75" customHeight="1" spans="1:7">
       <c r="A221" s="1">
         <v>217</v>
       </c>
@@ -16125,7 +16514,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="18.75" customHeight="1">
+    <row r="222" ht="18.75" customHeight="1" spans="1:7">
       <c r="A222" s="1">
         <v>218</v>
       </c>
@@ -16145,7 +16534,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="18.75" customHeight="1">
+    <row r="223" ht="18.75" customHeight="1" spans="1:7">
       <c r="A223" s="1">
         <v>219</v>
       </c>
@@ -16165,7 +16554,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="18.75" customHeight="1">
+    <row r="224" ht="18.75" customHeight="1" spans="1:7">
       <c r="A224" s="1">
         <v>220</v>
       </c>
@@ -16185,7 +16574,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="18.75" customHeight="1">
+    <row r="225" ht="18.75" customHeight="1" spans="1:7">
       <c r="A225" s="1">
         <v>221</v>
       </c>
@@ -16205,7 +16594,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="18.75" customHeight="1">
+    <row r="226" ht="18.75" customHeight="1" spans="1:7">
       <c r="A226" s="1">
         <v>222</v>
       </c>
@@ -16225,7 +16614,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="18.75" customHeight="1">
+    <row r="227" ht="18.75" customHeight="1" spans="1:7">
       <c r="A227" s="1">
         <v>223</v>
       </c>
@@ -16245,7 +16634,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="18.75" customHeight="1">
+    <row r="228" ht="18.75" customHeight="1" spans="1:7">
       <c r="A228" s="1">
         <v>224</v>
       </c>
@@ -16265,7 +16654,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="18.75" customHeight="1">
+    <row r="229" ht="18.75" customHeight="1" spans="1:7">
       <c r="A229" s="1">
         <v>225</v>
       </c>
@@ -16285,7 +16674,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="18.75" customHeight="1">
+    <row r="230" ht="18.75" customHeight="1" spans="1:7">
       <c r="A230" s="1">
         <v>226</v>
       </c>
@@ -16305,7 +16694,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="18.75" customHeight="1">
+    <row r="231" ht="18.75" customHeight="1" spans="1:7">
       <c r="A231" s="1">
         <v>227</v>
       </c>
@@ -16325,7 +16714,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="18.75" customHeight="1">
+    <row r="232" ht="18.75" customHeight="1" spans="1:7">
       <c r="A232" s="1">
         <v>228</v>
       </c>
@@ -16345,7 +16734,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="18.75" customHeight="1">
+    <row r="233" ht="18.75" customHeight="1" spans="1:7">
       <c r="A233" s="1">
         <v>229</v>
       </c>
@@ -16365,7 +16754,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="18.75" customHeight="1">
+    <row r="234" ht="18.75" customHeight="1" spans="1:7">
       <c r="A234" s="1">
         <v>230</v>
       </c>
@@ -16385,7 +16774,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="18.75" customHeight="1">
+    <row r="235" ht="18.75" customHeight="1" spans="1:7">
       <c r="A235" s="1">
         <v>231</v>
       </c>
@@ -16405,7 +16794,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="18.75" customHeight="1">
+    <row r="236" ht="18.75" customHeight="1" spans="1:7">
       <c r="A236" s="1">
         <v>232</v>
       </c>
@@ -16425,7 +16814,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="18.75" customHeight="1">
+    <row r="237" ht="18.75" customHeight="1" spans="1:7">
       <c r="A237" s="1">
         <v>233</v>
       </c>
@@ -16445,7 +16834,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="18.75" customHeight="1">
+    <row r="238" ht="18.75" customHeight="1" spans="1:7">
       <c r="A238" s="1">
         <v>234</v>
       </c>
@@ -16465,7 +16854,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="18.75" customHeight="1">
+    <row r="239" ht="18.75" customHeight="1" spans="1:7">
       <c r="A239" s="1">
         <v>235</v>
       </c>
@@ -16485,7 +16874,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="18.75" customHeight="1">
+    <row r="240" ht="18.75" customHeight="1" spans="1:7">
       <c r="A240" s="1">
         <v>236</v>
       </c>
@@ -16505,7 +16894,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="18.75" customHeight="1">
+    <row r="241" ht="18.75" customHeight="1" spans="1:7">
       <c r="A241" s="1">
         <v>237</v>
       </c>
@@ -16525,7 +16914,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="18.75" customHeight="1">
+    <row r="242" ht="18.75" customHeight="1" spans="1:7">
       <c r="A242" s="1">
         <v>238</v>
       </c>
@@ -16545,7 +16934,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="18.75" customHeight="1">
+    <row r="243" ht="18.75" customHeight="1" spans="1:7">
       <c r="A243" s="1">
         <v>239</v>
       </c>
@@ -16565,7 +16954,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" ht="15.25" spans="1:7">
       <c r="A244" s="1">
         <v>240</v>
       </c>
@@ -16585,7 +16974,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" ht="15.25" spans="1:7">
       <c r="A245" s="1">
         <v>241</v>
       </c>
@@ -16605,7 +16994,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" ht="15.25" spans="1:7">
       <c r="A246" s="1">
         <v>242</v>
       </c>
@@ -16625,7 +17014,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" ht="15.25" spans="1:7">
       <c r="A247" s="1">
         <v>243</v>
       </c>
@@ -16645,7 +17034,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" ht="15.25" spans="1:7">
       <c r="A248" s="1">
         <v>244</v>
       </c>
@@ -16665,7 +17054,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" ht="15.25" spans="1:7">
       <c r="A249" s="1">
         <v>245</v>
       </c>
@@ -16685,7 +17074,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" ht="15.25" spans="1:7">
       <c r="A250" s="1">
         <v>246</v>
       </c>
@@ -16705,7 +17094,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" ht="15.25" spans="1:7">
       <c r="A251" s="1">
         <v>247</v>
       </c>
@@ -16725,7 +17114,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" ht="15.25" spans="1:7">
       <c r="A252" s="1">
         <v>248</v>
       </c>
@@ -16745,7 +17134,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" ht="15.25" spans="1:7">
       <c r="A253" s="1">
         <v>249</v>
       </c>
@@ -16765,7 +17154,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" ht="15.25" spans="1:7">
       <c r="A254" s="1">
         <v>250</v>
       </c>
@@ -16785,7 +17174,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" ht="15.25" spans="1:7">
       <c r="A255" s="1">
         <v>251</v>
       </c>
@@ -16805,7 +17194,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" ht="15.25" spans="1:7">
       <c r="A256" s="1">
         <v>252</v>
       </c>
@@ -16825,7 +17214,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" ht="15.25" spans="1:7">
       <c r="A257" s="1">
         <v>253</v>
       </c>
@@ -16845,7 +17234,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" ht="15.25" spans="1:7">
       <c r="A258" s="1">
         <v>254</v>
       </c>
@@ -16865,7 +17254,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" ht="15.25" spans="1:7">
       <c r="A259" s="1">
         <v>255</v>
       </c>
@@ -16885,7 +17274,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" ht="15.25" spans="1:7">
       <c r="A260" s="1">
         <v>256</v>
       </c>
@@ -16905,7 +17294,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" ht="15.25" spans="1:7">
       <c r="A261" s="1">
         <v>257</v>
       </c>
@@ -16925,7 +17314,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" ht="15.25" spans="1:7">
       <c r="A262" s="1">
         <v>258</v>
       </c>
@@ -16945,7 +17334,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" ht="15.25" spans="1:7">
       <c r="A263" s="1">
         <v>259</v>
       </c>
@@ -16965,7 +17354,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" ht="15.25" spans="1:7">
       <c r="A264" s="1">
         <v>260</v>
       </c>
@@ -16985,7 +17374,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" ht="15.25" spans="1:7">
       <c r="A265" s="1">
         <v>261</v>
       </c>
@@ -17005,7 +17394,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" ht="15.25" spans="1:7">
       <c r="A266" s="1">
         <v>262</v>
       </c>
@@ -17025,7 +17414,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" ht="15.25" spans="1:7">
       <c r="A267" s="1">
         <v>263</v>
       </c>
@@ -17045,7 +17434,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" ht="15.25" spans="1:7">
       <c r="A268" s="1">
         <v>264</v>
       </c>
@@ -17065,7 +17454,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" ht="15.25" spans="1:7">
       <c r="A269" s="1">
         <v>265</v>
       </c>
@@ -17085,7 +17474,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" ht="15.25" spans="1:7">
       <c r="A270" s="1">
         <v>266</v>
       </c>
@@ -17105,7 +17494,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" ht="15.25" spans="1:7">
       <c r="A271" s="1">
         <v>267</v>
       </c>
@@ -17125,7 +17514,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" ht="15.25" spans="1:7">
       <c r="A272" s="1">
         <v>268</v>
       </c>
@@ -17145,7 +17534,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" ht="15.25" spans="1:7">
       <c r="A273" s="1">
         <v>269</v>
       </c>
@@ -17165,7 +17554,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" ht="15.25" spans="1:7">
       <c r="A274" s="1">
         <v>270</v>
       </c>
@@ -17185,7 +17574,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" ht="15.25" spans="1:7">
       <c r="A275" s="1">
         <v>271</v>
       </c>
@@ -17205,7 +17594,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" ht="15.25" spans="1:7">
       <c r="A276" s="1">
         <v>272</v>
       </c>
@@ -17225,7 +17614,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" ht="15.25" spans="1:7">
       <c r="A277" s="1">
         <v>273</v>
       </c>
@@ -17245,7 +17634,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" ht="15.25" spans="1:7">
       <c r="A278" s="1">
         <v>274</v>
       </c>
@@ -17265,7 +17654,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" ht="15.25" spans="1:7">
       <c r="A279" s="1">
         <v>275</v>
       </c>
@@ -17285,7 +17674,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" ht="15.25" spans="1:7">
       <c r="A280" s="1">
         <v>276</v>
       </c>
@@ -17305,7 +17694,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" ht="15.25" spans="1:7">
       <c r="A281" s="1">
         <v>277</v>
       </c>
@@ -17325,7 +17714,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" ht="15.25" spans="1:7">
       <c r="A282" s="1">
         <v>278</v>
       </c>
@@ -17345,7 +17734,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" ht="15.25" spans="1:7">
       <c r="A283" s="1">
         <v>279</v>
       </c>
@@ -17365,7 +17754,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" ht="15.25" spans="1:7">
       <c r="A284" s="1">
         <v>280</v>
       </c>
@@ -17385,7 +17774,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" ht="15.25" spans="1:7">
       <c r="A285" s="1">
         <v>281</v>
       </c>
@@ -17405,7 +17794,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" ht="15.25" spans="1:7">
       <c r="A286" s="1">
         <v>282</v>
       </c>
@@ -17425,7 +17814,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" ht="15.25" spans="1:7">
       <c r="A287" s="1">
         <v>283</v>
       </c>
@@ -17445,7 +17834,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" ht="15.25" spans="1:7">
       <c r="A288" s="1">
         <v>284</v>
       </c>
@@ -17465,7 +17854,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" ht="39.75" spans="1:7">
       <c r="A289" s="1">
         <v>285</v>
       </c>
@@ -17485,7 +17874,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" ht="39.75" spans="1:7">
       <c r="A290" s="1">
         <v>286</v>
       </c>
@@ -17505,7 +17894,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" ht="15.25" spans="1:7">
       <c r="A291" s="1">
         <v>287</v>
       </c>
@@ -17525,7 +17914,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" ht="15.25" spans="1:7">
       <c r="A292" s="1">
         <v>288</v>
       </c>
@@ -17545,7 +17934,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" ht="26.75" spans="1:7">
       <c r="A293" s="1">
         <v>289</v>
       </c>
@@ -17565,7 +17954,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" ht="39.75" spans="1:7">
       <c r="A294" s="1">
         <v>290</v>
       </c>
@@ -17585,7 +17974,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" ht="29.75" spans="1:7">
       <c r="A295" s="1">
         <v>291</v>
       </c>
@@ -17605,7 +17994,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" ht="15.25" spans="1:7">
       <c r="A296" s="1">
         <v>292</v>
       </c>
@@ -17625,7 +18014,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" ht="15.25" spans="1:7">
       <c r="A297" s="1">
         <v>293</v>
       </c>
@@ -17645,7 +18034,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" ht="15.25" spans="1:7">
       <c r="A298" s="1">
         <v>294</v>
       </c>
@@ -17665,7 +18054,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" ht="15.25" spans="1:7">
       <c r="A299" s="1">
         <v>295</v>
       </c>
@@ -17685,7 +18074,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" ht="29.75" spans="1:7">
       <c r="A300" s="1">
         <v>296</v>
       </c>
@@ -17705,7 +18094,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" ht="15.25" spans="1:7">
       <c r="A301" s="1">
         <v>297</v>
       </c>
@@ -17725,7 +18114,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" ht="15.25" spans="1:7">
       <c r="A302" s="1">
         <v>298</v>
       </c>
@@ -17745,7 +18134,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="18.75" customHeight="1">
+    <row r="303" ht="18.75" customHeight="1" spans="1:7">
       <c r="A303" s="1">
         <v>299</v>
       </c>
@@ -17765,7 +18154,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="18.75" customHeight="1">
+    <row r="304" ht="18.75" customHeight="1" spans="1:7">
       <c r="A304" s="1">
         <v>300</v>
       </c>
@@ -17785,7 +18174,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="18.75" customHeight="1">
+    <row r="305" ht="18.75" customHeight="1" spans="1:7">
       <c r="A305" s="1">
         <v>301</v>
       </c>
@@ -17805,7 +18194,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="18.75" customHeight="1">
+    <row r="306" ht="18.75" customHeight="1" spans="1:7">
       <c r="A306" s="1">
         <v>302</v>
       </c>
@@ -17825,7 +18214,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="18.75" customHeight="1">
+    <row r="307" ht="18.75" customHeight="1" spans="1:7">
       <c r="A307" s="1">
         <v>303</v>
       </c>
@@ -17845,7 +18234,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="33">
+    <row r="308" ht="29.75" spans="1:7">
       <c r="A308" s="1">
         <v>304</v>
       </c>
@@ -17865,7 +18254,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="33">
+    <row r="309" ht="29.75" spans="1:7">
       <c r="A309" s="1">
         <v>305</v>
       </c>
@@ -17885,7 +18274,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="49.5">
+    <row r="310" ht="44.25" spans="1:7">
       <c r="A310" s="1">
         <v>306</v>
       </c>
@@ -17905,7 +18294,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="49.5">
+    <row r="311" ht="44.25" spans="1:7">
       <c r="A311" s="1">
         <v>307</v>
       </c>
@@ -17925,7 +18314,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="49.5">
+    <row r="312" ht="44.25" spans="1:7">
       <c r="A312" s="1">
         <v>308</v>
       </c>
@@ -17945,7 +18334,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="49.5">
+    <row r="313" ht="44.25" spans="1:7">
       <c r="A313" s="1">
         <v>309</v>
       </c>
@@ -17965,7 +18354,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="49.5">
+    <row r="314" ht="44.25" spans="1:7">
       <c r="A314" s="1">
         <v>310</v>
       </c>
@@ -17985,7 +18374,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="49.5">
+    <row r="315" ht="44.25" spans="1:7">
       <c r="A315" s="1">
         <v>311</v>
       </c>
@@ -18005,7 +18394,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="49.5">
+    <row r="316" ht="44.25" spans="1:7">
       <c r="A316" s="1">
         <v>312</v>
       </c>
@@ -18025,7 +18414,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" ht="15.25" spans="1:7">
       <c r="A317" s="1">
         <v>313</v>
       </c>
@@ -18045,7 +18434,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" ht="15.25" spans="1:7">
       <c r="A318" s="1">
         <v>314</v>
       </c>
@@ -18065,7 +18454,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" ht="15.25" spans="1:7">
       <c r="A319" s="1">
         <v>315</v>
       </c>
@@ -18085,7 +18474,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" ht="15.25" spans="1:7">
       <c r="A320" s="1">
         <v>316</v>
       </c>
@@ -18105,7 +18494,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" ht="15.25" spans="1:7">
       <c r="A321" s="1">
         <v>317</v>
       </c>
@@ -18125,7 +18514,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="27.75">
+    <row r="322" ht="25.75" spans="1:7">
       <c r="A322" s="1">
         <v>318</v>
       </c>
@@ -18145,7 +18534,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" ht="15.25" spans="1:7">
       <c r="A323" s="1">
         <v>319</v>
       </c>
@@ -18165,7 +18554,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="31.5">
+    <row r="324" ht="27.75" spans="1:7">
       <c r="A324" s="1">
         <v>320</v>
       </c>
@@ -18185,7 +18574,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="31.5">
+    <row r="325" ht="27.75" spans="1:7">
       <c r="A325" s="1">
         <v>321</v>
       </c>
@@ -18205,7 +18594,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="31.5">
+    <row r="326" ht="27.75" spans="1:7">
       <c r="A326" s="1">
         <v>322</v>
       </c>
@@ -18225,7 +18614,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="27.75">
+    <row r="327" ht="27.75" spans="1:7">
       <c r="A327" s="1">
         <v>323</v>
       </c>
@@ -18245,7 +18634,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" ht="27.75" spans="1:7">
       <c r="A328" s="1">
         <v>324</v>
       </c>
@@ -18265,7 +18654,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="31.5">
+    <row r="329" ht="27.75" spans="1:7">
       <c r="A329" s="1">
         <v>325</v>
       </c>
@@ -18285,7 +18674,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="31.5">
+    <row r="330" ht="29.75" spans="1:7">
       <c r="A330" s="1">
         <v>326</v>
       </c>
@@ -18305,7 +18694,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="31.5">
+    <row r="331" ht="27.75" spans="1:7">
       <c r="A331" s="1">
         <v>327</v>
       </c>
@@ -18325,7 +18714,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="31.5">
+    <row r="332" ht="27.75" spans="1:7">
       <c r="A332" s="1">
         <v>328</v>
       </c>
@@ -18345,7 +18734,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="33">
+    <row r="333" ht="29.75" spans="1:7">
       <c r="A333" s="1">
         <v>329</v>
       </c>
@@ -18365,7 +18754,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="33">
+    <row r="334" ht="29.75" spans="1:7">
       <c r="A334" s="1">
         <v>330</v>
       </c>
@@ -18385,7 +18774,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="33">
+    <row r="335" ht="38.25" spans="1:7">
       <c r="A335" s="1">
         <v>331</v>
       </c>
@@ -18405,7 +18794,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="33">
+    <row r="336" ht="29.75" spans="1:7">
       <c r="A336" s="1">
         <v>332</v>
       </c>
@@ -18425,7 +18814,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="33">
+    <row r="337" ht="29.75" spans="1:7">
       <c r="A337" s="1">
         <v>333</v>
       </c>
@@ -18445,7 +18834,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="27.75">
+    <row r="338" ht="29.75" spans="1:7">
       <c r="A338" s="1">
         <v>334</v>
       </c>
@@ -18465,7 +18854,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="27.75">
+    <row r="339" ht="29.75" spans="1:7">
       <c r="A339" s="1">
         <v>335</v>
       </c>
@@ -18485,7 +18874,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="33">
+    <row r="340" ht="29.75" spans="1:7">
       <c r="A340" s="1">
         <v>336</v>
       </c>
@@ -18505,7 +18894,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" ht="15.25" spans="1:7">
       <c r="A341" s="1">
         <v>337</v>
       </c>
@@ -18525,7 +18914,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="33">
+    <row r="342" ht="29.75" spans="1:7">
       <c r="A342" s="1">
         <v>338</v>
       </c>
@@ -18545,7 +18934,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="27.75">
+    <row r="343" ht="25.75" spans="1:7">
       <c r="A343" s="1">
         <v>339</v>
       </c>
@@ -18565,7 +18954,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:5">
       <c r="A344" s="1">
         <v>340</v>
       </c>
@@ -18576,7 +18965,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="31"/>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:5">
       <c r="A345" s="1">
         <v>341</v>
       </c>
@@ -18587,7 +18976,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="31"/>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:5">
       <c r="A346" s="1">
         <v>342</v>
       </c>
@@ -18598,7 +18987,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="31"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:5">
       <c r="A347" s="1">
         <v>343</v>
       </c>
@@ -18609,7 +18998,7 @@
       <c r="D347" s="1"/>
       <c r="E347" s="31"/>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>344</v>
       </c>
@@ -18620,7 +19009,7 @@
       <c r="D348" s="1"/>
       <c r="E348" s="31"/>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:5">
       <c r="A349" s="1">
         <v>345</v>
       </c>
@@ -18631,7 +19020,7 @@
       <c r="D349" s="28"/>
       <c r="E349" s="31"/>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:5">
       <c r="A350" s="1">
         <v>346</v>
       </c>
@@ -18642,7 +19031,7 @@
       <c r="D350" s="1"/>
       <c r="E350" s="31"/>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:5">
       <c r="A351" s="1">
         <v>347</v>
       </c>
@@ -18653,7 +19042,7 @@
       <c r="D351" s="1"/>
       <c r="E351" s="31"/>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:5">
       <c r="A352" s="1">
         <v>348</v>
       </c>
@@ -18664,7 +19053,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="31"/>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" ht="15.25" spans="1:5">
       <c r="A353" s="1">
         <v>349</v>
       </c>
@@ -18675,7 +19064,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="31"/>
     </row>
-    <row r="354" spans="1:7" ht="33">
+    <row r="354" ht="29.75" spans="1:7">
       <c r="A354" s="1">
         <v>350</v>
       </c>
@@ -18695,7 +19084,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" ht="15.25" spans="1:7">
       <c r="A355" s="1">
         <v>351</v>
       </c>
@@ -18715,7 +19104,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="33">
+    <row r="356" ht="29.75" spans="1:7">
       <c r="A356" s="1">
         <v>352</v>
       </c>
@@ -18735,7 +19124,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" ht="15.25" spans="1:7">
       <c r="A357" s="1">
         <v>353</v>
       </c>
@@ -18755,7 +19144,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" ht="15.25" spans="1:7">
       <c r="A358" s="1">
         <v>354</v>
       </c>
@@ -18775,7 +19164,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" ht="15.25" spans="1:7">
       <c r="A359" s="1">
         <v>355</v>
       </c>
@@ -18795,7 +19184,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="33">
+    <row r="360" ht="29.75" spans="1:7">
       <c r="A360" s="1">
         <v>356</v>
       </c>
@@ -18815,7 +19204,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="53.25">
+    <row r="361" ht="58.75" spans="1:7">
       <c r="A361" s="1">
         <v>357</v>
       </c>
@@ -18835,7 +19224,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="33">
+    <row r="362" ht="29.75" spans="1:7">
       <c r="A362" s="1">
         <v>358</v>
       </c>
@@ -18855,7 +19244,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" ht="15.25" spans="1:7">
       <c r="A363" s="1">
         <v>359</v>
       </c>
@@ -18875,7 +19264,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="33">
+    <row r="364" ht="29.75" spans="1:7">
       <c r="A364" s="1">
         <v>360</v>
       </c>
@@ -18895,7 +19284,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="33">
+    <row r="365" ht="29.75" spans="1:7">
       <c r="A365" s="1">
         <v>361</v>
       </c>
@@ -18915,7 +19304,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" ht="15.25" spans="1:7">
       <c r="A366" s="1">
         <v>362</v>
       </c>
@@ -18935,7 +19324,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="33">
+    <row r="367" ht="38.25" spans="1:7">
       <c r="A367" s="1">
         <v>363</v>
       </c>
@@ -18955,7 +19344,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="53.25">
+    <row r="368" ht="63.25" spans="1:7">
       <c r="A368" s="1">
         <v>364</v>
       </c>
@@ -18975,7 +19364,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="33">
+    <row r="369" ht="29.75" spans="1:7">
       <c r="A369" s="1">
         <v>365</v>
       </c>
@@ -18995,7 +19384,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" ht="15.25" spans="1:7">
       <c r="A370" s="1">
         <v>366</v>
       </c>
@@ -19015,7 +19404,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="18.75" customHeight="1">
+    <row r="371" ht="18.75" customHeight="1" spans="1:7">
       <c r="A371" s="1">
         <v>367</v>
       </c>
@@ -19035,7 +19424,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="49.5">
+    <row r="372" ht="44.25" spans="1:7">
       <c r="A372" s="1">
         <v>368</v>
       </c>
@@ -19055,7 +19444,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" ht="15.25" spans="1:7">
       <c r="A373" s="1">
         <v>369</v>
       </c>
@@ -19075,7 +19464,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" ht="15.25" spans="1:7">
       <c r="A374" s="1">
         <v>370</v>
       </c>
@@ -19095,7 +19484,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" ht="15.25" spans="1:7">
       <c r="A375" s="1">
         <v>371</v>
       </c>
@@ -19115,7 +19504,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" ht="15.25" spans="1:7">
       <c r="A376" s="1">
         <v>372</v>
       </c>
@@ -19135,7 +19524,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" ht="15.25" spans="1:7">
       <c r="A377" s="1">
         <v>373</v>
       </c>
@@ -19155,7 +19544,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="33">
+    <row r="378" ht="29.75" spans="1:7">
       <c r="A378" s="1">
         <v>374</v>
       </c>
@@ -19175,7 +19564,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="40.5">
+    <row r="379" ht="38.25" spans="1:7">
       <c r="A379" s="1">
         <v>375</v>
       </c>
@@ -19192,7 +19581,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" ht="15.25" spans="1:7">
       <c r="A380" s="1">
         <v>376</v>
       </c>
@@ -19207,7 +19596,7 @@
       </c>
       <c r="G380" s="2"/>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" ht="15.25" spans="1:7">
       <c r="A381" s="1">
         <v>377</v>
       </c>
@@ -19222,7 +19611,7 @@
       </c>
       <c r="G381" s="2"/>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" ht="15.25" spans="1:7">
       <c r="A382" s="1">
         <v>378</v>
       </c>
@@ -19237,7 +19626,7 @@
       </c>
       <c r="G382" s="2"/>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" ht="15.25" spans="1:7">
       <c r="A383" s="1">
         <v>379</v>
       </c>
@@ -19252,7 +19641,7 @@
       </c>
       <c r="G383" s="2"/>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" ht="15.25" spans="1:7">
       <c r="A384" s="1">
         <v>380</v>
       </c>
@@ -19267,7 +19656,7 @@
       </c>
       <c r="G384" s="2"/>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" ht="15.25" spans="1:7">
       <c r="A385" s="1">
         <v>381</v>
       </c>
@@ -19282,7 +19671,7 @@
       </c>
       <c r="G385" s="2"/>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" ht="15.25" spans="1:7">
       <c r="A386" s="1">
         <v>382</v>
       </c>
@@ -19297,7 +19686,7 @@
       </c>
       <c r="G386" s="2"/>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" ht="15.25" spans="1:7">
       <c r="A387" s="1">
         <v>383</v>
       </c>
@@ -19312,7 +19701,7 @@
       </c>
       <c r="G387" s="2"/>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" ht="15.25" spans="1:7">
       <c r="A388" s="1">
         <v>384</v>
       </c>
@@ -19327,7 +19716,7 @@
       </c>
       <c r="G388" s="2"/>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" ht="15.25" spans="1:7">
       <c r="A389" s="1">
         <v>385</v>
       </c>
@@ -19342,7 +19731,7 @@
       </c>
       <c r="G389" s="2"/>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" ht="15.25" spans="1:7">
       <c r="A390" s="1">
         <v>386</v>
       </c>
@@ -19357,7 +19746,7 @@
       </c>
       <c r="G390" s="2"/>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" ht="15.25" spans="1:7">
       <c r="A391" s="1">
         <v>387</v>
       </c>
@@ -19372,7 +19761,7 @@
       </c>
       <c r="G391" s="2"/>
     </row>
-    <row r="392" spans="1:7" ht="40.5">
+    <row r="392" ht="38.25" spans="1:7">
       <c r="A392" s="1">
         <v>388</v>
       </c>
@@ -19389,7 +19778,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="27.75">
+    <row r="393" ht="25.75" spans="1:7">
       <c r="A393" s="1">
         <v>389</v>
       </c>
@@ -19406,7 +19795,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="40.5">
+    <row r="394" ht="38.25" spans="1:7">
       <c r="A394" s="1">
         <v>390</v>
       </c>
@@ -19423,7 +19812,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" ht="15.25" spans="1:7">
       <c r="A395" s="1">
         <v>391</v>
       </c>
@@ -19436,7 +19825,7 @@
       </c>
       <c r="G395" s="2"/>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" ht="15.25" spans="1:7">
       <c r="A396" s="1">
         <v>392</v>
       </c>
@@ -19449,7 +19838,7 @@
       </c>
       <c r="G396" s="2"/>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" ht="15.25" spans="1:7">
       <c r="A397" s="1">
         <v>393</v>
       </c>
@@ -19466,7 +19855,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" ht="15.25" spans="1:7">
       <c r="A398" s="1">
         <v>394</v>
       </c>
@@ -19483,7 +19872,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" ht="15.25" spans="1:7">
       <c r="A399" s="1">
         <v>395</v>
       </c>
@@ -19500,7 +19889,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" ht="15.25" spans="1:7">
       <c r="A400" s="1">
         <v>396</v>
       </c>
@@ -19517,7 +19906,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" ht="15.25" spans="1:7">
       <c r="A401" s="1">
         <v>397</v>
       </c>
@@ -19534,7 +19923,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="49.5">
+    <row r="402" ht="44.25" spans="1:7">
       <c r="A402" s="1">
         <v>398</v>
       </c>
@@ -19551,7 +19940,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" ht="15.25" spans="1:7">
       <c r="A403" s="1">
         <v>399</v>
       </c>
@@ -19568,7 +19957,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" ht="15.25" spans="1:7">
       <c r="A404" s="1">
         <v>400</v>
       </c>
@@ -19585,7 +19974,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" ht="15.25" spans="1:7">
       <c r="A405" s="1">
         <v>401</v>
       </c>
@@ -19605,7 +19994,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" ht="15.25" spans="1:7">
       <c r="A406" s="1">
         <v>402</v>
       </c>
@@ -19622,7 +20011,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" ht="15.25" spans="1:7">
       <c r="A407" s="1">
         <v>403</v>
       </c>
@@ -19639,7 +20028,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" ht="15.25" spans="1:7">
       <c r="A408" s="1">
         <v>404</v>
       </c>
@@ -19656,7 +20045,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" ht="15.25" spans="1:7">
       <c r="A409" s="1">
         <v>405</v>
       </c>
@@ -19673,7 +20062,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" ht="15.25" spans="1:4">
       <c r="A410" s="40">
         <v>406</v>
       </c>
@@ -19687,7 +20076,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" ht="15.25" spans="1:7">
       <c r="A411" s="42">
         <v>407</v>
       </c>
@@ -19708,7 +20097,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" ht="15.25" spans="1:7">
       <c r="A412" s="42">
         <v>408</v>
       </c>
@@ -19729,7 +20118,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" ht="15.25" spans="1:7">
       <c r="A413" s="42">
         <v>409</v>
       </c>
@@ -19750,7 +20139,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" ht="15.25" spans="1:7">
       <c r="A414" s="42">
         <v>410</v>
       </c>
@@ -19771,7 +20160,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" ht="15.25" spans="1:7">
       <c r="A415" s="42">
         <v>411</v>
       </c>
@@ -19792,7 +20181,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" ht="15.25" spans="1:7">
       <c r="A416" s="42">
         <v>412</v>
       </c>
@@ -19813,7 +20202,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" ht="15.25" spans="1:7">
       <c r="A417" s="42">
         <v>413</v>
       </c>
@@ -19834,7 +20223,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" ht="15.25" spans="1:7">
       <c r="A418" s="42">
         <v>414</v>
       </c>
@@ -19855,7 +20244,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" ht="15.25" spans="1:7">
       <c r="A419" s="42">
         <v>415</v>
       </c>
@@ -19876,7 +20265,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" ht="15.25" spans="1:7">
       <c r="A420" s="42">
         <v>416</v>
       </c>
@@ -20029,19 +20418,19 @@
         <v>1918</v>
       </c>
       <c r="C427" s="39" t="s">
-        <v>1948</v>
+        <v>1919</v>
       </c>
       <c r="D427" s="39" t="s">
-        <v>1949</v>
+        <v>1920</v>
       </c>
       <c r="E427" s="39" t="s">
-        <v>1948</v>
+        <v>1919</v>
       </c>
       <c r="F427" s="39" t="s">
-        <v>1948</v>
+        <v>1919</v>
       </c>
       <c r="G427" s="39" t="s">
-        <v>1948</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -20049,22 +20438,22 @@
         <v>424</v>
       </c>
       <c r="B428" s="39" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="C428" s="39" t="s">
-        <v>1950</v>
+        <v>1922</v>
       </c>
       <c r="D428" s="39" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="E428" s="39" t="s">
-        <v>1950</v>
+        <v>1922</v>
       </c>
       <c r="F428" s="39" t="s">
-        <v>1950</v>
+        <v>1922</v>
       </c>
       <c r="G428" s="39" t="s">
-        <v>1950</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -20072,22 +20461,22 @@
         <v>425</v>
       </c>
       <c r="B429" s="39" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="C429" s="39" t="s">
-        <v>1951</v>
+        <v>1925</v>
       </c>
       <c r="D429" s="39" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="E429" s="39" t="s">
-        <v>1951</v>
+        <v>1925</v>
       </c>
       <c r="F429" s="39" t="s">
-        <v>1951</v>
+        <v>1925</v>
       </c>
       <c r="G429" s="39" t="s">
-        <v>1951</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -20095,7 +20484,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="39" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="C430" s="39" t="s">
         <v>138</v>
@@ -20118,22 +20507,22 @@
         <v>427</v>
       </c>
       <c r="B431" s="39" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="C431" s="39" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="D431" s="39" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="E431" s="39" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="F431" s="39" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="G431" s="39" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -20141,22 +20530,22 @@
         <v>428</v>
       </c>
       <c r="B432" s="39" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="C432" s="39" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="D432" s="39" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="E432" s="39" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="F432" s="39" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="G432" s="39" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -20164,22 +20553,22 @@
         <v>429</v>
       </c>
       <c r="B433" s="39" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="C433" s="39" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="D433" s="39" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="E433" s="39" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="F433" s="39" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="G433" s="39" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -20187,22 +20576,22 @@
         <v>430</v>
       </c>
       <c r="B434" s="39" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="C434" s="39" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="D434" s="39" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E434" s="39" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="F434" s="39" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="G434" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -20210,22 +20599,22 @@
         <v>431</v>
       </c>
       <c r="B435" s="39" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="C435" s="39" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="D435" s="39" t="s">
-        <v>1937</v>
+        <v>1942</v>
       </c>
       <c r="E435" s="39" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="F435" s="39" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="G435" s="39" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -20233,22 +20622,22 @@
         <v>432</v>
       </c>
       <c r="B436" s="39" t="s">
-        <v>1938</v>
+        <v>1943</v>
       </c>
       <c r="C436" s="45" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="D436" s="39" t="s">
-        <v>1940</v>
+        <v>1945</v>
       </c>
       <c r="E436" s="45" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="F436" s="45" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="G436" s="45" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -20256,22 +20645,22 @@
         <v>433</v>
       </c>
       <c r="B437" s="39" t="s">
-        <v>1941</v>
+        <v>1946</v>
       </c>
       <c r="C437" s="39" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="D437" s="39" t="s">
-        <v>1943</v>
+        <v>1948</v>
       </c>
       <c r="E437" s="39" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="F437" s="39" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="G437" t="s">
-        <v>1942</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -20279,22 +20668,22 @@
         <v>434</v>
       </c>
       <c r="B438" s="39" t="s">
-        <v>1944</v>
+        <v>1949</v>
       </c>
       <c r="C438" s="39" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="D438" s="39" t="s">
-        <v>1946</v>
+        <v>1951</v>
       </c>
       <c r="E438" s="39" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="F438" s="39" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="G438" t="s">
-        <v>1945</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -20302,33 +20691,82 @@
         <v>435</v>
       </c>
       <c r="B439" s="39" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C439" s="39" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D439" s="39" t="s">
         <v>1954</v>
       </c>
-      <c r="C439" s="39" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D439" s="39" t="s">
+      <c r="E439" s="39" t="s">
         <v>1953</v>
       </c>
-      <c r="E439" s="39" t="s">
-        <v>1952</v>
-      </c>
       <c r="F439" s="39" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="G439" s="39" t="s">
-        <v>1952</v>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="440" ht="15.5" spans="1:7">
+      <c r="A440">
+        <v>436</v>
+      </c>
+      <c r="B440" s="46" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C440" s="47" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D440" s="48" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E440" s="47" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F440" s="47" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G440" s="47" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="441" ht="15.5" spans="1:7">
+      <c r="A441">
+        <v>437</v>
+      </c>
+      <c r="B441" s="46" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C441" s="49" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D441" s="50" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E441" s="49" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F441" s="49" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G441" s="49" t="s">
+        <v>1959</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A440:A441">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B99:B183 B1468:B1469 B1471:B1472 B1481:B1482 B1499:B1500 B1505:B1506 B1508:B1509">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(COUNTIF($B$1:$B$4,B1)+COUNTIF(#REF!,B1)+COUNTIF($B$5:$B$21,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>